--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5450516-D47D-458D-8836-D048598F76FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567326B0-A3A1-4BF7-8F9D-CE82AECB344D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ПОКОМ!$A$1:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -880,7 +886,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I562" sqref="I562"/>
+      <selection pane="bottomLeft" activeCell="J563" sqref="J563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17107,8 +17113,12 @@
       <c r="G558" s="12"/>
       <c r="H558" s="11"/>
       <c r="I558" s="12"/>
-      <c r="J558" s="11"/>
-      <c r="K558" s="12"/>
+      <c r="J558" s="11">
+        <v>5600</v>
+      </c>
+      <c r="K558" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L558" s="11"/>
       <c r="M558" s="12"/>
     </row>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567326B0-A3A1-4BF7-8F9D-CE82AECB344D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F20366-8CB3-4A21-88E6-519EF2181AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ПОКОМ!$A$1:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -882,11 +876,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD560"/>
+  <dimension ref="A1:AMD566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J563" sqref="J563"/>
+      <pane ySplit="3" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H562" sqref="H562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17141,8 +17135,12 @@
       <c r="I559" s="12"/>
       <c r="J559" s="11"/>
       <c r="K559" s="12"/>
-      <c r="L559" s="11"/>
-      <c r="M559" s="12"/>
+      <c r="L559" s="11">
+        <v>3600</v>
+      </c>
+      <c r="M559" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
@@ -17155,8 +17153,12 @@
       <c r="C560" s="8">
         <v>45796</v>
       </c>
-      <c r="D560" s="9"/>
-      <c r="E560" s="10"/>
+      <c r="D560" s="9">
+        <v>5500</v>
+      </c>
+      <c r="E560" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F560" s="11"/>
       <c r="G560" s="12"/>
       <c r="H560" s="11"/>
@@ -17166,17 +17168,166 @@
       <c r="L560" s="11"/>
       <c r="M560" s="12"/>
     </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>558</v>
+      </c>
+      <c r="B561" s="7" t="str">
+        <f t="shared" ref="B561:B562" si="54">IF(C561&lt;&gt;"",TEXT(C561,"ДДД"),"")</f>
+        <v>Вт</v>
+      </c>
+      <c r="C561" s="8">
+        <v>45797</v>
+      </c>
+      <c r="D561" s="9">
+        <v>3300</v>
+      </c>
+      <c r="E561" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F561" s="11">
+        <v>3900</v>
+      </c>
+      <c r="G561" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H561" s="11">
+        <f>4200+1500</f>
+        <v>5700</v>
+      </c>
+      <c r="I561" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J561" s="11">
+        <v>6000</v>
+      </c>
+      <c r="K561" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L561" s="11"/>
+      <c r="M561" s="12"/>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>559</v>
+      </c>
+      <c r="B562" s="7" t="str">
+        <f t="shared" si="54"/>
+        <v>Ср</v>
+      </c>
+      <c r="C562" s="8">
+        <v>45798</v>
+      </c>
+      <c r="D562" s="9"/>
+      <c r="E562" s="10"/>
+      <c r="F562" s="11"/>
+      <c r="G562" s="12"/>
+      <c r="H562" s="11"/>
+      <c r="I562" s="12"/>
+      <c r="J562" s="11"/>
+      <c r="K562" s="12"/>
+      <c r="L562" s="11"/>
+      <c r="M562" s="12"/>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>560</v>
+      </c>
+      <c r="B563" s="7" t="str">
+        <f t="shared" ref="B563:B566" si="55">IF(C563&lt;&gt;"",TEXT(C563,"ДДД"),"")</f>
+        <v>Чт</v>
+      </c>
+      <c r="C563" s="8">
+        <v>45799</v>
+      </c>
+      <c r="D563" s="9"/>
+      <c r="E563" s="10"/>
+      <c r="F563" s="11"/>
+      <c r="G563" s="12"/>
+      <c r="H563" s="11"/>
+      <c r="I563" s="12"/>
+      <c r="J563" s="11"/>
+      <c r="K563" s="12"/>
+      <c r="L563" s="11"/>
+      <c r="M563" s="12"/>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>561</v>
+      </c>
+      <c r="B564" s="7" t="str">
+        <f t="shared" si="55"/>
+        <v>Пт</v>
+      </c>
+      <c r="C564" s="8">
+        <v>45800</v>
+      </c>
+      <c r="D564" s="9"/>
+      <c r="E564" s="10"/>
+      <c r="F564" s="11"/>
+      <c r="G564" s="12"/>
+      <c r="H564" s="11"/>
+      <c r="I564" s="12"/>
+      <c r="J564" s="11"/>
+      <c r="K564" s="12"/>
+      <c r="L564" s="11"/>
+      <c r="M564" s="12"/>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>562</v>
+      </c>
+      <c r="B565" s="7" t="str">
+        <f t="shared" si="55"/>
+        <v>Сб</v>
+      </c>
+      <c r="C565" s="8">
+        <v>45801</v>
+      </c>
+      <c r="D565" s="9"/>
+      <c r="E565" s="10"/>
+      <c r="F565" s="11"/>
+      <c r="G565" s="12"/>
+      <c r="H565" s="11"/>
+      <c r="I565" s="12"/>
+      <c r="J565" s="11"/>
+      <c r="K565" s="12"/>
+      <c r="L565" s="11"/>
+      <c r="M565" s="12"/>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>563</v>
+      </c>
+      <c r="B566" s="7" t="str">
+        <f t="shared" si="55"/>
+        <v>Вс</v>
+      </c>
+      <c r="C566" s="8">
+        <v>45802</v>
+      </c>
+      <c r="D566" s="9"/>
+      <c r="E566" s="10"/>
+      <c r="F566" s="11"/>
+      <c r="G566" s="12"/>
+      <c r="H566" s="11"/>
+      <c r="I566" s="12"/>
+      <c r="J566" s="11"/>
+      <c r="K566" s="12"/>
+      <c r="L566" s="11"/>
+      <c r="M566" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E560">
+  <conditionalFormatting sqref="B4:E566">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M560">
+  <conditionalFormatting sqref="B4:M566">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -17208,11 +17359,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O546"/>
+  <dimension ref="A1:O555"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H545" sqref="H545"/>
+      <pane ySplit="3" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E553" sqref="E553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30969,18 +31120,241 @@
       <c r="J546" s="11"/>
       <c r="K546" s="12"/>
     </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>546</v>
+      </c>
+      <c r="B547" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C547" s="8">
+        <v>45796</v>
+      </c>
+      <c r="D547" s="9"/>
+      <c r="E547" s="10"/>
+      <c r="F547" s="11"/>
+      <c r="G547" s="12"/>
+      <c r="H547" s="11"/>
+      <c r="I547" s="12"/>
+      <c r="J547" s="11"/>
+      <c r="K547" s="12"/>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>547</v>
+      </c>
+      <c r="B548" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C548" s="8">
+        <v>45797</v>
+      </c>
+      <c r="D548" s="9">
+        <v>3800</v>
+      </c>
+      <c r="E548" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F548" s="11">
+        <v>2300</v>
+      </c>
+      <c r="G548" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H548" s="11">
+        <v>2800</v>
+      </c>
+      <c r="I548" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J548" s="11">
+        <v>5600</v>
+      </c>
+      <c r="K548" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>548</v>
+      </c>
+      <c r="B549" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C549" s="8">
+        <v>45798</v>
+      </c>
+      <c r="D549" s="9"/>
+      <c r="E549" s="10"/>
+      <c r="F549" s="11"/>
+      <c r="G549" s="12"/>
+      <c r="H549" s="11"/>
+      <c r="I549" s="12"/>
+      <c r="J549" s="11"/>
+      <c r="K549" s="12"/>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>549</v>
+      </c>
+      <c r="B550" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C550" s="8">
+        <v>45799</v>
+      </c>
+      <c r="D550" s="9">
+        <v>2300</v>
+      </c>
+      <c r="E550" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F550" s="11">
+        <v>1300</v>
+      </c>
+      <c r="G550" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H550" s="11"/>
+      <c r="I550" s="12"/>
+      <c r="J550" s="11">
+        <v>3300</v>
+      </c>
+      <c r="K550" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>550</v>
+      </c>
+      <c r="B551" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C551" s="8">
+        <v>45799</v>
+      </c>
+      <c r="D551" s="9">
+        <v>300</v>
+      </c>
+      <c r="E551" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F551" s="11">
+        <v>200</v>
+      </c>
+      <c r="G551" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H551" s="11">
+        <v>100</v>
+      </c>
+      <c r="I551" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J551" s="11">
+        <v>100</v>
+      </c>
+      <c r="K551" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>551</v>
+      </c>
+      <c r="B552" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C552" s="8">
+        <v>45799</v>
+      </c>
+      <c r="D552" s="9">
+        <v>100</v>
+      </c>
+      <c r="E552" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F552" s="11">
+        <v>100</v>
+      </c>
+      <c r="G552" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H552" s="11"/>
+      <c r="I552" s="12"/>
+      <c r="J552" s="11"/>
+      <c r="K552" s="12"/>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>552</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C553" s="8">
+        <v>45800</v>
+      </c>
+      <c r="D553" s="9"/>
+      <c r="E553" s="10"/>
+      <c r="F553" s="11"/>
+      <c r="G553" s="12"/>
+      <c r="H553" s="11"/>
+      <c r="I553" s="12"/>
+      <c r="J553" s="11"/>
+      <c r="K553" s="12"/>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>553</v>
+      </c>
+      <c r="B554" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C554" s="8">
+        <v>45801</v>
+      </c>
+      <c r="D554" s="9"/>
+      <c r="E554" s="10"/>
+      <c r="F554" s="11"/>
+      <c r="G554" s="12"/>
+      <c r="H554" s="11"/>
+      <c r="I554" s="12"/>
+      <c r="J554" s="11"/>
+      <c r="K554" s="12"/>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>554</v>
+      </c>
+      <c r="B555" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C555" s="8">
+        <v>45802</v>
+      </c>
+      <c r="D555" s="9"/>
+      <c r="E555" s="10"/>
+      <c r="F555" s="11"/>
+      <c r="G555" s="12"/>
+      <c r="H555" s="11"/>
+      <c r="I555" s="12"/>
+      <c r="J555" s="11"/>
+      <c r="K555" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E546">
+  <conditionalFormatting sqref="B4:E555">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K546 B374:C546">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K555 B374:C555">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F20366-8CB3-4A21-88E6-519EF2181AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738D4453-C425-40EC-A1A5-A5EBFD5A81CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -876,11 +876,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD566"/>
+  <dimension ref="A1:AMD567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H562" sqref="H562"/>
+      <selection pane="bottomLeft" activeCell="J567" sqref="J567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17222,32 +17222,56 @@
       <c r="E562" s="10"/>
       <c r="F562" s="11"/>
       <c r="G562" s="12"/>
-      <c r="H562" s="11"/>
-      <c r="I562" s="12"/>
+      <c r="H562" s="11">
+        <v>13400</v>
+      </c>
+      <c r="I562" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="J562" s="11"/>
       <c r="K562" s="12"/>
-      <c r="L562" s="11"/>
-      <c r="M562" s="12"/>
+      <c r="L562" s="11">
+        <v>1800</v>
+      </c>
+      <c r="M562" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>560</v>
       </c>
       <c r="B563" s="7" t="str">
-        <f t="shared" ref="B563:B566" si="55">IF(C563&lt;&gt;"",TEXT(C563,"ДДД"),"")</f>
+        <f t="shared" ref="B563:B567" si="55">IF(C563&lt;&gt;"",TEXT(C563,"ДДД"),"")</f>
         <v>Чт</v>
       </c>
       <c r="C563" s="8">
         <v>45799</v>
       </c>
-      <c r="D563" s="9"/>
-      <c r="E563" s="10"/>
-      <c r="F563" s="11"/>
-      <c r="G563" s="12"/>
-      <c r="H563" s="11"/>
-      <c r="I563" s="12"/>
-      <c r="J563" s="11"/>
-      <c r="K563" s="12"/>
+      <c r="D563" s="9">
+        <v>1800</v>
+      </c>
+      <c r="E563" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F563" s="11">
+        <v>2900</v>
+      </c>
+      <c r="G563" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H563" s="11">
+        <v>12300</v>
+      </c>
+      <c r="I563" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J563" s="11">
+        <v>5100</v>
+      </c>
+      <c r="K563" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L563" s="11"/>
       <c r="M563" s="12"/>
     </row>
@@ -17256,20 +17280,36 @@
         <v>561</v>
       </c>
       <c r="B564" s="7" t="str">
-        <f t="shared" si="55"/>
-        <v>Пт</v>
+        <f t="shared" ref="B564" si="56">IF(C564&lt;&gt;"",TEXT(C564,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C564" s="8">
-        <v>45800</v>
-      </c>
-      <c r="D564" s="9"/>
-      <c r="E564" s="10"/>
-      <c r="F564" s="11"/>
-      <c r="G564" s="12"/>
-      <c r="H564" s="11"/>
-      <c r="I564" s="12"/>
-      <c r="J564" s="11"/>
-      <c r="K564" s="12"/>
+        <v>45799</v>
+      </c>
+      <c r="D564" s="11">
+        <v>4600</v>
+      </c>
+      <c r="E564" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F564" s="11">
+        <v>2100</v>
+      </c>
+      <c r="G564" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H564" s="11">
+        <v>5100</v>
+      </c>
+      <c r="I564" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J564" s="11">
+        <v>4600</v>
+      </c>
+      <c r="K564" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="L564" s="11"/>
       <c r="M564" s="12"/>
     </row>
@@ -17279,10 +17319,10 @@
       </c>
       <c r="B565" s="7" t="str">
         <f t="shared" si="55"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C565" s="8">
-        <v>45801</v>
+        <v>45800</v>
       </c>
       <c r="D565" s="9"/>
       <c r="E565" s="10"/>
@@ -17301,10 +17341,10 @@
       </c>
       <c r="B566" s="7" t="str">
         <f t="shared" si="55"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C566" s="8">
-        <v>45802</v>
+        <v>45801</v>
       </c>
       <c r="D566" s="9"/>
       <c r="E566" s="10"/>
@@ -17317,17 +17357,39 @@
       <c r="L566" s="11"/>
       <c r="M566" s="12"/>
     </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>564</v>
+      </c>
+      <c r="B567" s="7" t="str">
+        <f t="shared" si="55"/>
+        <v>Вс</v>
+      </c>
+      <c r="C567" s="8">
+        <v>45802</v>
+      </c>
+      <c r="D567" s="9"/>
+      <c r="E567" s="10"/>
+      <c r="F567" s="11"/>
+      <c r="G567" s="12"/>
+      <c r="H567" s="11"/>
+      <c r="I567" s="12"/>
+      <c r="J567" s="11"/>
+      <c r="K567" s="12"/>
+      <c r="L567" s="11"/>
+      <c r="M567" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E566">
+  <conditionalFormatting sqref="B4:E567">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M566">
+  <conditionalFormatting sqref="B4:M567">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738D4453-C425-40EC-A1A5-A5EBFD5A81CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF410B4D-E134-4C85-8178-FCD02D89214B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ПОКОМ!$A$1:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -880,7 +886,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J567" sqref="J567"/>
+      <selection pane="bottomLeft" activeCell="H569" sqref="H569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17352,8 +17358,12 @@
       <c r="G566" s="12"/>
       <c r="H566" s="11"/>
       <c r="I566" s="12"/>
-      <c r="J566" s="11"/>
-      <c r="K566" s="12"/>
+      <c r="J566" s="11">
+        <v>4000</v>
+      </c>
+      <c r="K566" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L566" s="11"/>
       <c r="M566" s="12"/>
     </row>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF410B4D-E134-4C85-8178-FCD02D89214B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ECE6BD-1EA9-4743-88BF-E987D6F8B378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -882,11 +882,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD567"/>
+  <dimension ref="A1:AMD572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H569" sqref="H569"/>
+      <pane ySplit="3" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M568" sqref="M568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17386,20 +17386,134 @@
       <c r="I567" s="12"/>
       <c r="J567" s="11"/>
       <c r="K567" s="12"/>
-      <c r="L567" s="11"/>
-      <c r="M567" s="12"/>
+      <c r="L567" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M567" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>565</v>
+      </c>
+      <c r="B568" s="7" t="str">
+        <f t="shared" ref="B568:B572" si="57">IF(C568&lt;&gt;"",TEXT(C568,"ДДД"),"")</f>
+        <v>Пн</v>
+      </c>
+      <c r="C568" s="8">
+        <v>45803</v>
+      </c>
+      <c r="D568" s="9"/>
+      <c r="E568" s="10"/>
+      <c r="F568" s="11"/>
+      <c r="G568" s="12"/>
+      <c r="H568" s="11"/>
+      <c r="I568" s="12"/>
+      <c r="J568" s="11"/>
+      <c r="K568" s="12"/>
+      <c r="L568" s="11"/>
+      <c r="M568" s="12"/>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>566</v>
+      </c>
+      <c r="B569" s="7" t="str">
+        <f t="shared" si="57"/>
+        <v>Вт</v>
+      </c>
+      <c r="C569" s="8">
+        <v>45804</v>
+      </c>
+      <c r="D569" s="9"/>
+      <c r="E569" s="10"/>
+      <c r="F569" s="11"/>
+      <c r="G569" s="12"/>
+      <c r="H569" s="11"/>
+      <c r="I569" s="12"/>
+      <c r="J569" s="11"/>
+      <c r="K569" s="12"/>
+      <c r="L569" s="11"/>
+      <c r="M569" s="12"/>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>567</v>
+      </c>
+      <c r="B570" s="7" t="str">
+        <f t="shared" si="57"/>
+        <v>Ср</v>
+      </c>
+      <c r="C570" s="8">
+        <v>45805</v>
+      </c>
+      <c r="D570" s="9"/>
+      <c r="E570" s="10"/>
+      <c r="F570" s="11"/>
+      <c r="G570" s="12"/>
+      <c r="H570" s="11"/>
+      <c r="I570" s="12"/>
+      <c r="J570" s="11"/>
+      <c r="K570" s="12"/>
+      <c r="L570" s="11"/>
+      <c r="M570" s="12"/>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>568</v>
+      </c>
+      <c r="B571" s="7" t="str">
+        <f t="shared" si="57"/>
+        <v>Чт</v>
+      </c>
+      <c r="C571" s="8">
+        <v>45806</v>
+      </c>
+      <c r="D571" s="9"/>
+      <c r="E571" s="10"/>
+      <c r="F571" s="11"/>
+      <c r="G571" s="12"/>
+      <c r="H571" s="11"/>
+      <c r="I571" s="12"/>
+      <c r="J571" s="11"/>
+      <c r="K571" s="12"/>
+      <c r="L571" s="11"/>
+      <c r="M571" s="12"/>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>569</v>
+      </c>
+      <c r="B572" s="7" t="str">
+        <f t="shared" si="57"/>
+        <v>Пт</v>
+      </c>
+      <c r="C572" s="8">
+        <v>45807</v>
+      </c>
+      <c r="D572" s="9"/>
+      <c r="E572" s="10"/>
+      <c r="F572" s="11"/>
+      <c r="G572" s="12"/>
+      <c r="H572" s="11"/>
+      <c r="I572" s="12"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="12"/>
+      <c r="L572" s="11"/>
+      <c r="M572" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E567">
+  <conditionalFormatting sqref="B4:E572">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M567">
+  <conditionalFormatting sqref="B4:M572">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ECE6BD-1EA9-4743-88BF-E987D6F8B378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FD60DA-D354-4B43-8B2C-99F78A85637F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -886,7 +886,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M568" sqref="M568"/>
+      <selection pane="bottomLeft" activeCell="H576" sqref="H576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17426,14 +17426,33 @@
       <c r="C569" s="8">
         <v>45804</v>
       </c>
-      <c r="D569" s="9"/>
-      <c r="E569" s="10"/>
-      <c r="F569" s="11"/>
-      <c r="G569" s="12"/>
-      <c r="H569" s="11"/>
-      <c r="I569" s="12"/>
-      <c r="J569" s="11"/>
-      <c r="K569" s="12"/>
+      <c r="D569" s="9">
+        <f>2400+3500</f>
+        <v>5900</v>
+      </c>
+      <c r="E569" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F569" s="11">
+        <v>7900</v>
+      </c>
+      <c r="G569" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H569" s="11">
+        <f>10600+14900</f>
+        <v>25500</v>
+      </c>
+      <c r="I569" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J569" s="11">
+        <f>17200+9500</f>
+        <v>26700</v>
+      </c>
+      <c r="K569" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L569" s="11"/>
       <c r="M569" s="12"/>
     </row>
@@ -17545,11 +17564,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O555"/>
+  <dimension ref="A1:O570"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E553" sqref="E553"/>
+      <pane ySplit="3" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F557" sqref="F557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31529,18 +31548,358 @@
       <c r="J555" s="11"/>
       <c r="K555" s="12"/>
     </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="B556" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C556" s="8">
+        <v>45803</v>
+      </c>
+      <c r="D556" s="9"/>
+      <c r="E556" s="10"/>
+      <c r="F556" s="11"/>
+      <c r="G556" s="12"/>
+      <c r="H556" s="11"/>
+      <c r="I556" s="12"/>
+      <c r="J556" s="11"/>
+      <c r="K556" s="12"/>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="B557" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C557" s="8">
+        <v>45804</v>
+      </c>
+      <c r="D557" s="9">
+        <v>4400</v>
+      </c>
+      <c r="E557" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F557" s="11">
+        <v>3800</v>
+      </c>
+      <c r="G557" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H557" s="11">
+        <v>2100</v>
+      </c>
+      <c r="I557" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J557" s="11">
+        <v>4400</v>
+      </c>
+      <c r="K557" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="B558" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C558" s="8">
+        <v>45805</v>
+      </c>
+      <c r="D558" s="9"/>
+      <c r="E558" s="10"/>
+      <c r="F558" s="11"/>
+      <c r="G558" s="12"/>
+      <c r="H558" s="11"/>
+      <c r="I558" s="12"/>
+      <c r="J558" s="11"/>
+      <c r="K558" s="12"/>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>558</v>
+      </c>
+      <c r="B559" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C559" s="8">
+        <v>45806</v>
+      </c>
+      <c r="D559" s="9">
+        <f>3000+2500</f>
+        <v>5500</v>
+      </c>
+      <c r="E559" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F559" s="11">
+        <f>2700+2300</f>
+        <v>5000</v>
+      </c>
+      <c r="G559" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H559" s="11"/>
+      <c r="I559" s="12"/>
+      <c r="J559" s="11">
+        <f>3100+2600</f>
+        <v>5700</v>
+      </c>
+      <c r="K559" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>559</v>
+      </c>
+      <c r="B560" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C560" s="8">
+        <v>45806</v>
+      </c>
+      <c r="D560" s="9">
+        <v>900</v>
+      </c>
+      <c r="E560" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F560" s="11">
+        <v>500</v>
+      </c>
+      <c r="G560" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H560" s="11"/>
+      <c r="I560" s="12"/>
+      <c r="J560" s="11">
+        <v>100</v>
+      </c>
+      <c r="K560" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>560</v>
+      </c>
+      <c r="B561" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C561" s="8">
+        <v>45806</v>
+      </c>
+      <c r="D561" s="9">
+        <v>300</v>
+      </c>
+      <c r="E561" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F561" s="11">
+        <v>200</v>
+      </c>
+      <c r="G561" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H561" s="11"/>
+      <c r="I561" s="12"/>
+      <c r="J561" s="11">
+        <v>40</v>
+      </c>
+      <c r="K561" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>561</v>
+      </c>
+      <c r="B562" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C562" s="8">
+        <v>45807</v>
+      </c>
+      <c r="D562" s="9"/>
+      <c r="E562" s="10"/>
+      <c r="F562" s="11"/>
+      <c r="G562" s="12"/>
+      <c r="H562" s="11"/>
+      <c r="I562" s="12"/>
+      <c r="J562" s="11"/>
+      <c r="K562" s="12"/>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>562</v>
+      </c>
+      <c r="B563" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C563" s="8">
+        <v>45808</v>
+      </c>
+      <c r="D563" s="9"/>
+      <c r="E563" s="10"/>
+      <c r="F563" s="11"/>
+      <c r="G563" s="12"/>
+      <c r="H563" s="11"/>
+      <c r="I563" s="12"/>
+      <c r="J563" s="11"/>
+      <c r="K563" s="12"/>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>563</v>
+      </c>
+      <c r="B564" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C564" s="8">
+        <v>45809</v>
+      </c>
+      <c r="D564" s="9"/>
+      <c r="E564" s="10"/>
+      <c r="F564" s="11"/>
+      <c r="G564" s="12"/>
+      <c r="H564" s="11"/>
+      <c r="I564" s="12"/>
+      <c r="J564" s="11"/>
+      <c r="K564" s="12"/>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>564</v>
+      </c>
+      <c r="B565" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C565" s="8">
+        <v>45810</v>
+      </c>
+      <c r="D565" s="9"/>
+      <c r="E565" s="10"/>
+      <c r="F565" s="11"/>
+      <c r="G565" s="12"/>
+      <c r="H565" s="11"/>
+      <c r="I565" s="12"/>
+      <c r="J565" s="11"/>
+      <c r="K565" s="12"/>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>565</v>
+      </c>
+      <c r="B566" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C566" s="8">
+        <v>45811</v>
+      </c>
+      <c r="D566" s="9"/>
+      <c r="E566" s="10"/>
+      <c r="F566" s="11"/>
+      <c r="G566" s="12"/>
+      <c r="H566" s="11"/>
+      <c r="I566" s="12"/>
+      <c r="J566" s="11"/>
+      <c r="K566" s="12"/>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>566</v>
+      </c>
+      <c r="B567" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C567" s="8">
+        <v>45812</v>
+      </c>
+      <c r="D567" s="9"/>
+      <c r="E567" s="10"/>
+      <c r="F567" s="11"/>
+      <c r="G567" s="12"/>
+      <c r="H567" s="11"/>
+      <c r="I567" s="12"/>
+      <c r="J567" s="11"/>
+      <c r="K567" s="12"/>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>567</v>
+      </c>
+      <c r="B568" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C568" s="8">
+        <v>45813</v>
+      </c>
+      <c r="D568" s="9"/>
+      <c r="E568" s="10"/>
+      <c r="F568" s="11"/>
+      <c r="G568" s="12"/>
+      <c r="H568" s="11"/>
+      <c r="I568" s="12"/>
+      <c r="J568" s="11"/>
+      <c r="K568" s="12"/>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>568</v>
+      </c>
+      <c r="B569" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C569" s="8">
+        <v>45814</v>
+      </c>
+      <c r="D569" s="9"/>
+      <c r="E569" s="10"/>
+      <c r="F569" s="11"/>
+      <c r="G569" s="12"/>
+      <c r="H569" s="11"/>
+      <c r="I569" s="12"/>
+      <c r="J569" s="11"/>
+      <c r="K569" s="12"/>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>569</v>
+      </c>
+      <c r="B570" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C570" s="8">
+        <v>45815</v>
+      </c>
+      <c r="D570" s="9"/>
+      <c r="E570" s="10"/>
+      <c r="F570" s="11"/>
+      <c r="G570" s="12"/>
+      <c r="H570" s="11"/>
+      <c r="I570" s="12"/>
+      <c r="J570" s="11"/>
+      <c r="K570" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E555">
+  <conditionalFormatting sqref="B4:E570">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K555 B374:C555">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K570 B374:C570">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FD60DA-D354-4B43-8B2C-99F78A85637F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB06023-2AE2-415B-B79B-D1137AB37A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -882,11 +882,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD572"/>
+  <dimension ref="A1:AMD576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H576" sqref="H576"/>
+      <selection pane="bottomLeft" activeCell="I575" sqref="I575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17398,7 +17398,7 @@
         <v>565</v>
       </c>
       <c r="B568" s="7" t="str">
-        <f t="shared" ref="B568:B572" si="57">IF(C568&lt;&gt;"",TEXT(C568,"ДДД"),"")</f>
+        <f t="shared" ref="B568:B573" si="57">IF(C568&lt;&gt;"",TEXT(C568,"ДДД"),"")</f>
         <v>Пн</v>
       </c>
       <c r="C568" s="8">
@@ -17489,14 +17489,31 @@
       <c r="C571" s="8">
         <v>45806</v>
       </c>
-      <c r="D571" s="9"/>
-      <c r="E571" s="10"/>
-      <c r="F571" s="11"/>
-      <c r="G571" s="12"/>
-      <c r="H571" s="11"/>
-      <c r="I571" s="12"/>
-      <c r="J571" s="11"/>
-      <c r="K571" s="12"/>
+      <c r="D571" s="9">
+        <v>3400</v>
+      </c>
+      <c r="E571" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F571" s="11">
+        <v>1200</v>
+      </c>
+      <c r="G571" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H571" s="11">
+        <f>7200+3200</f>
+        <v>10400</v>
+      </c>
+      <c r="I571" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J571" s="11">
+        <v>9100</v>
+      </c>
+      <c r="K571" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L571" s="11"/>
       <c r="M571" s="12"/>
     </row>
@@ -17505,34 +17522,143 @@
         <v>569</v>
       </c>
       <c r="B572" s="7" t="str">
+        <f t="shared" ref="B572" si="58">IF(C572&lt;&gt;"",TEXT(C572,"ДДД"),"")</f>
+        <v>Чт</v>
+      </c>
+      <c r="C572" s="8">
+        <v>45806</v>
+      </c>
+      <c r="D572" s="9">
+        <f>3300+2600</f>
+        <v>5900</v>
+      </c>
+      <c r="E572" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F572" s="11">
+        <v>7600</v>
+      </c>
+      <c r="G572" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H572" s="11">
+        <v>9300</v>
+      </c>
+      <c r="I572" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J572" s="11">
+        <v>11900</v>
+      </c>
+      <c r="K572" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L572" s="11"/>
+      <c r="M572" s="12"/>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>570</v>
+      </c>
+      <c r="B573" s="7" t="str">
         <f t="shared" si="57"/>
         <v>Пт</v>
       </c>
-      <c r="C572" s="8">
+      <c r="C573" s="8">
         <v>45807</v>
       </c>
-      <c r="D572" s="9"/>
-      <c r="E572" s="10"/>
-      <c r="F572" s="11"/>
-      <c r="G572" s="12"/>
-      <c r="H572" s="11"/>
-      <c r="I572" s="12"/>
-      <c r="J572" s="11"/>
-      <c r="K572" s="12"/>
-      <c r="L572" s="11"/>
-      <c r="M572" s="12"/>
+      <c r="D573" s="9"/>
+      <c r="E573" s="10"/>
+      <c r="F573" s="11"/>
+      <c r="G573" s="12"/>
+      <c r="H573" s="11"/>
+      <c r="I573" s="12"/>
+      <c r="J573" s="11">
+        <v>5600</v>
+      </c>
+      <c r="K573" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L573" s="11"/>
+      <c r="M573" s="12"/>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>571</v>
+      </c>
+      <c r="B574" s="7" t="str">
+        <f t="shared" ref="B574:B576" si="59">IF(C574&lt;&gt;"",TEXT(C574,"ДДД"),"")</f>
+        <v>Сб</v>
+      </c>
+      <c r="C574" s="8">
+        <v>45808</v>
+      </c>
+      <c r="D574" s="9"/>
+      <c r="E574" s="10"/>
+      <c r="F574" s="11"/>
+      <c r="G574" s="12"/>
+      <c r="H574" s="11"/>
+      <c r="I574" s="12"/>
+      <c r="J574" s="11"/>
+      <c r="K574" s="12"/>
+      <c r="L574" s="11"/>
+      <c r="M574" s="12"/>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>572</v>
+      </c>
+      <c r="B575" s="7" t="str">
+        <f t="shared" si="59"/>
+        <v>Вс</v>
+      </c>
+      <c r="C575" s="8">
+        <v>45809</v>
+      </c>
+      <c r="D575" s="9"/>
+      <c r="E575" s="10"/>
+      <c r="F575" s="11"/>
+      <c r="G575" s="12"/>
+      <c r="H575" s="11"/>
+      <c r="I575" s="12"/>
+      <c r="J575" s="11"/>
+      <c r="K575" s="12"/>
+      <c r="L575" s="11"/>
+      <c r="M575" s="12"/>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>573</v>
+      </c>
+      <c r="B576" s="7" t="str">
+        <f t="shared" si="59"/>
+        <v>Пн</v>
+      </c>
+      <c r="C576" s="8">
+        <v>45810</v>
+      </c>
+      <c r="D576" s="9"/>
+      <c r="E576" s="10"/>
+      <c r="F576" s="11"/>
+      <c r="G576" s="12"/>
+      <c r="H576" s="11"/>
+      <c r="I576" s="12"/>
+      <c r="J576" s="11"/>
+      <c r="K576" s="12"/>
+      <c r="L576" s="11"/>
+      <c r="M576" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E572">
+  <conditionalFormatting sqref="B4:E576">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M572">
+  <conditionalFormatting sqref="B4:M576">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB06023-2AE2-415B-B79B-D1137AB37A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D170858-CB9B-4643-AF30-F6C04A972251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,8 +885,8 @@
   <dimension ref="A1:AMD576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I575" sqref="I575"/>
+      <pane ySplit="3" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I581" sqref="I581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17623,8 +17623,12 @@
       <c r="I575" s="12"/>
       <c r="J575" s="11"/>
       <c r="K575" s="12"/>
-      <c r="L575" s="11"/>
-      <c r="M575" s="12"/>
+      <c r="L575" s="11">
+        <v>2800</v>
+      </c>
+      <c r="M575" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" s="1">

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D170858-CB9B-4643-AF30-F6C04A972251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140339C8-2383-4C01-89F8-67720D1AABDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -402,7 +402,21 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -884,9 +898,9 @@
   </sheetPr>
   <dimension ref="A1:AMD576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I581" sqref="I581"/>
+      <selection pane="bottomLeft" activeCell="L581" sqref="L581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17658,32 +17672,32 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:E576">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:M576">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="10" priority="19">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="8" priority="18">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17694,11 +17708,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O570"/>
+  <dimension ref="A1:O572"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F557" sqref="F557"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H575" sqref="H575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31933,14 +31947,26 @@
       <c r="C566" s="8">
         <v>45811</v>
       </c>
-      <c r="D566" s="9"/>
-      <c r="E566" s="10"/>
-      <c r="F566" s="11"/>
-      <c r="G566" s="12"/>
+      <c r="D566" s="9">
+        <v>5100</v>
+      </c>
+      <c r="E566" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F566" s="11">
+        <v>2900</v>
+      </c>
+      <c r="G566" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H566" s="11"/>
       <c r="I566" s="12"/>
-      <c r="J566" s="11"/>
-      <c r="K566" s="12"/>
+      <c r="J566" s="11">
+        <v>4600</v>
+      </c>
+      <c r="K566" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
@@ -31971,52 +31997,122 @@
       <c r="C568" s="8">
         <v>45813</v>
       </c>
-      <c r="D568" s="9"/>
-      <c r="E568" s="10"/>
+      <c r="D568" s="9">
+        <v>5000</v>
+      </c>
+      <c r="E568" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F568" s="11"/>
       <c r="G568" s="12"/>
-      <c r="H568" s="11"/>
-      <c r="I568" s="12"/>
-      <c r="J568" s="11"/>
-      <c r="K568" s="12"/>
+      <c r="H568" s="11">
+        <v>1300</v>
+      </c>
+      <c r="I568" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J568" s="11">
+        <v>4600</v>
+      </c>
+      <c r="K568" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>568</v>
       </c>
       <c r="B569" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C569" s="8">
-        <v>45814</v>
-      </c>
-      <c r="D569" s="9"/>
-      <c r="E569" s="10"/>
-      <c r="F569" s="11"/>
-      <c r="G569" s="12"/>
+        <v>45813</v>
+      </c>
+      <c r="D569" s="9">
+        <v>1300</v>
+      </c>
+      <c r="E569" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F569" s="11">
+        <v>600</v>
+      </c>
+      <c r="G569" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="H569" s="11"/>
       <c r="I569" s="12"/>
-      <c r="J569" s="11"/>
-      <c r="K569" s="12"/>
+      <c r="J569" s="11">
+        <v>200</v>
+      </c>
+      <c r="K569" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>569</v>
       </c>
       <c r="B570" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C570" s="8">
-        <v>45815</v>
-      </c>
-      <c r="D570" s="9"/>
-      <c r="E570" s="10"/>
-      <c r="F570" s="11"/>
-      <c r="G570" s="12"/>
+        <v>45813</v>
+      </c>
+      <c r="D570" s="9">
+        <v>500</v>
+      </c>
+      <c r="E570" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F570" s="11">
+        <v>200</v>
+      </c>
+      <c r="G570" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="H570" s="11"/>
       <c r="I570" s="12"/>
       <c r="J570" s="11"/>
       <c r="K570" s="12"/>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>570</v>
+      </c>
+      <c r="B571" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C571" s="8">
+        <v>45814</v>
+      </c>
+      <c r="D571" s="9"/>
+      <c r="E571" s="10"/>
+      <c r="F571" s="11"/>
+      <c r="G571" s="12"/>
+      <c r="H571" s="11"/>
+      <c r="I571" s="12"/>
+      <c r="J571" s="11"/>
+      <c r="K571" s="12"/>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>571</v>
+      </c>
+      <c r="B572" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C572" s="8">
+        <v>45815</v>
+      </c>
+      <c r="D572" s="9"/>
+      <c r="E572" s="10"/>
+      <c r="F572" s="11"/>
+      <c r="G572" s="12"/>
+      <c r="H572" s="11"/>
+      <c r="I572" s="12"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32024,43 +32120,43 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E570">
-    <cfRule type="expression" dxfId="7" priority="2">
+  <conditionalFormatting sqref="B4:E572">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K570 B374:C570">
-    <cfRule type="expression" dxfId="6" priority="3">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K572 B374:C572">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="5" priority="24">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="4" priority="37">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="3" priority="41">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140339C8-2383-4C01-89F8-67720D1AABDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E0F0D-0ED6-49A6-A3B6-51605A1CA248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -402,21 +402,7 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -896,11 +882,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD576"/>
+  <dimension ref="A1:AMD579"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L581" sqref="L581"/>
+      <selection pane="bottomLeft" activeCell="I585" sqref="I585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17666,38 +17652,122 @@
       <c r="L576" s="11"/>
       <c r="M576" s="12"/>
     </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>574</v>
+      </c>
+      <c r="B577" s="7" t="str">
+        <f t="shared" ref="B577:B579" si="60">IF(C577&lt;&gt;"",TEXT(C577,"ДДД"),"")</f>
+        <v>Вт</v>
+      </c>
+      <c r="C577" s="8">
+        <v>45811</v>
+      </c>
+      <c r="D577" s="9">
+        <v>5900</v>
+      </c>
+      <c r="E577" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F577" s="11">
+        <v>2200</v>
+      </c>
+      <c r="G577" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H577" s="11">
+        <f>9500+8900</f>
+        <v>18400</v>
+      </c>
+      <c r="I577" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J577" s="11">
+        <f>12200+7400</f>
+        <v>19600</v>
+      </c>
+      <c r="K577" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L577" s="11"/>
+      <c r="M577" s="12"/>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>575</v>
+      </c>
+      <c r="B578" s="7" t="str">
+        <f t="shared" si="60"/>
+        <v>Ср</v>
+      </c>
+      <c r="C578" s="8">
+        <v>45812</v>
+      </c>
+      <c r="D578" s="9"/>
+      <c r="E578" s="10"/>
+      <c r="F578" s="11"/>
+      <c r="G578" s="12"/>
+      <c r="H578" s="11"/>
+      <c r="I578" s="12"/>
+      <c r="J578" s="11"/>
+      <c r="K578" s="12"/>
+      <c r="L578" s="11"/>
+      <c r="M578" s="12"/>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>576</v>
+      </c>
+      <c r="B579" s="7" t="str">
+        <f t="shared" si="60"/>
+        <v>Чт</v>
+      </c>
+      <c r="C579" s="8">
+        <v>45813</v>
+      </c>
+      <c r="D579" s="9"/>
+      <c r="E579" s="10"/>
+      <c r="F579" s="11"/>
+      <c r="G579" s="12"/>
+      <c r="H579" s="11"/>
+      <c r="I579" s="12"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="12"/>
+      <c r="L579" s="11"/>
+      <c r="M579" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E576">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B4:E579">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M576">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="B4:M579">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="12" priority="19">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17710,7 +17780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O572"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H575" sqref="H575"/>
     </sheetView>
@@ -32121,42 +32191,42 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E572">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K572 B374:C572">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="5" priority="24">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="4" priority="37">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="3" priority="41">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E0F0D-0ED6-49A6-A3B6-51605A1CA248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B4E23-3C28-4D96-895A-CF4E5F9B1079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -882,11 +882,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD579"/>
+  <dimension ref="A1:AMD584"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I585" sqref="I585"/>
+      <pane ySplit="3" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K587" sqref="K587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17725,28 +17725,170 @@
       <c r="C579" s="8">
         <v>45813</v>
       </c>
-      <c r="D579" s="9"/>
-      <c r="E579" s="10"/>
-      <c r="F579" s="11"/>
-      <c r="G579" s="12"/>
-      <c r="H579" s="11"/>
-      <c r="I579" s="12"/>
-      <c r="J579" s="11"/>
-      <c r="K579" s="12"/>
+      <c r="D579" s="9">
+        <v>4300</v>
+      </c>
+      <c r="E579" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F579" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G579" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H579" s="11">
+        <v>6100</v>
+      </c>
+      <c r="I579" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J579" s="11">
+        <v>4600</v>
+      </c>
+      <c r="K579" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L579" s="11"/>
       <c r="M579" s="12"/>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>577</v>
+      </c>
+      <c r="B580" s="7" t="str">
+        <f t="shared" ref="B580" si="61">IF(C580&lt;&gt;"",TEXT(C580,"ДДД"),"")</f>
+        <v>Чт</v>
+      </c>
+      <c r="C580" s="8">
+        <v>45813</v>
+      </c>
+      <c r="D580" s="9">
+        <v>13700</v>
+      </c>
+      <c r="E580" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F580" s="11">
+        <v>3800</v>
+      </c>
+      <c r="G580" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H580" s="11">
+        <v>3100</v>
+      </c>
+      <c r="I580" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J580" s="11">
+        <v>4800</v>
+      </c>
+      <c r="K580" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L580" s="11"/>
+      <c r="M580" s="12"/>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>578</v>
+      </c>
+      <c r="B581" s="7" t="str">
+        <f t="shared" ref="B581:B584" si="62">IF(C581&lt;&gt;"",TEXT(C581,"ДДД"),"")</f>
+        <v>Пт</v>
+      </c>
+      <c r="C581" s="8">
+        <v>45814</v>
+      </c>
+      <c r="D581" s="9"/>
+      <c r="E581" s="10"/>
+      <c r="F581" s="11"/>
+      <c r="G581" s="12"/>
+      <c r="H581" s="11"/>
+      <c r="I581" s="12"/>
+      <c r="J581" s="11"/>
+      <c r="K581" s="12"/>
+      <c r="L581" s="11"/>
+      <c r="M581" s="12"/>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>579</v>
+      </c>
+      <c r="B582" s="7" t="str">
+        <f t="shared" si="62"/>
+        <v>Сб</v>
+      </c>
+      <c r="C582" s="8">
+        <v>45815</v>
+      </c>
+      <c r="D582" s="9"/>
+      <c r="E582" s="10"/>
+      <c r="F582" s="11"/>
+      <c r="G582" s="12"/>
+      <c r="H582" s="11"/>
+      <c r="I582" s="12"/>
+      <c r="J582" s="11"/>
+      <c r="K582" s="12"/>
+      <c r="L582" s="11"/>
+      <c r="M582" s="12"/>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
+        <v>580</v>
+      </c>
+      <c r="B583" s="7" t="str">
+        <f t="shared" si="62"/>
+        <v>Вс</v>
+      </c>
+      <c r="C583" s="8">
+        <v>45816</v>
+      </c>
+      <c r="D583" s="9"/>
+      <c r="E583" s="10"/>
+      <c r="F583" s="11"/>
+      <c r="G583" s="12"/>
+      <c r="H583" s="11"/>
+      <c r="I583" s="12"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="12"/>
+      <c r="L583" s="11"/>
+      <c r="M583" s="12"/>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>581</v>
+      </c>
+      <c r="B584" s="7" t="str">
+        <f t="shared" si="62"/>
+        <v>Пн</v>
+      </c>
+      <c r="C584" s="8">
+        <v>45817</v>
+      </c>
+      <c r="D584" s="9"/>
+      <c r="E584" s="10"/>
+      <c r="F584" s="11"/>
+      <c r="G584" s="12"/>
+      <c r="H584" s="11"/>
+      <c r="I584" s="12"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="12"/>
+      <c r="L584" s="11"/>
+      <c r="M584" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E579">
+  <conditionalFormatting sqref="B4:E584">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M579">
+  <conditionalFormatting sqref="B4:M584">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B4E23-3C28-4D96-895A-CF4E5F9B1079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1D035A-71AA-4933-856B-5855144556BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -886,7 +886,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K587" sqref="K587"/>
+      <selection pane="bottomLeft" activeCell="G586" sqref="G586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17853,8 +17853,12 @@
       <c r="I583" s="12"/>
       <c r="J583" s="11"/>
       <c r="K583" s="12"/>
-      <c r="L583" s="11"/>
-      <c r="M583" s="12"/>
+      <c r="L583" s="11">
+        <v>2800</v>
+      </c>
+      <c r="M583" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" s="1">

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1D035A-71AA-4933-856B-5855144556BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925AB4FD-C40F-4FCC-A210-76163C23ECAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -884,7 +884,7 @@
   </sheetPr>
   <dimension ref="A1:AMD584"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G586" sqref="G586"/>
     </sheetView>
@@ -17924,11 +17924,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O572"/>
+  <dimension ref="A1:O589"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H575" sqref="H575"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F583" sqref="F583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32330,18 +32330,391 @@
       <c r="J572" s="11"/>
       <c r="K572" s="12"/>
     </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>572</v>
+      </c>
+      <c r="B573" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C573" s="8">
+        <v>45816</v>
+      </c>
+      <c r="D573" s="9"/>
+      <c r="E573" s="10"/>
+      <c r="F573" s="11"/>
+      <c r="G573" s="12"/>
+      <c r="H573" s="11"/>
+      <c r="I573" s="12"/>
+      <c r="J573" s="11"/>
+      <c r="K573" s="12"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>573</v>
+      </c>
+      <c r="B574" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C574" s="8">
+        <v>45817</v>
+      </c>
+      <c r="D574" s="9"/>
+      <c r="E574" s="10"/>
+      <c r="F574" s="11"/>
+      <c r="G574" s="12"/>
+      <c r="H574" s="11"/>
+      <c r="I574" s="12"/>
+      <c r="J574" s="11"/>
+      <c r="K574" s="12"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>574</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C575" s="8">
+        <v>45818</v>
+      </c>
+      <c r="D575" s="9">
+        <v>3600</v>
+      </c>
+      <c r="E575" s="10"/>
+      <c r="F575" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G575" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H575" s="11">
+        <v>2100</v>
+      </c>
+      <c r="I575" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J575" s="11">
+        <v>6000</v>
+      </c>
+      <c r="K575" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>575</v>
+      </c>
+      <c r="B576" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C576" s="8">
+        <v>45819</v>
+      </c>
+      <c r="D576" s="9"/>
+      <c r="E576" s="10"/>
+      <c r="F576" s="11"/>
+      <c r="G576" s="12"/>
+      <c r="H576" s="11"/>
+      <c r="I576" s="12"/>
+      <c r="J576" s="11"/>
+      <c r="K576" s="12"/>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>576</v>
+      </c>
+      <c r="B577" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C577" s="8">
+        <v>45820</v>
+      </c>
+      <c r="D577" s="9">
+        <v>1900</v>
+      </c>
+      <c r="E577" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F577" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G577" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H577" s="11"/>
+      <c r="I577" s="12"/>
+      <c r="J577" s="11">
+        <v>3200</v>
+      </c>
+      <c r="K577" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>577</v>
+      </c>
+      <c r="B578" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C578" s="8">
+        <v>45820</v>
+      </c>
+      <c r="D578" s="9">
+        <v>600</v>
+      </c>
+      <c r="E578" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F578" s="11">
+        <v>400</v>
+      </c>
+      <c r="G578" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H578" s="11">
+        <v>100</v>
+      </c>
+      <c r="I578" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J578" s="11">
+        <v>400</v>
+      </c>
+      <c r="K578" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>578</v>
+      </c>
+      <c r="B579" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C579" s="8">
+        <v>45820</v>
+      </c>
+      <c r="D579" s="9">
+        <v>380</v>
+      </c>
+      <c r="E579" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F579" s="11">
+        <v>40</v>
+      </c>
+      <c r="G579" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H579" s="11"/>
+      <c r="I579" s="12"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="12"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>579</v>
+      </c>
+      <c r="B580" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C580" s="8">
+        <v>45821</v>
+      </c>
+      <c r="D580" s="9"/>
+      <c r="E580" s="10"/>
+      <c r="F580" s="11"/>
+      <c r="G580" s="12"/>
+      <c r="H580" s="11"/>
+      <c r="I580" s="12"/>
+      <c r="J580" s="11"/>
+      <c r="K580" s="12"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>580</v>
+      </c>
+      <c r="B581" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C581" s="8">
+        <v>45822</v>
+      </c>
+      <c r="D581" s="9"/>
+      <c r="E581" s="10"/>
+      <c r="F581" s="11"/>
+      <c r="G581" s="12"/>
+      <c r="H581" s="11"/>
+      <c r="I581" s="12"/>
+      <c r="J581" s="11"/>
+      <c r="K581" s="12"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>581</v>
+      </c>
+      <c r="B582" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C582" s="8">
+        <v>45823</v>
+      </c>
+      <c r="D582" s="9"/>
+      <c r="E582" s="10"/>
+      <c r="F582" s="11"/>
+      <c r="G582" s="12"/>
+      <c r="H582" s="11"/>
+      <c r="I582" s="12"/>
+      <c r="J582" s="11"/>
+      <c r="K582" s="12"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
+        <v>582</v>
+      </c>
+      <c r="B583" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C583" s="8">
+        <v>45824</v>
+      </c>
+      <c r="D583" s="9"/>
+      <c r="E583" s="10"/>
+      <c r="F583" s="11"/>
+      <c r="G583" s="12"/>
+      <c r="H583" s="11"/>
+      <c r="I583" s="12"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="12"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>583</v>
+      </c>
+      <c r="B584" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C584" s="8">
+        <v>45825</v>
+      </c>
+      <c r="D584" s="9"/>
+      <c r="E584" s="10"/>
+      <c r="F584" s="11"/>
+      <c r="G584" s="12"/>
+      <c r="H584" s="11"/>
+      <c r="I584" s="12"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="12"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
+        <v>584</v>
+      </c>
+      <c r="B585" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C585" s="8">
+        <v>45826</v>
+      </c>
+      <c r="D585" s="9"/>
+      <c r="E585" s="10"/>
+      <c r="F585" s="11"/>
+      <c r="G585" s="12"/>
+      <c r="H585" s="11"/>
+      <c r="I585" s="12"/>
+      <c r="J585" s="11"/>
+      <c r="K585" s="12"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>585</v>
+      </c>
+      <c r="B586" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C586" s="8">
+        <v>45827</v>
+      </c>
+      <c r="D586" s="9"/>
+      <c r="E586" s="10"/>
+      <c r="F586" s="11"/>
+      <c r="G586" s="12"/>
+      <c r="H586" s="11"/>
+      <c r="I586" s="12"/>
+      <c r="J586" s="11"/>
+      <c r="K586" s="12"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
+        <v>586</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C587" s="8">
+        <v>45828</v>
+      </c>
+      <c r="D587" s="9"/>
+      <c r="E587" s="10"/>
+      <c r="F587" s="11"/>
+      <c r="G587" s="12"/>
+      <c r="H587" s="11"/>
+      <c r="I587" s="12"/>
+      <c r="J587" s="11"/>
+      <c r="K587" s="12"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>587</v>
+      </c>
+      <c r="B588" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C588" s="8">
+        <v>45829</v>
+      </c>
+      <c r="D588" s="9"/>
+      <c r="E588" s="10"/>
+      <c r="F588" s="11"/>
+      <c r="G588" s="12"/>
+      <c r="H588" s="11"/>
+      <c r="I588" s="12"/>
+      <c r="J588" s="11"/>
+      <c r="K588" s="12"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
+        <v>588</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C589" s="8">
+        <v>45830</v>
+      </c>
+      <c r="D589" s="9"/>
+      <c r="E589" s="10"/>
+      <c r="F589" s="11"/>
+      <c r="G589" s="12"/>
+      <c r="H589" s="11"/>
+      <c r="I589" s="12"/>
+      <c r="J589" s="11"/>
+      <c r="K589" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E572">
+  <conditionalFormatting sqref="B4:E589">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K572 B374:C572">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C589 D48:K589">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925AB4FD-C40F-4FCC-A210-76163C23ECAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886136B9-2944-4576-87A5-1CE6AEA8F1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -882,11 +882,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD584"/>
+  <dimension ref="A1:AMD592"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G586" sqref="G586"/>
+      <selection pane="bottomLeft" activeCell="J591" sqref="J591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17882,17 +17882,211 @@
       <c r="L584" s="11"/>
       <c r="M584" s="12"/>
     </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
+        <v>582</v>
+      </c>
+      <c r="B585" s="7" t="str">
+        <f t="shared" ref="B585:B592" si="63">IF(C585&lt;&gt;"",TEXT(C585,"ДДД"),"")</f>
+        <v>Вт</v>
+      </c>
+      <c r="C585" s="8">
+        <v>45818</v>
+      </c>
+      <c r="D585" s="9">
+        <v>700</v>
+      </c>
+      <c r="E585" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F585" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G585" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H585" s="11">
+        <f>13300+7000</f>
+        <v>20300</v>
+      </c>
+      <c r="I585" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J585" s="11">
+        <f>17600+2900</f>
+        <v>20500</v>
+      </c>
+      <c r="K585" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L585" s="11"/>
+      <c r="M585" s="12"/>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>583</v>
+      </c>
+      <c r="B586" s="7" t="str">
+        <f t="shared" si="63"/>
+        <v>Ср</v>
+      </c>
+      <c r="C586" s="8">
+        <v>45819</v>
+      </c>
+      <c r="D586" s="9"/>
+      <c r="E586" s="10"/>
+      <c r="F586" s="11"/>
+      <c r="G586" s="12"/>
+      <c r="H586" s="11"/>
+      <c r="I586" s="12"/>
+      <c r="J586" s="11"/>
+      <c r="K586" s="12"/>
+      <c r="L586" s="11"/>
+      <c r="M586" s="12"/>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
+        <v>584</v>
+      </c>
+      <c r="B587" s="7" t="str">
+        <f t="shared" si="63"/>
+        <v>Чт</v>
+      </c>
+      <c r="C587" s="8">
+        <v>45820</v>
+      </c>
+      <c r="D587" s="9"/>
+      <c r="E587" s="10"/>
+      <c r="F587" s="11"/>
+      <c r="G587" s="12"/>
+      <c r="H587" s="11"/>
+      <c r="I587" s="12"/>
+      <c r="J587" s="11"/>
+      <c r="K587" s="12"/>
+      <c r="L587" s="11"/>
+      <c r="M587" s="12"/>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>585</v>
+      </c>
+      <c r="B588" s="7" t="str">
+        <f t="shared" si="63"/>
+        <v>Пт</v>
+      </c>
+      <c r="C588" s="8">
+        <v>45821</v>
+      </c>
+      <c r="D588" s="9"/>
+      <c r="E588" s="10"/>
+      <c r="F588" s="11"/>
+      <c r="G588" s="12"/>
+      <c r="H588" s="11"/>
+      <c r="I588" s="12"/>
+      <c r="J588" s="11"/>
+      <c r="K588" s="12"/>
+      <c r="L588" s="11"/>
+      <c r="M588" s="12"/>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
+        <v>586</v>
+      </c>
+      <c r="B589" s="7" t="str">
+        <f t="shared" si="63"/>
+        <v>Сб</v>
+      </c>
+      <c r="C589" s="8">
+        <v>45822</v>
+      </c>
+      <c r="D589" s="9"/>
+      <c r="E589" s="10"/>
+      <c r="F589" s="11"/>
+      <c r="G589" s="12"/>
+      <c r="H589" s="11"/>
+      <c r="I589" s="12"/>
+      <c r="J589" s="11"/>
+      <c r="K589" s="12"/>
+      <c r="L589" s="11"/>
+      <c r="M589" s="12"/>
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>587</v>
+      </c>
+      <c r="B590" s="7" t="str">
+        <f t="shared" si="63"/>
+        <v>Вс</v>
+      </c>
+      <c r="C590" s="8">
+        <v>45823</v>
+      </c>
+      <c r="D590" s="9"/>
+      <c r="E590" s="10"/>
+      <c r="F590" s="11"/>
+      <c r="G590" s="12"/>
+      <c r="H590" s="11"/>
+      <c r="I590" s="12"/>
+      <c r="J590" s="11"/>
+      <c r="K590" s="12"/>
+      <c r="L590" s="11"/>
+      <c r="M590" s="12"/>
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
+        <v>588</v>
+      </c>
+      <c r="B591" s="7" t="str">
+        <f t="shared" si="63"/>
+        <v>Пн</v>
+      </c>
+      <c r="C591" s="8">
+        <v>45824</v>
+      </c>
+      <c r="D591" s="9"/>
+      <c r="E591" s="10"/>
+      <c r="F591" s="11"/>
+      <c r="G591" s="12"/>
+      <c r="H591" s="11"/>
+      <c r="I591" s="12"/>
+      <c r="J591" s="11"/>
+      <c r="K591" s="12"/>
+      <c r="L591" s="11"/>
+      <c r="M591" s="12"/>
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>589</v>
+      </c>
+      <c r="B592" s="7" t="str">
+        <f t="shared" si="63"/>
+        <v>Вт</v>
+      </c>
+      <c r="C592" s="8">
+        <v>45825</v>
+      </c>
+      <c r="D592" s="9"/>
+      <c r="E592" s="10"/>
+      <c r="F592" s="11"/>
+      <c r="G592" s="12"/>
+      <c r="H592" s="11"/>
+      <c r="I592" s="12"/>
+      <c r="J592" s="11"/>
+      <c r="K592" s="12"/>
+      <c r="L592" s="11"/>
+      <c r="M592" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E584">
+  <conditionalFormatting sqref="B4:E592">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M584">
+  <conditionalFormatting sqref="B4:M592">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -17926,7 +18120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O589"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F583" sqref="F583"/>
     </sheetView>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886136B9-2944-4576-87A5-1CE6AEA8F1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F0C4BE-BB60-41C1-9770-56E7C4D8EE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -882,11 +882,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD592"/>
+  <dimension ref="A1:AMD593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J591" sqref="J591"/>
+      <selection pane="bottomLeft" activeCell="L593" sqref="L593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17887,7 +17887,7 @@
         <v>582</v>
       </c>
       <c r="B585" s="7" t="str">
-        <f t="shared" ref="B585:B592" si="63">IF(C585&lt;&gt;"",TEXT(C585,"ДДД"),"")</f>
+        <f t="shared" ref="B585:B593" si="63">IF(C585&lt;&gt;"",TEXT(C585,"ДДД"),"")</f>
         <v>Вт</v>
       </c>
       <c r="C585" s="8">
@@ -17955,14 +17955,31 @@
       <c r="C587" s="8">
         <v>45820</v>
       </c>
-      <c r="D587" s="9"/>
-      <c r="E587" s="10"/>
-      <c r="F587" s="11"/>
-      <c r="G587" s="12"/>
-      <c r="H587" s="11"/>
-      <c r="I587" s="12"/>
-      <c r="J587" s="11"/>
-      <c r="K587" s="12"/>
+      <c r="D587" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E587" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F587" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G587" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H587" s="11">
+        <f>2200+6900</f>
+        <v>9100</v>
+      </c>
+      <c r="I587" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J587" s="11">
+        <v>15600</v>
+      </c>
+      <c r="K587" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L587" s="11"/>
       <c r="M587" s="12"/>
     </row>
@@ -17971,20 +17988,36 @@
         <v>585</v>
       </c>
       <c r="B588" s="7" t="str">
-        <f t="shared" si="63"/>
-        <v>Пт</v>
+        <f t="shared" ref="B588" si="64">IF(C588&lt;&gt;"",TEXT(C588,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C588" s="8">
-        <v>45821</v>
-      </c>
-      <c r="D588" s="9"/>
-      <c r="E588" s="10"/>
-      <c r="F588" s="11"/>
-      <c r="G588" s="12"/>
-      <c r="H588" s="11"/>
-      <c r="I588" s="12"/>
-      <c r="J588" s="11"/>
-      <c r="K588" s="12"/>
+        <v>45820</v>
+      </c>
+      <c r="D588" s="9">
+        <v>1100</v>
+      </c>
+      <c r="E588" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F588" s="11">
+        <v>3700</v>
+      </c>
+      <c r="G588" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H588" s="11">
+        <v>4800</v>
+      </c>
+      <c r="I588" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J588" s="11">
+        <v>6300</v>
+      </c>
+      <c r="K588" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="L588" s="11"/>
       <c r="M588" s="12"/>
     </row>
@@ -17994,10 +18027,10 @@
       </c>
       <c r="B589" s="7" t="str">
         <f t="shared" si="63"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C589" s="8">
-        <v>45822</v>
+        <v>45821</v>
       </c>
       <c r="D589" s="9"/>
       <c r="E589" s="10"/>
@@ -18016,10 +18049,10 @@
       </c>
       <c r="B590" s="7" t="str">
         <f t="shared" si="63"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C590" s="8">
-        <v>45823</v>
+        <v>45822</v>
       </c>
       <c r="D590" s="9"/>
       <c r="E590" s="10"/>
@@ -18027,8 +18060,12 @@
       <c r="G590" s="12"/>
       <c r="H590" s="11"/>
       <c r="I590" s="12"/>
-      <c r="J590" s="11"/>
-      <c r="K590" s="12"/>
+      <c r="J590" s="11">
+        <v>4100</v>
+      </c>
+      <c r="K590" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L590" s="11"/>
       <c r="M590" s="12"/>
     </row>
@@ -18038,10 +18075,10 @@
       </c>
       <c r="B591" s="7" t="str">
         <f t="shared" si="63"/>
-        <v>Пн</v>
+        <v>Вс</v>
       </c>
       <c r="C591" s="8">
-        <v>45824</v>
+        <v>45823</v>
       </c>
       <c r="D591" s="9"/>
       <c r="E591" s="10"/>
@@ -18060,10 +18097,10 @@
       </c>
       <c r="B592" s="7" t="str">
         <f t="shared" si="63"/>
-        <v>Вт</v>
+        <v>Пн</v>
       </c>
       <c r="C592" s="8">
-        <v>45825</v>
+        <v>45824</v>
       </c>
       <c r="D592" s="9"/>
       <c r="E592" s="10"/>
@@ -18076,17 +18113,39 @@
       <c r="L592" s="11"/>
       <c r="M592" s="12"/>
     </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>590</v>
+      </c>
+      <c r="B593" s="7" t="str">
+        <f t="shared" si="63"/>
+        <v>Вт</v>
+      </c>
+      <c r="C593" s="8">
+        <v>45825</v>
+      </c>
+      <c r="D593" s="9"/>
+      <c r="E593" s="10"/>
+      <c r="F593" s="11"/>
+      <c r="G593" s="12"/>
+      <c r="H593" s="11"/>
+      <c r="I593" s="12"/>
+      <c r="J593" s="11"/>
+      <c r="K593" s="12"/>
+      <c r="L593" s="11"/>
+      <c r="M593" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E592">
+  <conditionalFormatting sqref="B4:E593">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M592">
+  <conditionalFormatting sqref="B4:M593">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F0C4BE-BB60-41C1-9770-56E7C4D8EE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D0A9B-E9F0-4E16-81E1-8E63F4D8053B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="30">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -884,9 +884,9 @@
   </sheetPr>
   <dimension ref="A1:AMD593"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L593" sqref="L593"/>
+      <selection pane="bottomLeft" activeCell="K595" sqref="K595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18088,8 +18088,12 @@
       <c r="I591" s="12"/>
       <c r="J591" s="11"/>
       <c r="K591" s="12"/>
-      <c r="L591" s="11"/>
-      <c r="M591" s="12"/>
+      <c r="L591" s="11">
+        <v>4600</v>
+      </c>
+      <c r="M591" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
@@ -18179,9 +18183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O589"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F583" sqref="F583"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A575" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E585" sqref="E585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32852,14 +32856,30 @@
       <c r="C584" s="8">
         <v>45825</v>
       </c>
-      <c r="D584" s="9"/>
-      <c r="E584" s="10"/>
-      <c r="F584" s="11"/>
-      <c r="G584" s="12"/>
-      <c r="H584" s="11"/>
-      <c r="I584" s="12"/>
-      <c r="J584" s="11"/>
-      <c r="K584" s="12"/>
+      <c r="D584" s="9">
+        <v>5100</v>
+      </c>
+      <c r="E584" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F584" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G584" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H584" s="11">
+        <v>800</v>
+      </c>
+      <c r="I584" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J584" s="11">
+        <v>6000</v>
+      </c>
+      <c r="K584" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="1">

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D0A9B-E9F0-4E16-81E1-8E63F4D8053B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8AA255-9015-4697-9A83-DDE73C69193A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>не забрали</t>
+  </si>
+  <si>
+    <t>перенос на 16,06,25</t>
   </si>
 </sst>
 </file>
@@ -18181,11 +18184,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O589"/>
+  <dimension ref="A1:O591"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A575" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E585" sqref="E585"/>
+      <selection pane="bottomLeft" activeCell="J594" sqref="J594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32677,7 +32680,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="12"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -32708,7 +32711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -32719,31 +32722,34 @@
         <v>45820</v>
       </c>
       <c r="D578" s="9">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E578" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F578" s="11">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G578" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H578" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I578" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J578" s="11">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K578" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N578" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -32754,13 +32760,13 @@
         <v>45820</v>
       </c>
       <c r="D579" s="9">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="E579" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F579" s="11">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G579" s="12" t="s">
         <v>21</v>
@@ -32769,8 +32775,11 @@
       <c r="I579" s="12"/>
       <c r="J579" s="11"/>
       <c r="K579" s="12"/>
-    </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N579" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -32789,7 +32798,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="12"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -32808,7 +32817,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="12"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -32827,7 +32836,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="12"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -32846,7 +32855,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="12"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -32881,7 +32890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -32900,7 +32909,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="12"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -32910,62 +32919,98 @@
       <c r="C586" s="8">
         <v>45827</v>
       </c>
-      <c r="D586" s="9"/>
-      <c r="E586" s="10"/>
+      <c r="D586" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E586" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F586" s="11"/>
       <c r="G586" s="12"/>
       <c r="H586" s="11"/>
       <c r="I586" s="12"/>
-      <c r="J586" s="11"/>
-      <c r="K586" s="12"/>
-    </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J586" s="11">
+        <v>1200</v>
+      </c>
+      <c r="K586" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>586</v>
       </c>
       <c r="B587" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C587" s="8">
-        <v>45828</v>
-      </c>
-      <c r="D587" s="9"/>
-      <c r="E587" s="10"/>
-      <c r="F587" s="11"/>
-      <c r="G587" s="12"/>
-      <c r="H587" s="11"/>
-      <c r="I587" s="12"/>
-      <c r="J587" s="11"/>
-      <c r="K587" s="12"/>
-    </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45827</v>
+      </c>
+      <c r="D587" s="9">
+        <v>1800</v>
+      </c>
+      <c r="E587" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F587" s="11">
+        <v>700</v>
+      </c>
+      <c r="G587" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H587" s="11">
+        <v>150</v>
+      </c>
+      <c r="I587" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J587" s="11">
+        <v>600</v>
+      </c>
+      <c r="K587" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>587</v>
       </c>
       <c r="B588" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C588" s="8">
-        <v>45829</v>
-      </c>
-      <c r="D588" s="9"/>
-      <c r="E588" s="10"/>
-      <c r="F588" s="11"/>
-      <c r="G588" s="12"/>
+        <v>45827</v>
+      </c>
+      <c r="D588" s="9">
+        <v>450</v>
+      </c>
+      <c r="E588" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F588" s="11">
+        <v>250</v>
+      </c>
+      <c r="G588" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="H588" s="11"/>
       <c r="I588" s="12"/>
-      <c r="J588" s="11"/>
-      <c r="K588" s="12"/>
-    </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J588" s="11">
+        <v>50</v>
+      </c>
+      <c r="K588" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>588</v>
       </c>
       <c r="B589" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C589" s="8">
-        <v>45830</v>
+        <v>45828</v>
       </c>
       <c r="D589" s="9"/>
       <c r="E589" s="10"/>
@@ -32976,18 +33021,56 @@
       <c r="J589" s="11"/>
       <c r="K589" s="12"/>
     </row>
+    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>589</v>
+      </c>
+      <c r="B590" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C590" s="8">
+        <v>45829</v>
+      </c>
+      <c r="D590" s="9"/>
+      <c r="E590" s="10"/>
+      <c r="F590" s="11"/>
+      <c r="G590" s="12"/>
+      <c r="H590" s="11"/>
+      <c r="I590" s="12"/>
+      <c r="J590" s="11"/>
+      <c r="K590" s="12"/>
+    </row>
+    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
+        <v>590</v>
+      </c>
+      <c r="B591" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C591" s="8">
+        <v>45830</v>
+      </c>
+      <c r="D591" s="9"/>
+      <c r="E591" s="10"/>
+      <c r="F591" s="11"/>
+      <c r="G591" s="12"/>
+      <c r="H591" s="11"/>
+      <c r="I591" s="12"/>
+      <c r="J591" s="11"/>
+      <c r="K591" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E589">
+  <conditionalFormatting sqref="B4:E591">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C589 D48:K589">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K591 B374:C591">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8AA255-9015-4697-9A83-DDE73C69193A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EFB6D1-77F4-4A73-B16E-71041723B047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ПОКОМ!$A$1:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +879,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD593"/>
+  <dimension ref="A1:AMD599"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K595" sqref="K595"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A583" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J601" sqref="J601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18131,28 +18125,178 @@
       <c r="C593" s="8">
         <v>45825</v>
       </c>
-      <c r="D593" s="9"/>
-      <c r="E593" s="10"/>
-      <c r="F593" s="11"/>
-      <c r="G593" s="12"/>
-      <c r="H593" s="11"/>
-      <c r="I593" s="12"/>
-      <c r="J593" s="11"/>
-      <c r="K593" s="12"/>
+      <c r="D593" s="9">
+        <f>5300+1800</f>
+        <v>7100</v>
+      </c>
+      <c r="E593" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F593" s="11">
+        <v>9200</v>
+      </c>
+      <c r="G593" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H593" s="11">
+        <f>10900+8100</f>
+        <v>19000</v>
+      </c>
+      <c r="I593" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J593" s="11">
+        <v>15300</v>
+      </c>
+      <c r="K593" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L593" s="11"/>
       <c r="M593" s="12"/>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>591</v>
+      </c>
+      <c r="B594" s="7" t="str">
+        <f t="shared" ref="B594:B599" si="65">IF(C594&lt;&gt;"",TEXT(C594,"ДДД"),"")</f>
+        <v>Ср</v>
+      </c>
+      <c r="C594" s="8">
+        <v>45826</v>
+      </c>
+      <c r="D594" s="9"/>
+      <c r="E594" s="10"/>
+      <c r="F594" s="11"/>
+      <c r="G594" s="12"/>
+      <c r="H594" s="11"/>
+      <c r="I594" s="12"/>
+      <c r="J594" s="11"/>
+      <c r="K594" s="12"/>
+      <c r="L594" s="11"/>
+      <c r="M594" s="12"/>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>592</v>
+      </c>
+      <c r="B595" s="7" t="str">
+        <f t="shared" si="65"/>
+        <v>Чт</v>
+      </c>
+      <c r="C595" s="8">
+        <v>45827</v>
+      </c>
+      <c r="D595" s="9"/>
+      <c r="E595" s="10"/>
+      <c r="F595" s="11"/>
+      <c r="G595" s="12"/>
+      <c r="H595" s="11"/>
+      <c r="I595" s="12"/>
+      <c r="J595" s="11"/>
+      <c r="K595" s="12"/>
+      <c r="L595" s="11"/>
+      <c r="M595" s="12"/>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>593</v>
+      </c>
+      <c r="B596" s="7" t="str">
+        <f t="shared" si="65"/>
+        <v>Пт</v>
+      </c>
+      <c r="C596" s="8">
+        <v>45828</v>
+      </c>
+      <c r="D596" s="9"/>
+      <c r="E596" s="10"/>
+      <c r="F596" s="11"/>
+      <c r="G596" s="12"/>
+      <c r="H596" s="11"/>
+      <c r="I596" s="12"/>
+      <c r="J596" s="11"/>
+      <c r="K596" s="12"/>
+      <c r="L596" s="11"/>
+      <c r="M596" s="12"/>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
+        <v>594</v>
+      </c>
+      <c r="B597" s="7" t="str">
+        <f t="shared" si="65"/>
+        <v>Сб</v>
+      </c>
+      <c r="C597" s="8">
+        <v>45829</v>
+      </c>
+      <c r="D597" s="9"/>
+      <c r="E597" s="10"/>
+      <c r="F597" s="11"/>
+      <c r="G597" s="12"/>
+      <c r="H597" s="11"/>
+      <c r="I597" s="12"/>
+      <c r="J597" s="11"/>
+      <c r="K597" s="12"/>
+      <c r="L597" s="11"/>
+      <c r="M597" s="12"/>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>595</v>
+      </c>
+      <c r="B598" s="7" t="str">
+        <f t="shared" si="65"/>
+        <v>Вс</v>
+      </c>
+      <c r="C598" s="8">
+        <v>45830</v>
+      </c>
+      <c r="D598" s="9"/>
+      <c r="E598" s="10"/>
+      <c r="F598" s="11"/>
+      <c r="G598" s="12"/>
+      <c r="H598" s="11"/>
+      <c r="I598" s="12"/>
+      <c r="J598" s="11"/>
+      <c r="K598" s="12"/>
+      <c r="L598" s="11"/>
+      <c r="M598" s="12"/>
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
+        <v>596</v>
+      </c>
+      <c r="B599" s="7" t="str">
+        <f t="shared" si="65"/>
+        <v>Пн</v>
+      </c>
+      <c r="C599" s="8">
+        <v>45831</v>
+      </c>
+      <c r="D599" s="9"/>
+      <c r="E599" s="10"/>
+      <c r="F599" s="11"/>
+      <c r="G599" s="12"/>
+      <c r="H599" s="11"/>
+      <c r="I599" s="12"/>
+      <c r="J599" s="11"/>
+      <c r="K599" s="12"/>
+      <c r="L599" s="11"/>
+      <c r="M599" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E593">
+  <conditionalFormatting sqref="B4:E599">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M593">
+  <conditionalFormatting sqref="B4:M599">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -18186,7 +18330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O591"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A575" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J594" sqref="J594"/>
     </sheetView>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EFB6D1-77F4-4A73-B16E-71041723B047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953C6B5-AF65-4801-A4D9-065CAF323F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -879,11 +879,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD599"/>
+  <dimension ref="A1:AMD600"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A583" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J601" sqref="J601"/>
+      <pane ySplit="3" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J602" sqref="J602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18159,7 +18159,7 @@
         <v>591</v>
       </c>
       <c r="B594" s="7" t="str">
-        <f t="shared" ref="B594:B599" si="65">IF(C594&lt;&gt;"",TEXT(C594,"ДДД"),"")</f>
+        <f t="shared" ref="B594:B600" si="65">IF(C594&lt;&gt;"",TEXT(C594,"ДДД"),"")</f>
         <v>Ср</v>
       </c>
       <c r="C594" s="8">
@@ -18187,14 +18187,30 @@
       <c r="C595" s="8">
         <v>45827</v>
       </c>
-      <c r="D595" s="9"/>
-      <c r="E595" s="10"/>
-      <c r="F595" s="11"/>
-      <c r="G595" s="12"/>
-      <c r="H595" s="11"/>
-      <c r="I595" s="12"/>
-      <c r="J595" s="11"/>
-      <c r="K595" s="12"/>
+      <c r="D595" s="9">
+        <v>5300</v>
+      </c>
+      <c r="E595" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F595" s="11">
+        <v>3400</v>
+      </c>
+      <c r="G595" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H595" s="11">
+        <v>17600</v>
+      </c>
+      <c r="I595" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J595" s="11">
+        <v>17000</v>
+      </c>
+      <c r="K595" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L595" s="11"/>
       <c r="M595" s="12"/>
     </row>
@@ -18203,20 +18219,36 @@
         <v>593</v>
       </c>
       <c r="B596" s="7" t="str">
-        <f t="shared" si="65"/>
-        <v>Пт</v>
+        <f t="shared" ref="B596" si="66">IF(C596&lt;&gt;"",TEXT(C596,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C596" s="8">
-        <v>45828</v>
-      </c>
-      <c r="D596" s="9"/>
-      <c r="E596" s="10"/>
-      <c r="F596" s="11"/>
-      <c r="G596" s="12"/>
-      <c r="H596" s="11"/>
-      <c r="I596" s="12"/>
-      <c r="J596" s="11"/>
-      <c r="K596" s="12"/>
+        <v>45827</v>
+      </c>
+      <c r="D596" s="9">
+        <v>11000</v>
+      </c>
+      <c r="E596" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F596" s="11">
+        <v>8200</v>
+      </c>
+      <c r="G596" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H596" s="11">
+        <v>3200</v>
+      </c>
+      <c r="I596" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J596" s="11">
+        <v>5100</v>
+      </c>
+      <c r="K596" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="L596" s="11"/>
       <c r="M596" s="12"/>
     </row>
@@ -18226,10 +18258,10 @@
       </c>
       <c r="B597" s="7" t="str">
         <f t="shared" si="65"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C597" s="8">
-        <v>45829</v>
+        <v>45828</v>
       </c>
       <c r="D597" s="9"/>
       <c r="E597" s="10"/>
@@ -18248,10 +18280,10 @@
       </c>
       <c r="B598" s="7" t="str">
         <f t="shared" si="65"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C598" s="8">
-        <v>45830</v>
+        <v>45829</v>
       </c>
       <c r="D598" s="9"/>
       <c r="E598" s="10"/>
@@ -18270,10 +18302,10 @@
       </c>
       <c r="B599" s="7" t="str">
         <f t="shared" si="65"/>
-        <v>Пн</v>
+        <v>Вс</v>
       </c>
       <c r="C599" s="8">
-        <v>45831</v>
+        <v>45830</v>
       </c>
       <c r="D599" s="9"/>
       <c r="E599" s="10"/>
@@ -18286,17 +18318,39 @@
       <c r="L599" s="11"/>
       <c r="M599" s="12"/>
     </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>597</v>
+      </c>
+      <c r="B600" s="7" t="str">
+        <f t="shared" si="65"/>
+        <v>Пн</v>
+      </c>
+      <c r="C600" s="8">
+        <v>45831</v>
+      </c>
+      <c r="D600" s="9"/>
+      <c r="E600" s="10"/>
+      <c r="F600" s="11"/>
+      <c r="G600" s="12"/>
+      <c r="H600" s="11"/>
+      <c r="I600" s="12"/>
+      <c r="J600" s="11"/>
+      <c r="K600" s="12"/>
+      <c r="L600" s="11"/>
+      <c r="M600" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E599">
+  <conditionalFormatting sqref="B4:E600">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M599">
+  <conditionalFormatting sqref="B4:M600">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953C6B5-AF65-4801-A4D9-065CAF323F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB74E56-2EB0-42ED-AF83-AE0EC91C7A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ПОКОМ!$A$1:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -883,7 +889,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J602" sqref="J602"/>
+      <selection pane="bottomLeft" activeCell="G602" sqref="G602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18291,8 +18297,12 @@
       <c r="G598" s="12"/>
       <c r="H598" s="11"/>
       <c r="I598" s="12"/>
-      <c r="J598" s="11"/>
-      <c r="K598" s="12"/>
+      <c r="J598" s="11">
+        <v>4000</v>
+      </c>
+      <c r="K598" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L598" s="11"/>
       <c r="M598" s="12"/>
     </row>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB74E56-2EB0-42ED-AF83-AE0EC91C7A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB969C63-DCF3-48CE-A064-07B5B19E04C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -889,7 +889,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G602" sqref="G602"/>
+      <selection pane="bottomLeft" activeCell="M602" sqref="M602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18325,8 +18325,12 @@
       <c r="I599" s="12"/>
       <c r="J599" s="11"/>
       <c r="K599" s="12"/>
-      <c r="L599" s="11"/>
-      <c r="M599" s="12"/>
+      <c r="L599" s="11">
+        <v>3500</v>
+      </c>
+      <c r="M599" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" s="1">

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB969C63-DCF3-48CE-A064-07B5B19E04C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF298EA-A391-40F2-8715-7629402616BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -887,7 +887,7 @@
   </sheetPr>
   <dimension ref="A1:AMD600"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M602" sqref="M602"/>
     </sheetView>
@@ -18396,11 +18396,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O591"/>
+  <dimension ref="A1:O599"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A575" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J594" sqref="J594"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F602" sqref="F602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33271,18 +33271,217 @@
       <c r="J591" s="11"/>
       <c r="K591" s="12"/>
     </row>
+    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>591</v>
+      </c>
+      <c r="B592" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C592" s="8">
+        <v>45831</v>
+      </c>
+      <c r="D592" s="9"/>
+      <c r="E592" s="10"/>
+      <c r="F592" s="11"/>
+      <c r="G592" s="12"/>
+      <c r="H592" s="11"/>
+      <c r="I592" s="12"/>
+      <c r="J592" s="11"/>
+      <c r="K592" s="12"/>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>592</v>
+      </c>
+      <c r="B593" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C593" s="8">
+        <v>45832</v>
+      </c>
+      <c r="D593" s="9">
+        <f>4000+5900</f>
+        <v>9900</v>
+      </c>
+      <c r="E593" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F593" s="11">
+        <f>3100+4600</f>
+        <v>7700</v>
+      </c>
+      <c r="G593" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H593" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I593" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J593" s="11">
+        <f>4400+6600</f>
+        <v>11000</v>
+      </c>
+      <c r="K593" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>593</v>
+      </c>
+      <c r="B594" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C594" s="8">
+        <v>45833</v>
+      </c>
+      <c r="D594" s="9"/>
+      <c r="E594" s="10"/>
+      <c r="F594" s="11"/>
+      <c r="G594" s="12"/>
+      <c r="H594" s="11"/>
+      <c r="I594" s="12"/>
+      <c r="J594" s="11"/>
+      <c r="K594" s="12"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>594</v>
+      </c>
+      <c r="B595" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C595" s="8">
+        <v>45834</v>
+      </c>
+      <c r="D595" s="9">
+        <v>2600</v>
+      </c>
+      <c r="E595" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F595" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G595" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H595" s="11"/>
+      <c r="I595" s="12"/>
+      <c r="J595" s="11">
+        <v>2900</v>
+      </c>
+      <c r="K595" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>595</v>
+      </c>
+      <c r="B596" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C596" s="8">
+        <v>45834</v>
+      </c>
+      <c r="D596" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E596" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F596" s="11">
+        <v>800</v>
+      </c>
+      <c r="G596" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H596" s="11"/>
+      <c r="I596" s="12"/>
+      <c r="J596" s="11">
+        <v>100</v>
+      </c>
+      <c r="K596" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
+        <v>596</v>
+      </c>
+      <c r="B597" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C597" s="8">
+        <v>45834</v>
+      </c>
+      <c r="D597" s="9">
+        <v>200</v>
+      </c>
+      <c r="E597" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F597" s="11"/>
+      <c r="G597" s="12"/>
+      <c r="H597" s="11"/>
+      <c r="I597" s="12"/>
+      <c r="J597" s="11"/>
+      <c r="K597" s="12"/>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>597</v>
+      </c>
+      <c r="B598" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C598" s="8">
+        <v>45835</v>
+      </c>
+      <c r="D598" s="9"/>
+      <c r="E598" s="10"/>
+      <c r="F598" s="11"/>
+      <c r="G598" s="12"/>
+      <c r="H598" s="11"/>
+      <c r="I598" s="12"/>
+      <c r="J598" s="11"/>
+      <c r="K598" s="12"/>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
+        <v>598</v>
+      </c>
+      <c r="B599" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C599" s="8">
+        <v>45836</v>
+      </c>
+      <c r="D599" s="9"/>
+      <c r="E599" s="10"/>
+      <c r="F599" s="11"/>
+      <c r="G599" s="12"/>
+      <c r="H599" s="11"/>
+      <c r="I599" s="12"/>
+      <c r="J599" s="11"/>
+      <c r="K599" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E591">
+  <conditionalFormatting sqref="B4:E599">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K591 B374:C591">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K599 B374:C599">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF298EA-A391-40F2-8715-7629402616BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC539D1-FA10-4A28-A646-0C6BA3BB98A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD600"/>
+  <dimension ref="A1:AMD613"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M602" sqref="M602"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J606" sqref="J606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18354,17 +18354,320 @@
       <c r="L600" s="11"/>
       <c r="M600" s="12"/>
     </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
+        <v>598</v>
+      </c>
+      <c r="B601" s="7" t="str">
+        <f t="shared" ref="B601:B613" si="67">IF(C601&lt;&gt;"",TEXT(C601,"ДДД"),"")</f>
+        <v>Вт</v>
+      </c>
+      <c r="C601" s="8">
+        <v>45832</v>
+      </c>
+      <c r="D601" s="9">
+        <v>5100</v>
+      </c>
+      <c r="E601" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F601" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G601" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H601" s="11">
+        <f>14500+6400</f>
+        <v>20900</v>
+      </c>
+      <c r="I601" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J601" s="11">
+        <v>17500</v>
+      </c>
+      <c r="K601" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L601" s="11"/>
+      <c r="M601" s="12"/>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>599</v>
+      </c>
+      <c r="B602" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Ср</v>
+      </c>
+      <c r="C602" s="8">
+        <v>45833</v>
+      </c>
+      <c r="D602" s="9"/>
+      <c r="E602" s="10"/>
+      <c r="F602" s="11"/>
+      <c r="G602" s="12"/>
+      <c r="H602" s="11"/>
+      <c r="I602" s="12"/>
+      <c r="J602" s="11"/>
+      <c r="K602" s="12"/>
+      <c r="L602" s="11"/>
+      <c r="M602" s="12"/>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>600</v>
+      </c>
+      <c r="B603" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Чт</v>
+      </c>
+      <c r="C603" s="8">
+        <v>45834</v>
+      </c>
+      <c r="D603" s="9"/>
+      <c r="E603" s="10"/>
+      <c r="F603" s="11"/>
+      <c r="G603" s="12"/>
+      <c r="H603" s="11"/>
+      <c r="I603" s="12"/>
+      <c r="J603" s="11"/>
+      <c r="K603" s="12"/>
+      <c r="L603" s="11"/>
+      <c r="M603" s="12"/>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>601</v>
+      </c>
+      <c r="B604" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Пт</v>
+      </c>
+      <c r="C604" s="8">
+        <v>45835</v>
+      </c>
+      <c r="D604" s="9"/>
+      <c r="E604" s="10"/>
+      <c r="F604" s="11"/>
+      <c r="G604" s="12"/>
+      <c r="H604" s="11"/>
+      <c r="I604" s="12"/>
+      <c r="J604" s="11"/>
+      <c r="K604" s="12"/>
+      <c r="L604" s="11"/>
+      <c r="M604" s="12"/>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>602</v>
+      </c>
+      <c r="B605" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Сб</v>
+      </c>
+      <c r="C605" s="8">
+        <v>45836</v>
+      </c>
+      <c r="D605" s="9"/>
+      <c r="E605" s="10"/>
+      <c r="F605" s="11"/>
+      <c r="G605" s="12"/>
+      <c r="H605" s="11"/>
+      <c r="I605" s="12"/>
+      <c r="J605" s="11"/>
+      <c r="K605" s="12"/>
+      <c r="L605" s="11"/>
+      <c r="M605" s="12"/>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>603</v>
+      </c>
+      <c r="B606" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Вс</v>
+      </c>
+      <c r="C606" s="8">
+        <v>45837</v>
+      </c>
+      <c r="D606" s="9"/>
+      <c r="E606" s="10"/>
+      <c r="F606" s="11"/>
+      <c r="G606" s="12"/>
+      <c r="H606" s="11"/>
+      <c r="I606" s="12"/>
+      <c r="J606" s="11"/>
+      <c r="K606" s="12"/>
+      <c r="L606" s="11"/>
+      <c r="M606" s="12"/>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>604</v>
+      </c>
+      <c r="B607" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Пн</v>
+      </c>
+      <c r="C607" s="8">
+        <v>45838</v>
+      </c>
+      <c r="D607" s="9"/>
+      <c r="E607" s="10"/>
+      <c r="F607" s="11"/>
+      <c r="G607" s="12"/>
+      <c r="H607" s="11"/>
+      <c r="I607" s="12"/>
+      <c r="J607" s="11"/>
+      <c r="K607" s="12"/>
+      <c r="L607" s="11"/>
+      <c r="M607" s="12"/>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>605</v>
+      </c>
+      <c r="B608" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Вт</v>
+      </c>
+      <c r="C608" s="8">
+        <v>45839</v>
+      </c>
+      <c r="D608" s="9"/>
+      <c r="E608" s="10"/>
+      <c r="F608" s="11"/>
+      <c r="G608" s="12"/>
+      <c r="H608" s="11"/>
+      <c r="I608" s="12"/>
+      <c r="J608" s="11"/>
+      <c r="K608" s="12"/>
+      <c r="L608" s="11"/>
+      <c r="M608" s="12"/>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
+        <v>606</v>
+      </c>
+      <c r="B609" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Ср</v>
+      </c>
+      <c r="C609" s="8">
+        <v>45840</v>
+      </c>
+      <c r="D609" s="9"/>
+      <c r="E609" s="10"/>
+      <c r="F609" s="11"/>
+      <c r="G609" s="12"/>
+      <c r="H609" s="11"/>
+      <c r="I609" s="12"/>
+      <c r="J609" s="11"/>
+      <c r="K609" s="12"/>
+      <c r="L609" s="11"/>
+      <c r="M609" s="12"/>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>607</v>
+      </c>
+      <c r="B610" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Чт</v>
+      </c>
+      <c r="C610" s="8">
+        <v>45841</v>
+      </c>
+      <c r="D610" s="9"/>
+      <c r="E610" s="10"/>
+      <c r="F610" s="11"/>
+      <c r="G610" s="12"/>
+      <c r="H610" s="11"/>
+      <c r="I610" s="12"/>
+      <c r="J610" s="11"/>
+      <c r="K610" s="12"/>
+      <c r="L610" s="11"/>
+      <c r="M610" s="12"/>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
+        <v>608</v>
+      </c>
+      <c r="B611" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Пт</v>
+      </c>
+      <c r="C611" s="8">
+        <v>45842</v>
+      </c>
+      <c r="D611" s="9"/>
+      <c r="E611" s="10"/>
+      <c r="F611" s="11"/>
+      <c r="G611" s="12"/>
+      <c r="H611" s="11"/>
+      <c r="I611" s="12"/>
+      <c r="J611" s="11"/>
+      <c r="K611" s="12"/>
+      <c r="L611" s="11"/>
+      <c r="M611" s="12"/>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
+        <v>609</v>
+      </c>
+      <c r="B612" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Сб</v>
+      </c>
+      <c r="C612" s="8">
+        <v>45843</v>
+      </c>
+      <c r="D612" s="9"/>
+      <c r="E612" s="10"/>
+      <c r="F612" s="11"/>
+      <c r="G612" s="12"/>
+      <c r="H612" s="11"/>
+      <c r="I612" s="12"/>
+      <c r="J612" s="11"/>
+      <c r="K612" s="12"/>
+      <c r="L612" s="11"/>
+      <c r="M612" s="12"/>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
+        <v>610</v>
+      </c>
+      <c r="B613" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Вс</v>
+      </c>
+      <c r="C613" s="8">
+        <v>45844</v>
+      </c>
+      <c r="D613" s="9"/>
+      <c r="E613" s="10"/>
+      <c r="F613" s="11"/>
+      <c r="G613" s="12"/>
+      <c r="H613" s="11"/>
+      <c r="I613" s="12"/>
+      <c r="J613" s="11"/>
+      <c r="K613" s="12"/>
+      <c r="L613" s="11"/>
+      <c r="M613" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E600">
+  <conditionalFormatting sqref="B4:E613">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M600">
+  <conditionalFormatting sqref="B4:M613">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -18398,7 +18701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O599"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F602" sqref="F602"/>
     </sheetView>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC539D1-FA10-4A28-A646-0C6BA3BB98A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8057504F-987B-4362-9E14-840886BAF9B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD613"/>
+  <dimension ref="A1:AMD614"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J606" sqref="J606"/>
+      <selection pane="bottomLeft" activeCell="H610" sqref="H610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18359,7 +18359,7 @@
         <v>598</v>
       </c>
       <c r="B601" s="7" t="str">
-        <f t="shared" ref="B601:B613" si="67">IF(C601&lt;&gt;"",TEXT(C601,"ДДД"),"")</f>
+        <f t="shared" ref="B601:B614" si="67">IF(C601&lt;&gt;"",TEXT(C601,"ДДД"),"")</f>
         <v>Вт</v>
       </c>
       <c r="C601" s="8">
@@ -18426,14 +18426,31 @@
       <c r="C603" s="8">
         <v>45834</v>
       </c>
-      <c r="D603" s="9"/>
-      <c r="E603" s="10"/>
-      <c r="F603" s="11"/>
-      <c r="G603" s="12"/>
-      <c r="H603" s="11"/>
-      <c r="I603" s="12"/>
-      <c r="J603" s="11"/>
-      <c r="K603" s="12"/>
+      <c r="D603" s="9">
+        <v>2800</v>
+      </c>
+      <c r="E603" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F603" s="11">
+        <v>3100</v>
+      </c>
+      <c r="G603" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H603" s="11">
+        <f>2700+3000</f>
+        <v>5700</v>
+      </c>
+      <c r="I603" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J603" s="11">
+        <v>12300</v>
+      </c>
+      <c r="K603" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L603" s="11"/>
       <c r="M603" s="12"/>
     </row>
@@ -18442,20 +18459,37 @@
         <v>601</v>
       </c>
       <c r="B604" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Пт</v>
+        <f t="shared" ref="B604" si="68">IF(C604&lt;&gt;"",TEXT(C604,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C604" s="8">
-        <v>45835</v>
-      </c>
-      <c r="D604" s="9"/>
-      <c r="E604" s="10"/>
-      <c r="F604" s="11"/>
-      <c r="G604" s="12"/>
-      <c r="H604" s="11"/>
-      <c r="I604" s="12"/>
-      <c r="J604" s="11"/>
-      <c r="K604" s="12"/>
+        <v>45834</v>
+      </c>
+      <c r="D604" s="9">
+        <v>8600</v>
+      </c>
+      <c r="E604" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F604" s="11">
+        <f>800+2900</f>
+        <v>3700</v>
+      </c>
+      <c r="G604" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H604" s="11">
+        <v>5200</v>
+      </c>
+      <c r="I604" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J604" s="11">
+        <v>8600</v>
+      </c>
+      <c r="K604" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="L604" s="11"/>
       <c r="M604" s="12"/>
     </row>
@@ -18465,19 +18499,27 @@
       </c>
       <c r="B605" s="7" t="str">
         <f t="shared" si="67"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C605" s="8">
-        <v>45836</v>
+        <v>45835</v>
       </c>
       <c r="D605" s="9"/>
       <c r="E605" s="10"/>
       <c r="F605" s="11"/>
       <c r="G605" s="12"/>
-      <c r="H605" s="11"/>
-      <c r="I605" s="12"/>
-      <c r="J605" s="11"/>
-      <c r="K605" s="12"/>
+      <c r="H605" s="11">
+        <v>3400</v>
+      </c>
+      <c r="I605" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J605" s="11">
+        <v>7200</v>
+      </c>
+      <c r="K605" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L605" s="11"/>
       <c r="M605" s="12"/>
     </row>
@@ -18487,10 +18529,10 @@
       </c>
       <c r="B606" s="7" t="str">
         <f t="shared" si="67"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C606" s="8">
-        <v>45837</v>
+        <v>45836</v>
       </c>
       <c r="D606" s="9"/>
       <c r="E606" s="10"/>
@@ -18509,10 +18551,10 @@
       </c>
       <c r="B607" s="7" t="str">
         <f t="shared" si="67"/>
-        <v>Пн</v>
+        <v>Вс</v>
       </c>
       <c r="C607" s="8">
-        <v>45838</v>
+        <v>45837</v>
       </c>
       <c r="D607" s="9"/>
       <c r="E607" s="10"/>
@@ -18531,10 +18573,10 @@
       </c>
       <c r="B608" s="7" t="str">
         <f t="shared" si="67"/>
-        <v>Вт</v>
+        <v>Пн</v>
       </c>
       <c r="C608" s="8">
-        <v>45839</v>
+        <v>45838</v>
       </c>
       <c r="D608" s="9"/>
       <c r="E608" s="10"/>
@@ -18553,10 +18595,10 @@
       </c>
       <c r="B609" s="7" t="str">
         <f t="shared" si="67"/>
-        <v>Ср</v>
+        <v>Вт</v>
       </c>
       <c r="C609" s="8">
-        <v>45840</v>
+        <v>45839</v>
       </c>
       <c r="D609" s="9"/>
       <c r="E609" s="10"/>
@@ -18575,10 +18617,10 @@
       </c>
       <c r="B610" s="7" t="str">
         <f t="shared" si="67"/>
-        <v>Чт</v>
+        <v>Ср</v>
       </c>
       <c r="C610" s="8">
-        <v>45841</v>
+        <v>45840</v>
       </c>
       <c r="D610" s="9"/>
       <c r="E610" s="10"/>
@@ -18597,10 +18639,10 @@
       </c>
       <c r="B611" s="7" t="str">
         <f t="shared" si="67"/>
-        <v>Пт</v>
+        <v>Чт</v>
       </c>
       <c r="C611" s="8">
-        <v>45842</v>
+        <v>45841</v>
       </c>
       <c r="D611" s="9"/>
       <c r="E611" s="10"/>
@@ -18619,10 +18661,10 @@
       </c>
       <c r="B612" s="7" t="str">
         <f t="shared" si="67"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C612" s="8">
-        <v>45843</v>
+        <v>45842</v>
       </c>
       <c r="D612" s="9"/>
       <c r="E612" s="10"/>
@@ -18641,10 +18683,10 @@
       </c>
       <c r="B613" s="7" t="str">
         <f t="shared" si="67"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C613" s="8">
-        <v>45844</v>
+        <v>45843</v>
       </c>
       <c r="D613" s="9"/>
       <c r="E613" s="10"/>
@@ -18657,17 +18699,39 @@
       <c r="L613" s="11"/>
       <c r="M613" s="12"/>
     </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>611</v>
+      </c>
+      <c r="B614" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Вс</v>
+      </c>
+      <c r="C614" s="8">
+        <v>45844</v>
+      </c>
+      <c r="D614" s="9"/>
+      <c r="E614" s="10"/>
+      <c r="F614" s="11"/>
+      <c r="G614" s="12"/>
+      <c r="H614" s="11"/>
+      <c r="I614" s="12"/>
+      <c r="J614" s="11"/>
+      <c r="K614" s="12"/>
+      <c r="L614" s="11"/>
+      <c r="M614" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E613">
+  <conditionalFormatting sqref="B4:E614">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M613">
+  <conditionalFormatting sqref="B4:M614">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8057504F-987B-4362-9E14-840886BAF9B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043AC561-6486-4F67-935D-76D07FF1C307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ПОКОМ!$A$1:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -887,9 +887,9 @@
   </sheetPr>
   <dimension ref="A1:AMD614"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H610" sqref="H610"/>
+      <selection pane="bottomLeft" activeCell="H616" sqref="H616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18562,10 +18562,18 @@
       <c r="G607" s="12"/>
       <c r="H607" s="11"/>
       <c r="I607" s="12"/>
-      <c r="J607" s="11"/>
-      <c r="K607" s="12"/>
-      <c r="L607" s="11"/>
-      <c r="M607" s="12"/>
+      <c r="J607" s="11">
+        <v>7000</v>
+      </c>
+      <c r="K607" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L607" s="11">
+        <v>5200</v>
+      </c>
+      <c r="M607" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
@@ -18763,11 +18771,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O599"/>
+  <dimension ref="A1:O611"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F602" sqref="F602"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H609" sqref="H609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33837,18 +33845,298 @@
       <c r="J599" s="11"/>
       <c r="K599" s="12"/>
     </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>599</v>
+      </c>
+      <c r="B600" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C600" s="8">
+        <v>45837</v>
+      </c>
+      <c r="D600" s="9"/>
+      <c r="E600" s="10"/>
+      <c r="F600" s="11"/>
+      <c r="G600" s="12"/>
+      <c r="H600" s="11"/>
+      <c r="I600" s="12"/>
+      <c r="J600" s="11"/>
+      <c r="K600" s="12"/>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
+        <v>600</v>
+      </c>
+      <c r="B601" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C601" s="8">
+        <v>45838</v>
+      </c>
+      <c r="D601" s="9"/>
+      <c r="E601" s="10"/>
+      <c r="F601" s="11"/>
+      <c r="G601" s="12"/>
+      <c r="H601" s="11"/>
+      <c r="I601" s="12"/>
+      <c r="J601" s="11"/>
+      <c r="K601" s="12"/>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>601</v>
+      </c>
+      <c r="B602" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C602" s="8">
+        <v>45839</v>
+      </c>
+      <c r="D602" s="9">
+        <v>3400</v>
+      </c>
+      <c r="E602" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F602" s="11">
+        <v>3700</v>
+      </c>
+      <c r="G602" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H602" s="11"/>
+      <c r="I602" s="12"/>
+      <c r="J602" s="11">
+        <v>4000</v>
+      </c>
+      <c r="K602" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>602</v>
+      </c>
+      <c r="B603" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C603" s="8">
+        <v>45840</v>
+      </c>
+      <c r="D603" s="9"/>
+      <c r="E603" s="10"/>
+      <c r="F603" s="11"/>
+      <c r="G603" s="12"/>
+      <c r="H603" s="11"/>
+      <c r="I603" s="12"/>
+      <c r="J603" s="11"/>
+      <c r="K603" s="12"/>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>603</v>
+      </c>
+      <c r="B604" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C604" s="8">
+        <v>45841</v>
+      </c>
+      <c r="D604" s="9">
+        <v>2100</v>
+      </c>
+      <c r="E604" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F604" s="11">
+        <v>2300</v>
+      </c>
+      <c r="G604" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H604" s="11">
+        <v>2900</v>
+      </c>
+      <c r="I604" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J604" s="11">
+        <v>2500</v>
+      </c>
+      <c r="K604" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>604</v>
+      </c>
+      <c r="B605" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C605" s="8">
+        <v>45841</v>
+      </c>
+      <c r="D605" s="9">
+        <v>1700</v>
+      </c>
+      <c r="E605" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F605" s="11">
+        <v>300</v>
+      </c>
+      <c r="G605" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H605" s="11"/>
+      <c r="I605" s="12"/>
+      <c r="J605" s="11">
+        <v>100</v>
+      </c>
+      <c r="K605" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>605</v>
+      </c>
+      <c r="B606" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C606" s="8">
+        <v>45841</v>
+      </c>
+      <c r="D606" s="9">
+        <v>900</v>
+      </c>
+      <c r="E606" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F606" s="11">
+        <v>500</v>
+      </c>
+      <c r="G606" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H606" s="11"/>
+      <c r="I606" s="12"/>
+      <c r="J606" s="11">
+        <v>20</v>
+      </c>
+      <c r="K606" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>606</v>
+      </c>
+      <c r="B607" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C607" s="8">
+        <v>45842</v>
+      </c>
+      <c r="D607" s="9"/>
+      <c r="E607" s="10"/>
+      <c r="F607" s="11"/>
+      <c r="G607" s="12"/>
+      <c r="H607" s="11"/>
+      <c r="I607" s="12"/>
+      <c r="J607" s="11"/>
+      <c r="K607" s="12"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>607</v>
+      </c>
+      <c r="B608" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C608" s="8">
+        <v>45843</v>
+      </c>
+      <c r="D608" s="9"/>
+      <c r="E608" s="10"/>
+      <c r="F608" s="11"/>
+      <c r="G608" s="12"/>
+      <c r="H608" s="11"/>
+      <c r="I608" s="12"/>
+      <c r="J608" s="11"/>
+      <c r="K608" s="12"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
+        <v>608</v>
+      </c>
+      <c r="B609" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C609" s="8">
+        <v>45844</v>
+      </c>
+      <c r="D609" s="9"/>
+      <c r="E609" s="10"/>
+      <c r="F609" s="11"/>
+      <c r="G609" s="12"/>
+      <c r="H609" s="11"/>
+      <c r="I609" s="12"/>
+      <c r="J609" s="11"/>
+      <c r="K609" s="12"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>609</v>
+      </c>
+      <c r="B610" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C610" s="8">
+        <v>45845</v>
+      </c>
+      <c r="D610" s="9"/>
+      <c r="E610" s="10"/>
+      <c r="F610" s="11"/>
+      <c r="G610" s="12"/>
+      <c r="H610" s="11"/>
+      <c r="I610" s="12"/>
+      <c r="J610" s="11"/>
+      <c r="K610" s="12"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
+        <v>610</v>
+      </c>
+      <c r="B611" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C611" s="8">
+        <v>45846</v>
+      </c>
+      <c r="D611" s="9"/>
+      <c r="E611" s="10"/>
+      <c r="F611" s="11"/>
+      <c r="G611" s="12"/>
+      <c r="H611" s="11"/>
+      <c r="I611" s="12"/>
+      <c r="J611" s="11"/>
+      <c r="K611" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E599">
+  <conditionalFormatting sqref="B4:E611">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K599 B374:C599">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K611 B374:C611">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043AC561-6486-4F67-935D-76D07FF1C307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623DDAF3-6CA4-444E-A00A-DE55F7045C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -887,9 +887,9 @@
   </sheetPr>
   <dimension ref="A1:AMD614"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H616" sqref="H616"/>
+      <selection pane="bottomLeft" activeCell="H615" sqref="H615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18608,14 +18608,32 @@
       <c r="C609" s="8">
         <v>45839</v>
       </c>
-      <c r="D609" s="9"/>
-      <c r="E609" s="10"/>
-      <c r="F609" s="11"/>
-      <c r="G609" s="12"/>
-      <c r="H609" s="11"/>
-      <c r="I609" s="12"/>
-      <c r="J609" s="11"/>
-      <c r="K609" s="12"/>
+      <c r="D609" s="9">
+        <f>4800+900</f>
+        <v>5700</v>
+      </c>
+      <c r="E609" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F609" s="11">
+        <f>3200+2600</f>
+        <v>5800</v>
+      </c>
+      <c r="G609" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H609" s="11">
+        <v>11200</v>
+      </c>
+      <c r="I609" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J609" s="11">
+        <v>12400</v>
+      </c>
+      <c r="K609" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L609" s="11"/>
       <c r="M609" s="12"/>
     </row>
@@ -18773,7 +18791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O611"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H609" sqref="H609"/>
     </sheetView>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623DDAF3-6CA4-444E-A00A-DE55F7045C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5032D3-2A69-4C87-B6F9-E80B346714D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD614"/>
+  <dimension ref="A1:AMD615"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H615" sqref="H615"/>
+      <selection pane="bottomLeft" activeCell="H618" sqref="H618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18359,7 +18359,7 @@
         <v>598</v>
       </c>
       <c r="B601" s="7" t="str">
-        <f t="shared" ref="B601:B614" si="67">IF(C601&lt;&gt;"",TEXT(C601,"ДДД"),"")</f>
+        <f t="shared" ref="B601:B615" si="67">IF(C601&lt;&gt;"",TEXT(C601,"ДДД"),"")</f>
         <v>Вт</v>
       </c>
       <c r="C601" s="8">
@@ -18652,8 +18652,12 @@
       <c r="E610" s="10"/>
       <c r="F610" s="11"/>
       <c r="G610" s="12"/>
-      <c r="H610" s="11"/>
-      <c r="I610" s="12"/>
+      <c r="H610" s="11">
+        <v>11100</v>
+      </c>
+      <c r="I610" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="J610" s="11"/>
       <c r="K610" s="12"/>
       <c r="L610" s="11"/>
@@ -18670,14 +18674,30 @@
       <c r="C611" s="8">
         <v>45841</v>
       </c>
-      <c r="D611" s="9"/>
-      <c r="E611" s="10"/>
-      <c r="F611" s="11"/>
-      <c r="G611" s="12"/>
-      <c r="H611" s="11"/>
-      <c r="I611" s="12"/>
-      <c r="J611" s="11"/>
-      <c r="K611" s="12"/>
+      <c r="D611" s="9">
+        <v>2300</v>
+      </c>
+      <c r="E611" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F611" s="11">
+        <v>3300</v>
+      </c>
+      <c r="G611" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H611" s="11">
+        <v>2500</v>
+      </c>
+      <c r="I611" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J611" s="11">
+        <v>14500</v>
+      </c>
+      <c r="K611" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L611" s="11"/>
       <c r="M611" s="12"/>
     </row>
@@ -18686,20 +18706,36 @@
         <v>609</v>
       </c>
       <c r="B612" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Пт</v>
+        <f t="shared" ref="B612" si="69">IF(C612&lt;&gt;"",TEXT(C612,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C612" s="8">
-        <v>45842</v>
-      </c>
-      <c r="D612" s="9"/>
-      <c r="E612" s="10"/>
-      <c r="F612" s="11"/>
-      <c r="G612" s="12"/>
-      <c r="H612" s="11"/>
-      <c r="I612" s="12"/>
-      <c r="J612" s="11"/>
-      <c r="K612" s="12"/>
+        <v>45841</v>
+      </c>
+      <c r="D612" s="9">
+        <v>6500</v>
+      </c>
+      <c r="E612" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F612" s="11">
+        <v>6600</v>
+      </c>
+      <c r="G612" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H612" s="11">
+        <v>5100</v>
+      </c>
+      <c r="I612" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J612" s="11">
+        <v>6600</v>
+      </c>
+      <c r="K612" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="L612" s="11"/>
       <c r="M612" s="12"/>
     </row>
@@ -18709,10 +18745,10 @@
       </c>
       <c r="B613" s="7" t="str">
         <f t="shared" si="67"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C613" s="8">
-        <v>45843</v>
+        <v>45842</v>
       </c>
       <c r="D613" s="9"/>
       <c r="E613" s="10"/>
@@ -18731,10 +18767,10 @@
       </c>
       <c r="B614" s="7" t="str">
         <f t="shared" si="67"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C614" s="8">
-        <v>45844</v>
+        <v>45843</v>
       </c>
       <c r="D614" s="9"/>
       <c r="E614" s="10"/>
@@ -18747,17 +18783,39 @@
       <c r="L614" s="11"/>
       <c r="M614" s="12"/>
     </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
+        <v>612</v>
+      </c>
+      <c r="B615" s="7" t="str">
+        <f t="shared" si="67"/>
+        <v>Вс</v>
+      </c>
+      <c r="C615" s="8">
+        <v>45844</v>
+      </c>
+      <c r="D615" s="9"/>
+      <c r="E615" s="10"/>
+      <c r="F615" s="11"/>
+      <c r="G615" s="12"/>
+      <c r="H615" s="11"/>
+      <c r="I615" s="12"/>
+      <c r="J615" s="11"/>
+      <c r="K615" s="12"/>
+      <c r="L615" s="11"/>
+      <c r="M615" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E614">
+  <conditionalFormatting sqref="B4:E615">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M614">
+  <conditionalFormatting sqref="B4:M615">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5032D3-2A69-4C87-B6F9-E80B346714D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3878E0EB-4322-4142-AC73-B855110B2EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD615"/>
+  <dimension ref="A1:AMD618"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H618" sqref="H618"/>
+      <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I627" sqref="I627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18165,7 +18165,7 @@
         <v>591</v>
       </c>
       <c r="B594" s="7" t="str">
-        <f t="shared" ref="B594:B600" si="65">IF(C594&lt;&gt;"",TEXT(C594,"ДДД"),"")</f>
+        <f t="shared" ref="B594:B601" si="65">IF(C594&lt;&gt;"",TEXT(C594,"ДДД"),"")</f>
         <v>Ср</v>
       </c>
       <c r="C594" s="8">
@@ -18337,11 +18337,11 @@
         <v>597</v>
       </c>
       <c r="B600" s="7" t="str">
-        <f t="shared" si="65"/>
-        <v>Пн</v>
+        <f t="shared" ref="B600" si="67">IF(C600&lt;&gt;"",TEXT(C600,"ДДД"),"")</f>
+        <v>Вс</v>
       </c>
       <c r="C600" s="8">
-        <v>45831</v>
+        <v>45830</v>
       </c>
       <c r="D600" s="9"/>
       <c r="E600" s="10"/>
@@ -18351,45 +18351,32 @@
       <c r="I600" s="12"/>
       <c r="J600" s="11"/>
       <c r="K600" s="12"/>
-      <c r="L600" s="11"/>
-      <c r="M600" s="12"/>
+      <c r="L600" s="11">
+        <v>5800</v>
+      </c>
+      <c r="M600" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>598</v>
       </c>
       <c r="B601" s="7" t="str">
-        <f t="shared" ref="B601:B615" si="67">IF(C601&lt;&gt;"",TEXT(C601,"ДДД"),"")</f>
-        <v>Вт</v>
+        <f t="shared" si="65"/>
+        <v>Пн</v>
       </c>
       <c r="C601" s="8">
-        <v>45832</v>
-      </c>
-      <c r="D601" s="9">
-        <v>5100</v>
-      </c>
-      <c r="E601" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F601" s="11">
-        <v>2500</v>
-      </c>
-      <c r="G601" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H601" s="11">
-        <f>14500+6400</f>
-        <v>20900</v>
-      </c>
-      <c r="I601" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J601" s="11">
-        <v>17500</v>
-      </c>
-      <c r="K601" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>45831</v>
+      </c>
+      <c r="D601" s="9"/>
+      <c r="E601" s="10"/>
+      <c r="F601" s="11"/>
+      <c r="G601" s="12"/>
+      <c r="H601" s="11"/>
+      <c r="I601" s="12"/>
+      <c r="J601" s="11"/>
+      <c r="K601" s="12"/>
       <c r="L601" s="11"/>
       <c r="M601" s="12"/>
     </row>
@@ -18398,20 +18385,37 @@
         <v>599</v>
       </c>
       <c r="B602" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Ср</v>
+        <f t="shared" ref="B602:B616" si="68">IF(C602&lt;&gt;"",TEXT(C602,"ДДД"),"")</f>
+        <v>Вт</v>
       </c>
       <c r="C602" s="8">
-        <v>45833</v>
-      </c>
-      <c r="D602" s="9"/>
-      <c r="E602" s="10"/>
-      <c r="F602" s="11"/>
-      <c r="G602" s="12"/>
-      <c r="H602" s="11"/>
-      <c r="I602" s="12"/>
-      <c r="J602" s="11"/>
-      <c r="K602" s="12"/>
+        <v>45832</v>
+      </c>
+      <c r="D602" s="9">
+        <v>5100</v>
+      </c>
+      <c r="E602" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F602" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G602" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H602" s="11">
+        <f>14500+6400</f>
+        <v>20900</v>
+      </c>
+      <c r="I602" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J602" s="11">
+        <v>17500</v>
+      </c>
+      <c r="K602" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L602" s="11"/>
       <c r="M602" s="12"/>
     </row>
@@ -18420,37 +18424,20 @@
         <v>600</v>
       </c>
       <c r="B603" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Чт</v>
+        <f t="shared" si="68"/>
+        <v>Ср</v>
       </c>
       <c r="C603" s="8">
-        <v>45834</v>
-      </c>
-      <c r="D603" s="9">
-        <v>2800</v>
-      </c>
-      <c r="E603" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F603" s="11">
-        <v>3100</v>
-      </c>
-      <c r="G603" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H603" s="11">
-        <f>2700+3000</f>
-        <v>5700</v>
-      </c>
-      <c r="I603" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J603" s="11">
-        <v>12300</v>
-      </c>
-      <c r="K603" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>45833</v>
+      </c>
+      <c r="D603" s="9"/>
+      <c r="E603" s="10"/>
+      <c r="F603" s="11"/>
+      <c r="G603" s="12"/>
+      <c r="H603" s="11"/>
+      <c r="I603" s="12"/>
+      <c r="J603" s="11"/>
+      <c r="K603" s="12"/>
       <c r="L603" s="11"/>
       <c r="M603" s="12"/>
     </row>
@@ -18459,36 +18446,36 @@
         <v>601</v>
       </c>
       <c r="B604" s="7" t="str">
-        <f t="shared" ref="B604" si="68">IF(C604&lt;&gt;"",TEXT(C604,"ДДД"),"")</f>
+        <f t="shared" si="68"/>
         <v>Чт</v>
       </c>
       <c r="C604" s="8">
         <v>45834</v>
       </c>
       <c r="D604" s="9">
-        <v>8600</v>
+        <v>2800</v>
       </c>
       <c r="E604" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F604" s="11">
-        <f>800+2900</f>
-        <v>3700</v>
+        <v>3100</v>
       </c>
       <c r="G604" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H604" s="11">
-        <v>5200</v>
+        <f>2700+3000</f>
+        <v>5700</v>
       </c>
       <c r="I604" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J604" s="11">
-        <v>8600</v>
+        <v>12300</v>
       </c>
       <c r="K604" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L604" s="11"/>
       <c r="M604" s="12"/>
@@ -18498,27 +18485,36 @@
         <v>602</v>
       </c>
       <c r="B605" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Пт</v>
+        <f t="shared" ref="B605" si="69">IF(C605&lt;&gt;"",TEXT(C605,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C605" s="8">
-        <v>45835</v>
-      </c>
-      <c r="D605" s="9"/>
-      <c r="E605" s="10"/>
-      <c r="F605" s="11"/>
-      <c r="G605" s="12"/>
+        <v>45834</v>
+      </c>
+      <c r="D605" s="9">
+        <v>8600</v>
+      </c>
+      <c r="E605" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F605" s="11">
+        <f>800+2900</f>
+        <v>3700</v>
+      </c>
+      <c r="G605" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H605" s="11">
-        <v>3400</v>
+        <v>5200</v>
       </c>
       <c r="I605" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J605" s="11">
-        <v>7200</v>
+        <v>8600</v>
       </c>
       <c r="K605" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L605" s="11"/>
       <c r="M605" s="12"/>
@@ -18528,20 +18524,28 @@
         <v>603</v>
       </c>
       <c r="B606" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Сб</v>
+        <f t="shared" si="68"/>
+        <v>Пт</v>
       </c>
       <c r="C606" s="8">
-        <v>45836</v>
+        <v>45835</v>
       </c>
       <c r="D606" s="9"/>
       <c r="E606" s="10"/>
       <c r="F606" s="11"/>
       <c r="G606" s="12"/>
-      <c r="H606" s="11"/>
-      <c r="I606" s="12"/>
-      <c r="J606" s="11"/>
-      <c r="K606" s="12"/>
+      <c r="H606" s="11">
+        <v>3400</v>
+      </c>
+      <c r="I606" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J606" s="11">
+        <v>7200</v>
+      </c>
+      <c r="K606" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L606" s="11"/>
       <c r="M606" s="12"/>
     </row>
@@ -18550,11 +18554,11 @@
         <v>604</v>
       </c>
       <c r="B607" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Вс</v>
+        <f t="shared" si="68"/>
+        <v>Сб</v>
       </c>
       <c r="C607" s="8">
-        <v>45837</v>
+        <v>45836</v>
       </c>
       <c r="D607" s="9"/>
       <c r="E607" s="10"/>
@@ -18562,29 +18566,21 @@
       <c r="G607" s="12"/>
       <c r="H607" s="11"/>
       <c r="I607" s="12"/>
-      <c r="J607" s="11">
-        <v>7000</v>
-      </c>
-      <c r="K607" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L607" s="11">
-        <v>5200</v>
-      </c>
-      <c r="M607" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="J607" s="11"/>
+      <c r="K607" s="12"/>
+      <c r="L607" s="11"/>
+      <c r="M607" s="12"/>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>605</v>
       </c>
       <c r="B608" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Пн</v>
+        <f t="shared" si="68"/>
+        <v>Вс</v>
       </c>
       <c r="C608" s="8">
-        <v>45838</v>
+        <v>45837</v>
       </c>
       <c r="D608" s="9"/>
       <c r="E608" s="10"/>
@@ -18592,48 +18588,38 @@
       <c r="G608" s="12"/>
       <c r="H608" s="11"/>
       <c r="I608" s="12"/>
-      <c r="J608" s="11"/>
-      <c r="K608" s="12"/>
-      <c r="L608" s="11"/>
-      <c r="M608" s="12"/>
+      <c r="J608" s="11">
+        <v>7000</v>
+      </c>
+      <c r="K608" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L608" s="11">
+        <v>5200</v>
+      </c>
+      <c r="M608" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>606</v>
       </c>
       <c r="B609" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Вт</v>
+        <f t="shared" si="68"/>
+        <v>Пн</v>
       </c>
       <c r="C609" s="8">
-        <v>45839</v>
-      </c>
-      <c r="D609" s="9">
-        <f>4800+900</f>
-        <v>5700</v>
-      </c>
-      <c r="E609" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F609" s="11">
-        <f>3200+2600</f>
-        <v>5800</v>
-      </c>
-      <c r="G609" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H609" s="11">
-        <v>11200</v>
-      </c>
-      <c r="I609" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J609" s="11">
-        <v>12400</v>
-      </c>
-      <c r="K609" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>45838</v>
+      </c>
+      <c r="D609" s="9"/>
+      <c r="E609" s="10"/>
+      <c r="F609" s="11"/>
+      <c r="G609" s="12"/>
+      <c r="H609" s="11"/>
+      <c r="I609" s="12"/>
+      <c r="J609" s="11"/>
+      <c r="K609" s="12"/>
       <c r="L609" s="11"/>
       <c r="M609" s="12"/>
     </row>
@@ -18642,24 +18628,38 @@
         <v>607</v>
       </c>
       <c r="B610" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Ср</v>
+        <f t="shared" si="68"/>
+        <v>Вт</v>
       </c>
       <c r="C610" s="8">
-        <v>45840</v>
-      </c>
-      <c r="D610" s="9"/>
-      <c r="E610" s="10"/>
-      <c r="F610" s="11"/>
-      <c r="G610" s="12"/>
+        <v>45839</v>
+      </c>
+      <c r="D610" s="9">
+        <f>4800+900</f>
+        <v>5700</v>
+      </c>
+      <c r="E610" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F610" s="11">
+        <f>3200+2600</f>
+        <v>5800</v>
+      </c>
+      <c r="G610" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H610" s="11">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="I610" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J610" s="11"/>
-      <c r="K610" s="12"/>
+      <c r="J610" s="11">
+        <v>12400</v>
+      </c>
+      <c r="K610" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L610" s="11"/>
       <c r="M610" s="12"/>
     </row>
@@ -18668,36 +18668,24 @@
         <v>608</v>
       </c>
       <c r="B611" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Чт</v>
+        <f t="shared" si="68"/>
+        <v>Ср</v>
       </c>
       <c r="C611" s="8">
-        <v>45841</v>
-      </c>
-      <c r="D611" s="9">
-        <v>2300</v>
-      </c>
-      <c r="E611" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F611" s="11">
-        <v>3300</v>
-      </c>
-      <c r="G611" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>45840</v>
+      </c>
+      <c r="D611" s="9"/>
+      <c r="E611" s="10"/>
+      <c r="F611" s="11"/>
+      <c r="G611" s="12"/>
       <c r="H611" s="11">
-        <v>2500</v>
+        <v>11100</v>
       </c>
       <c r="I611" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J611" s="11">
-        <v>14500</v>
-      </c>
-      <c r="K611" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="J611" s="11"/>
+      <c r="K611" s="12"/>
       <c r="L611" s="11"/>
       <c r="M611" s="12"/>
     </row>
@@ -18706,35 +18694,35 @@
         <v>609</v>
       </c>
       <c r="B612" s="7" t="str">
-        <f t="shared" ref="B612" si="69">IF(C612&lt;&gt;"",TEXT(C612,"ДДД"),"")</f>
+        <f t="shared" si="68"/>
         <v>Чт</v>
       </c>
       <c r="C612" s="8">
         <v>45841</v>
       </c>
       <c r="D612" s="9">
-        <v>6500</v>
+        <v>2300</v>
       </c>
       <c r="E612" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F612" s="11">
-        <v>6600</v>
+        <v>3300</v>
       </c>
       <c r="G612" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H612" s="11">
-        <v>5100</v>
+        <v>2500</v>
       </c>
       <c r="I612" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J612" s="11">
-        <v>6600</v>
+        <v>14500</v>
       </c>
       <c r="K612" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L612" s="11"/>
       <c r="M612" s="12"/>
@@ -18744,20 +18732,36 @@
         <v>610</v>
       </c>
       <c r="B613" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Пт</v>
+        <f t="shared" ref="B613" si="70">IF(C613&lt;&gt;"",TEXT(C613,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C613" s="8">
-        <v>45842</v>
-      </c>
-      <c r="D613" s="9"/>
-      <c r="E613" s="10"/>
-      <c r="F613" s="11"/>
-      <c r="G613" s="12"/>
-      <c r="H613" s="11"/>
-      <c r="I613" s="12"/>
-      <c r="J613" s="11"/>
-      <c r="K613" s="12"/>
+        <v>45841</v>
+      </c>
+      <c r="D613" s="9">
+        <v>6500</v>
+      </c>
+      <c r="E613" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F613" s="11">
+        <v>6600</v>
+      </c>
+      <c r="G613" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H613" s="11">
+        <v>5100</v>
+      </c>
+      <c r="I613" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J613" s="11">
+        <v>6600</v>
+      </c>
+      <c r="K613" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="L613" s="11"/>
       <c r="M613" s="12"/>
     </row>
@@ -18766,11 +18770,11 @@
         <v>611</v>
       </c>
       <c r="B614" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Сб</v>
+        <f t="shared" si="68"/>
+        <v>Пт</v>
       </c>
       <c r="C614" s="8">
-        <v>45843</v>
+        <v>45842</v>
       </c>
       <c r="D614" s="9"/>
       <c r="E614" s="10"/>
@@ -18788,11 +18792,11 @@
         <v>612</v>
       </c>
       <c r="B615" s="7" t="str">
-        <f t="shared" si="67"/>
-        <v>Вс</v>
+        <f t="shared" si="68"/>
+        <v>Сб</v>
       </c>
       <c r="C615" s="8">
-        <v>45844</v>
+        <v>45843</v>
       </c>
       <c r="D615" s="9"/>
       <c r="E615" s="10"/>
@@ -18805,17 +18809,87 @@
       <c r="L615" s="11"/>
       <c r="M615" s="12"/>
     </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>613</v>
+      </c>
+      <c r="B616" s="7" t="str">
+        <f t="shared" si="68"/>
+        <v>Вс</v>
+      </c>
+      <c r="C616" s="8">
+        <v>45844</v>
+      </c>
+      <c r="D616" s="9"/>
+      <c r="E616" s="10"/>
+      <c r="F616" s="11"/>
+      <c r="G616" s="12"/>
+      <c r="H616" s="11"/>
+      <c r="I616" s="12"/>
+      <c r="J616" s="11"/>
+      <c r="K616" s="12"/>
+      <c r="L616" s="11">
+        <v>3900</v>
+      </c>
+      <c r="M616" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
+        <v>614</v>
+      </c>
+      <c r="B617" s="7" t="str">
+        <f t="shared" ref="B617:B618" si="71">IF(C617&lt;&gt;"",TEXT(C617,"ДДД"),"")</f>
+        <v>Пн</v>
+      </c>
+      <c r="C617" s="8">
+        <v>45845</v>
+      </c>
+      <c r="D617" s="9"/>
+      <c r="E617" s="10"/>
+      <c r="F617" s="11"/>
+      <c r="G617" s="12"/>
+      <c r="H617" s="11"/>
+      <c r="I617" s="12"/>
+      <c r="J617" s="11"/>
+      <c r="K617" s="12"/>
+      <c r="L617" s="11"/>
+      <c r="M617" s="12"/>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>615</v>
+      </c>
+      <c r="B618" s="7" t="str">
+        <f t="shared" si="71"/>
+        <v>Вт</v>
+      </c>
+      <c r="C618" s="8">
+        <v>45846</v>
+      </c>
+      <c r="D618" s="9"/>
+      <c r="E618" s="10"/>
+      <c r="F618" s="11"/>
+      <c r="G618" s="12"/>
+      <c r="H618" s="11"/>
+      <c r="I618" s="12"/>
+      <c r="J618" s="11"/>
+      <c r="K618" s="12"/>
+      <c r="L618" s="11"/>
+      <c r="M618" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E615">
+  <conditionalFormatting sqref="B4:E618">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M615">
+  <conditionalFormatting sqref="B4:M618">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3878E0EB-4322-4142-AC73-B855110B2EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13232AC-F929-45D7-887C-039E35209C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -887,7 +887,7 @@
   </sheetPr>
   <dimension ref="A1:AMD618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I627" sqref="I627"/>
     </sheetView>
@@ -18921,11 +18921,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O611"/>
+  <dimension ref="A1:O617"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H609" sqref="H609"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H620" sqref="H620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34266,14 +34266,190 @@
       <c r="C611" s="8">
         <v>45846</v>
       </c>
-      <c r="D611" s="9"/>
-      <c r="E611" s="10"/>
-      <c r="F611" s="11"/>
-      <c r="G611" s="12"/>
-      <c r="H611" s="11"/>
-      <c r="I611" s="12"/>
-      <c r="J611" s="11"/>
-      <c r="K611" s="12"/>
+      <c r="D611" s="9">
+        <f>4600+4300</f>
+        <v>8900</v>
+      </c>
+      <c r="E611" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F611" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G611" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H611" s="11">
+        <v>2700</v>
+      </c>
+      <c r="I611" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J611" s="11">
+        <f>6200+5800</f>
+        <v>12000</v>
+      </c>
+      <c r="K611" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
+        <v>611</v>
+      </c>
+      <c r="B612" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C612" s="8">
+        <v>45847</v>
+      </c>
+      <c r="D612" s="9"/>
+      <c r="E612" s="10"/>
+      <c r="F612" s="11"/>
+      <c r="G612" s="12"/>
+      <c r="H612" s="11"/>
+      <c r="I612" s="12"/>
+      <c r="J612" s="11"/>
+      <c r="K612" s="12"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
+        <v>612</v>
+      </c>
+      <c r="B613" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C613" s="8">
+        <v>45848</v>
+      </c>
+      <c r="D613" s="9">
+        <v>700</v>
+      </c>
+      <c r="E613" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F613" s="11">
+        <v>700</v>
+      </c>
+      <c r="G613" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H613" s="11">
+        <v>400</v>
+      </c>
+      <c r="I613" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J613" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K613" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>613</v>
+      </c>
+      <c r="B614" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C614" s="8">
+        <v>45848</v>
+      </c>
+      <c r="D614" s="9">
+        <v>1200</v>
+      </c>
+      <c r="E614" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F614" s="11">
+        <v>900</v>
+      </c>
+      <c r="G614" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H614" s="11">
+        <v>200</v>
+      </c>
+      <c r="I614" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J614" s="11">
+        <v>700</v>
+      </c>
+      <c r="K614" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
+        <v>614</v>
+      </c>
+      <c r="B615" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C615" s="8">
+        <v>45848</v>
+      </c>
+      <c r="D615" s="9">
+        <v>500</v>
+      </c>
+      <c r="E615" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F615" s="11">
+        <v>500</v>
+      </c>
+      <c r="G615" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H615" s="11"/>
+      <c r="I615" s="12"/>
+      <c r="J615" s="11">
+        <v>100</v>
+      </c>
+      <c r="K615" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>615</v>
+      </c>
+      <c r="B616" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C616" s="8">
+        <v>45849</v>
+      </c>
+      <c r="D616" s="9"/>
+      <c r="E616" s="10"/>
+      <c r="F616" s="11"/>
+      <c r="G616" s="12"/>
+      <c r="H616" s="11"/>
+      <c r="I616" s="12"/>
+      <c r="J616" s="11"/>
+      <c r="K616" s="12"/>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
+        <v>616</v>
+      </c>
+      <c r="B617" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C617" s="8">
+        <v>45850</v>
+      </c>
+      <c r="D617" s="9"/>
+      <c r="E617" s="10"/>
+      <c r="F617" s="11"/>
+      <c r="G617" s="12"/>
+      <c r="H617" s="11"/>
+      <c r="I617" s="12"/>
+      <c r="J617" s="11"/>
+      <c r="K617" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -34281,12 +34457,12 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E611">
+  <conditionalFormatting sqref="B4:E617">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K611 B374:C611">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K617 B374:C617">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13232AC-F929-45D7-887C-039E35209C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF676BF-C34F-4BB5-BAB3-BA034094DCFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD618"/>
+  <dimension ref="A1:AMD629"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I627" sqref="I627"/>
+      <selection pane="bottomLeft" activeCell="H631" sqref="H631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18868,28 +18868,287 @@
       <c r="C618" s="8">
         <v>45846</v>
       </c>
-      <c r="D618" s="9"/>
-      <c r="E618" s="10"/>
-      <c r="F618" s="11"/>
-      <c r="G618" s="12"/>
-      <c r="H618" s="11"/>
-      <c r="I618" s="12"/>
-      <c r="J618" s="11"/>
-      <c r="K618" s="12"/>
+      <c r="D618" s="9">
+        <v>2300</v>
+      </c>
+      <c r="E618" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F618" s="11">
+        <v>1300</v>
+      </c>
+      <c r="G618" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H618" s="11">
+        <f>3800+5600+15000</f>
+        <v>24400</v>
+      </c>
+      <c r="I618" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J618" s="11">
+        <v>11500</v>
+      </c>
+      <c r="K618" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L618" s="11"/>
       <c r="M618" s="12"/>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A619" s="1">
+        <v>616</v>
+      </c>
+      <c r="B619" s="7" t="str">
+        <f t="shared" ref="B619:B629" si="72">IF(C619&lt;&gt;"",TEXT(C619,"ДДД"),"")</f>
+        <v>Ср</v>
+      </c>
+      <c r="C619" s="8">
+        <v>45847</v>
+      </c>
+      <c r="D619" s="9"/>
+      <c r="E619" s="10"/>
+      <c r="F619" s="11"/>
+      <c r="G619" s="12"/>
+      <c r="H619" s="11"/>
+      <c r="I619" s="12"/>
+      <c r="J619" s="11"/>
+      <c r="K619" s="12"/>
+      <c r="L619" s="11"/>
+      <c r="M619" s="12"/>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
+        <v>617</v>
+      </c>
+      <c r="B620" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Чт</v>
+      </c>
+      <c r="C620" s="8">
+        <v>45848</v>
+      </c>
+      <c r="D620" s="9"/>
+      <c r="E620" s="10"/>
+      <c r="F620" s="11"/>
+      <c r="G620" s="12"/>
+      <c r="H620" s="11"/>
+      <c r="I620" s="12"/>
+      <c r="J620" s="11"/>
+      <c r="K620" s="12"/>
+      <c r="L620" s="11"/>
+      <c r="M620" s="12"/>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A621" s="1">
+        <v>618</v>
+      </c>
+      <c r="B621" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Пт</v>
+      </c>
+      <c r="C621" s="8">
+        <v>45849</v>
+      </c>
+      <c r="D621" s="9"/>
+      <c r="E621" s="10"/>
+      <c r="F621" s="11"/>
+      <c r="G621" s="12"/>
+      <c r="H621" s="11"/>
+      <c r="I621" s="12"/>
+      <c r="J621" s="11"/>
+      <c r="K621" s="12"/>
+      <c r="L621" s="11"/>
+      <c r="M621" s="12"/>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
+        <v>619</v>
+      </c>
+      <c r="B622" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Сб</v>
+      </c>
+      <c r="C622" s="8">
+        <v>45850</v>
+      </c>
+      <c r="D622" s="9"/>
+      <c r="E622" s="10"/>
+      <c r="F622" s="11"/>
+      <c r="G622" s="12"/>
+      <c r="H622" s="11"/>
+      <c r="I622" s="12"/>
+      <c r="J622" s="11"/>
+      <c r="K622" s="12"/>
+      <c r="L622" s="11"/>
+      <c r="M622" s="12"/>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A623" s="1">
+        <v>620</v>
+      </c>
+      <c r="B623" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Вс</v>
+      </c>
+      <c r="C623" s="8">
+        <v>45851</v>
+      </c>
+      <c r="D623" s="9"/>
+      <c r="E623" s="10"/>
+      <c r="F623" s="11"/>
+      <c r="G623" s="12"/>
+      <c r="H623" s="11"/>
+      <c r="I623" s="12"/>
+      <c r="J623" s="11"/>
+      <c r="K623" s="12"/>
+      <c r="L623" s="11"/>
+      <c r="M623" s="12"/>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
+        <v>621</v>
+      </c>
+      <c r="B624" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Пн</v>
+      </c>
+      <c r="C624" s="8">
+        <v>45852</v>
+      </c>
+      <c r="D624" s="9"/>
+      <c r="E624" s="10"/>
+      <c r="F624" s="11"/>
+      <c r="G624" s="12"/>
+      <c r="H624" s="11"/>
+      <c r="I624" s="12"/>
+      <c r="J624" s="11"/>
+      <c r="K624" s="12"/>
+      <c r="L624" s="11"/>
+      <c r="M624" s="12"/>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A625" s="1">
+        <v>622</v>
+      </c>
+      <c r="B625" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Вт</v>
+      </c>
+      <c r="C625" s="8">
+        <v>45853</v>
+      </c>
+      <c r="D625" s="9"/>
+      <c r="E625" s="10"/>
+      <c r="F625" s="11"/>
+      <c r="G625" s="12"/>
+      <c r="H625" s="11"/>
+      <c r="I625" s="12"/>
+      <c r="J625" s="11"/>
+      <c r="K625" s="12"/>
+      <c r="L625" s="11"/>
+      <c r="M625" s="12"/>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
+        <v>623</v>
+      </c>
+      <c r="B626" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Ср</v>
+      </c>
+      <c r="C626" s="8">
+        <v>45854</v>
+      </c>
+      <c r="D626" s="9"/>
+      <c r="E626" s="10"/>
+      <c r="F626" s="11"/>
+      <c r="G626" s="12"/>
+      <c r="H626" s="11"/>
+      <c r="I626" s="12"/>
+      <c r="J626" s="11"/>
+      <c r="K626" s="12"/>
+      <c r="L626" s="11"/>
+      <c r="M626" s="12"/>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A627" s="1">
+        <v>624</v>
+      </c>
+      <c r="B627" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Чт</v>
+      </c>
+      <c r="C627" s="8">
+        <v>45855</v>
+      </c>
+      <c r="D627" s="9"/>
+      <c r="E627" s="10"/>
+      <c r="F627" s="11"/>
+      <c r="G627" s="12"/>
+      <c r="H627" s="11"/>
+      <c r="I627" s="12"/>
+      <c r="J627" s="11"/>
+      <c r="K627" s="12"/>
+      <c r="L627" s="11"/>
+      <c r="M627" s="12"/>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
+        <v>625</v>
+      </c>
+      <c r="B628" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Пт</v>
+      </c>
+      <c r="C628" s="8">
+        <v>45856</v>
+      </c>
+      <c r="D628" s="9"/>
+      <c r="E628" s="10"/>
+      <c r="F628" s="11"/>
+      <c r="G628" s="12"/>
+      <c r="H628" s="11"/>
+      <c r="I628" s="12"/>
+      <c r="J628" s="11"/>
+      <c r="K628" s="12"/>
+      <c r="L628" s="11"/>
+      <c r="M628" s="12"/>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A629" s="1">
+        <v>626</v>
+      </c>
+      <c r="B629" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Сб</v>
+      </c>
+      <c r="C629" s="8">
+        <v>45857</v>
+      </c>
+      <c r="D629" s="9"/>
+      <c r="E629" s="10"/>
+      <c r="F629" s="11"/>
+      <c r="G629" s="12"/>
+      <c r="H629" s="11"/>
+      <c r="I629" s="12"/>
+      <c r="J629" s="11"/>
+      <c r="K629" s="12"/>
+      <c r="L629" s="11"/>
+      <c r="M629" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E618">
+  <conditionalFormatting sqref="B4:E629">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M618">
+  <conditionalFormatting sqref="B4:M629">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -18923,7 +19182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O617"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H620" sqref="H620"/>
     </sheetView>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF676BF-C34F-4BB5-BAB3-BA034094DCFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEAFBD6-B46A-4D5D-BD1F-5F3C5AD5B4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD629"/>
+  <dimension ref="A1:AMD630"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H631" sqref="H631"/>
+      <selection pane="bottomLeft" activeCell="I626" sqref="I626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18901,7 +18901,7 @@
         <v>616</v>
       </c>
       <c r="B619" s="7" t="str">
-        <f t="shared" ref="B619:B629" si="72">IF(C619&lt;&gt;"",TEXT(C619,"ДДД"),"")</f>
+        <f t="shared" ref="B619:B630" si="72">IF(C619&lt;&gt;"",TEXT(C619,"ДДД"),"")</f>
         <v>Ср</v>
       </c>
       <c r="C619" s="8">
@@ -18929,14 +18929,30 @@
       <c r="C620" s="8">
         <v>45848</v>
       </c>
-      <c r="D620" s="9"/>
-      <c r="E620" s="10"/>
-      <c r="F620" s="11"/>
-      <c r="G620" s="12"/>
-      <c r="H620" s="11"/>
-      <c r="I620" s="12"/>
-      <c r="J620" s="11"/>
-      <c r="K620" s="12"/>
+      <c r="D620" s="9">
+        <v>2400</v>
+      </c>
+      <c r="E620" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F620" s="11">
+        <v>1300</v>
+      </c>
+      <c r="G620" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H620" s="11">
+        <v>8000</v>
+      </c>
+      <c r="I620" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J620" s="11">
+        <v>6700</v>
+      </c>
+      <c r="K620" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L620" s="11"/>
       <c r="M620" s="12"/>
     </row>
@@ -18945,20 +18961,36 @@
         <v>618</v>
       </c>
       <c r="B621" s="7" t="str">
-        <f t="shared" si="72"/>
-        <v>Пт</v>
+        <f t="shared" ref="B621" si="73">IF(C621&lt;&gt;"",TEXT(C621,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C621" s="8">
-        <v>45849</v>
-      </c>
-      <c r="D621" s="9"/>
-      <c r="E621" s="10"/>
-      <c r="F621" s="11"/>
-      <c r="G621" s="12"/>
-      <c r="H621" s="11"/>
-      <c r="I621" s="12"/>
-      <c r="J621" s="11"/>
-      <c r="K621" s="12"/>
+        <v>45848</v>
+      </c>
+      <c r="D621" s="9">
+        <v>5400</v>
+      </c>
+      <c r="E621" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F621" s="11">
+        <v>6100</v>
+      </c>
+      <c r="G621" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H621" s="11">
+        <v>6100</v>
+      </c>
+      <c r="I621" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J621" s="11">
+        <v>4600</v>
+      </c>
+      <c r="K621" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="L621" s="11"/>
       <c r="M621" s="12"/>
     </row>
@@ -18968,10 +19000,10 @@
       </c>
       <c r="B622" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C622" s="8">
-        <v>45850</v>
+        <v>45849</v>
       </c>
       <c r="D622" s="9"/>
       <c r="E622" s="10"/>
@@ -18990,10 +19022,10 @@
       </c>
       <c r="B623" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C623" s="8">
-        <v>45851</v>
+        <v>45850</v>
       </c>
       <c r="D623" s="9"/>
       <c r="E623" s="10"/>
@@ -19012,10 +19044,10 @@
       </c>
       <c r="B624" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Пн</v>
+        <v>Вс</v>
       </c>
       <c r="C624" s="8">
-        <v>45852</v>
+        <v>45851</v>
       </c>
       <c r="D624" s="9"/>
       <c r="E624" s="10"/>
@@ -19034,10 +19066,10 @@
       </c>
       <c r="B625" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Вт</v>
+        <v>Пн</v>
       </c>
       <c r="C625" s="8">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="D625" s="9"/>
       <c r="E625" s="10"/>
@@ -19056,10 +19088,10 @@
       </c>
       <c r="B626" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Ср</v>
+        <v>Вт</v>
       </c>
       <c r="C626" s="8">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="D626" s="9"/>
       <c r="E626" s="10"/>
@@ -19078,10 +19110,10 @@
       </c>
       <c r="B627" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Чт</v>
+        <v>Ср</v>
       </c>
       <c r="C627" s="8">
-        <v>45855</v>
+        <v>45854</v>
       </c>
       <c r="D627" s="9"/>
       <c r="E627" s="10"/>
@@ -19100,10 +19132,10 @@
       </c>
       <c r="B628" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Пт</v>
+        <v>Чт</v>
       </c>
       <c r="C628" s="8">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="D628" s="9"/>
       <c r="E628" s="10"/>
@@ -19122,10 +19154,10 @@
       </c>
       <c r="B629" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C629" s="8">
-        <v>45857</v>
+        <v>45856</v>
       </c>
       <c r="D629" s="9"/>
       <c r="E629" s="10"/>
@@ -19138,17 +19170,39 @@
       <c r="L629" s="11"/>
       <c r="M629" s="12"/>
     </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
+        <v>627</v>
+      </c>
+      <c r="B630" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Сб</v>
+      </c>
+      <c r="C630" s="8">
+        <v>45857</v>
+      </c>
+      <c r="D630" s="9"/>
+      <c r="E630" s="10"/>
+      <c r="F630" s="11"/>
+      <c r="G630" s="12"/>
+      <c r="H630" s="11"/>
+      <c r="I630" s="12"/>
+      <c r="J630" s="11"/>
+      <c r="K630" s="12"/>
+      <c r="L630" s="11"/>
+      <c r="M630" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E629">
+  <conditionalFormatting sqref="B4:E630">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M629">
+  <conditionalFormatting sqref="B4:M630">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEAFBD6-B46A-4D5D-BD1F-5F3C5AD5B4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139B752D-9E5E-47D5-8327-BD2DC510B470}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -889,7 +889,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I626" sqref="I626"/>
+      <selection pane="bottomLeft" activeCell="K624" sqref="K624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19033,8 +19033,12 @@
       <c r="G623" s="12"/>
       <c r="H623" s="11"/>
       <c r="I623" s="12"/>
-      <c r="J623" s="11"/>
-      <c r="K623" s="12"/>
+      <c r="J623" s="11">
+        <v>8000</v>
+      </c>
+      <c r="K623" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L623" s="11"/>
       <c r="M623" s="12"/>
     </row>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139B752D-9E5E-47D5-8327-BD2DC510B470}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F22D07-17F8-417E-BBDD-CDC425AE14B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD630"/>
+  <dimension ref="A1:AMD631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K624" sqref="K624"/>
+      <selection pane="bottomLeft" activeCell="J632" sqref="J632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18901,7 +18901,7 @@
         <v>616</v>
       </c>
       <c r="B619" s="7" t="str">
-        <f t="shared" ref="B619:B630" si="72">IF(C619&lt;&gt;"",TEXT(C619,"ДДД"),"")</f>
+        <f t="shared" ref="B619:B631" si="72">IF(C619&lt;&gt;"",TEXT(C619,"ДДД"),"")</f>
         <v>Ср</v>
       </c>
       <c r="C619" s="8">
@@ -19061,19 +19061,23 @@
       <c r="I624" s="12"/>
       <c r="J624" s="11"/>
       <c r="K624" s="12"/>
-      <c r="L624" s="11"/>
-      <c r="M624" s="12"/>
+      <c r="L624" s="11">
+        <v>4700</v>
+      </c>
+      <c r="M624" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>622</v>
       </c>
       <c r="B625" s="7" t="str">
-        <f t="shared" si="72"/>
-        <v>Пн</v>
+        <f t="shared" ref="B625" si="74">IF(C625&lt;&gt;"",TEXT(C625,"ДДД"),"")</f>
+        <v>Вс</v>
       </c>
       <c r="C625" s="8">
-        <v>45852</v>
+        <v>45851</v>
       </c>
       <c r="D625" s="9"/>
       <c r="E625" s="10"/>
@@ -19083,8 +19087,12 @@
       <c r="I625" s="12"/>
       <c r="J625" s="11"/>
       <c r="K625" s="12"/>
-      <c r="L625" s="11"/>
-      <c r="M625" s="12"/>
+      <c r="L625" s="11">
+        <v>5300</v>
+      </c>
+      <c r="M625" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
@@ -19092,10 +19100,10 @@
       </c>
       <c r="B626" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Вт</v>
+        <v>Пн</v>
       </c>
       <c r="C626" s="8">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="D626" s="9"/>
       <c r="E626" s="10"/>
@@ -19114,10 +19122,10 @@
       </c>
       <c r="B627" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Ср</v>
+        <v>Вт</v>
       </c>
       <c r="C627" s="8">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="D627" s="9"/>
       <c r="E627" s="10"/>
@@ -19136,10 +19144,10 @@
       </c>
       <c r="B628" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Чт</v>
+        <v>Ср</v>
       </c>
       <c r="C628" s="8">
-        <v>45855</v>
+        <v>45854</v>
       </c>
       <c r="D628" s="9"/>
       <c r="E628" s="10"/>
@@ -19158,10 +19166,10 @@
       </c>
       <c r="B629" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Пт</v>
+        <v>Чт</v>
       </c>
       <c r="C629" s="8">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="D629" s="9"/>
       <c r="E629" s="10"/>
@@ -19180,10 +19188,10 @@
       </c>
       <c r="B630" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C630" s="8">
-        <v>45857</v>
+        <v>45856</v>
       </c>
       <c r="D630" s="9"/>
       <c r="E630" s="10"/>
@@ -19196,17 +19204,39 @@
       <c r="L630" s="11"/>
       <c r="M630" s="12"/>
     </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A631" s="1">
+        <v>628</v>
+      </c>
+      <c r="B631" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Сб</v>
+      </c>
+      <c r="C631" s="8">
+        <v>45857</v>
+      </c>
+      <c r="D631" s="9"/>
+      <c r="E631" s="10"/>
+      <c r="F631" s="11"/>
+      <c r="G631" s="12"/>
+      <c r="H631" s="11"/>
+      <c r="I631" s="12"/>
+      <c r="J631" s="11"/>
+      <c r="K631" s="12"/>
+      <c r="L631" s="11"/>
+      <c r="M631" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E630">
+  <conditionalFormatting sqref="B4:E631">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M630">
+  <conditionalFormatting sqref="B4:M631">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -19238,11 +19268,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O617"/>
+  <dimension ref="A1:O630"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H620" sqref="H620"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H632" sqref="H632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34768,18 +34798,317 @@
       <c r="J617" s="11"/>
       <c r="K617" s="12"/>
     </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>617</v>
+      </c>
+      <c r="B618" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C618" s="8">
+        <v>45851</v>
+      </c>
+      <c r="D618" s="9"/>
+      <c r="E618" s="10"/>
+      <c r="F618" s="11"/>
+      <c r="G618" s="12"/>
+      <c r="H618" s="11"/>
+      <c r="I618" s="12"/>
+      <c r="J618" s="11"/>
+      <c r="K618" s="12"/>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A619" s="1">
+        <v>618</v>
+      </c>
+      <c r="B619" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C619" s="8">
+        <v>45852</v>
+      </c>
+      <c r="D619" s="9"/>
+      <c r="E619" s="10"/>
+      <c r="F619" s="11"/>
+      <c r="G619" s="12"/>
+      <c r="H619" s="11"/>
+      <c r="I619" s="12"/>
+      <c r="J619" s="11"/>
+      <c r="K619" s="12"/>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
+        <v>619</v>
+      </c>
+      <c r="B620" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C620" s="8">
+        <v>45853</v>
+      </c>
+      <c r="D620" s="9">
+        <v>6400</v>
+      </c>
+      <c r="E620" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F620" s="11">
+        <v>2700</v>
+      </c>
+      <c r="G620" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H620" s="11"/>
+      <c r="I620" s="12"/>
+      <c r="J620" s="11">
+        <v>2900</v>
+      </c>
+      <c r="K620" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A621" s="1">
+        <v>620</v>
+      </c>
+      <c r="B621" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C621" s="8">
+        <v>45854</v>
+      </c>
+      <c r="D621" s="9"/>
+      <c r="E621" s="10"/>
+      <c r="F621" s="11"/>
+      <c r="G621" s="12"/>
+      <c r="H621" s="11"/>
+      <c r="I621" s="12"/>
+      <c r="J621" s="11"/>
+      <c r="K621" s="12"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
+        <v>621</v>
+      </c>
+      <c r="B622" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C622" s="8">
+        <v>45855</v>
+      </c>
+      <c r="D622" s="9">
+        <v>2400</v>
+      </c>
+      <c r="E622" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F622" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G622" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H622" s="11">
+        <v>1900</v>
+      </c>
+      <c r="I622" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J622" s="11">
+        <v>1100</v>
+      </c>
+      <c r="K622" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A623" s="1">
+        <v>622</v>
+      </c>
+      <c r="B623" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C623" s="8">
+        <v>45855</v>
+      </c>
+      <c r="D623" s="9">
+        <v>2500</v>
+      </c>
+      <c r="E623" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F623" s="11">
+        <v>700</v>
+      </c>
+      <c r="G623" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H623" s="11">
+        <v>100</v>
+      </c>
+      <c r="I623" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J623" s="11">
+        <v>100</v>
+      </c>
+      <c r="K623" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
+        <v>623</v>
+      </c>
+      <c r="B624" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C624" s="8">
+        <v>45855</v>
+      </c>
+      <c r="D624" s="9">
+        <v>500</v>
+      </c>
+      <c r="E624" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F624" s="11">
+        <v>100</v>
+      </c>
+      <c r="G624" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H624" s="11"/>
+      <c r="I624" s="12"/>
+      <c r="J624" s="11"/>
+      <c r="K624" s="12"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A625" s="1">
+        <v>624</v>
+      </c>
+      <c r="B625" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C625" s="8">
+        <v>45856</v>
+      </c>
+      <c r="D625" s="9"/>
+      <c r="E625" s="10"/>
+      <c r="F625" s="11"/>
+      <c r="G625" s="12"/>
+      <c r="H625" s="11"/>
+      <c r="I625" s="12"/>
+      <c r="J625" s="11"/>
+      <c r="K625" s="12"/>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
+        <v>625</v>
+      </c>
+      <c r="B626" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C626" s="8">
+        <v>45857</v>
+      </c>
+      <c r="D626" s="9"/>
+      <c r="E626" s="10"/>
+      <c r="F626" s="11"/>
+      <c r="G626" s="12"/>
+      <c r="H626" s="11"/>
+      <c r="I626" s="12"/>
+      <c r="J626" s="11"/>
+      <c r="K626" s="12"/>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A627" s="1">
+        <v>626</v>
+      </c>
+      <c r="B627" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C627" s="8">
+        <v>45858</v>
+      </c>
+      <c r="D627" s="9"/>
+      <c r="E627" s="10"/>
+      <c r="F627" s="11"/>
+      <c r="G627" s="12"/>
+      <c r="H627" s="11"/>
+      <c r="I627" s="12"/>
+      <c r="J627" s="11"/>
+      <c r="K627" s="12"/>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
+        <v>627</v>
+      </c>
+      <c r="B628" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C628" s="8">
+        <v>45859</v>
+      </c>
+      <c r="D628" s="9"/>
+      <c r="E628" s="10"/>
+      <c r="F628" s="11"/>
+      <c r="G628" s="12"/>
+      <c r="H628" s="11"/>
+      <c r="I628" s="12"/>
+      <c r="J628" s="11"/>
+      <c r="K628" s="12"/>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A629" s="1">
+        <v>628</v>
+      </c>
+      <c r="B629" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C629" s="8">
+        <v>45860</v>
+      </c>
+      <c r="D629" s="9"/>
+      <c r="E629" s="10"/>
+      <c r="F629" s="11"/>
+      <c r="G629" s="12"/>
+      <c r="H629" s="11"/>
+      <c r="I629" s="12"/>
+      <c r="J629" s="11"/>
+      <c r="K629" s="12"/>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
+        <v>629</v>
+      </c>
+      <c r="B630" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C630" s="8">
+        <v>45861</v>
+      </c>
+      <c r="D630" s="9"/>
+      <c r="E630" s="10"/>
+      <c r="F630" s="11"/>
+      <c r="G630" s="12"/>
+      <c r="H630" s="11"/>
+      <c r="I630" s="12"/>
+      <c r="J630" s="11"/>
+      <c r="K630" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E617">
+  <conditionalFormatting sqref="B4:E630">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K617 B374:C617">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C630 D48:K630">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F22D07-17F8-417E-BBDD-CDC425AE14B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53174F83-CBE4-4BC8-854C-816E5BC767CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -887,9 +887,9 @@
   </sheetPr>
   <dimension ref="A1:AMD631"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J632" sqref="J632"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A616" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I635" sqref="I635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19127,14 +19127,31 @@
       <c r="C627" s="8">
         <v>45853</v>
       </c>
-      <c r="D627" s="9"/>
-      <c r="E627" s="10"/>
-      <c r="F627" s="11"/>
-      <c r="G627" s="12"/>
-      <c r="H627" s="11"/>
-      <c r="I627" s="12"/>
-      <c r="J627" s="11"/>
-      <c r="K627" s="12"/>
+      <c r="D627" s="9">
+        <v>4700</v>
+      </c>
+      <c r="E627" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F627" s="11">
+        <v>5600</v>
+      </c>
+      <c r="G627" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H627" s="11">
+        <f>17200+1700</f>
+        <v>18900</v>
+      </c>
+      <c r="I627" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J627" s="11">
+        <v>10100</v>
+      </c>
+      <c r="K627" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L627" s="11"/>
       <c r="M627" s="12"/>
     </row>
@@ -19270,7 +19287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O630"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H632" sqref="H632"/>
     </sheetView>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53174F83-CBE4-4BC8-854C-816E5BC767CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DDB8D4-DA04-41B7-957B-7290FC569840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ПОКОМ!$A$1:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +879,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD631"/>
+  <dimension ref="A1:AMD632"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A616" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I635" sqref="I635"/>
+      <selection pane="bottomLeft" activeCell="I633" sqref="I633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18901,7 +18895,7 @@
         <v>616</v>
       </c>
       <c r="B619" s="7" t="str">
-        <f t="shared" ref="B619:B631" si="72">IF(C619&lt;&gt;"",TEXT(C619,"ДДД"),"")</f>
+        <f t="shared" ref="B619:B632" si="72">IF(C619&lt;&gt;"",TEXT(C619,"ДДД"),"")</f>
         <v>Ср</v>
       </c>
       <c r="C619" s="8">
@@ -19188,14 +19182,30 @@
       <c r="C629" s="8">
         <v>45855</v>
       </c>
-      <c r="D629" s="9"/>
-      <c r="E629" s="10"/>
-      <c r="F629" s="11"/>
-      <c r="G629" s="12"/>
-      <c r="H629" s="11"/>
-      <c r="I629" s="12"/>
-      <c r="J629" s="11"/>
-      <c r="K629" s="12"/>
+      <c r="D629" s="9">
+        <v>2300</v>
+      </c>
+      <c r="E629" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F629" s="11">
+        <v>1800</v>
+      </c>
+      <c r="G629" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H629" s="11">
+        <v>12400</v>
+      </c>
+      <c r="I629" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J629" s="11">
+        <v>7600</v>
+      </c>
+      <c r="K629" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L629" s="11"/>
       <c r="M629" s="12"/>
     </row>
@@ -19204,20 +19214,36 @@
         <v>627</v>
       </c>
       <c r="B630" s="7" t="str">
-        <f t="shared" si="72"/>
-        <v>Пт</v>
+        <f t="shared" ref="B630" si="75">IF(C630&lt;&gt;"",TEXT(C630,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C630" s="8">
-        <v>45856</v>
-      </c>
-      <c r="D630" s="9"/>
-      <c r="E630" s="10"/>
-      <c r="F630" s="11"/>
-      <c r="G630" s="12"/>
-      <c r="H630" s="11"/>
-      <c r="I630" s="12"/>
-      <c r="J630" s="11"/>
-      <c r="K630" s="12"/>
+        <v>45855</v>
+      </c>
+      <c r="D630" s="9">
+        <v>9400</v>
+      </c>
+      <c r="E630" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F630" s="11">
+        <v>2200</v>
+      </c>
+      <c r="G630" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H630" s="11">
+        <v>2700</v>
+      </c>
+      <c r="I630" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J630" s="11">
+        <v>7000</v>
+      </c>
+      <c r="K630" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="L630" s="11"/>
       <c r="M630" s="12"/>
     </row>
@@ -19227,10 +19253,10 @@
       </c>
       <c r="B631" s="7" t="str">
         <f t="shared" si="72"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C631" s="8">
-        <v>45857</v>
+        <v>45856</v>
       </c>
       <c r="D631" s="9"/>
       <c r="E631" s="10"/>
@@ -19243,17 +19269,39 @@
       <c r="L631" s="11"/>
       <c r="M631" s="12"/>
     </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
+        <v>629</v>
+      </c>
+      <c r="B632" s="7" t="str">
+        <f t="shared" si="72"/>
+        <v>Сб</v>
+      </c>
+      <c r="C632" s="8">
+        <v>45857</v>
+      </c>
+      <c r="D632" s="9"/>
+      <c r="E632" s="10"/>
+      <c r="F632" s="11"/>
+      <c r="G632" s="12"/>
+      <c r="H632" s="11"/>
+      <c r="I632" s="12"/>
+      <c r="J632" s="11"/>
+      <c r="K632" s="12"/>
+      <c r="L632" s="11"/>
+      <c r="M632" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E631">
+  <conditionalFormatting sqref="B4:E632">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M631">
+  <conditionalFormatting sqref="B4:M632">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -35125,7 +35173,7 @@
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C630 D48:K630">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K630 B374:C630">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DDB8D4-DA04-41B7-957B-7290FC569840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4575C939-EA1A-4B2B-A350-331945FCC976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ПОКОМ!$A$1:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -879,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD632"/>
+  <dimension ref="A1:AMD633"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A616" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I633" sqref="I633"/>
+      <selection pane="bottomLeft" activeCell="H635" sqref="H635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19286,22 +19292,48 @@
       <c r="G632" s="12"/>
       <c r="H632" s="11"/>
       <c r="I632" s="12"/>
-      <c r="J632" s="11"/>
-      <c r="K632" s="12"/>
+      <c r="J632" s="11">
+        <v>5000</v>
+      </c>
+      <c r="K632" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L632" s="11"/>
       <c r="M632" s="12"/>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A633" s="1">
+        <v>630</v>
+      </c>
+      <c r="B633" s="7" t="str">
+        <f t="shared" ref="B633" si="76">IF(C633&lt;&gt;"",TEXT(C633,"ДДД"),"")</f>
+        <v>Вс</v>
+      </c>
+      <c r="C633" s="8">
+        <v>45858</v>
+      </c>
+      <c r="D633" s="9"/>
+      <c r="E633" s="10"/>
+      <c r="F633" s="11"/>
+      <c r="G633" s="12"/>
+      <c r="H633" s="11"/>
+      <c r="I633" s="12"/>
+      <c r="J633" s="11"/>
+      <c r="K633" s="12"/>
+      <c r="L633" s="11"/>
+      <c r="M633" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E632">
+  <conditionalFormatting sqref="B4:E633">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M632">
+  <conditionalFormatting sqref="B4:M633">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4575C939-EA1A-4B2B-A350-331945FCC976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F44F42-44A3-4388-B4DA-705A1891A60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD633"/>
+  <dimension ref="A1:AMD635"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A616" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H635" sqref="H635"/>
+      <pane ySplit="3" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M636" sqref="M636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19320,20 +19320,68 @@
       <c r="I633" s="12"/>
       <c r="J633" s="11"/>
       <c r="K633" s="12"/>
-      <c r="L633" s="11"/>
-      <c r="M633" s="12"/>
+      <c r="L633" s="11">
+        <v>5700</v>
+      </c>
+      <c r="M633" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
+        <v>631</v>
+      </c>
+      <c r="B634" s="7" t="str">
+        <f t="shared" ref="B634:B635" si="77">IF(C634&lt;&gt;"",TEXT(C634,"ДДД"),"")</f>
+        <v>Пн</v>
+      </c>
+      <c r="C634" s="8">
+        <v>45859</v>
+      </c>
+      <c r="D634" s="9"/>
+      <c r="E634" s="10"/>
+      <c r="F634" s="11"/>
+      <c r="G634" s="12"/>
+      <c r="H634" s="11"/>
+      <c r="I634" s="12"/>
+      <c r="J634" s="11"/>
+      <c r="K634" s="12"/>
+      <c r="L634" s="11"/>
+      <c r="M634" s="12"/>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
+        <v>632</v>
+      </c>
+      <c r="B635" s="7" t="str">
+        <f t="shared" si="77"/>
+        <v>Вт</v>
+      </c>
+      <c r="C635" s="8">
+        <v>45860</v>
+      </c>
+      <c r="D635" s="9"/>
+      <c r="E635" s="10"/>
+      <c r="F635" s="11"/>
+      <c r="G635" s="12"/>
+      <c r="H635" s="11"/>
+      <c r="I635" s="12"/>
+      <c r="J635" s="11"/>
+      <c r="K635" s="12"/>
+      <c r="L635" s="11"/>
+      <c r="M635" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E633">
+  <conditionalFormatting sqref="B4:E635">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M633">
+  <conditionalFormatting sqref="B4:M635">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F44F42-44A3-4388-B4DA-705A1891A60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9256FB-9B27-4D6F-A698-E95D50BB1ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -887,8 +887,8 @@
   </sheetPr>
   <dimension ref="A1:AMD635"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M636" sqref="M636"/>
     </sheetView>
   </sheetViews>
@@ -19413,11 +19413,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O630"/>
+  <dimension ref="A1:O636"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H632" sqref="H632"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A622" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H640" sqref="H640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35214,14 +35214,30 @@
       <c r="C629" s="8">
         <v>45860</v>
       </c>
-      <c r="D629" s="9"/>
-      <c r="E629" s="10"/>
-      <c r="F629" s="11"/>
-      <c r="G629" s="12"/>
-      <c r="H629" s="11"/>
-      <c r="I629" s="12"/>
-      <c r="J629" s="11"/>
-      <c r="K629" s="12"/>
+      <c r="D629" s="9">
+        <v>3300</v>
+      </c>
+      <c r="E629" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F629" s="11">
+        <v>4600</v>
+      </c>
+      <c r="G629" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H629" s="11">
+        <v>2100</v>
+      </c>
+      <c r="I629" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J629" s="11">
+        <v>2900</v>
+      </c>
+      <c r="K629" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
@@ -35242,18 +35258,160 @@
       <c r="J630" s="11"/>
       <c r="K630" s="12"/>
     </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A631" s="1">
+        <v>630</v>
+      </c>
+      <c r="B631" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C631" s="8">
+        <v>45862</v>
+      </c>
+      <c r="D631" s="9">
+        <v>1900</v>
+      </c>
+      <c r="E631" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F631" s="11">
+        <v>2700</v>
+      </c>
+      <c r="G631" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H631" s="11"/>
+      <c r="I631" s="12"/>
+      <c r="J631" s="11">
+        <v>1700</v>
+      </c>
+      <c r="K631" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
+        <v>631</v>
+      </c>
+      <c r="B632" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C632" s="8">
+        <v>45862</v>
+      </c>
+      <c r="D632" s="9">
+        <v>800</v>
+      </c>
+      <c r="E632" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F632" s="11">
+        <v>700</v>
+      </c>
+      <c r="G632" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H632" s="11"/>
+      <c r="I632" s="12"/>
+      <c r="J632" s="11">
+        <v>400</v>
+      </c>
+      <c r="K632" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A633" s="1">
+        <v>632</v>
+      </c>
+      <c r="B633" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C633" s="8">
+        <v>45862</v>
+      </c>
+      <c r="D633" s="9"/>
+      <c r="E633" s="10"/>
+      <c r="F633" s="11">
+        <v>200</v>
+      </c>
+      <c r="G633" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H633" s="11"/>
+      <c r="I633" s="12"/>
+      <c r="J633" s="11"/>
+      <c r="K633" s="12"/>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
+        <v>633</v>
+      </c>
+      <c r="B634" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C634" s="8">
+        <v>45863</v>
+      </c>
+      <c r="D634" s="9"/>
+      <c r="E634" s="10"/>
+      <c r="F634" s="11"/>
+      <c r="G634" s="12"/>
+      <c r="H634" s="11"/>
+      <c r="I634" s="12"/>
+      <c r="J634" s="11"/>
+      <c r="K634" s="12"/>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
+        <v>634</v>
+      </c>
+      <c r="B635" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C635" s="8">
+        <v>45864</v>
+      </c>
+      <c r="D635" s="9"/>
+      <c r="E635" s="10"/>
+      <c r="F635" s="11"/>
+      <c r="G635" s="12"/>
+      <c r="H635" s="11"/>
+      <c r="I635" s="12"/>
+      <c r="J635" s="11"/>
+      <c r="K635" s="12"/>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
+        <v>635</v>
+      </c>
+      <c r="B636" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C636" s="8">
+        <v>45865</v>
+      </c>
+      <c r="D636" s="9"/>
+      <c r="E636" s="10"/>
+      <c r="F636" s="11"/>
+      <c r="G636" s="12"/>
+      <c r="H636" s="11"/>
+      <c r="I636" s="12"/>
+      <c r="J636" s="11"/>
+      <c r="K636" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E630">
+  <conditionalFormatting sqref="B4:E636">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K630 B374:C630">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K636 B374:C636">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9256FB-9B27-4D6F-A698-E95D50BB1ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6754D8-44D8-40EA-8515-9E2E9361E441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD635"/>
+  <dimension ref="A1:AMD641"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M636" sqref="M636"/>
+      <selection pane="bottomLeft" activeCell="H644" sqref="H644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19360,28 +19360,176 @@
       <c r="C635" s="8">
         <v>45860</v>
       </c>
-      <c r="D635" s="9"/>
-      <c r="E635" s="10"/>
-      <c r="F635" s="11"/>
-      <c r="G635" s="12"/>
-      <c r="H635" s="11"/>
-      <c r="I635" s="12"/>
-      <c r="J635" s="11"/>
-      <c r="K635" s="12"/>
+      <c r="D635" s="9">
+        <v>1600</v>
+      </c>
+      <c r="E635" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F635" s="11">
+        <v>3200</v>
+      </c>
+      <c r="G635" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H635" s="11">
+        <v>9500</v>
+      </c>
+      <c r="I635" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J635" s="11">
+        <v>11000</v>
+      </c>
+      <c r="K635" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L635" s="11"/>
       <c r="M635" s="12"/>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
+        <v>633</v>
+      </c>
+      <c r="B636" s="7" t="str">
+        <f t="shared" ref="B636:B641" si="78">IF(C636&lt;&gt;"",TEXT(C636,"ДДД"),"")</f>
+        <v>Ср</v>
+      </c>
+      <c r="C636" s="8">
+        <v>45861</v>
+      </c>
+      <c r="D636" s="9"/>
+      <c r="E636" s="10"/>
+      <c r="F636" s="11"/>
+      <c r="G636" s="12"/>
+      <c r="H636" s="11"/>
+      <c r="I636" s="12"/>
+      <c r="J636" s="11"/>
+      <c r="K636" s="12"/>
+      <c r="L636" s="11"/>
+      <c r="M636" s="12"/>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
+        <v>634</v>
+      </c>
+      <c r="B637" s="7" t="str">
+        <f t="shared" si="78"/>
+        <v>Чт</v>
+      </c>
+      <c r="C637" s="8">
+        <v>45862</v>
+      </c>
+      <c r="D637" s="9"/>
+      <c r="E637" s="10"/>
+      <c r="F637" s="11"/>
+      <c r="G637" s="12"/>
+      <c r="H637" s="11"/>
+      <c r="I637" s="12"/>
+      <c r="J637" s="11"/>
+      <c r="K637" s="12"/>
+      <c r="L637" s="11"/>
+      <c r="M637" s="12"/>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>635</v>
+      </c>
+      <c r="B638" s="7" t="str">
+        <f t="shared" si="78"/>
+        <v>Пт</v>
+      </c>
+      <c r="C638" s="8">
+        <v>45863</v>
+      </c>
+      <c r="D638" s="9"/>
+      <c r="E638" s="10"/>
+      <c r="F638" s="11"/>
+      <c r="G638" s="12"/>
+      <c r="H638" s="11"/>
+      <c r="I638" s="12"/>
+      <c r="J638" s="11"/>
+      <c r="K638" s="12"/>
+      <c r="L638" s="11"/>
+      <c r="M638" s="12"/>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
+        <v>636</v>
+      </c>
+      <c r="B639" s="7" t="str">
+        <f t="shared" si="78"/>
+        <v>Сб</v>
+      </c>
+      <c r="C639" s="8">
+        <v>45864</v>
+      </c>
+      <c r="D639" s="9"/>
+      <c r="E639" s="10"/>
+      <c r="F639" s="11"/>
+      <c r="G639" s="12"/>
+      <c r="H639" s="11"/>
+      <c r="I639" s="12"/>
+      <c r="J639" s="11"/>
+      <c r="K639" s="12"/>
+      <c r="L639" s="11"/>
+      <c r="M639" s="12"/>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>637</v>
+      </c>
+      <c r="B640" s="7" t="str">
+        <f t="shared" si="78"/>
+        <v>Вс</v>
+      </c>
+      <c r="C640" s="8">
+        <v>45865</v>
+      </c>
+      <c r="D640" s="9"/>
+      <c r="E640" s="10"/>
+      <c r="F640" s="11"/>
+      <c r="G640" s="12"/>
+      <c r="H640" s="11"/>
+      <c r="I640" s="12"/>
+      <c r="J640" s="11"/>
+      <c r="K640" s="12"/>
+      <c r="L640" s="11"/>
+      <c r="M640" s="12"/>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A641" s="1">
+        <v>638</v>
+      </c>
+      <c r="B641" s="7" t="str">
+        <f t="shared" si="78"/>
+        <v>Пн</v>
+      </c>
+      <c r="C641" s="8">
+        <v>45866</v>
+      </c>
+      <c r="D641" s="9"/>
+      <c r="E641" s="10"/>
+      <c r="F641" s="11"/>
+      <c r="G641" s="12"/>
+      <c r="H641" s="11"/>
+      <c r="I641" s="12"/>
+      <c r="J641" s="11"/>
+      <c r="K641" s="12"/>
+      <c r="L641" s="11"/>
+      <c r="M641" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E635">
+  <conditionalFormatting sqref="B4:E641">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M635">
+  <conditionalFormatting sqref="B4:M641">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -19415,9 +19563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O636"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A622" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H640" sqref="H640"/>
+      <selection pane="bottomLeft" activeCell="B646" sqref="B646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6754D8-44D8-40EA-8515-9E2E9361E441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1748CCC-A644-4D03-94BF-80DC3767B444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD641"/>
+  <dimension ref="A1:AMD642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H644" sqref="H644"/>
+      <selection pane="bottomLeft" activeCell="F639" sqref="F639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19392,7 +19392,7 @@
         <v>633</v>
       </c>
       <c r="B636" s="7" t="str">
-        <f t="shared" ref="B636:B641" si="78">IF(C636&lt;&gt;"",TEXT(C636,"ДДД"),"")</f>
+        <f t="shared" ref="B636:B642" si="78">IF(C636&lt;&gt;"",TEXT(C636,"ДДД"),"")</f>
         <v>Ср</v>
       </c>
       <c r="C636" s="8">
@@ -19420,14 +19420,31 @@
       <c r="C637" s="8">
         <v>45862</v>
       </c>
-      <c r="D637" s="9"/>
-      <c r="E637" s="10"/>
-      <c r="F637" s="11"/>
-      <c r="G637" s="12"/>
-      <c r="H637" s="11"/>
-      <c r="I637" s="12"/>
-      <c r="J637" s="11"/>
-      <c r="K637" s="12"/>
+      <c r="D637" s="9">
+        <v>1800</v>
+      </c>
+      <c r="E637" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F637" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G637" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H637" s="11">
+        <f>5400+6200</f>
+        <v>11600</v>
+      </c>
+      <c r="I637" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J637" s="11">
+        <v>12400</v>
+      </c>
+      <c r="K637" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L637" s="11"/>
       <c r="M637" s="12"/>
     </row>
@@ -19436,20 +19453,37 @@
         <v>635</v>
       </c>
       <c r="B638" s="7" t="str">
-        <f t="shared" si="78"/>
-        <v>Пт</v>
+        <f t="shared" ref="B638" si="79">IF(C638&lt;&gt;"",TEXT(C638,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C638" s="8">
-        <v>45863</v>
-      </c>
-      <c r="D638" s="9"/>
-      <c r="E638" s="10"/>
-      <c r="F638" s="11"/>
-      <c r="G638" s="12"/>
-      <c r="H638" s="11"/>
-      <c r="I638" s="12"/>
-      <c r="J638" s="11"/>
-      <c r="K638" s="12"/>
+        <v>45862</v>
+      </c>
+      <c r="D638" s="9">
+        <v>11200</v>
+      </c>
+      <c r="E638" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F638" s="11">
+        <f>3900+1400</f>
+        <v>5300</v>
+      </c>
+      <c r="G638" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H638" s="11">
+        <v>4200</v>
+      </c>
+      <c r="I638" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J638" s="11">
+        <v>6800</v>
+      </c>
+      <c r="K638" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="L638" s="11"/>
       <c r="M638" s="12"/>
     </row>
@@ -19459,10 +19493,10 @@
       </c>
       <c r="B639" s="7" t="str">
         <f t="shared" si="78"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C639" s="8">
-        <v>45864</v>
+        <v>45863</v>
       </c>
       <c r="D639" s="9"/>
       <c r="E639" s="10"/>
@@ -19481,10 +19515,10 @@
       </c>
       <c r="B640" s="7" t="str">
         <f t="shared" si="78"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C640" s="8">
-        <v>45865</v>
+        <v>45864</v>
       </c>
       <c r="D640" s="9"/>
       <c r="E640" s="10"/>
@@ -19503,10 +19537,10 @@
       </c>
       <c r="B641" s="7" t="str">
         <f t="shared" si="78"/>
-        <v>Пн</v>
+        <v>Вс</v>
       </c>
       <c r="C641" s="8">
-        <v>45866</v>
+        <v>45865</v>
       </c>
       <c r="D641" s="9"/>
       <c r="E641" s="10"/>
@@ -19519,17 +19553,39 @@
       <c r="L641" s="11"/>
       <c r="M641" s="12"/>
     </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
+        <v>639</v>
+      </c>
+      <c r="B642" s="7" t="str">
+        <f t="shared" si="78"/>
+        <v>Пн</v>
+      </c>
+      <c r="C642" s="8">
+        <v>45866</v>
+      </c>
+      <c r="D642" s="9"/>
+      <c r="E642" s="10"/>
+      <c r="F642" s="11"/>
+      <c r="G642" s="12"/>
+      <c r="H642" s="11"/>
+      <c r="I642" s="12"/>
+      <c r="J642" s="11"/>
+      <c r="K642" s="12"/>
+      <c r="L642" s="11"/>
+      <c r="M642" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E641">
+  <conditionalFormatting sqref="B4:E642">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M641">
+  <conditionalFormatting sqref="B4:M642">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1748CCC-A644-4D03-94BF-80DC3767B444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262F1CF2-9C10-4BA3-8917-21FC6D5C9740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -889,7 +889,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F639" sqref="F639"/>
+      <selection pane="bottomLeft" activeCell="M644" sqref="M644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19550,8 +19550,12 @@
       <c r="I641" s="12"/>
       <c r="J641" s="11"/>
       <c r="K641" s="12"/>
-      <c r="L641" s="11"/>
-      <c r="M641" s="12"/>
+      <c r="L641" s="11">
+        <v>5600</v>
+      </c>
+      <c r="M641" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642" s="1">

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262F1CF2-9C10-4BA3-8917-21FC6D5C9740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D014728D-7A8D-422D-869C-40AF5A61B15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -887,7 +887,7 @@
   </sheetPr>
   <dimension ref="A1:AMD642"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M644" sqref="M644"/>
     </sheetView>
@@ -19621,11 +19621,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O636"/>
+  <dimension ref="A1:O649"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A622" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B646" sqref="B646"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G645" sqref="G645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35608,18 +35608,322 @@
       <c r="J636" s="11"/>
       <c r="K636" s="12"/>
     </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
+        <v>636</v>
+      </c>
+      <c r="B637" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C637" s="8">
+        <v>45866</v>
+      </c>
+      <c r="D637" s="9"/>
+      <c r="E637" s="10"/>
+      <c r="F637" s="11"/>
+      <c r="G637" s="12"/>
+      <c r="H637" s="11"/>
+      <c r="I637" s="12"/>
+      <c r="J637" s="11"/>
+      <c r="K637" s="12"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>637</v>
+      </c>
+      <c r="B638" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C638" s="8">
+        <v>45867</v>
+      </c>
+      <c r="D638" s="9">
+        <v>9700</v>
+      </c>
+      <c r="E638" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F638" s="11">
+        <f>5500+5800</f>
+        <v>11300</v>
+      </c>
+      <c r="G638" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H638" s="11"/>
+      <c r="I638" s="12"/>
+      <c r="J638" s="11">
+        <v>7800</v>
+      </c>
+      <c r="K638" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
+        <v>638</v>
+      </c>
+      <c r="B639" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C639" s="8">
+        <v>45868</v>
+      </c>
+      <c r="D639" s="9"/>
+      <c r="E639" s="10"/>
+      <c r="F639" s="11"/>
+      <c r="G639" s="12"/>
+      <c r="H639" s="11"/>
+      <c r="I639" s="12"/>
+      <c r="J639" s="11"/>
+      <c r="K639" s="12"/>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>639</v>
+      </c>
+      <c r="B640" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C640" s="8">
+        <v>45869</v>
+      </c>
+      <c r="D640" s="9">
+        <v>1300</v>
+      </c>
+      <c r="E640" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F640" s="11">
+        <v>1500</v>
+      </c>
+      <c r="G640" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H640" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I640" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J640" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K640" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A641" s="1">
+        <v>640</v>
+      </c>
+      <c r="B641" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C641" s="8">
+        <v>45869</v>
+      </c>
+      <c r="D641" s="9">
+        <v>500</v>
+      </c>
+      <c r="E641" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F641" s="11">
+        <v>900</v>
+      </c>
+      <c r="G641" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H641" s="11">
+        <v>50</v>
+      </c>
+      <c r="I641" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J641" s="11">
+        <v>250</v>
+      </c>
+      <c r="K641" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
+        <v>641</v>
+      </c>
+      <c r="B642" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C642" s="8">
+        <v>45869</v>
+      </c>
+      <c r="D642" s="9">
+        <v>600</v>
+      </c>
+      <c r="E642" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F642" s="11">
+        <v>200</v>
+      </c>
+      <c r="G642" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H642" s="11"/>
+      <c r="I642" s="12"/>
+      <c r="J642" s="11">
+        <v>40</v>
+      </c>
+      <c r="K642" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A643" s="1">
+        <v>642</v>
+      </c>
+      <c r="B643" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C643" s="8">
+        <v>45870</v>
+      </c>
+      <c r="D643" s="9"/>
+      <c r="E643" s="10"/>
+      <c r="F643" s="11"/>
+      <c r="G643" s="12"/>
+      <c r="H643" s="11"/>
+      <c r="I643" s="12"/>
+      <c r="J643" s="11"/>
+      <c r="K643" s="12"/>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>643</v>
+      </c>
+      <c r="B644" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C644" s="8">
+        <v>45871</v>
+      </c>
+      <c r="D644" s="9"/>
+      <c r="E644" s="10"/>
+      <c r="F644" s="11"/>
+      <c r="G644" s="12"/>
+      <c r="H644" s="11"/>
+      <c r="I644" s="12"/>
+      <c r="J644" s="11"/>
+      <c r="K644" s="12"/>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A645" s="1">
+        <v>644</v>
+      </c>
+      <c r="B645" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C645" s="8">
+        <v>45872</v>
+      </c>
+      <c r="D645" s="9"/>
+      <c r="E645" s="10"/>
+      <c r="F645" s="11"/>
+      <c r="G645" s="12"/>
+      <c r="H645" s="11"/>
+      <c r="I645" s="12"/>
+      <c r="J645" s="11"/>
+      <c r="K645" s="12"/>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>645</v>
+      </c>
+      <c r="B646" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C646" s="8">
+        <v>45873</v>
+      </c>
+      <c r="D646" s="9"/>
+      <c r="E646" s="10"/>
+      <c r="F646" s="11"/>
+      <c r="G646" s="12"/>
+      <c r="H646" s="11"/>
+      <c r="I646" s="12"/>
+      <c r="J646" s="11"/>
+      <c r="K646" s="12"/>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
+        <v>646</v>
+      </c>
+      <c r="B647" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C647" s="8">
+        <v>45874</v>
+      </c>
+      <c r="D647" s="9"/>
+      <c r="E647" s="10"/>
+      <c r="F647" s="11"/>
+      <c r="G647" s="12"/>
+      <c r="H647" s="11"/>
+      <c r="I647" s="12"/>
+      <c r="J647" s="11"/>
+      <c r="K647" s="12"/>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>647</v>
+      </c>
+      <c r="B648" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C648" s="8">
+        <v>45875</v>
+      </c>
+      <c r="D648" s="9"/>
+      <c r="E648" s="10"/>
+      <c r="F648" s="11"/>
+      <c r="G648" s="12"/>
+      <c r="H648" s="11"/>
+      <c r="I648" s="12"/>
+      <c r="J648" s="11"/>
+      <c r="K648" s="12"/>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
+        <v>648</v>
+      </c>
+      <c r="B649" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C649" s="8">
+        <v>45876</v>
+      </c>
+      <c r="D649" s="9"/>
+      <c r="E649" s="10"/>
+      <c r="F649" s="11"/>
+      <c r="G649" s="12"/>
+      <c r="H649" s="11"/>
+      <c r="I649" s="12"/>
+      <c r="J649" s="11"/>
+      <c r="K649" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E636">
+  <conditionalFormatting sqref="B4:E649">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K636 B374:C636">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K649 B374:C649">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D014728D-7A8D-422D-869C-40AF5A61B15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B39C8-48E8-4273-A685-16015E39776D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD642"/>
+  <dimension ref="A1:AMD646"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M644" sqref="M644"/>
+      <selection pane="bottomLeft" activeCell="H649" sqref="H649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19579,17 +19579,130 @@
       <c r="L642" s="11"/>
       <c r="M642" s="12"/>
     </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A643" s="1">
+        <v>640</v>
+      </c>
+      <c r="B643" s="7" t="str">
+        <f t="shared" ref="B643:B646" si="80">IF(C643&lt;&gt;"",TEXT(C643,"ДДД"),"")</f>
+        <v>Вт</v>
+      </c>
+      <c r="C643" s="8">
+        <v>45867</v>
+      </c>
+      <c r="D643" s="9">
+        <v>4700</v>
+      </c>
+      <c r="E643" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F643" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G643" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H643" s="11">
+        <v>15800</v>
+      </c>
+      <c r="I643" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J643" s="11">
+        <f>10300+9100</f>
+        <v>19400</v>
+      </c>
+      <c r="K643" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L643" s="11">
+        <v>3800</v>
+      </c>
+      <c r="M643" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>641</v>
+      </c>
+      <c r="B644" s="7" t="str">
+        <f t="shared" si="80"/>
+        <v>Ср</v>
+      </c>
+      <c r="C644" s="8">
+        <v>45868</v>
+      </c>
+      <c r="D644" s="9"/>
+      <c r="E644" s="10"/>
+      <c r="F644" s="11"/>
+      <c r="G644" s="12"/>
+      <c r="H644" s="11">
+        <v>17600</v>
+      </c>
+      <c r="I644" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J644" s="11"/>
+      <c r="K644" s="12"/>
+      <c r="L644" s="11"/>
+      <c r="M644" s="12"/>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A645" s="1">
+        <v>642</v>
+      </c>
+      <c r="B645" s="7" t="str">
+        <f t="shared" si="80"/>
+        <v>Чт</v>
+      </c>
+      <c r="C645" s="8">
+        <v>45869</v>
+      </c>
+      <c r="D645" s="9"/>
+      <c r="E645" s="10"/>
+      <c r="F645" s="11"/>
+      <c r="G645" s="12"/>
+      <c r="H645" s="11"/>
+      <c r="I645" s="12"/>
+      <c r="J645" s="11"/>
+      <c r="K645" s="12"/>
+      <c r="L645" s="11"/>
+      <c r="M645" s="12"/>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>643</v>
+      </c>
+      <c r="B646" s="7" t="str">
+        <f t="shared" si="80"/>
+        <v>Пт</v>
+      </c>
+      <c r="C646" s="8">
+        <v>45870</v>
+      </c>
+      <c r="D646" s="9"/>
+      <c r="E646" s="10"/>
+      <c r="F646" s="11"/>
+      <c r="G646" s="12"/>
+      <c r="H646" s="11"/>
+      <c r="I646" s="12"/>
+      <c r="J646" s="11"/>
+      <c r="K646" s="12"/>
+      <c r="L646" s="11"/>
+      <c r="M646" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E642">
+  <conditionalFormatting sqref="B4:E646">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M642">
+  <conditionalFormatting sqref="B4:M646">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -19623,7 +19736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O649"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G645" sqref="G645"/>
     </sheetView>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B39C8-48E8-4273-A685-16015E39776D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB62C0D-7A65-4686-8285-E152365174EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD646"/>
+  <dimension ref="A1:AMD651"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H649" sqref="H649"/>
+      <pane ySplit="3" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J654" sqref="J654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19584,7 +19584,7 @@
         <v>640</v>
       </c>
       <c r="B643" s="7" t="str">
-        <f t="shared" ref="B643:B646" si="80">IF(C643&lt;&gt;"",TEXT(C643,"ДДД"),"")</f>
+        <f t="shared" ref="B643:B647" si="80">IF(C643&lt;&gt;"",TEXT(C643,"ДДД"),"")</f>
         <v>Вт</v>
       </c>
       <c r="C643" s="8">
@@ -19659,14 +19659,30 @@
       <c r="C645" s="8">
         <v>45869</v>
       </c>
-      <c r="D645" s="9"/>
-      <c r="E645" s="10"/>
-      <c r="F645" s="11"/>
-      <c r="G645" s="12"/>
-      <c r="H645" s="11"/>
-      <c r="I645" s="12"/>
-      <c r="J645" s="11"/>
-      <c r="K645" s="12"/>
+      <c r="D645" s="9">
+        <v>2700</v>
+      </c>
+      <c r="E645" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F645" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G645" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H645" s="11">
+        <v>17600</v>
+      </c>
+      <c r="I645" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J645" s="11">
+        <v>16000</v>
+      </c>
+      <c r="K645" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L645" s="11"/>
       <c r="M645" s="12"/>
     </row>
@@ -19675,34 +19691,161 @@
         <v>643</v>
       </c>
       <c r="B646" s="7" t="str">
+        <f t="shared" ref="B646" si="81">IF(C646&lt;&gt;"",TEXT(C646,"ДДД"),"")</f>
+        <v>Чт</v>
+      </c>
+      <c r="C646" s="8">
+        <v>45869</v>
+      </c>
+      <c r="D646" s="9">
+        <v>5900</v>
+      </c>
+      <c r="E646" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F646" s="11">
+        <v>9700</v>
+      </c>
+      <c r="G646" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H646" s="11">
+        <f>1700+1900</f>
+        <v>3600</v>
+      </c>
+      <c r="I646" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J646" s="11">
+        <v>7400</v>
+      </c>
+      <c r="K646" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L646" s="11"/>
+      <c r="M646" s="12"/>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
+        <v>644</v>
+      </c>
+      <c r="B647" s="7" t="str">
         <f t="shared" si="80"/>
         <v>Пт</v>
       </c>
-      <c r="C646" s="8">
+      <c r="C647" s="8">
         <v>45870</v>
       </c>
-      <c r="D646" s="9"/>
-      <c r="E646" s="10"/>
-      <c r="F646" s="11"/>
-      <c r="G646" s="12"/>
-      <c r="H646" s="11"/>
-      <c r="I646" s="12"/>
-      <c r="J646" s="11"/>
-      <c r="K646" s="12"/>
-      <c r="L646" s="11"/>
-      <c r="M646" s="12"/>
+      <c r="D647" s="9"/>
+      <c r="E647" s="10"/>
+      <c r="F647" s="11"/>
+      <c r="G647" s="12"/>
+      <c r="H647" s="11"/>
+      <c r="I647" s="12"/>
+      <c r="J647" s="11"/>
+      <c r="K647" s="12"/>
+      <c r="L647" s="11"/>
+      <c r="M647" s="12"/>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>645</v>
+      </c>
+      <c r="B648" s="7" t="str">
+        <f t="shared" ref="B648:B651" si="82">IF(C648&lt;&gt;"",TEXT(C648,"ДДД"),"")</f>
+        <v>Сб</v>
+      </c>
+      <c r="C648" s="8">
+        <v>45871</v>
+      </c>
+      <c r="D648" s="9"/>
+      <c r="E648" s="10"/>
+      <c r="F648" s="11"/>
+      <c r="G648" s="12"/>
+      <c r="H648" s="11"/>
+      <c r="I648" s="12"/>
+      <c r="J648" s="11"/>
+      <c r="K648" s="12"/>
+      <c r="L648" s="11"/>
+      <c r="M648" s="12"/>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
+        <v>646</v>
+      </c>
+      <c r="B649" s="7" t="str">
+        <f t="shared" si="82"/>
+        <v>Вс</v>
+      </c>
+      <c r="C649" s="8">
+        <v>45872</v>
+      </c>
+      <c r="D649" s="9"/>
+      <c r="E649" s="10"/>
+      <c r="F649" s="11"/>
+      <c r="G649" s="12"/>
+      <c r="H649" s="11"/>
+      <c r="I649" s="12"/>
+      <c r="J649" s="11"/>
+      <c r="K649" s="12"/>
+      <c r="L649" s="11"/>
+      <c r="M649" s="12"/>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>647</v>
+      </c>
+      <c r="B650" s="7" t="str">
+        <f t="shared" si="82"/>
+        <v>Пн</v>
+      </c>
+      <c r="C650" s="8">
+        <v>45873</v>
+      </c>
+      <c r="D650" s="9"/>
+      <c r="E650" s="10"/>
+      <c r="F650" s="11"/>
+      <c r="G650" s="12"/>
+      <c r="H650" s="11"/>
+      <c r="I650" s="12"/>
+      <c r="J650" s="11"/>
+      <c r="K650" s="12"/>
+      <c r="L650" s="11"/>
+      <c r="M650" s="12"/>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
+        <v>648</v>
+      </c>
+      <c r="B651" s="7" t="str">
+        <f t="shared" si="82"/>
+        <v>Вт</v>
+      </c>
+      <c r="C651" s="8">
+        <v>45874</v>
+      </c>
+      <c r="D651" s="9"/>
+      <c r="E651" s="10"/>
+      <c r="F651" s="11"/>
+      <c r="G651" s="12"/>
+      <c r="H651" s="11"/>
+      <c r="I651" s="12"/>
+      <c r="J651" s="11"/>
+      <c r="K651" s="12"/>
+      <c r="L651" s="11"/>
+      <c r="M651" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E646">
+  <conditionalFormatting sqref="B4:E651">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M646">
+  <conditionalFormatting sqref="B4:M651">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB62C0D-7A65-4686-8285-E152365174EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0128822-EC61-4155-98D1-179B18B3CD26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -889,7 +889,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J654" sqref="J654"/>
+      <selection pane="bottomLeft" activeCell="K654" sqref="K654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19764,8 +19764,12 @@
       <c r="G648" s="12"/>
       <c r="H648" s="11"/>
       <c r="I648" s="12"/>
-      <c r="J648" s="11"/>
-      <c r="K648" s="12"/>
+      <c r="J648" s="11">
+        <v>4000</v>
+      </c>
+      <c r="K648" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L648" s="11"/>
       <c r="M648" s="12"/>
     </row>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0128822-EC61-4155-98D1-179B18B3CD26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0879439-7BB5-4046-BDBB-529602D54D61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -889,7 +889,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K654" sqref="K654"/>
+      <selection pane="bottomLeft" activeCell="M653" sqref="M653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19792,8 +19792,12 @@
       <c r="I649" s="12"/>
       <c r="J649" s="11"/>
       <c r="K649" s="12"/>
-      <c r="L649" s="11"/>
-      <c r="M649" s="12"/>
+      <c r="L649" s="11">
+        <v>4300</v>
+      </c>
+      <c r="M649" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650" s="1">

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0879439-7BB5-4046-BDBB-529602D54D61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BBBF50-3865-4739-BCB2-8A5FA009ADA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -887,7 +887,7 @@
   </sheetPr>
   <dimension ref="A1:AMD651"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M653" sqref="M653"/>
     </sheetView>
@@ -19885,11 +19885,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O649"/>
+  <dimension ref="A1:O655"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G645" sqref="G645"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F657" sqref="F657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36129,14 +36129,30 @@
       <c r="C647" s="8">
         <v>45874</v>
       </c>
-      <c r="D647" s="9"/>
-      <c r="E647" s="10"/>
-      <c r="F647" s="11"/>
-      <c r="G647" s="12"/>
-      <c r="H647" s="11"/>
-      <c r="I647" s="12"/>
-      <c r="J647" s="11"/>
-      <c r="K647" s="12"/>
+      <c r="D647" s="9">
+        <v>5200</v>
+      </c>
+      <c r="E647" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F647" s="11">
+        <v>1700</v>
+      </c>
+      <c r="G647" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H647" s="11">
+        <v>2900</v>
+      </c>
+      <c r="I647" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J647" s="11">
+        <v>3200</v>
+      </c>
+      <c r="K647" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
@@ -36167,14 +36183,152 @@
       <c r="C649" s="8">
         <v>45876</v>
       </c>
-      <c r="D649" s="9"/>
-      <c r="E649" s="10"/>
+      <c r="D649" s="9">
+        <v>2600</v>
+      </c>
+      <c r="E649" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F649" s="11"/>
       <c r="G649" s="12"/>
       <c r="H649" s="11"/>
       <c r="I649" s="12"/>
-      <c r="J649" s="11"/>
-      <c r="K649" s="12"/>
+      <c r="J649" s="11">
+        <v>1600</v>
+      </c>
+      <c r="K649" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>649</v>
+      </c>
+      <c r="B650" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C650" s="8">
+        <v>45876</v>
+      </c>
+      <c r="D650" s="9">
+        <v>1600</v>
+      </c>
+      <c r="E650" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F650" s="11">
+        <v>800</v>
+      </c>
+      <c r="G650" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H650" s="11"/>
+      <c r="I650" s="12"/>
+      <c r="J650" s="11"/>
+      <c r="K650" s="12"/>
+    </row>
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
+        <v>650</v>
+      </c>
+      <c r="B651" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C651" s="8">
+        <v>45876</v>
+      </c>
+      <c r="D651" s="9">
+        <v>300</v>
+      </c>
+      <c r="E651" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F651" s="11">
+        <v>200</v>
+      </c>
+      <c r="G651" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H651" s="11"/>
+      <c r="I651" s="12"/>
+      <c r="J651" s="11"/>
+      <c r="K651" s="12"/>
+    </row>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>651</v>
+      </c>
+      <c r="B652" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C652" s="8">
+        <v>45877</v>
+      </c>
+      <c r="D652" s="9"/>
+      <c r="E652" s="10"/>
+      <c r="F652" s="11"/>
+      <c r="G652" s="12"/>
+      <c r="H652" s="11"/>
+      <c r="I652" s="12"/>
+      <c r="J652" s="11"/>
+      <c r="K652" s="12"/>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A653" s="1">
+        <v>652</v>
+      </c>
+      <c r="B653" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C653" s="8">
+        <v>45878</v>
+      </c>
+      <c r="D653" s="9"/>
+      <c r="E653" s="10"/>
+      <c r="F653" s="11"/>
+      <c r="G653" s="12"/>
+      <c r="H653" s="11"/>
+      <c r="I653" s="12"/>
+      <c r="J653" s="11"/>
+      <c r="K653" s="12"/>
+    </row>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>653</v>
+      </c>
+      <c r="B654" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C654" s="8">
+        <v>45879</v>
+      </c>
+      <c r="D654" s="9"/>
+      <c r="E654" s="10"/>
+      <c r="F654" s="11"/>
+      <c r="G654" s="12"/>
+      <c r="H654" s="11"/>
+      <c r="I654" s="12"/>
+      <c r="J654" s="11"/>
+      <c r="K654" s="12"/>
+    </row>
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
+        <v>654</v>
+      </c>
+      <c r="B655" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C655" s="8">
+        <v>45880</v>
+      </c>
+      <c r="D655" s="9"/>
+      <c r="E655" s="10"/>
+      <c r="F655" s="11"/>
+      <c r="G655" s="12"/>
+      <c r="H655" s="11"/>
+      <c r="I655" s="12"/>
+      <c r="J655" s="11"/>
+      <c r="K655" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -36182,12 +36336,12 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E649">
+  <conditionalFormatting sqref="B4:E655">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K649 B374:C649">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K655 B374:C655">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BBBF50-3865-4739-BCB2-8A5FA009ADA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3DBC0C-6A9A-472B-B2DF-A1013387C55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD651"/>
+  <dimension ref="A1:AMD656"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M653" sqref="M653"/>
+      <selection pane="bottomLeft" activeCell="H658" sqref="H658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19832,28 +19832,155 @@
       <c r="C651" s="8">
         <v>45874</v>
       </c>
-      <c r="D651" s="9"/>
-      <c r="E651" s="10"/>
-      <c r="F651" s="11"/>
-      <c r="G651" s="12"/>
-      <c r="H651" s="11"/>
-      <c r="I651" s="12"/>
-      <c r="J651" s="11"/>
-      <c r="K651" s="12"/>
+      <c r="D651" s="9">
+        <v>3900</v>
+      </c>
+      <c r="E651" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F651" s="11">
+        <v>6200</v>
+      </c>
+      <c r="G651" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H651" s="11">
+        <f>2900+10800</f>
+        <v>13700</v>
+      </c>
+      <c r="I651" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J651" s="11">
+        <v>14200</v>
+      </c>
+      <c r="K651" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L651" s="11"/>
       <c r="M651" s="12"/>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>649</v>
+      </c>
+      <c r="B652" s="7" t="str">
+        <f t="shared" ref="B652:B656" si="83">IF(C652&lt;&gt;"",TEXT(C652,"ДДД"),"")</f>
+        <v>Ср</v>
+      </c>
+      <c r="C652" s="8">
+        <v>45875</v>
+      </c>
+      <c r="D652" s="9"/>
+      <c r="E652" s="10"/>
+      <c r="F652" s="11"/>
+      <c r="G652" s="12"/>
+      <c r="H652" s="11"/>
+      <c r="I652" s="12"/>
+      <c r="J652" s="11"/>
+      <c r="K652" s="12"/>
+      <c r="L652" s="11"/>
+      <c r="M652" s="12"/>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A653" s="1">
+        <v>650</v>
+      </c>
+      <c r="B653" s="7" t="str">
+        <f t="shared" si="83"/>
+        <v>Чт</v>
+      </c>
+      <c r="C653" s="8">
+        <v>45876</v>
+      </c>
+      <c r="D653" s="9"/>
+      <c r="E653" s="10"/>
+      <c r="F653" s="11"/>
+      <c r="G653" s="12"/>
+      <c r="H653" s="11"/>
+      <c r="I653" s="12"/>
+      <c r="J653" s="11"/>
+      <c r="K653" s="12"/>
+      <c r="L653" s="11"/>
+      <c r="M653" s="12"/>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>651</v>
+      </c>
+      <c r="B654" s="7" t="str">
+        <f t="shared" si="83"/>
+        <v>Пт</v>
+      </c>
+      <c r="C654" s="8">
+        <v>45877</v>
+      </c>
+      <c r="D654" s="9"/>
+      <c r="E654" s="10"/>
+      <c r="F654" s="11"/>
+      <c r="G654" s="12"/>
+      <c r="H654" s="11"/>
+      <c r="I654" s="12"/>
+      <c r="J654" s="11"/>
+      <c r="K654" s="12"/>
+      <c r="L654" s="11"/>
+      <c r="M654" s="12"/>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
+        <v>652</v>
+      </c>
+      <c r="B655" s="7" t="str">
+        <f t="shared" si="83"/>
+        <v>Сб</v>
+      </c>
+      <c r="C655" s="8">
+        <v>45878</v>
+      </c>
+      <c r="D655" s="9"/>
+      <c r="E655" s="10"/>
+      <c r="F655" s="11"/>
+      <c r="G655" s="12"/>
+      <c r="H655" s="11"/>
+      <c r="I655" s="12"/>
+      <c r="J655" s="11"/>
+      <c r="K655" s="12"/>
+      <c r="L655" s="11"/>
+      <c r="M655" s="12"/>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>653</v>
+      </c>
+      <c r="B656" s="7" t="str">
+        <f t="shared" si="83"/>
+        <v>Вс</v>
+      </c>
+      <c r="C656" s="8">
+        <v>45879</v>
+      </c>
+      <c r="D656" s="9"/>
+      <c r="E656" s="10"/>
+      <c r="F656" s="11"/>
+      <c r="G656" s="12"/>
+      <c r="H656" s="11"/>
+      <c r="I656" s="12"/>
+      <c r="J656" s="11"/>
+      <c r="K656" s="12"/>
+      <c r="L656" s="11"/>
+      <c r="M656" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E651">
+  <conditionalFormatting sqref="B4:E656">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M651">
+  <conditionalFormatting sqref="B4:M656">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -19887,9 +20014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O655"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F657" sqref="F657"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A649" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A655" sqref="A655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3DBC0C-6A9A-472B-B2DF-A1013387C55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D4A64-F1A2-43B3-B6DF-DA9040C86CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD656"/>
+  <dimension ref="A1:AMD657"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H658" sqref="H658"/>
+      <selection pane="bottomLeft" activeCell="F657" sqref="F657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19865,7 +19865,7 @@
         <v>649</v>
       </c>
       <c r="B652" s="7" t="str">
-        <f t="shared" ref="B652:B656" si="83">IF(C652&lt;&gt;"",TEXT(C652,"ДДД"),"")</f>
+        <f t="shared" ref="B652:B657" si="83">IF(C652&lt;&gt;"",TEXT(C652,"ДДД"),"")</f>
         <v>Ср</v>
       </c>
       <c r="C652" s="8">
@@ -19893,14 +19893,31 @@
       <c r="C653" s="8">
         <v>45876</v>
       </c>
-      <c r="D653" s="9"/>
-      <c r="E653" s="10"/>
-      <c r="F653" s="11"/>
-      <c r="G653" s="12"/>
-      <c r="H653" s="11"/>
-      <c r="I653" s="12"/>
-      <c r="J653" s="11"/>
-      <c r="K653" s="12"/>
+      <c r="D653" s="9">
+        <v>3600</v>
+      </c>
+      <c r="E653" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F653" s="11">
+        <v>3200</v>
+      </c>
+      <c r="G653" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H653" s="11">
+        <f>6700+12500</f>
+        <v>19200</v>
+      </c>
+      <c r="I653" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J653" s="11">
+        <v>10600</v>
+      </c>
+      <c r="K653" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L653" s="11"/>
       <c r="M653" s="12"/>
     </row>
@@ -19909,20 +19926,38 @@
         <v>651</v>
       </c>
       <c r="B654" s="7" t="str">
-        <f t="shared" si="83"/>
-        <v>Пт</v>
+        <f t="shared" ref="B654" si="84">IF(C654&lt;&gt;"",TEXT(C654,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C654" s="8">
-        <v>45877</v>
-      </c>
-      <c r="D654" s="9"/>
-      <c r="E654" s="10"/>
-      <c r="F654" s="11"/>
-      <c r="G654" s="12"/>
-      <c r="H654" s="11"/>
-      <c r="I654" s="12"/>
-      <c r="J654" s="11"/>
-      <c r="K654" s="12"/>
+        <v>45876</v>
+      </c>
+      <c r="D654" s="9">
+        <v>10400</v>
+      </c>
+      <c r="E654" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F654" s="11">
+        <f>1400+1000</f>
+        <v>2400</v>
+      </c>
+      <c r="G654" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H654" s="11">
+        <v>3700</v>
+      </c>
+      <c r="I654" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J654" s="11">
+        <f>3100+4600</f>
+        <v>7700</v>
+      </c>
+      <c r="K654" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="L654" s="11"/>
       <c r="M654" s="12"/>
     </row>
@@ -19932,10 +19967,10 @@
       </c>
       <c r="B655" s="7" t="str">
         <f t="shared" si="83"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C655" s="8">
-        <v>45878</v>
+        <v>45877</v>
       </c>
       <c r="D655" s="9"/>
       <c r="E655" s="10"/>
@@ -19954,10 +19989,10 @@
       </c>
       <c r="B656" s="7" t="str">
         <f t="shared" si="83"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C656" s="8">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="D656" s="9"/>
       <c r="E656" s="10"/>
@@ -19970,17 +20005,39 @@
       <c r="L656" s="11"/>
       <c r="M656" s="12"/>
     </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
+        <v>654</v>
+      </c>
+      <c r="B657" s="7" t="str">
+        <f t="shared" si="83"/>
+        <v>Вс</v>
+      </c>
+      <c r="C657" s="8">
+        <v>45879</v>
+      </c>
+      <c r="D657" s="9"/>
+      <c r="E657" s="10"/>
+      <c r="F657" s="11"/>
+      <c r="G657" s="12"/>
+      <c r="H657" s="11"/>
+      <c r="I657" s="12"/>
+      <c r="J657" s="11"/>
+      <c r="K657" s="12"/>
+      <c r="L657" s="11"/>
+      <c r="M657" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E656">
+  <conditionalFormatting sqref="B4:E657">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M656">
+  <conditionalFormatting sqref="B4:M657">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D4A64-F1A2-43B3-B6DF-DA9040C86CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CAF8B4-21DD-4086-84BC-F3D4E8D6385D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -885,11 +885,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD657"/>
+  <dimension ref="A1:AMD661"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F657" sqref="F657"/>
+      <pane ySplit="3" topLeftCell="A640" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M661" sqref="M661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20024,20 +20024,112 @@
       <c r="I657" s="12"/>
       <c r="J657" s="11"/>
       <c r="K657" s="12"/>
-      <c r="L657" s="11"/>
-      <c r="M657" s="12"/>
+      <c r="L657" s="11">
+        <v>5700</v>
+      </c>
+      <c r="M657" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>655</v>
+      </c>
+      <c r="B658" s="7" t="str">
+        <f t="shared" ref="B658:B661" si="85">IF(C658&lt;&gt;"",TEXT(C658,"ДДД"),"")</f>
+        <v>Пн</v>
+      </c>
+      <c r="C658" s="8">
+        <v>45880</v>
+      </c>
+      <c r="D658" s="9"/>
+      <c r="E658" s="10"/>
+      <c r="F658" s="11"/>
+      <c r="G658" s="12"/>
+      <c r="H658" s="11"/>
+      <c r="I658" s="12"/>
+      <c r="J658" s="11"/>
+      <c r="K658" s="12"/>
+      <c r="L658" s="11"/>
+      <c r="M658" s="12"/>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
+        <v>656</v>
+      </c>
+      <c r="B659" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>Вт</v>
+      </c>
+      <c r="C659" s="8">
+        <v>45881</v>
+      </c>
+      <c r="D659" s="9"/>
+      <c r="E659" s="10"/>
+      <c r="F659" s="11"/>
+      <c r="G659" s="12"/>
+      <c r="H659" s="11"/>
+      <c r="I659" s="12"/>
+      <c r="J659" s="11"/>
+      <c r="K659" s="12"/>
+      <c r="L659" s="11"/>
+      <c r="M659" s="12"/>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>657</v>
+      </c>
+      <c r="B660" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>Ср</v>
+      </c>
+      <c r="C660" s="8">
+        <v>45882</v>
+      </c>
+      <c r="D660" s="9"/>
+      <c r="E660" s="10"/>
+      <c r="F660" s="11"/>
+      <c r="G660" s="12"/>
+      <c r="H660" s="11"/>
+      <c r="I660" s="12"/>
+      <c r="J660" s="11"/>
+      <c r="K660" s="12"/>
+      <c r="L660" s="11"/>
+      <c r="M660" s="12"/>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
+        <v>658</v>
+      </c>
+      <c r="B661" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>Чт</v>
+      </c>
+      <c r="C661" s="8">
+        <v>45883</v>
+      </c>
+      <c r="D661" s="9"/>
+      <c r="E661" s="10"/>
+      <c r="F661" s="11"/>
+      <c r="G661" s="12"/>
+      <c r="H661" s="11"/>
+      <c r="I661" s="12"/>
+      <c r="J661" s="11"/>
+      <c r="K661" s="12"/>
+      <c r="L661" s="11"/>
+      <c r="M661" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E657">
+  <conditionalFormatting sqref="B4:E661">
     <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M657">
+  <conditionalFormatting sqref="B4:M661">
     <cfRule type="expression" dxfId="12" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CAF8B4-21DD-4086-84BC-F3D4E8D6385D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BD0FD9-E576-42BC-A812-295A46598882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -888,8 +888,8 @@
   <dimension ref="A1:AMD661"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A640" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M661" sqref="M661"/>
+      <pane ySplit="3" topLeftCell="A646" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H664" sqref="H664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20064,14 +20064,30 @@
       <c r="C659" s="8">
         <v>45881</v>
       </c>
-      <c r="D659" s="9"/>
-      <c r="E659" s="10"/>
-      <c r="F659" s="11"/>
-      <c r="G659" s="12"/>
-      <c r="H659" s="11"/>
-      <c r="I659" s="12"/>
-      <c r="J659" s="11"/>
-      <c r="K659" s="12"/>
+      <c r="D659" s="9">
+        <v>6200</v>
+      </c>
+      <c r="E659" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F659" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G659" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H659" s="11">
+        <v>10700</v>
+      </c>
+      <c r="I659" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J659" s="11">
+        <v>15300</v>
+      </c>
+      <c r="K659" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L659" s="11"/>
       <c r="M659" s="12"/>
     </row>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BD0FD9-E576-42BC-A812-295A46598882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09DEB95-3A94-46A9-B19C-42E6091726B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,28 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -885,11 +906,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD661"/>
+  <dimension ref="A1:AMD670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A646" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H664" sqref="H664"/>
+      <pane ySplit="3" topLeftCell="A652" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G667" sqref="G667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20124,50 +20145,298 @@
       <c r="C661" s="8">
         <v>45883</v>
       </c>
-      <c r="D661" s="9"/>
-      <c r="E661" s="10"/>
-      <c r="F661" s="11"/>
-      <c r="G661" s="12"/>
-      <c r="H661" s="11"/>
-      <c r="I661" s="12"/>
-      <c r="J661" s="11"/>
-      <c r="K661" s="12"/>
+      <c r="D661" s="9">
+        <v>1800</v>
+      </c>
+      <c r="E661" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F661" s="11">
+        <v>2100</v>
+      </c>
+      <c r="G661" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H661" s="11">
+        <v>8500</v>
+      </c>
+      <c r="I661" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J661" s="11">
+        <v>11000</v>
+      </c>
+      <c r="K661" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="L661" s="11"/>
       <c r="M661" s="12"/>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>659</v>
+      </c>
+      <c r="B662" s="7" t="str">
+        <f t="shared" ref="B662" si="86">IF(C662&lt;&gt;"",TEXT(C662,"ДДД"),"")</f>
+        <v>Чт</v>
+      </c>
+      <c r="C662" s="8">
+        <v>45883</v>
+      </c>
+      <c r="D662" s="9">
+        <f>7000+1000</f>
+        <v>8000</v>
+      </c>
+      <c r="E662" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F662" s="11">
+        <v>6800</v>
+      </c>
+      <c r="G662" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H662" s="11">
+        <f>3600</f>
+        <v>3600</v>
+      </c>
+      <c r="I662" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J662" s="11">
+        <f>2900+4000</f>
+        <v>6900</v>
+      </c>
+      <c r="K662" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L662" s="11"/>
+      <c r="M662" s="12"/>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
+        <v>660</v>
+      </c>
+      <c r="B663" s="7" t="str">
+        <f t="shared" ref="B663:B670" si="87">IF(C663&lt;&gt;"",TEXT(C663,"ДДД"),"")</f>
+        <v>Пт</v>
+      </c>
+      <c r="C663" s="8">
+        <v>45884</v>
+      </c>
+      <c r="D663" s="9"/>
+      <c r="E663" s="10"/>
+      <c r="F663" s="11"/>
+      <c r="G663" s="12"/>
+      <c r="H663" s="11"/>
+      <c r="I663" s="12"/>
+      <c r="J663" s="11"/>
+      <c r="K663" s="12"/>
+      <c r="L663" s="11"/>
+      <c r="M663" s="12"/>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>661</v>
+      </c>
+      <c r="B664" s="7" t="str">
+        <f t="shared" si="87"/>
+        <v>Сб</v>
+      </c>
+      <c r="C664" s="8">
+        <v>45885</v>
+      </c>
+      <c r="D664" s="9"/>
+      <c r="E664" s="10"/>
+      <c r="F664" s="11"/>
+      <c r="G664" s="12"/>
+      <c r="H664" s="11"/>
+      <c r="I664" s="12"/>
+      <c r="J664" s="11"/>
+      <c r="K664" s="12"/>
+      <c r="L664" s="11"/>
+      <c r="M664" s="12"/>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A665" s="1">
+        <v>662</v>
+      </c>
+      <c r="B665" s="7" t="str">
+        <f t="shared" si="87"/>
+        <v>Вс</v>
+      </c>
+      <c r="C665" s="8">
+        <v>45886</v>
+      </c>
+      <c r="D665" s="9"/>
+      <c r="E665" s="10"/>
+      <c r="F665" s="11"/>
+      <c r="G665" s="12"/>
+      <c r="H665" s="11"/>
+      <c r="I665" s="12"/>
+      <c r="J665" s="11"/>
+      <c r="K665" s="12"/>
+      <c r="L665" s="11"/>
+      <c r="M665" s="12"/>
+    </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>663</v>
+      </c>
+      <c r="B666" s="7" t="str">
+        <f t="shared" si="87"/>
+        <v>Пн</v>
+      </c>
+      <c r="C666" s="8">
+        <v>45887</v>
+      </c>
+      <c r="D666" s="9"/>
+      <c r="E666" s="10"/>
+      <c r="F666" s="11"/>
+      <c r="G666" s="12"/>
+      <c r="H666" s="11"/>
+      <c r="I666" s="12"/>
+      <c r="J666" s="11"/>
+      <c r="K666" s="12"/>
+      <c r="L666" s="11"/>
+      <c r="M666" s="12"/>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A667" s="1">
+        <v>664</v>
+      </c>
+      <c r="B667" s="7" t="str">
+        <f t="shared" si="87"/>
+        <v>Вт</v>
+      </c>
+      <c r="C667" s="8">
+        <v>45888</v>
+      </c>
+      <c r="D667" s="9"/>
+      <c r="E667" s="10"/>
+      <c r="F667" s="11"/>
+      <c r="G667" s="12"/>
+      <c r="H667" s="11"/>
+      <c r="I667" s="12"/>
+      <c r="J667" s="11"/>
+      <c r="K667" s="12"/>
+      <c r="L667" s="11"/>
+      <c r="M667" s="12"/>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>665</v>
+      </c>
+      <c r="B668" s="7" t="str">
+        <f t="shared" si="87"/>
+        <v>Ср</v>
+      </c>
+      <c r="C668" s="8">
+        <v>45889</v>
+      </c>
+      <c r="D668" s="9"/>
+      <c r="E668" s="10"/>
+      <c r="F668" s="11"/>
+      <c r="G668" s="12"/>
+      <c r="H668" s="11"/>
+      <c r="I668" s="12"/>
+      <c r="J668" s="11"/>
+      <c r="K668" s="12"/>
+      <c r="L668" s="11"/>
+      <c r="M668" s="12"/>
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A669" s="1">
+        <v>666</v>
+      </c>
+      <c r="B669" s="7" t="str">
+        <f t="shared" si="87"/>
+        <v>Чт</v>
+      </c>
+      <c r="C669" s="8">
+        <v>45890</v>
+      </c>
+      <c r="D669" s="9"/>
+      <c r="E669" s="10"/>
+      <c r="F669" s="11"/>
+      <c r="G669" s="12"/>
+      <c r="H669" s="11"/>
+      <c r="I669" s="12"/>
+      <c r="J669" s="11"/>
+      <c r="K669" s="12"/>
+      <c r="L669" s="11"/>
+      <c r="M669" s="12"/>
+    </row>
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>667</v>
+      </c>
+      <c r="B670" s="7" t="str">
+        <f t="shared" si="87"/>
+        <v>Пт</v>
+      </c>
+      <c r="C670" s="8">
+        <v>45891</v>
+      </c>
+      <c r="D670" s="9"/>
+      <c r="E670" s="10"/>
+      <c r="F670" s="11"/>
+      <c r="G670" s="12"/>
+      <c r="H670" s="11"/>
+      <c r="I670" s="12"/>
+      <c r="J670" s="11"/>
+      <c r="K670" s="12"/>
+      <c r="L670" s="11"/>
+      <c r="M670" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E661">
-    <cfRule type="expression" dxfId="13" priority="2">
+  <conditionalFormatting sqref="B4:E670">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M661">
-    <cfRule type="expression" dxfId="12" priority="3">
+  <conditionalFormatting sqref="B4:M670">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="10" priority="19">
+    <cfRule type="expression" dxfId="13" priority="22">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="8" priority="18">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>$C34=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G661">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C661=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I661">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C661=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K661">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -36629,42 +36898,42 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E655">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K655 B374:C655">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="6" priority="24">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="5" priority="37">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="4" priority="41">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09DEB95-3A94-46A9-B19C-42E6091726B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC312D43-54C2-4B65-99A7-041FEC65A6A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -910,7 +910,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A652" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G667" sqref="G667"/>
+      <selection pane="bottomLeft" activeCell="H671" sqref="H671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20276,8 +20276,12 @@
       <c r="I665" s="12"/>
       <c r="J665" s="11"/>
       <c r="K665" s="12"/>
-      <c r="L665" s="11"/>
-      <c r="M665" s="12"/>
+      <c r="L665" s="11">
+        <v>3700</v>
+      </c>
+      <c r="M665" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
@@ -20425,17 +20429,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20446,11 +20450,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O655"/>
+  <dimension ref="A1:O664"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A649" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A655" sqref="A655"/>
+      <pane ySplit="3" topLeftCell="A643" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F667" sqref="F667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36891,49 +36895,272 @@
       <c r="J655" s="11"/>
       <c r="K655" s="12"/>
     </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>655</v>
+      </c>
+      <c r="B656" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C656" s="8">
+        <v>45881</v>
+      </c>
+      <c r="D656" s="9">
+        <v>4900</v>
+      </c>
+      <c r="E656" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F656" s="11">
+        <v>3000</v>
+      </c>
+      <c r="G656" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H656" s="11"/>
+      <c r="I656" s="12"/>
+      <c r="J656" s="11">
+        <v>4200</v>
+      </c>
+      <c r="K656" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
+        <v>656</v>
+      </c>
+      <c r="B657" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C657" s="8">
+        <v>45882</v>
+      </c>
+      <c r="D657" s="9"/>
+      <c r="E657" s="10"/>
+      <c r="F657" s="11"/>
+      <c r="G657" s="12"/>
+      <c r="H657" s="11"/>
+      <c r="I657" s="12"/>
+      <c r="J657" s="11"/>
+      <c r="K657" s="12"/>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>657</v>
+      </c>
+      <c r="B658" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C658" s="8">
+        <v>45883</v>
+      </c>
+      <c r="D658" s="9">
+        <v>3100</v>
+      </c>
+      <c r="E658" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F658" s="11"/>
+      <c r="G658" s="12"/>
+      <c r="H658" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I658" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J658" s="11">
+        <v>2700</v>
+      </c>
+      <c r="K658" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
+        <v>658</v>
+      </c>
+      <c r="B659" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C659" s="8">
+        <v>45883</v>
+      </c>
+      <c r="D659" s="9">
+        <v>1700</v>
+      </c>
+      <c r="E659" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F659" s="11">
+        <v>400</v>
+      </c>
+      <c r="G659" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H659" s="11">
+        <v>40</v>
+      </c>
+      <c r="I659" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J659" s="11">
+        <v>300</v>
+      </c>
+      <c r="K659" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>659</v>
+      </c>
+      <c r="B660" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C660" s="8">
+        <v>45883</v>
+      </c>
+      <c r="D660" s="9">
+        <v>500</v>
+      </c>
+      <c r="E660" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F660" s="11">
+        <v>30</v>
+      </c>
+      <c r="G660" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H660" s="11"/>
+      <c r="I660" s="12"/>
+      <c r="J660" s="11">
+        <v>20</v>
+      </c>
+      <c r="K660" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
+        <v>660</v>
+      </c>
+      <c r="B661" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C661" s="8">
+        <v>45884</v>
+      </c>
+      <c r="D661" s="9"/>
+      <c r="E661" s="10"/>
+      <c r="F661" s="11"/>
+      <c r="G661" s="12"/>
+      <c r="H661" s="11"/>
+      <c r="I661" s="12"/>
+      <c r="J661" s="11"/>
+      <c r="K661" s="12"/>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>661</v>
+      </c>
+      <c r="B662" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C662" s="8">
+        <v>45885</v>
+      </c>
+      <c r="D662" s="9"/>
+      <c r="E662" s="10"/>
+      <c r="F662" s="11"/>
+      <c r="G662" s="12"/>
+      <c r="H662" s="11"/>
+      <c r="I662" s="12"/>
+      <c r="J662" s="11"/>
+      <c r="K662" s="12"/>
+    </row>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
+        <v>662</v>
+      </c>
+      <c r="B663" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C663" s="8">
+        <v>45886</v>
+      </c>
+      <c r="D663" s="9"/>
+      <c r="E663" s="10"/>
+      <c r="F663" s="11"/>
+      <c r="G663" s="12"/>
+      <c r="H663" s="11"/>
+      <c r="I663" s="12"/>
+      <c r="J663" s="11"/>
+      <c r="K663" s="12"/>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>663</v>
+      </c>
+      <c r="B664" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C664" s="8">
+        <v>45887</v>
+      </c>
+      <c r="D664" s="9"/>
+      <c r="E664" s="10"/>
+      <c r="F664" s="11"/>
+      <c r="G664" s="12"/>
+      <c r="H664" s="11"/>
+      <c r="I664" s="12"/>
+      <c r="J664" s="11"/>
+      <c r="K664" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E655">
-    <cfRule type="expression" dxfId="10" priority="2">
+  <conditionalFormatting sqref="B4:E664">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K655 B374:C655">
-    <cfRule type="expression" dxfId="9" priority="3">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K664 B374:C664">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="6" priority="24">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="5" priority="37">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="4" priority="41">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC312D43-54C2-4B65-99A7-041FEC65A6A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89D422B-9B56-4366-9CBF-5E32CBC754E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -908,7 +908,7 @@
   </sheetPr>
   <dimension ref="A1:AMD670"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A652" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H671" sqref="H671"/>
     </sheetView>
@@ -20450,11 +20450,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O664"/>
+  <dimension ref="A1:O673"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A643" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F667" sqref="F667"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E677" sqref="E677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37118,18 +37118,245 @@
       <c r="J664" s="11"/>
       <c r="K664" s="12"/>
     </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A665" s="1">
+        <v>664</v>
+      </c>
+      <c r="B665" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C665" s="8">
+        <v>45888</v>
+      </c>
+      <c r="D665" s="9">
+        <v>10100</v>
+      </c>
+      <c r="E665" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F665" s="11">
+        <v>6900</v>
+      </c>
+      <c r="G665" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H665" s="11">
+        <v>4000</v>
+      </c>
+      <c r="I665" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J665" s="11">
+        <v>8300</v>
+      </c>
+      <c r="K665" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>665</v>
+      </c>
+      <c r="B666" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C666" s="8">
+        <v>45889</v>
+      </c>
+      <c r="D666" s="9"/>
+      <c r="E666" s="10"/>
+      <c r="F666" s="11"/>
+      <c r="G666" s="12"/>
+      <c r="H666" s="11"/>
+      <c r="I666" s="12"/>
+      <c r="J666" s="11"/>
+      <c r="K666" s="12"/>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A667" s="1">
+        <v>666</v>
+      </c>
+      <c r="B667" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C667" s="8">
+        <v>45890</v>
+      </c>
+      <c r="D667" s="9"/>
+      <c r="E667" s="10"/>
+      <c r="F667" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G667" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H667" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I667" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J667" s="11"/>
+      <c r="K667" s="12"/>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>667</v>
+      </c>
+      <c r="B668" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C668" s="8">
+        <v>45890</v>
+      </c>
+      <c r="D668" s="9">
+        <v>1400</v>
+      </c>
+      <c r="E668" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F668" s="11">
+        <v>1700</v>
+      </c>
+      <c r="G668" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H668" s="11">
+        <v>100</v>
+      </c>
+      <c r="I668" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J668" s="11">
+        <v>800</v>
+      </c>
+      <c r="K668" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A669" s="1">
+        <v>668</v>
+      </c>
+      <c r="B669" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C669" s="8">
+        <v>45890</v>
+      </c>
+      <c r="D669" s="9">
+        <v>600</v>
+      </c>
+      <c r="E669" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F669" s="11">
+        <v>400</v>
+      </c>
+      <c r="G669" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H669" s="11">
+        <v>10</v>
+      </c>
+      <c r="I669" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J669" s="11">
+        <v>100</v>
+      </c>
+      <c r="K669" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>669</v>
+      </c>
+      <c r="B670" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C670" s="8">
+        <v>45891</v>
+      </c>
+      <c r="D670" s="9"/>
+      <c r="E670" s="10"/>
+      <c r="F670" s="11"/>
+      <c r="G670" s="12"/>
+      <c r="H670" s="11"/>
+      <c r="I670" s="12"/>
+      <c r="J670" s="11"/>
+      <c r="K670" s="12"/>
+    </row>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A671" s="1">
+        <v>670</v>
+      </c>
+      <c r="B671" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C671" s="8">
+        <v>45892</v>
+      </c>
+      <c r="D671" s="9"/>
+      <c r="E671" s="10"/>
+      <c r="F671" s="11"/>
+      <c r="G671" s="12"/>
+      <c r="H671" s="11"/>
+      <c r="I671" s="12"/>
+      <c r="J671" s="11"/>
+      <c r="K671" s="12"/>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A672" s="1">
+        <v>671</v>
+      </c>
+      <c r="B672" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C672" s="8">
+        <v>45893</v>
+      </c>
+      <c r="D672" s="9"/>
+      <c r="E672" s="10"/>
+      <c r="F672" s="11"/>
+      <c r="G672" s="12"/>
+      <c r="H672" s="11"/>
+      <c r="I672" s="12"/>
+      <c r="J672" s="11"/>
+      <c r="K672" s="12"/>
+    </row>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A673" s="1">
+        <v>672</v>
+      </c>
+      <c r="B673" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C673" s="8">
+        <v>45894</v>
+      </c>
+      <c r="D673" s="9"/>
+      <c r="E673" s="10"/>
+      <c r="F673" s="11"/>
+      <c r="G673" s="12"/>
+      <c r="H673" s="11"/>
+      <c r="I673" s="12"/>
+      <c r="J673" s="11"/>
+      <c r="K673" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E664">
+  <conditionalFormatting sqref="B4:E673">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K664 B374:C664">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K673 B374:C673">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89D422B-9B56-4366-9CBF-5E32CBC754E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEC39CC-AE9B-4494-946B-31001BA84DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ПОКОМ!$A$1:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -908,9 +902,9 @@
   </sheetPr>
   <dimension ref="A1:AMD670"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A652" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H671" sqref="H671"/>
+      <selection pane="bottomLeft" activeCell="K668" sqref="K668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20316,14 +20310,30 @@
       <c r="C667" s="8">
         <v>45888</v>
       </c>
-      <c r="D667" s="9"/>
-      <c r="E667" s="10"/>
-      <c r="F667" s="11"/>
-      <c r="G667" s="12"/>
-      <c r="H667" s="11"/>
-      <c r="I667" s="12"/>
-      <c r="J667" s="11"/>
-      <c r="K667" s="12"/>
+      <c r="D667" s="9">
+        <v>3000</v>
+      </c>
+      <c r="E667" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F667" s="11">
+        <v>3400</v>
+      </c>
+      <c r="G667" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H667" s="11">
+        <v>17700</v>
+      </c>
+      <c r="I667" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J667" s="11">
+        <v>15400</v>
+      </c>
+      <c r="K667" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L667" s="11"/>
       <c r="M667" s="12"/>
     </row>
@@ -20413,29 +20423,29 @@
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G661">
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>$C661=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="13" priority="22">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="11" priority="21">
-      <formula>$C34=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="10" priority="3">
+  <conditionalFormatting sqref="I661">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>$C661=TODAY()</formula>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="expression" dxfId="9" priority="21">
+      <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
@@ -20452,7 +20462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O673"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E677" sqref="E677"/>
     </sheetView>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEC39CC-AE9B-4494-946B-31001BA84DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322305D5-FCC0-40AD-88EB-B602B57A8A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ПОКОМ!$A$1:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -399,7 +405,28 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -900,11 +927,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD670"/>
+  <dimension ref="A1:AMD673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A652" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K668" sqref="K668"/>
+      <pane ySplit="3" topLeftCell="A658" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D674" sqref="D674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20212,7 +20239,7 @@
         <v>660</v>
       </c>
       <c r="B663" s="7" t="str">
-        <f t="shared" ref="B663:B670" si="87">IF(C663&lt;&gt;"",TEXT(C663,"ДДД"),"")</f>
+        <f t="shared" ref="B663:B671" si="87">IF(C663&lt;&gt;"",TEXT(C663,"ДДД"),"")</f>
         <v>Пт</v>
       </c>
       <c r="C663" s="8">
@@ -20370,14 +20397,32 @@
       <c r="C669" s="8">
         <v>45890</v>
       </c>
-      <c r="D669" s="9"/>
-      <c r="E669" s="10"/>
-      <c r="F669" s="11"/>
-      <c r="G669" s="12"/>
-      <c r="H669" s="11"/>
-      <c r="I669" s="12"/>
-      <c r="J669" s="11"/>
-      <c r="K669" s="12"/>
+      <c r="D669" s="9">
+        <v>2500</v>
+      </c>
+      <c r="E669" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F669" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G669" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H669" s="11">
+        <f>6500+14600</f>
+        <v>21100</v>
+      </c>
+      <c r="I669" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J669" s="11">
+        <f>2900+17500</f>
+        <v>20400</v>
+      </c>
+      <c r="K669" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L669" s="11"/>
       <c r="M669" s="12"/>
     </row>
@@ -20386,71 +20431,169 @@
         <v>667</v>
       </c>
       <c r="B670" s="7" t="str">
+        <f t="shared" ref="B670" si="88">IF(C670&lt;&gt;"",TEXT(C670,"ДДД"),"")</f>
+        <v>Чт</v>
+      </c>
+      <c r="C670" s="8">
+        <v>45890</v>
+      </c>
+      <c r="D670" s="9">
+        <v>11600</v>
+      </c>
+      <c r="E670" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F670" s="11">
+        <v>8200</v>
+      </c>
+      <c r="G670" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H670" s="11">
+        <f>1600+2900</f>
+        <v>4500</v>
+      </c>
+      <c r="I670" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J670" s="11">
+        <v>9400</v>
+      </c>
+      <c r="K670" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L670" s="11"/>
+      <c r="M670" s="12"/>
+    </row>
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A671" s="1">
+        <v>668</v>
+      </c>
+      <c r="B671" s="7" t="str">
         <f t="shared" si="87"/>
         <v>Пт</v>
       </c>
-      <c r="C670" s="8">
+      <c r="C671" s="8">
         <v>45891</v>
       </c>
-      <c r="D670" s="9"/>
-      <c r="E670" s="10"/>
-      <c r="F670" s="11"/>
-      <c r="G670" s="12"/>
-      <c r="H670" s="11"/>
-      <c r="I670" s="12"/>
-      <c r="J670" s="11"/>
-      <c r="K670" s="12"/>
-      <c r="L670" s="11"/>
-      <c r="M670" s="12"/>
+      <c r="D671" s="9"/>
+      <c r="E671" s="10"/>
+      <c r="F671" s="11"/>
+      <c r="G671" s="12"/>
+      <c r="H671" s="11"/>
+      <c r="I671" s="12"/>
+      <c r="J671" s="11"/>
+      <c r="K671" s="12"/>
+      <c r="L671" s="11"/>
+      <c r="M671" s="12"/>
+    </row>
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A672" s="1">
+        <v>669</v>
+      </c>
+      <c r="B672" s="7" t="str">
+        <f t="shared" ref="B672:B673" si="89">IF(C672&lt;&gt;"",TEXT(C672,"ДДД"),"")</f>
+        <v>Сб</v>
+      </c>
+      <c r="C672" s="8">
+        <v>45892</v>
+      </c>
+      <c r="D672" s="9"/>
+      <c r="E672" s="10"/>
+      <c r="F672" s="11"/>
+      <c r="G672" s="12"/>
+      <c r="H672" s="11"/>
+      <c r="I672" s="12"/>
+      <c r="J672" s="11"/>
+      <c r="K672" s="12"/>
+      <c r="L672" s="11"/>
+      <c r="M672" s="12"/>
+    </row>
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A673" s="1">
+        <v>670</v>
+      </c>
+      <c r="B673" s="7" t="str">
+        <f t="shared" si="89"/>
+        <v>Вс</v>
+      </c>
+      <c r="C673" s="8">
+        <v>45893</v>
+      </c>
+      <c r="D673" s="9"/>
+      <c r="E673" s="10"/>
+      <c r="F673" s="11"/>
+      <c r="G673" s="12"/>
+      <c r="H673" s="11"/>
+      <c r="I673" s="12"/>
+      <c r="J673" s="11"/>
+      <c r="K673" s="12"/>
+      <c r="L673" s="11"/>
+      <c r="M673" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E670">
-    <cfRule type="expression" dxfId="16" priority="5">
+  <conditionalFormatting sqref="B4:E673">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M670">
-    <cfRule type="expression" dxfId="15" priority="6">
+  <conditionalFormatting sqref="B4:M673">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="12" priority="22">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="11" priority="20">
+    <cfRule type="expression" dxfId="14" priority="23">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="12" priority="24">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>$C661=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G670">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C670=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I670">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C670=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K670">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -37362,42 +37505,42 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E673">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K673 B374:C673">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="6" priority="24">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="5" priority="37">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="4" priority="41">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322305D5-FCC0-40AD-88EB-B602B57A8A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06CA6A4-E5FC-4AC5-9CE6-A9C21F6E028E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -927,11 +927,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD673"/>
+  <dimension ref="A1:AMD677"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A658" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D674" sqref="D674"/>
+      <selection pane="bottomLeft" activeCell="M674" sqref="M674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20528,20 +20528,112 @@
       <c r="I673" s="12"/>
       <c r="J673" s="11"/>
       <c r="K673" s="12"/>
-      <c r="L673" s="11"/>
-      <c r="M673" s="12"/>
+      <c r="L673" s="11">
+        <v>4000</v>
+      </c>
+      <c r="M673" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A674" s="1">
+        <v>671</v>
+      </c>
+      <c r="B674" s="7" t="str">
+        <f t="shared" ref="B674:B677" si="90">IF(C674&lt;&gt;"",TEXT(C674,"ДДД"),"")</f>
+        <v>Пн</v>
+      </c>
+      <c r="C674" s="8">
+        <v>45894</v>
+      </c>
+      <c r="D674" s="9"/>
+      <c r="E674" s="10"/>
+      <c r="F674" s="11"/>
+      <c r="G674" s="12"/>
+      <c r="H674" s="11"/>
+      <c r="I674" s="12"/>
+      <c r="J674" s="11"/>
+      <c r="K674" s="12"/>
+      <c r="L674" s="11"/>
+      <c r="M674" s="12"/>
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A675" s="1">
+        <v>672</v>
+      </c>
+      <c r="B675" s="7" t="str">
+        <f t="shared" si="90"/>
+        <v>Вт</v>
+      </c>
+      <c r="C675" s="8">
+        <v>45895</v>
+      </c>
+      <c r="D675" s="9"/>
+      <c r="E675" s="10"/>
+      <c r="F675" s="11"/>
+      <c r="G675" s="12"/>
+      <c r="H675" s="11"/>
+      <c r="I675" s="12"/>
+      <c r="J675" s="11"/>
+      <c r="K675" s="12"/>
+      <c r="L675" s="11"/>
+      <c r="M675" s="12"/>
+    </row>
+    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <v>673</v>
+      </c>
+      <c r="B676" s="7" t="str">
+        <f t="shared" si="90"/>
+        <v>Ср</v>
+      </c>
+      <c r="C676" s="8">
+        <v>45896</v>
+      </c>
+      <c r="D676" s="9"/>
+      <c r="E676" s="10"/>
+      <c r="F676" s="11"/>
+      <c r="G676" s="12"/>
+      <c r="H676" s="11"/>
+      <c r="I676" s="12"/>
+      <c r="J676" s="11"/>
+      <c r="K676" s="12"/>
+      <c r="L676" s="11"/>
+      <c r="M676" s="12"/>
+    </row>
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A677" s="1">
+        <v>674</v>
+      </c>
+      <c r="B677" s="7" t="str">
+        <f t="shared" si="90"/>
+        <v>Чт</v>
+      </c>
+      <c r="C677" s="8">
+        <v>45897</v>
+      </c>
+      <c r="D677" s="9"/>
+      <c r="E677" s="10"/>
+      <c r="F677" s="11"/>
+      <c r="G677" s="12"/>
+      <c r="H677" s="11"/>
+      <c r="I677" s="12"/>
+      <c r="J677" s="11"/>
+      <c r="K677" s="12"/>
+      <c r="L677" s="11"/>
+      <c r="M677" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E673">
+  <conditionalFormatting sqref="B4:E677">
     <cfRule type="expression" dxfId="19" priority="8">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M673">
+  <conditionalFormatting sqref="B4:M677">
     <cfRule type="expression" dxfId="18" priority="9">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -20582,17 +20674,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37505,42 +37597,42 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E673">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K673 B374:C673">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="6" priority="24">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="5" priority="37">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="4" priority="41">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06CA6A4-E5FC-4AC5-9CE6-A9C21F6E028E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431FFFC5-619F-478E-B762-EF8B75168D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -929,7 +929,7 @@
   </sheetPr>
   <dimension ref="A1:AMD677"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A658" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M674" sqref="M674"/>
     </sheetView>
@@ -20695,11 +20695,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O673"/>
+  <dimension ref="A1:O683"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E677" sqref="E677"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H680" sqref="H680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37590,18 +37590,248 @@
       <c r="J673" s="11"/>
       <c r="K673" s="12"/>
     </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A674" s="1">
+        <v>673</v>
+      </c>
+      <c r="B674" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C674" s="8">
+        <v>45895</v>
+      </c>
+      <c r="D674" s="9">
+        <v>8800</v>
+      </c>
+      <c r="E674" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F674" s="12">
+        <v>4800</v>
+      </c>
+      <c r="G674" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H674" s="11"/>
+      <c r="I674" s="12"/>
+      <c r="J674" s="11">
+        <v>9900</v>
+      </c>
+      <c r="K674" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A675" s="1">
+        <v>674</v>
+      </c>
+      <c r="B675" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C675" s="8">
+        <v>45896</v>
+      </c>
+      <c r="D675" s="9"/>
+      <c r="E675" s="10"/>
+      <c r="F675" s="11"/>
+      <c r="G675" s="12"/>
+      <c r="H675" s="11"/>
+      <c r="I675" s="12"/>
+      <c r="J675" s="11"/>
+      <c r="K675" s="12"/>
+    </row>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <v>675</v>
+      </c>
+      <c r="B676" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C676" s="8">
+        <v>45897</v>
+      </c>
+      <c r="D676" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E676" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F676" s="11"/>
+      <c r="G676" s="12"/>
+      <c r="H676" s="11">
+        <v>1100</v>
+      </c>
+      <c r="I676" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J676" s="11"/>
+      <c r="K676" s="12"/>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A677" s="1">
+        <v>676</v>
+      </c>
+      <c r="B677" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C677" s="8">
+        <v>45897</v>
+      </c>
+      <c r="D677" s="9">
+        <v>1100</v>
+      </c>
+      <c r="E677" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F677" s="11">
+        <v>700</v>
+      </c>
+      <c r="G677" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H677" s="11">
+        <v>100</v>
+      </c>
+      <c r="I677" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J677" s="11"/>
+      <c r="K677" s="12"/>
+    </row>
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
+        <v>677</v>
+      </c>
+      <c r="B678" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C678" s="8">
+        <v>45897</v>
+      </c>
+      <c r="D678" s="9">
+        <v>300</v>
+      </c>
+      <c r="E678" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F678" s="11">
+        <v>100</v>
+      </c>
+      <c r="G678" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H678" s="11"/>
+      <c r="I678" s="12"/>
+      <c r="J678" s="11"/>
+      <c r="K678" s="12"/>
+    </row>
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A679" s="1">
+        <v>678</v>
+      </c>
+      <c r="B679" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C679" s="8">
+        <v>45898</v>
+      </c>
+      <c r="D679" s="9"/>
+      <c r="E679" s="10"/>
+      <c r="F679" s="11"/>
+      <c r="G679" s="12"/>
+      <c r="H679" s="11"/>
+      <c r="I679" s="12"/>
+      <c r="J679" s="11"/>
+      <c r="K679" s="12"/>
+    </row>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A680" s="1">
+        <v>679</v>
+      </c>
+      <c r="B680" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C680" s="8">
+        <v>45899</v>
+      </c>
+      <c r="D680" s="9"/>
+      <c r="E680" s="10"/>
+      <c r="F680" s="11"/>
+      <c r="G680" s="12"/>
+      <c r="H680" s="11"/>
+      <c r="I680" s="12"/>
+      <c r="J680" s="11"/>
+      <c r="K680" s="12"/>
+    </row>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A681" s="1">
+        <v>680</v>
+      </c>
+      <c r="B681" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C681" s="8">
+        <v>45900</v>
+      </c>
+      <c r="D681" s="9"/>
+      <c r="E681" s="10"/>
+      <c r="F681" s="11"/>
+      <c r="G681" s="12"/>
+      <c r="H681" s="11"/>
+      <c r="I681" s="12"/>
+      <c r="J681" s="11"/>
+      <c r="K681" s="12"/>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <v>681</v>
+      </c>
+      <c r="B682" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C682" s="8">
+        <v>45901</v>
+      </c>
+      <c r="D682" s="9"/>
+      <c r="E682" s="10"/>
+      <c r="F682" s="11"/>
+      <c r="G682" s="12"/>
+      <c r="H682" s="11"/>
+      <c r="I682" s="12"/>
+      <c r="J682" s="11"/>
+      <c r="K682" s="12"/>
+    </row>
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A683" s="1">
+        <v>682</v>
+      </c>
+      <c r="B683" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C683" s="8">
+        <v>45902</v>
+      </c>
+      <c r="D683" s="9"/>
+      <c r="E683" s="10"/>
+      <c r="F683" s="11"/>
+      <c r="G683" s="12"/>
+      <c r="H683" s="11"/>
+      <c r="I683" s="12"/>
+      <c r="J683" s="11"/>
+      <c r="K683" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E673">
+  <conditionalFormatting sqref="B4:E683">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K673 B374:C673">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C683 D48:K683">
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431FFFC5-619F-478E-B762-EF8B75168D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85460DD-A1C3-4778-AE6F-12A5A0B1F6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -927,11 +927,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD677"/>
+  <dimension ref="A1:AMD682"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A658" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M674" sqref="M674"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A667" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J681" sqref="J681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20568,14 +20568,30 @@
       <c r="C675" s="8">
         <v>45895</v>
       </c>
-      <c r="D675" s="9"/>
-      <c r="E675" s="10"/>
-      <c r="F675" s="11"/>
-      <c r="G675" s="12"/>
-      <c r="H675" s="11"/>
-      <c r="I675" s="12"/>
-      <c r="J675" s="11"/>
-      <c r="K675" s="12"/>
+      <c r="D675" s="9">
+        <v>3900</v>
+      </c>
+      <c r="E675" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F675" s="11">
+        <v>5300</v>
+      </c>
+      <c r="G675" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H675" s="11">
+        <v>17100</v>
+      </c>
+      <c r="I675" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J675" s="11">
+        <v>12000</v>
+      </c>
+      <c r="K675" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L675" s="11"/>
       <c r="M675" s="12"/>
     </row>
@@ -20623,17 +20639,127 @@
       <c r="L677" s="11"/>
       <c r="M677" s="12"/>
     </row>
+    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
+        <v>675</v>
+      </c>
+      <c r="B678" s="7" t="str">
+        <f t="shared" ref="B678:B682" si="91">IF(C678&lt;&gt;"",TEXT(C678,"ДДД"),"")</f>
+        <v>Пт</v>
+      </c>
+      <c r="C678" s="8">
+        <v>45898</v>
+      </c>
+      <c r="D678" s="9"/>
+      <c r="E678" s="10"/>
+      <c r="F678" s="11"/>
+      <c r="G678" s="12"/>
+      <c r="H678" s="11"/>
+      <c r="I678" s="12"/>
+      <c r="J678" s="11"/>
+      <c r="K678" s="12"/>
+      <c r="L678" s="11"/>
+      <c r="M678" s="12"/>
+    </row>
+    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A679" s="1">
+        <v>676</v>
+      </c>
+      <c r="B679" s="7" t="str">
+        <f t="shared" si="91"/>
+        <v>Сб</v>
+      </c>
+      <c r="C679" s="8">
+        <v>45899</v>
+      </c>
+      <c r="D679" s="9"/>
+      <c r="E679" s="10"/>
+      <c r="F679" s="11"/>
+      <c r="G679" s="12"/>
+      <c r="H679" s="11"/>
+      <c r="I679" s="12"/>
+      <c r="J679" s="11"/>
+      <c r="K679" s="12"/>
+      <c r="L679" s="11"/>
+      <c r="M679" s="12"/>
+    </row>
+    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A680" s="1">
+        <v>677</v>
+      </c>
+      <c r="B680" s="7" t="str">
+        <f t="shared" si="91"/>
+        <v>Вс</v>
+      </c>
+      <c r="C680" s="8">
+        <v>45900</v>
+      </c>
+      <c r="D680" s="9"/>
+      <c r="E680" s="10"/>
+      <c r="F680" s="11"/>
+      <c r="G680" s="12"/>
+      <c r="H680" s="11"/>
+      <c r="I680" s="12"/>
+      <c r="J680" s="11"/>
+      <c r="K680" s="12"/>
+      <c r="L680" s="11"/>
+      <c r="M680" s="12"/>
+    </row>
+    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A681" s="1">
+        <v>678</v>
+      </c>
+      <c r="B681" s="7" t="str">
+        <f t="shared" si="91"/>
+        <v>Пн</v>
+      </c>
+      <c r="C681" s="8">
+        <v>45901</v>
+      </c>
+      <c r="D681" s="9"/>
+      <c r="E681" s="10"/>
+      <c r="F681" s="11"/>
+      <c r="G681" s="12"/>
+      <c r="H681" s="11"/>
+      <c r="I681" s="12"/>
+      <c r="J681" s="11"/>
+      <c r="K681" s="12"/>
+      <c r="L681" s="11"/>
+      <c r="M681" s="12"/>
+    </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <v>679</v>
+      </c>
+      <c r="B682" s="7" t="str">
+        <f t="shared" si="91"/>
+        <v>Вт</v>
+      </c>
+      <c r="C682" s="8">
+        <v>45902</v>
+      </c>
+      <c r="D682" s="9"/>
+      <c r="E682" s="10"/>
+      <c r="F682" s="11"/>
+      <c r="G682" s="12"/>
+      <c r="H682" s="11"/>
+      <c r="I682" s="12"/>
+      <c r="J682" s="11"/>
+      <c r="K682" s="12"/>
+      <c r="L682" s="11"/>
+      <c r="M682" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E677">
+  <conditionalFormatting sqref="B4:E682">
     <cfRule type="expression" dxfId="19" priority="8">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M677">
+  <conditionalFormatting sqref="B4:M682">
     <cfRule type="expression" dxfId="18" priority="9">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -20697,7 +20823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O683"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H680" sqref="H680"/>
     </sheetView>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85460DD-A1C3-4778-AE6F-12A5A0B1F6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62423265-8AB1-4EDA-AD22-D3BDE7A9B675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,35 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -927,11 +955,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD682"/>
+  <dimension ref="A1:AMD683"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A667" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J681" sqref="J681"/>
+      <selection pane="bottomLeft" activeCell="J682" sqref="J682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20628,14 +20656,30 @@
       <c r="C677" s="8">
         <v>45897</v>
       </c>
-      <c r="D677" s="9"/>
-      <c r="E677" s="10"/>
-      <c r="F677" s="11"/>
-      <c r="G677" s="12"/>
-      <c r="H677" s="11"/>
-      <c r="I677" s="12"/>
-      <c r="J677" s="11"/>
-      <c r="K677" s="12"/>
+      <c r="D677" s="9">
+        <v>5600</v>
+      </c>
+      <c r="E677" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F677" s="11">
+        <v>3200</v>
+      </c>
+      <c r="G677" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H677" s="11">
+        <v>7000</v>
+      </c>
+      <c r="I677" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J677" s="11">
+        <v>10600</v>
+      </c>
+      <c r="K677" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L677" s="11"/>
       <c r="M677" s="12"/>
     </row>
@@ -20644,20 +20688,36 @@
         <v>675</v>
       </c>
       <c r="B678" s="7" t="str">
-        <f t="shared" ref="B678:B682" si="91">IF(C678&lt;&gt;"",TEXT(C678,"ДДД"),"")</f>
-        <v>Пт</v>
+        <f t="shared" ref="B678" si="91">IF(C678&lt;&gt;"",TEXT(C678,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C678" s="8">
-        <v>45898</v>
-      </c>
-      <c r="D678" s="9"/>
-      <c r="E678" s="10"/>
-      <c r="F678" s="11"/>
-      <c r="G678" s="12"/>
-      <c r="H678" s="11"/>
-      <c r="I678" s="12"/>
-      <c r="J678" s="11"/>
-      <c r="K678" s="12"/>
+        <v>45897</v>
+      </c>
+      <c r="D678" s="9">
+        <v>9300</v>
+      </c>
+      <c r="E678" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F678" s="11">
+        <v>6100</v>
+      </c>
+      <c r="G678" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H678" s="11">
+        <v>4800</v>
+      </c>
+      <c r="I678" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J678" s="11">
+        <v>6800</v>
+      </c>
+      <c r="K678" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="L678" s="11"/>
       <c r="M678" s="12"/>
     </row>
@@ -20666,11 +20726,11 @@
         <v>676</v>
       </c>
       <c r="B679" s="7" t="str">
-        <f t="shared" si="91"/>
-        <v>Сб</v>
+        <f t="shared" ref="B679:B683" si="92">IF(C679&lt;&gt;"",TEXT(C679,"ДДД"),"")</f>
+        <v>Пт</v>
       </c>
       <c r="C679" s="8">
-        <v>45899</v>
+        <v>45898</v>
       </c>
       <c r="D679" s="9"/>
       <c r="E679" s="10"/>
@@ -20688,11 +20748,11 @@
         <v>677</v>
       </c>
       <c r="B680" s="7" t="str">
-        <f t="shared" si="91"/>
-        <v>Вс</v>
+        <f t="shared" si="92"/>
+        <v>Сб</v>
       </c>
       <c r="C680" s="8">
-        <v>45900</v>
+        <v>45899</v>
       </c>
       <c r="D680" s="9"/>
       <c r="E680" s="10"/>
@@ -20710,11 +20770,11 @@
         <v>678</v>
       </c>
       <c r="B681" s="7" t="str">
-        <f t="shared" si="91"/>
-        <v>Пн</v>
+        <f t="shared" si="92"/>
+        <v>Вс</v>
       </c>
       <c r="C681" s="8">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="D681" s="9"/>
       <c r="E681" s="10"/>
@@ -20732,11 +20792,11 @@
         <v>679</v>
       </c>
       <c r="B682" s="7" t="str">
-        <f t="shared" si="91"/>
-        <v>Вт</v>
+        <f t="shared" si="92"/>
+        <v>Пн</v>
       </c>
       <c r="C682" s="8">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="D682" s="9"/>
       <c r="E682" s="10"/>
@@ -20749,69 +20809,111 @@
       <c r="L682" s="11"/>
       <c r="M682" s="12"/>
     </row>
+    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A683" s="1">
+        <v>680</v>
+      </c>
+      <c r="B683" s="7" t="str">
+        <f t="shared" si="92"/>
+        <v>Вт</v>
+      </c>
+      <c r="C683" s="8">
+        <v>45902</v>
+      </c>
+      <c r="D683" s="9"/>
+      <c r="E683" s="10"/>
+      <c r="F683" s="11"/>
+      <c r="G683" s="12"/>
+      <c r="H683" s="11"/>
+      <c r="I683" s="12"/>
+      <c r="J683" s="11"/>
+      <c r="K683" s="12"/>
+      <c r="L683" s="11"/>
+      <c r="M683" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E682">
-    <cfRule type="expression" dxfId="19" priority="8">
+  <conditionalFormatting sqref="B4:E683">
+    <cfRule type="expression" dxfId="23" priority="12">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M682">
-    <cfRule type="expression" dxfId="18" priority="9">
+  <conditionalFormatting sqref="B4:M683">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="21" priority="26">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="15" priority="25">
+    <cfRule type="expression" dxfId="19" priority="29">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="14" priority="23">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="16" priority="28">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$C670=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G678">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E678">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I678">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K678">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -37953,42 +38055,42 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E683">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C683 D48:K683">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="7" priority="24">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="6" priority="37">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="5" priority="41">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62423265-8AB1-4EDA-AD22-D3BDE7A9B675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347F81D0-CE3D-4F35-B436-32E7D614F154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -959,7 +959,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A667" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J682" sqref="J682"/>
+      <selection pane="bottomLeft" activeCell="M685" sqref="M685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20760,8 +20760,12 @@
       <c r="G680" s="12"/>
       <c r="H680" s="11"/>
       <c r="I680" s="12"/>
-      <c r="J680" s="11"/>
-      <c r="K680" s="12"/>
+      <c r="J680" s="11">
+        <v>5100</v>
+      </c>
+      <c r="K680" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L680" s="11"/>
       <c r="M680" s="12"/>
     </row>
@@ -20897,22 +20901,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38055,42 +38059,42 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E683">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C683 D48:K683">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="7" priority="24">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="6" priority="37">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="5" priority="41">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="4" priority="16">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347F81D0-CE3D-4F35-B436-32E7D614F154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38140A37-C942-4190-B723-C6024A5D05A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -959,7 +959,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A667" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M685" sqref="M685"/>
+      <selection pane="bottomLeft" activeCell="O674" sqref="O674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,8 +975,8 @@
     <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="1018" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -20760,12 +20760,8 @@
       <c r="G680" s="12"/>
       <c r="H680" s="11"/>
       <c r="I680" s="12"/>
-      <c r="J680" s="11">
-        <v>5100</v>
-      </c>
-      <c r="K680" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="J680" s="11"/>
+      <c r="K680" s="12"/>
       <c r="L680" s="11"/>
       <c r="M680" s="12"/>
     </row>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38140A37-C942-4190-B723-C6024A5D05A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539A471A-C2D8-4B04-BAAC-2737C48EAE53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,28 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -957,7 +978,7 @@
   </sheetPr>
   <dimension ref="A1:AMD683"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A667" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O674" sqref="O674"/>
     </sheetView>
@@ -20837,82 +20858,82 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:E683">
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:M683">
-    <cfRule type="expression" dxfId="22" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="21" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="19" priority="29">
+    <cfRule type="expression" dxfId="22" priority="29">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="16" priority="28">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20923,11 +20944,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O683"/>
+  <dimension ref="A1:O692"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H680" sqref="H680"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A676" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J692" sqref="J692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38039,14 +38060,241 @@
       <c r="C683" s="8">
         <v>45902</v>
       </c>
-      <c r="D683" s="9"/>
-      <c r="E683" s="10"/>
-      <c r="F683" s="11"/>
-      <c r="G683" s="12"/>
-      <c r="H683" s="11"/>
-      <c r="I683" s="12"/>
-      <c r="J683" s="11"/>
-      <c r="K683" s="12"/>
+      <c r="D683" s="9">
+        <v>4500</v>
+      </c>
+      <c r="E683" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F683" s="11">
+        <v>2400</v>
+      </c>
+      <c r="G683" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H683" s="11">
+        <v>2500</v>
+      </c>
+      <c r="I683" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J683" s="11">
+        <v>4100</v>
+      </c>
+      <c r="K683" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <v>683</v>
+      </c>
+      <c r="B684" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C684" s="8">
+        <v>45903</v>
+      </c>
+      <c r="D684" s="9"/>
+      <c r="E684" s="10"/>
+      <c r="F684" s="11"/>
+      <c r="G684" s="12"/>
+      <c r="H684" s="11"/>
+      <c r="I684" s="12"/>
+      <c r="J684" s="11"/>
+      <c r="K684" s="12"/>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A685" s="1">
+        <v>684</v>
+      </c>
+      <c r="B685" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C685" s="8">
+        <v>45904</v>
+      </c>
+      <c r="D685" s="9">
+        <v>4200</v>
+      </c>
+      <c r="E685" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F685" s="11">
+        <v>2200</v>
+      </c>
+      <c r="G685" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H685" s="11">
+        <v>2300</v>
+      </c>
+      <c r="I685" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J685" s="11">
+        <v>3800</v>
+      </c>
+      <c r="K685" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A686" s="1">
+        <v>685</v>
+      </c>
+      <c r="B686" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C686" s="8">
+        <v>45904</v>
+      </c>
+      <c r="D686" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E686" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F686" s="11">
+        <v>500</v>
+      </c>
+      <c r="G686" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H686" s="11">
+        <v>100</v>
+      </c>
+      <c r="I686" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J686" s="11">
+        <v>200</v>
+      </c>
+      <c r="K686" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A687" s="1">
+        <v>686</v>
+      </c>
+      <c r="B687" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C687" s="8">
+        <v>45904</v>
+      </c>
+      <c r="D687" s="9">
+        <v>700</v>
+      </c>
+      <c r="E687" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F687" s="11">
+        <v>300</v>
+      </c>
+      <c r="G687" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H687" s="11"/>
+      <c r="I687" s="12"/>
+      <c r="J687" s="11"/>
+      <c r="K687" s="12"/>
+    </row>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>687</v>
+      </c>
+      <c r="B688" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C688" s="8">
+        <v>45905</v>
+      </c>
+      <c r="D688" s="9"/>
+      <c r="E688" s="10"/>
+      <c r="F688" s="11"/>
+      <c r="G688" s="12"/>
+      <c r="H688" s="11"/>
+      <c r="I688" s="12"/>
+      <c r="J688" s="11"/>
+      <c r="K688" s="12"/>
+    </row>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A689" s="1">
+        <v>688</v>
+      </c>
+      <c r="B689" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C689" s="8">
+        <v>45906</v>
+      </c>
+      <c r="D689" s="9"/>
+      <c r="E689" s="10"/>
+      <c r="F689" s="11"/>
+      <c r="G689" s="12"/>
+      <c r="H689" s="11"/>
+      <c r="I689" s="12"/>
+      <c r="J689" s="11"/>
+      <c r="K689" s="12"/>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A690" s="1">
+        <v>689</v>
+      </c>
+      <c r="B690" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C690" s="8">
+        <v>45907</v>
+      </c>
+      <c r="D690" s="9"/>
+      <c r="E690" s="10"/>
+      <c r="F690" s="11"/>
+      <c r="G690" s="12"/>
+      <c r="H690" s="11"/>
+      <c r="I690" s="12"/>
+      <c r="J690" s="11"/>
+      <c r="K690" s="12"/>
+    </row>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A691" s="1">
+        <v>690</v>
+      </c>
+      <c r="B691" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C691" s="8">
+        <v>45908</v>
+      </c>
+      <c r="D691" s="9"/>
+      <c r="E691" s="10"/>
+      <c r="F691" s="11"/>
+      <c r="G691" s="12"/>
+      <c r="H691" s="11"/>
+      <c r="I691" s="12"/>
+      <c r="J691" s="11"/>
+      <c r="K691" s="12"/>
+    </row>
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A692" s="1">
+        <v>691</v>
+      </c>
+      <c r="B692" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C692" s="8">
+        <v>45909</v>
+      </c>
+      <c r="D692" s="9"/>
+      <c r="E692" s="10"/>
+      <c r="F692" s="11"/>
+      <c r="G692" s="12"/>
+      <c r="H692" s="11"/>
+      <c r="I692" s="12"/>
+      <c r="J692" s="11"/>
+      <c r="K692" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -38054,44 +38302,59 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E683">
-    <cfRule type="expression" dxfId="7" priority="2">
+  <conditionalFormatting sqref="B4:E692">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C683 D48:K683">
-    <cfRule type="expression" dxfId="6" priority="3">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C692 D48:K692">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="6" priority="27">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="5" priority="40">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>$C13=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G685">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C685=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I685">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C685=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K685">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539A471A-C2D8-4B04-BAAC-2737C48EAE53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009659F0-6E55-4525-84E2-2E41A4A84017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -976,11 +976,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD683"/>
+  <dimension ref="A1:AMD694"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A667" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O674" sqref="O674"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A671" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J684" sqref="J684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20841,28 +20841,267 @@
       <c r="C683" s="8">
         <v>45902</v>
       </c>
-      <c r="D683" s="9"/>
-      <c r="E683" s="10"/>
-      <c r="F683" s="11"/>
-      <c r="G683" s="12"/>
-      <c r="H683" s="11"/>
-      <c r="I683" s="12"/>
-      <c r="J683" s="11"/>
-      <c r="K683" s="12"/>
+      <c r="D683" s="9">
+        <v>4600</v>
+      </c>
+      <c r="E683" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F683" s="11">
+        <f>2700+1600</f>
+        <v>4300</v>
+      </c>
+      <c r="G683" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H683" s="11">
+        <f>15400+11000</f>
+        <v>26400</v>
+      </c>
+      <c r="I683" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J683" s="11">
+        <f>6000+15400</f>
+        <v>21400</v>
+      </c>
+      <c r="K683" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="L683" s="11"/>
       <c r="M683" s="12"/>
+    </row>
+    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <v>681</v>
+      </c>
+      <c r="B684" s="7" t="str">
+        <f t="shared" ref="B684:B694" si="93">IF(C684&lt;&gt;"",TEXT(C684,"ДДД"),"")</f>
+        <v>Ср</v>
+      </c>
+      <c r="C684" s="8">
+        <v>45903</v>
+      </c>
+      <c r="D684" s="9"/>
+      <c r="E684" s="10"/>
+      <c r="F684" s="11"/>
+      <c r="G684" s="12"/>
+      <c r="H684" s="11"/>
+      <c r="I684" s="12"/>
+      <c r="J684" s="11"/>
+      <c r="K684" s="12"/>
+    </row>
+    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A685" s="1">
+        <v>682</v>
+      </c>
+      <c r="B685" s="7" t="str">
+        <f t="shared" si="93"/>
+        <v>Чт</v>
+      </c>
+      <c r="C685" s="8">
+        <v>45904</v>
+      </c>
+      <c r="D685" s="9"/>
+      <c r="E685" s="10"/>
+      <c r="F685" s="11"/>
+      <c r="G685" s="12"/>
+      <c r="H685" s="11"/>
+      <c r="I685" s="12"/>
+      <c r="J685" s="11"/>
+      <c r="K685" s="12"/>
+    </row>
+    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A686" s="1">
+        <v>683</v>
+      </c>
+      <c r="B686" s="7" t="str">
+        <f t="shared" si="93"/>
+        <v>Пт</v>
+      </c>
+      <c r="C686" s="8">
+        <v>45905</v>
+      </c>
+      <c r="D686" s="9"/>
+      <c r="E686" s="10"/>
+      <c r="F686" s="11"/>
+      <c r="G686" s="12"/>
+      <c r="H686" s="11"/>
+      <c r="I686" s="12"/>
+      <c r="J686" s="11"/>
+      <c r="K686" s="12"/>
+    </row>
+    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A687" s="1">
+        <v>684</v>
+      </c>
+      <c r="B687" s="7" t="str">
+        <f t="shared" si="93"/>
+        <v>Сб</v>
+      </c>
+      <c r="C687" s="8">
+        <v>45906</v>
+      </c>
+      <c r="D687" s="9"/>
+      <c r="E687" s="10"/>
+      <c r="F687" s="11"/>
+      <c r="G687" s="12"/>
+      <c r="H687" s="11"/>
+      <c r="I687" s="12"/>
+      <c r="J687" s="11"/>
+      <c r="K687" s="12"/>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>685</v>
+      </c>
+      <c r="B688" s="7" t="str">
+        <f t="shared" si="93"/>
+        <v>Вс</v>
+      </c>
+      <c r="C688" s="8">
+        <v>45907</v>
+      </c>
+      <c r="D688" s="9"/>
+      <c r="E688" s="10"/>
+      <c r="F688" s="11"/>
+      <c r="G688" s="12"/>
+      <c r="H688" s="11"/>
+      <c r="I688" s="12"/>
+      <c r="J688" s="11"/>
+      <c r="K688" s="12"/>
+    </row>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A689" s="1">
+        <v>686</v>
+      </c>
+      <c r="B689" s="7" t="str">
+        <f t="shared" si="93"/>
+        <v>Пн</v>
+      </c>
+      <c r="C689" s="8">
+        <v>45908</v>
+      </c>
+      <c r="D689" s="9"/>
+      <c r="E689" s="10"/>
+      <c r="F689" s="11"/>
+      <c r="G689" s="12"/>
+      <c r="H689" s="11"/>
+      <c r="I689" s="12"/>
+      <c r="J689" s="11"/>
+      <c r="K689" s="12"/>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A690" s="1">
+        <v>687</v>
+      </c>
+      <c r="B690" s="7" t="str">
+        <f t="shared" si="93"/>
+        <v>Вт</v>
+      </c>
+      <c r="C690" s="8">
+        <v>45909</v>
+      </c>
+      <c r="D690" s="9"/>
+      <c r="E690" s="10"/>
+      <c r="F690" s="11"/>
+      <c r="G690" s="12"/>
+      <c r="H690" s="11"/>
+      <c r="I690" s="12"/>
+      <c r="J690" s="11"/>
+      <c r="K690" s="12"/>
+    </row>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A691" s="1">
+        <v>688</v>
+      </c>
+      <c r="B691" s="7" t="str">
+        <f t="shared" si="93"/>
+        <v>Ср</v>
+      </c>
+      <c r="C691" s="8">
+        <v>45910</v>
+      </c>
+      <c r="D691" s="9"/>
+      <c r="E691" s="10"/>
+      <c r="F691" s="11"/>
+      <c r="G691" s="12"/>
+      <c r="H691" s="11"/>
+      <c r="I691" s="12"/>
+      <c r="J691" s="11"/>
+      <c r="K691" s="12"/>
+    </row>
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A692" s="1">
+        <v>689</v>
+      </c>
+      <c r="B692" s="7" t="str">
+        <f t="shared" si="93"/>
+        <v>Чт</v>
+      </c>
+      <c r="C692" s="8">
+        <v>45911</v>
+      </c>
+      <c r="D692" s="9"/>
+      <c r="E692" s="10"/>
+      <c r="F692" s="11"/>
+      <c r="G692" s="12"/>
+      <c r="H692" s="11"/>
+      <c r="I692" s="12"/>
+      <c r="J692" s="11"/>
+      <c r="K692" s="12"/>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A693" s="1">
+        <v>690</v>
+      </c>
+      <c r="B693" s="7" t="str">
+        <f t="shared" si="93"/>
+        <v>Пт</v>
+      </c>
+      <c r="C693" s="8">
+        <v>45912</v>
+      </c>
+      <c r="D693" s="9"/>
+      <c r="E693" s="10"/>
+      <c r="F693" s="11"/>
+      <c r="G693" s="12"/>
+      <c r="H693" s="11"/>
+      <c r="I693" s="12"/>
+      <c r="J693" s="11"/>
+      <c r="K693" s="12"/>
+    </row>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A694" s="1">
+        <v>691</v>
+      </c>
+      <c r="B694" s="7" t="str">
+        <f t="shared" si="93"/>
+        <v>Сб</v>
+      </c>
+      <c r="C694" s="8">
+        <v>45913</v>
+      </c>
+      <c r="D694" s="9"/>
+      <c r="E694" s="10"/>
+      <c r="F694" s="11"/>
+      <c r="G694" s="12"/>
+      <c r="H694" s="11"/>
+      <c r="I694" s="12"/>
+      <c r="J694" s="11"/>
+      <c r="K694" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E683">
+  <conditionalFormatting sqref="B4:E694">
     <cfRule type="expression" dxfId="26" priority="12">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683">
+  <conditionalFormatting sqref="B684:K694 B4:M683">
     <cfRule type="expression" dxfId="25" priority="13">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -20946,7 +21185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O692"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A676" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J692" sqref="J692"/>
     </sheetView>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009659F0-6E55-4525-84E2-2E41A4A84017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6E97C-86C5-4337-B5FB-15F8E17672F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,28 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -976,11 +997,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD694"/>
+  <dimension ref="A1:AMD695"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A671" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J684" sqref="J684"/>
+      <pane ySplit="3" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D689" sqref="D689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20876,7 +20897,7 @@
         <v>681</v>
       </c>
       <c r="B684" s="7" t="str">
-        <f t="shared" ref="B684:B694" si="93">IF(C684&lt;&gt;"",TEXT(C684,"ДДД"),"")</f>
+        <f t="shared" ref="B684:B695" si="93">IF(C684&lt;&gt;"",TEXT(C684,"ДДД"),"")</f>
         <v>Ср</v>
       </c>
       <c r="C684" s="8">
@@ -20884,10 +20905,18 @@
       </c>
       <c r="D684" s="9"/>
       <c r="E684" s="10"/>
-      <c r="F684" s="11"/>
-      <c r="G684" s="12"/>
-      <c r="H684" s="11"/>
-      <c r="I684" s="12"/>
+      <c r="F684" s="11">
+        <v>700</v>
+      </c>
+      <c r="G684" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H684" s="11">
+        <v>11900</v>
+      </c>
+      <c r="I684" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="J684" s="11"/>
       <c r="K684" s="12"/>
     </row>
@@ -20902,34 +20931,59 @@
       <c r="C685" s="8">
         <v>45904</v>
       </c>
-      <c r="D685" s="9"/>
-      <c r="E685" s="10"/>
+      <c r="D685" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E685" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="F685" s="11"/>
       <c r="G685" s="12"/>
       <c r="H685" s="11"/>
       <c r="I685" s="12"/>
-      <c r="J685" s="11"/>
-      <c r="K685" s="12"/>
+      <c r="J685" s="11">
+        <v>10400</v>
+      </c>
+      <c r="K685" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="686" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>683</v>
       </c>
       <c r="B686" s="7" t="str">
-        <f t="shared" si="93"/>
-        <v>Пт</v>
+        <f t="shared" ref="B686" si="94">IF(C686&lt;&gt;"",TEXT(C686,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C686" s="8">
-        <v>45905</v>
-      </c>
-      <c r="D686" s="9"/>
-      <c r="E686" s="10"/>
-      <c r="F686" s="11"/>
-      <c r="G686" s="12"/>
-      <c r="H686" s="11"/>
-      <c r="I686" s="12"/>
-      <c r="J686" s="11"/>
-      <c r="K686" s="12"/>
+        <v>45904</v>
+      </c>
+      <c r="D686" s="9">
+        <v>5400</v>
+      </c>
+      <c r="E686" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F686" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G686" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H686" s="11">
+        <v>4200</v>
+      </c>
+      <c r="I686" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J686" s="11">
+        <f>2700+2800</f>
+        <v>5500</v>
+      </c>
+      <c r="K686" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
@@ -20937,10 +20991,10 @@
       </c>
       <c r="B687" s="7" t="str">
         <f t="shared" si="93"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C687" s="8">
-        <v>45906</v>
+        <v>45905</v>
       </c>
       <c r="D687" s="9"/>
       <c r="E687" s="10"/>
@@ -20957,10 +21011,10 @@
       </c>
       <c r="B688" s="7" t="str">
         <f t="shared" si="93"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C688" s="8">
-        <v>45907</v>
+        <v>45906</v>
       </c>
       <c r="D688" s="9"/>
       <c r="E688" s="10"/>
@@ -20977,10 +21031,10 @@
       </c>
       <c r="B689" s="7" t="str">
         <f t="shared" si="93"/>
-        <v>Пн</v>
+        <v>Вс</v>
       </c>
       <c r="C689" s="8">
-        <v>45908</v>
+        <v>45907</v>
       </c>
       <c r="D689" s="9"/>
       <c r="E689" s="10"/>
@@ -20997,10 +21051,10 @@
       </c>
       <c r="B690" s="7" t="str">
         <f t="shared" si="93"/>
-        <v>Вт</v>
+        <v>Пн</v>
       </c>
       <c r="C690" s="8">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="D690" s="9"/>
       <c r="E690" s="10"/>
@@ -21017,10 +21071,10 @@
       </c>
       <c r="B691" s="7" t="str">
         <f t="shared" si="93"/>
-        <v>Ср</v>
+        <v>Вт</v>
       </c>
       <c r="C691" s="8">
-        <v>45910</v>
+        <v>45909</v>
       </c>
       <c r="D691" s="9"/>
       <c r="E691" s="10"/>
@@ -21037,10 +21091,10 @@
       </c>
       <c r="B692" s="7" t="str">
         <f t="shared" si="93"/>
-        <v>Чт</v>
+        <v>Ср</v>
       </c>
       <c r="C692" s="8">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="D692" s="9"/>
       <c r="E692" s="10"/>
@@ -21057,10 +21111,10 @@
       </c>
       <c r="B693" s="7" t="str">
         <f t="shared" si="93"/>
-        <v>Пт</v>
+        <v>Чт</v>
       </c>
       <c r="C693" s="8">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="D693" s="9"/>
       <c r="E693" s="10"/>
@@ -21077,10 +21131,10 @@
       </c>
       <c r="B694" s="7" t="str">
         <f t="shared" si="93"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C694" s="8">
-        <v>45913</v>
+        <v>45912</v>
       </c>
       <c r="D694" s="9"/>
       <c r="E694" s="10"/>
@@ -21091,89 +21145,124 @@
       <c r="J694" s="11"/>
       <c r="K694" s="12"/>
     </row>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A695" s="1">
+        <v>692</v>
+      </c>
+      <c r="B695" s="7" t="str">
+        <f t="shared" si="93"/>
+        <v>Сб</v>
+      </c>
+      <c r="C695" s="8">
+        <v>45913</v>
+      </c>
+      <c r="D695" s="9"/>
+      <c r="E695" s="10"/>
+      <c r="F695" s="11"/>
+      <c r="G695" s="12"/>
+      <c r="H695" s="11"/>
+      <c r="I695" s="12"/>
+      <c r="J695" s="11"/>
+      <c r="K695" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E694">
-    <cfRule type="expression" dxfId="26" priority="12">
+  <conditionalFormatting sqref="B4:E695">
+    <cfRule type="expression" dxfId="29" priority="15">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B684:K694 B4:M683">
-    <cfRule type="expression" dxfId="25" priority="13">
+  <conditionalFormatting sqref="B4:M683 B684:K695">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="23" priority="10">
+    <cfRule type="expression" dxfId="26" priority="13">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="22" priority="29">
+    <cfRule type="expression" dxfId="25" priority="32">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="21" priority="27">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="23" priority="12">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="22" priority="31">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
+    <cfRule type="expression" dxfId="17" priority="7">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E678">
+    <cfRule type="expression" dxfId="16" priority="6">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I678">
+    <cfRule type="expression" dxfId="15" priority="5">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K678">
     <cfRule type="expression" dxfId="14" priority="4">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="13" priority="3">
-      <formula>$C678=TODAY()</formula>
+  <conditionalFormatting sqref="G686">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="12" priority="2">
-      <formula>$C678=TODAY()</formula>
+  <conditionalFormatting sqref="I686">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>$C678=TODAY()</formula>
+  <conditionalFormatting sqref="K686">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -38542,57 +38631,57 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E692">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C692 D48:K692">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="7" priority="18">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="6" priority="27">
+    <cfRule type="expression" dxfId="9" priority="27">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="5" priority="40">
+    <cfRule type="expression" dxfId="8" priority="40">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="4" priority="44">
+    <cfRule type="expression" dxfId="7" priority="44">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="3" priority="19">
+    <cfRule type="expression" dxfId="6" priority="19">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6E97C-86C5-4337-B5FB-15F8E17672F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72039889-BE89-4242-B255-DB89506B6519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,119 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -999,9 +1111,9 @@
   </sheetPr>
   <dimension ref="A1:AMD695"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D689" sqref="D689"/>
+      <selection pane="bottomLeft" activeCell="H693" sqref="H693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21076,14 +21188,32 @@
       <c r="C691" s="8">
         <v>45909</v>
       </c>
-      <c r="D691" s="9"/>
-      <c r="E691" s="10"/>
-      <c r="F691" s="11"/>
-      <c r="G691" s="12"/>
-      <c r="H691" s="11"/>
-      <c r="I691" s="12"/>
-      <c r="J691" s="11"/>
-      <c r="K691" s="12"/>
+      <c r="D691" s="9">
+        <v>2100</v>
+      </c>
+      <c r="E691" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F691" s="11">
+        <v>5000</v>
+      </c>
+      <c r="G691" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H691" s="11">
+        <f>15900+2200</f>
+        <v>18100</v>
+      </c>
+      <c r="I691" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J691" s="11">
+        <f>17700+7400</f>
+        <v>25100</v>
+      </c>
+      <c r="K691" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
@@ -21171,98 +21301,113 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:E695">
-    <cfRule type="expression" dxfId="29" priority="15">
+    <cfRule type="expression" dxfId="45" priority="18">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:M683 B684:K695">
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" dxfId="44" priority="19">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="43" priority="32">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="26" priority="13">
+    <cfRule type="expression" dxfId="42" priority="16">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="25" priority="32">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="40" priority="33">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="39" priority="15">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="22" priority="31">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="37" priority="14">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="36" priority="13">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="35" priority="12">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="34" priority="11">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="32" priority="9">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="31" priority="8">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="30" priority="7">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="29" priority="6">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>$C686=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G691">
+    <cfRule type="expression" dxfId="26" priority="3">
+      <formula>$C691=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I691">
+    <cfRule type="expression" dxfId="25" priority="2">
+      <formula>$C691=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K691">
+    <cfRule type="expression" dxfId="24" priority="1">
+      <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -21272,11 +21417,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O692"/>
+  <dimension ref="A1:O700"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A676" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J692" sqref="J692"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H700" sqref="H700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38615,14 +38760,222 @@
       <c r="C692" s="8">
         <v>45909</v>
       </c>
-      <c r="D692" s="9"/>
-      <c r="E692" s="10"/>
-      <c r="F692" s="11"/>
-      <c r="G692" s="12"/>
+      <c r="D692" s="9">
+        <v>3000</v>
+      </c>
+      <c r="E692" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F692" s="11">
+        <v>4100</v>
+      </c>
+      <c r="G692" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H692" s="11"/>
       <c r="I692" s="12"/>
-      <c r="J692" s="11"/>
-      <c r="K692" s="12"/>
+      <c r="J692" s="11">
+        <v>5400</v>
+      </c>
+      <c r="K692" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A693" s="1">
+        <v>692</v>
+      </c>
+      <c r="B693" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C693" s="8">
+        <v>45910</v>
+      </c>
+      <c r="D693" s="9"/>
+      <c r="E693" s="10"/>
+      <c r="F693" s="11"/>
+      <c r="G693" s="12"/>
+      <c r="H693" s="11"/>
+      <c r="I693" s="12"/>
+      <c r="J693" s="11"/>
+      <c r="K693" s="12"/>
+    </row>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A694" s="1">
+        <v>693</v>
+      </c>
+      <c r="B694" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C694" s="8">
+        <v>45911</v>
+      </c>
+      <c r="D694" s="9">
+        <v>3200</v>
+      </c>
+      <c r="E694" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F694" s="11"/>
+      <c r="G694" s="12"/>
+      <c r="H694" s="11">
+        <v>500</v>
+      </c>
+      <c r="I694" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J694" s="11">
+        <v>5600</v>
+      </c>
+      <c r="K694" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A695" s="1">
+        <v>694</v>
+      </c>
+      <c r="B695" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C695" s="8">
+        <v>45911</v>
+      </c>
+      <c r="D695" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E695" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F695" s="11">
+        <v>600</v>
+      </c>
+      <c r="G695" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H695" s="11">
+        <v>200</v>
+      </c>
+      <c r="I695" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J695" s="11">
+        <v>400</v>
+      </c>
+      <c r="K695" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A696" s="1">
+        <v>695</v>
+      </c>
+      <c r="B696" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C696" s="8">
+        <v>45911</v>
+      </c>
+      <c r="D696" s="9">
+        <v>300</v>
+      </c>
+      <c r="E696" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F696" s="11">
+        <v>300</v>
+      </c>
+      <c r="G696" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H696" s="11">
+        <v>20</v>
+      </c>
+      <c r="I696" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J696" s="11">
+        <v>60</v>
+      </c>
+      <c r="K696" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A697" s="1">
+        <v>696</v>
+      </c>
+      <c r="B697" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C697" s="8">
+        <v>45912</v>
+      </c>
+      <c r="D697" s="9"/>
+      <c r="E697" s="10"/>
+      <c r="F697" s="11"/>
+      <c r="G697" s="12"/>
+      <c r="H697" s="11"/>
+      <c r="I697" s="12"/>
+      <c r="J697" s="11"/>
+      <c r="K697" s="12"/>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A698" s="1">
+        <v>697</v>
+      </c>
+      <c r="B698" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C698" s="8">
+        <v>45913</v>
+      </c>
+      <c r="D698" s="9"/>
+      <c r="E698" s="10"/>
+      <c r="F698" s="11"/>
+      <c r="G698" s="12"/>
+      <c r="H698" s="11"/>
+      <c r="I698" s="12"/>
+      <c r="J698" s="11"/>
+      <c r="K698" s="12"/>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A699" s="1">
+        <v>698</v>
+      </c>
+      <c r="B699" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C699" s="8">
+        <v>45914</v>
+      </c>
+      <c r="D699" s="9"/>
+      <c r="E699" s="10"/>
+      <c r="F699" s="11"/>
+      <c r="G699" s="12"/>
+      <c r="H699" s="11"/>
+      <c r="I699" s="12"/>
+      <c r="J699" s="11"/>
+      <c r="K699" s="12"/>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A700" s="1">
+        <v>699</v>
+      </c>
+      <c r="B700" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C700" s="8">
+        <v>45915</v>
+      </c>
+      <c r="D700" s="9"/>
+      <c r="E700" s="10"/>
+      <c r="F700" s="11"/>
+      <c r="G700" s="12"/>
+      <c r="H700" s="11"/>
+      <c r="I700" s="12"/>
+      <c r="J700" s="11"/>
+      <c r="K700" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -38630,59 +38983,124 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E692">
-    <cfRule type="expression" dxfId="13" priority="5">
+  <conditionalFormatting sqref="B4:E700">
+    <cfRule type="expression" dxfId="23" priority="18">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C692 D48:K692">
-    <cfRule type="expression" dxfId="12" priority="6">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C700 D48:K700">
+    <cfRule type="expression" dxfId="22" priority="19">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="21" priority="28">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="20" priority="31">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="9" priority="27">
+    <cfRule type="expression" dxfId="19" priority="40">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="8" priority="40">
+    <cfRule type="expression" dxfId="18" priority="53">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="7" priority="44">
+    <cfRule type="expression" dxfId="17" priority="57">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="6" priority="19">
+    <cfRule type="expression" dxfId="16" priority="32">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$C685=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G692">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$C692=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E692">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C692=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K692">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C692=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E694">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I695">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C695=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I695">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C695=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I694">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I694">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K694">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K694">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G695">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C695=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I695">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C695=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K695">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72039889-BE89-4242-B255-DB89506B6519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70731118-F891-4E2F-AB7D-A29A06B15A55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ПОКОМ!$A$1:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,70 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="55">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1109,11 +1172,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD695"/>
+  <dimension ref="A1:AMD696"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H693" sqref="H693"/>
+      <selection pane="bottomLeft" activeCell="H698" sqref="H698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21009,7 +21072,7 @@
         <v>681</v>
       </c>
       <c r="B684" s="7" t="str">
-        <f t="shared" ref="B684:B695" si="93">IF(C684&lt;&gt;"",TEXT(C684,"ДДД"),"")</f>
+        <f t="shared" ref="B684:B696" si="93">IF(C684&lt;&gt;"",TEXT(C684,"ДДД"),"")</f>
         <v>Ср</v>
       </c>
       <c r="C684" s="8">
@@ -21246,34 +21309,68 @@
       <c r="C693" s="8">
         <v>45911</v>
       </c>
-      <c r="D693" s="9"/>
-      <c r="E693" s="10"/>
-      <c r="F693" s="11"/>
-      <c r="G693" s="12"/>
-      <c r="H693" s="11"/>
-      <c r="I693" s="12"/>
-      <c r="J693" s="11"/>
-      <c r="K693" s="12"/>
+      <c r="D693" s="9">
+        <v>3500</v>
+      </c>
+      <c r="E693" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F693" s="11">
+        <v>5900</v>
+      </c>
+      <c r="G693" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H693" s="11">
+        <f>6200+7600</f>
+        <v>13800</v>
+      </c>
+      <c r="I693" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J693" s="11">
+        <v>5500</v>
+      </c>
+      <c r="K693" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>691</v>
       </c>
       <c r="B694" s="7" t="str">
-        <f t="shared" si="93"/>
-        <v>Пт</v>
+        <f t="shared" ref="B694" si="95">IF(C694&lt;&gt;"",TEXT(C694,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C694" s="8">
-        <v>45912</v>
-      </c>
-      <c r="D694" s="9"/>
-      <c r="E694" s="10"/>
-      <c r="F694" s="11"/>
-      <c r="G694" s="12"/>
-      <c r="H694" s="11"/>
-      <c r="I694" s="12"/>
-      <c r="J694" s="11"/>
-      <c r="K694" s="12"/>
+        <v>45911</v>
+      </c>
+      <c r="D694" s="9">
+        <f>11800+3200</f>
+        <v>15000</v>
+      </c>
+      <c r="E694" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F694" s="11">
+        <v>4900</v>
+      </c>
+      <c r="G694" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H694" s="11">
+        <v>5300</v>
+      </c>
+      <c r="I694" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J694" s="11">
+        <v>8600</v>
+      </c>
+      <c r="K694" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
@@ -21281,10 +21378,10 @@
       </c>
       <c r="B695" s="7" t="str">
         <f t="shared" si="93"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C695" s="8">
-        <v>45913</v>
+        <v>45912</v>
       </c>
       <c r="D695" s="9"/>
       <c r="E695" s="10"/>
@@ -21295,119 +21392,179 @@
       <c r="J695" s="11"/>
       <c r="K695" s="12"/>
     </row>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A696" s="1">
+        <v>693</v>
+      </c>
+      <c r="B696" s="7" t="str">
+        <f t="shared" si="93"/>
+        <v>Сб</v>
+      </c>
+      <c r="C696" s="8">
+        <v>45913</v>
+      </c>
+      <c r="D696" s="9"/>
+      <c r="E696" s="10"/>
+      <c r="F696" s="11"/>
+      <c r="G696" s="12"/>
+      <c r="H696" s="11"/>
+      <c r="I696" s="12"/>
+      <c r="J696" s="11"/>
+      <c r="K696" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E695">
-    <cfRule type="expression" dxfId="45" priority="18">
+  <conditionalFormatting sqref="B4:E696">
+    <cfRule type="expression" dxfId="54" priority="26">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K695">
-    <cfRule type="expression" dxfId="44" priority="19">
+  <conditionalFormatting sqref="B4:M683 B684:K696">
+    <cfRule type="expression" dxfId="3" priority="27">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="43" priority="32">
+    <cfRule type="expression" dxfId="53" priority="40">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="42" priority="16">
+    <cfRule type="expression" dxfId="52" priority="24">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="51" priority="43">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="40" priority="33">
+    <cfRule type="expression" dxfId="50" priority="41">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="49" priority="23">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="37" priority="14">
+    <cfRule type="expression" dxfId="47" priority="22">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="36" priority="13">
+    <cfRule type="expression" dxfId="46" priority="21">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="35" priority="12">
+    <cfRule type="expression" dxfId="45" priority="20">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="44" priority="19">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="33" priority="10">
+    <cfRule type="expression" dxfId="43" priority="18">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="32" priority="9">
+    <cfRule type="expression" dxfId="42" priority="17">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="30" priority="7">
+    <cfRule type="expression" dxfId="40" priority="15">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="39" priority="14">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="38" priority="13">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="37" priority="12">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="36" priority="11">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="35" priority="10">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>$C691=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E693">
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>$C693=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G693">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>$C693=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I693">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>$C693=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K693">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>$C693=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E694">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G694">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I694">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K694">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -21419,7 +21576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O700"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H700" sqref="H700"/>
     </sheetView>
@@ -38984,122 +39141,122 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E700">
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="33" priority="18">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C700 D48:K700">
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="32" priority="19">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="21" priority="28">
+    <cfRule type="expression" dxfId="31" priority="28">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="20" priority="31">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="19" priority="40">
+    <cfRule type="expression" dxfId="29" priority="40">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="18" priority="53">
+    <cfRule type="expression" dxfId="28" priority="53">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="17" priority="57">
+    <cfRule type="expression" dxfId="27" priority="57">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="16" priority="32">
+    <cfRule type="expression" dxfId="26" priority="32">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="25" priority="16">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="23" priority="14">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70731118-F891-4E2F-AB7D-A29A06B15A55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2944C6E-D2CD-4DE6-B48B-7DCC17A78C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ПОКОМ!$A$1:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,126 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1172,11 +1291,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD696"/>
+  <dimension ref="A1:AMD702"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H698" sqref="H698"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A683" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J701" sqref="J701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21412,159 +21531,312 @@
       <c r="J696" s="11"/>
       <c r="K696" s="12"/>
     </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A697" s="1">
+        <v>694</v>
+      </c>
+      <c r="B697" s="7" t="str">
+        <f t="shared" ref="B697:B702" si="96">IF(C697&lt;&gt;"",TEXT(C697,"ДДД"),"")</f>
+        <v>Вс</v>
+      </c>
+      <c r="C697" s="8">
+        <v>45914</v>
+      </c>
+      <c r="D697" s="9"/>
+      <c r="E697" s="10"/>
+      <c r="F697" s="11"/>
+      <c r="G697" s="12"/>
+      <c r="H697" s="11"/>
+      <c r="I697" s="12"/>
+      <c r="J697" s="11"/>
+      <c r="K697" s="12"/>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A698" s="1">
+        <v>695</v>
+      </c>
+      <c r="B698" s="7" t="str">
+        <f t="shared" si="96"/>
+        <v>Пн</v>
+      </c>
+      <c r="C698" s="8">
+        <v>45915</v>
+      </c>
+      <c r="D698" s="9"/>
+      <c r="E698" s="10"/>
+      <c r="F698" s="11"/>
+      <c r="G698" s="12"/>
+      <c r="H698" s="11"/>
+      <c r="I698" s="12"/>
+      <c r="J698" s="11"/>
+      <c r="K698" s="12"/>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A699" s="1">
+        <v>696</v>
+      </c>
+      <c r="B699" s="7" t="str">
+        <f t="shared" si="96"/>
+        <v>Вт</v>
+      </c>
+      <c r="C699" s="8">
+        <v>45916</v>
+      </c>
+      <c r="D699" s="9">
+        <v>7000</v>
+      </c>
+      <c r="E699" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F699" s="11">
+        <v>2300</v>
+      </c>
+      <c r="G699" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H699" s="11">
+        <f>15700+10000</f>
+        <v>25700</v>
+      </c>
+      <c r="I699" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J699" s="11">
+        <f>5800+10800</f>
+        <v>16600</v>
+      </c>
+      <c r="K699" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A700" s="1">
+        <v>697</v>
+      </c>
+      <c r="B700" s="7" t="str">
+        <f t="shared" si="96"/>
+        <v>Ср</v>
+      </c>
+      <c r="C700" s="8">
+        <v>45917</v>
+      </c>
+      <c r="D700" s="9"/>
+      <c r="E700" s="10"/>
+      <c r="F700" s="11"/>
+      <c r="G700" s="12"/>
+      <c r="H700" s="11"/>
+      <c r="I700" s="12"/>
+      <c r="J700" s="11"/>
+      <c r="K700" s="12"/>
+    </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A701" s="1">
+        <v>698</v>
+      </c>
+      <c r="B701" s="7" t="str">
+        <f t="shared" si="96"/>
+        <v>Чт</v>
+      </c>
+      <c r="C701" s="8">
+        <v>45918</v>
+      </c>
+      <c r="D701" s="9"/>
+      <c r="E701" s="10"/>
+      <c r="F701" s="11"/>
+      <c r="G701" s="12"/>
+      <c r="H701" s="11"/>
+      <c r="I701" s="12"/>
+      <c r="J701" s="11"/>
+      <c r="K701" s="12"/>
+    </row>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A702" s="1">
+        <v>699</v>
+      </c>
+      <c r="B702" s="7" t="str">
+        <f t="shared" si="96"/>
+        <v>Пт</v>
+      </c>
+      <c r="C702" s="8">
+        <v>45919</v>
+      </c>
+      <c r="D702" s="9"/>
+      <c r="E702" s="10"/>
+      <c r="F702" s="11"/>
+      <c r="G702" s="12"/>
+      <c r="H702" s="11"/>
+      <c r="I702" s="12"/>
+      <c r="J702" s="11"/>
+      <c r="K702" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E696">
-    <cfRule type="expression" dxfId="54" priority="26">
+  <conditionalFormatting sqref="B4:E702">
+    <cfRule type="expression" dxfId="71" priority="29">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K696">
-    <cfRule type="expression" dxfId="3" priority="27">
+  <conditionalFormatting sqref="B4:M683 B684:K702">
+    <cfRule type="expression" dxfId="70" priority="30">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="53" priority="40">
+    <cfRule type="expression" dxfId="69" priority="43">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="52" priority="24">
+    <cfRule type="expression" dxfId="68" priority="27">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="51" priority="43">
+    <cfRule type="expression" dxfId="67" priority="46">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="50" priority="41">
+    <cfRule type="expression" dxfId="66" priority="44">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="49" priority="23">
+    <cfRule type="expression" dxfId="65" priority="26">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="48" priority="42">
+    <cfRule type="expression" dxfId="64" priority="45">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="47" priority="22">
+    <cfRule type="expression" dxfId="63" priority="25">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="46" priority="21">
+    <cfRule type="expression" dxfId="62" priority="24">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="45" priority="20">
+    <cfRule type="expression" dxfId="61" priority="23">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="44" priority="19">
+    <cfRule type="expression" dxfId="60" priority="22">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="43" priority="18">
+    <cfRule type="expression" dxfId="59" priority="21">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="42" priority="17">
+    <cfRule type="expression" dxfId="58" priority="20">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="41" priority="16">
+    <cfRule type="expression" dxfId="57" priority="19">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="40" priority="15">
+    <cfRule type="expression" dxfId="56" priority="18">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="39" priority="14">
+    <cfRule type="expression" dxfId="55" priority="17">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="38" priority="13">
+    <cfRule type="expression" dxfId="54" priority="16">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="37" priority="12">
+    <cfRule type="expression" dxfId="53" priority="15">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="36" priority="11">
+    <cfRule type="expression" dxfId="52" priority="14">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="35" priority="10">
+    <cfRule type="expression" dxfId="51" priority="13">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="50" priority="12">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="49" priority="11">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="48" priority="10">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="46" priority="8">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="44" priority="6">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G699">
+    <cfRule type="expression" dxfId="41" priority="3">
+      <formula>$C699=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I699">
+    <cfRule type="expression" dxfId="40" priority="2">
+      <formula>$C699=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K699">
+    <cfRule type="expression" dxfId="39" priority="1">
+      <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -21574,11 +21846,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O700"/>
+  <dimension ref="A1:O708"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H700" sqref="H700"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A690" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J710" sqref="J710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39134,130 +39406,409 @@
       <c r="J700" s="11"/>
       <c r="K700" s="12"/>
     </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A701" s="1">
+        <v>700</v>
+      </c>
+      <c r="B701" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C701" s="8">
+        <v>45916</v>
+      </c>
+      <c r="D701" s="9">
+        <v>5100</v>
+      </c>
+      <c r="E701" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F701" s="11">
+        <v>2700</v>
+      </c>
+      <c r="G701" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H701" s="11"/>
+      <c r="I701" s="12"/>
+      <c r="J701" s="11">
+        <v>3200</v>
+      </c>
+      <c r="K701" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A702" s="1">
+        <v>701</v>
+      </c>
+      <c r="B702" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C702" s="8">
+        <v>45917</v>
+      </c>
+      <c r="D702" s="9"/>
+      <c r="E702" s="10"/>
+      <c r="F702" s="11"/>
+      <c r="G702" s="12"/>
+      <c r="H702" s="11"/>
+      <c r="I702" s="12"/>
+      <c r="J702" s="11"/>
+      <c r="K702" s="12"/>
+    </row>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A703" s="1">
+        <v>702</v>
+      </c>
+      <c r="B703" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C703" s="8">
+        <v>45918</v>
+      </c>
+      <c r="D703" s="9">
+        <v>3300</v>
+      </c>
+      <c r="E703" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F703" s="11"/>
+      <c r="G703" s="12"/>
+      <c r="H703" s="11">
+        <v>3300</v>
+      </c>
+      <c r="I703" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J703" s="11">
+        <v>2000</v>
+      </c>
+      <c r="K703" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A704" s="1">
+        <v>703</v>
+      </c>
+      <c r="B704" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C704" s="8">
+        <v>45918</v>
+      </c>
+      <c r="D704" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E704" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F704" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G704" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H704" s="11">
+        <v>50</v>
+      </c>
+      <c r="I704" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J704" s="11">
+        <v>300</v>
+      </c>
+      <c r="K704" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A705" s="1">
+        <v>704</v>
+      </c>
+      <c r="B705" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C705" s="8">
+        <v>45918</v>
+      </c>
+      <c r="D705" s="9">
+        <v>700</v>
+      </c>
+      <c r="E705" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F705" s="11">
+        <v>100</v>
+      </c>
+      <c r="G705" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H705" s="11"/>
+      <c r="I705" s="12"/>
+      <c r="J705" s="11">
+        <v>50</v>
+      </c>
+      <c r="K705" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A706" s="1">
+        <v>705</v>
+      </c>
+      <c r="B706" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C706" s="8">
+        <v>45919</v>
+      </c>
+      <c r="D706" s="9"/>
+      <c r="E706" s="10"/>
+      <c r="F706" s="11"/>
+      <c r="G706" s="12"/>
+      <c r="H706" s="11"/>
+      <c r="I706" s="12"/>
+      <c r="J706" s="11"/>
+      <c r="K706" s="12"/>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A707" s="1">
+        <v>706</v>
+      </c>
+      <c r="B707" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C707" s="8">
+        <v>45920</v>
+      </c>
+      <c r="D707" s="9"/>
+      <c r="E707" s="10"/>
+      <c r="F707" s="11"/>
+      <c r="G707" s="12"/>
+      <c r="H707" s="11"/>
+      <c r="I707" s="12"/>
+      <c r="J707" s="11"/>
+      <c r="K707" s="12"/>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A708" s="1">
+        <v>707</v>
+      </c>
+      <c r="B708" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C708" s="8">
+        <v>45921</v>
+      </c>
+      <c r="D708" s="9"/>
+      <c r="E708" s="10"/>
+      <c r="F708" s="11"/>
+      <c r="G708" s="12"/>
+      <c r="H708" s="11"/>
+      <c r="I708" s="12"/>
+      <c r="J708" s="11"/>
+      <c r="K708" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E700">
-    <cfRule type="expression" dxfId="33" priority="18">
+  <conditionalFormatting sqref="B4:E708">
+    <cfRule type="expression" dxfId="38" priority="33">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C700 D48:K700">
-    <cfRule type="expression" dxfId="32" priority="19">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C708 D48:K708">
+    <cfRule type="expression" dxfId="37" priority="34">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="36" priority="43">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="35" priority="46">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="29" priority="40">
+    <cfRule type="expression" dxfId="34" priority="55">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="28" priority="53">
+    <cfRule type="expression" dxfId="33" priority="68">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="27" priority="57">
+    <cfRule type="expression" dxfId="32" priority="72">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="26" priority="32">
+    <cfRule type="expression" dxfId="31" priority="47">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="25" priority="16">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="23" priority="14">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="22" priority="13">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$C695=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E701">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G701">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G701">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K701">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K701">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E703">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C703=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I703">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C703=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I703">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C703=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K703">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C703=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K703">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C703=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G704">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C704=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I704">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C704=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K704">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C704=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G705">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C705=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K705">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2944C6E-D2CD-4DE6-B48B-7DCC17A78C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CF8ABE-59F5-4217-9E4C-3404D28C72E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,56 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="79">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1291,11 +1340,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD702"/>
+  <dimension ref="A1:AMD708"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A683" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J701" sqref="J701"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A692" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H707" sqref="H707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21536,7 +21585,7 @@
         <v>694</v>
       </c>
       <c r="B697" s="7" t="str">
-        <f t="shared" ref="B697:B702" si="96">IF(C697&lt;&gt;"",TEXT(C697,"ДДД"),"")</f>
+        <f t="shared" ref="B697:B703" si="96">IF(C697&lt;&gt;"",TEXT(C697,"ДДД"),"")</f>
         <v>Вс</v>
       </c>
       <c r="C697" s="8">
@@ -21640,203 +21689,390 @@
       <c r="C701" s="8">
         <v>45918</v>
       </c>
-      <c r="D701" s="9"/>
-      <c r="E701" s="10"/>
-      <c r="F701" s="11"/>
-      <c r="G701" s="12"/>
-      <c r="H701" s="11"/>
-      <c r="I701" s="12"/>
-      <c r="J701" s="11"/>
-      <c r="K701" s="12"/>
+      <c r="D701" s="9">
+        <v>3000</v>
+      </c>
+      <c r="E701" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F701" s="11">
+        <v>2300</v>
+      </c>
+      <c r="G701" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H701" s="11">
+        <v>9100</v>
+      </c>
+      <c r="I701" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J701" s="11">
+        <v>10200</v>
+      </c>
+      <c r="K701" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>699</v>
       </c>
       <c r="B702" s="7" t="str">
+        <f t="shared" ref="B702" si="97">IF(C702&lt;&gt;"",TEXT(C702,"ДДД"),"")</f>
+        <v>Чт</v>
+      </c>
+      <c r="C702" s="8">
+        <v>45918</v>
+      </c>
+      <c r="D702" s="9">
+        <v>5900</v>
+      </c>
+      <c r="E702" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F702" s="11">
+        <v>7100</v>
+      </c>
+      <c r="G702" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H702" s="11">
+        <v>3600</v>
+      </c>
+      <c r="I702" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J702" s="11">
+        <v>8500</v>
+      </c>
+      <c r="K702" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A703" s="1">
+        <v>700</v>
+      </c>
+      <c r="B703" s="7" t="str">
         <f t="shared" si="96"/>
         <v>Пт</v>
       </c>
-      <c r="C702" s="8">
+      <c r="C703" s="8">
         <v>45919</v>
       </c>
-      <c r="D702" s="9"/>
-      <c r="E702" s="10"/>
-      <c r="F702" s="11"/>
-      <c r="G702" s="12"/>
-      <c r="H702" s="11"/>
-      <c r="I702" s="12"/>
-      <c r="J702" s="11"/>
-      <c r="K702" s="12"/>
+      <c r="D703" s="9"/>
+      <c r="E703" s="10"/>
+      <c r="F703" s="11"/>
+      <c r="G703" s="12"/>
+      <c r="H703" s="11"/>
+      <c r="I703" s="12"/>
+      <c r="J703" s="11"/>
+      <c r="K703" s="12"/>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A704" s="1">
+        <v>701</v>
+      </c>
+      <c r="B704" s="7" t="str">
+        <f t="shared" ref="B704:B708" si="98">IF(C704&lt;&gt;"",TEXT(C704,"ДДД"),"")</f>
+        <v>Сб</v>
+      </c>
+      <c r="C704" s="8">
+        <v>45920</v>
+      </c>
+      <c r="D704" s="9"/>
+      <c r="E704" s="10"/>
+      <c r="F704" s="11"/>
+      <c r="G704" s="12"/>
+      <c r="H704" s="11"/>
+      <c r="I704" s="12"/>
+      <c r="J704" s="11"/>
+      <c r="K704" s="12"/>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A705" s="1">
+        <v>702</v>
+      </c>
+      <c r="B705" s="7" t="str">
+        <f t="shared" si="98"/>
+        <v>Вс</v>
+      </c>
+      <c r="C705" s="8">
+        <v>45921</v>
+      </c>
+      <c r="D705" s="9"/>
+      <c r="E705" s="10"/>
+      <c r="F705" s="11"/>
+      <c r="G705" s="12"/>
+      <c r="H705" s="11"/>
+      <c r="I705" s="12"/>
+      <c r="J705" s="11"/>
+      <c r="K705" s="12"/>
+    </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A706" s="1">
+        <v>703</v>
+      </c>
+      <c r="B706" s="7" t="str">
+        <f t="shared" si="98"/>
+        <v>Пн</v>
+      </c>
+      <c r="C706" s="8">
+        <v>45922</v>
+      </c>
+      <c r="D706" s="9"/>
+      <c r="E706" s="10"/>
+      <c r="F706" s="11"/>
+      <c r="G706" s="12"/>
+      <c r="H706" s="11"/>
+      <c r="I706" s="12"/>
+      <c r="J706" s="11"/>
+      <c r="K706" s="12"/>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A707" s="1">
+        <v>704</v>
+      </c>
+      <c r="B707" s="7" t="str">
+        <f t="shared" si="98"/>
+        <v>Вт</v>
+      </c>
+      <c r="C707" s="8">
+        <v>45923</v>
+      </c>
+      <c r="D707" s="9"/>
+      <c r="E707" s="10"/>
+      <c r="F707" s="11"/>
+      <c r="G707" s="12"/>
+      <c r="H707" s="11"/>
+      <c r="I707" s="12"/>
+      <c r="J707" s="11"/>
+      <c r="K707" s="12"/>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A708" s="1">
+        <v>705</v>
+      </c>
+      <c r="B708" s="7" t="str">
+        <f t="shared" si="98"/>
+        <v>Ср</v>
+      </c>
+      <c r="C708" s="8">
+        <v>45924</v>
+      </c>
+      <c r="D708" s="9"/>
+      <c r="E708" s="10"/>
+      <c r="F708" s="11"/>
+      <c r="G708" s="12"/>
+      <c r="H708" s="11"/>
+      <c r="I708" s="12"/>
+      <c r="J708" s="11"/>
+      <c r="K708" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E702">
-    <cfRule type="expression" dxfId="71" priority="29">
+  <conditionalFormatting sqref="B4:E708">
+    <cfRule type="expression" dxfId="78" priority="36">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K702">
-    <cfRule type="expression" dxfId="70" priority="30">
+  <conditionalFormatting sqref="B4:M683 B684:K708">
+    <cfRule type="expression" dxfId="77" priority="37">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="69" priority="43">
+    <cfRule type="expression" dxfId="76" priority="50">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="68" priority="27">
+    <cfRule type="expression" dxfId="75" priority="34">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="67" priority="46">
+    <cfRule type="expression" dxfId="74" priority="53">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="66" priority="44">
+    <cfRule type="expression" dxfId="73" priority="51">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="65" priority="26">
+    <cfRule type="expression" dxfId="72" priority="33">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="64" priority="45">
+    <cfRule type="expression" dxfId="71" priority="52">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="63" priority="25">
+    <cfRule type="expression" dxfId="70" priority="32">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="62" priority="24">
+    <cfRule type="expression" dxfId="69" priority="31">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="61" priority="23">
+    <cfRule type="expression" dxfId="68" priority="30">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="60" priority="22">
+    <cfRule type="expression" dxfId="67" priority="29">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="59" priority="21">
+    <cfRule type="expression" dxfId="66" priority="28">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="58" priority="20">
+    <cfRule type="expression" dxfId="65" priority="27">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="57" priority="19">
+    <cfRule type="expression" dxfId="64" priority="26">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="56" priority="18">
+    <cfRule type="expression" dxfId="63" priority="25">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="55" priority="17">
+    <cfRule type="expression" dxfId="62" priority="24">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="54" priority="16">
+    <cfRule type="expression" dxfId="61" priority="23">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="53" priority="15">
+    <cfRule type="expression" dxfId="60" priority="22">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="52" priority="14">
+    <cfRule type="expression" dxfId="59" priority="21">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="51" priority="13">
+    <cfRule type="expression" dxfId="58" priority="20">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="50" priority="12">
+    <cfRule type="expression" dxfId="57" priority="19">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="56" priority="18">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="48" priority="10">
+    <cfRule type="expression" dxfId="55" priority="17">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="47" priority="9">
+    <cfRule type="expression" dxfId="54" priority="16">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="53" priority="15">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="45" priority="7">
+    <cfRule type="expression" dxfId="52" priority="14">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="44" priority="6">
+    <cfRule type="expression" dxfId="51" priority="13">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="50" priority="12">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="49" priority="11">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="48" priority="10">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="46" priority="8">
       <formula>$C699=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G701">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I701">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K701">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K702">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C702=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I702">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C702=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G702">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C702=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E702">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -21848,7 +22084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O708"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A690" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J710" sqref="J710"/>
     </sheetView>
@@ -39617,197 +39853,197 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E708">
-    <cfRule type="expression" dxfId="38" priority="33">
+    <cfRule type="expression" dxfId="45" priority="33">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C708 D48:K708">
-    <cfRule type="expression" dxfId="37" priority="34">
+    <cfRule type="expression" dxfId="44" priority="34">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="36" priority="43">
+    <cfRule type="expression" dxfId="43" priority="43">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="35" priority="46">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="34" priority="55">
+    <cfRule type="expression" dxfId="41" priority="55">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="33" priority="68">
+    <cfRule type="expression" dxfId="40" priority="68">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="32" priority="72">
+    <cfRule type="expression" dxfId="39" priority="72">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="31" priority="47">
+    <cfRule type="expression" dxfId="38" priority="47">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="37" priority="31">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="36" priority="30">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="34" priority="28">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="32" priority="26">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CF8ABE-59F5-4217-9E4C-3404D28C72E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AD74BF-49BF-403B-96DD-F92175E136FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,140 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="98">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1340,11 +1473,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD708"/>
+  <dimension ref="A1:AMD713"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A692" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H707" sqref="H707"/>
+      <selection pane="bottomLeft" activeCell="F708" sqref="F708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21841,14 +21974,30 @@
       <c r="C707" s="8">
         <v>45923</v>
       </c>
-      <c r="D707" s="9"/>
-      <c r="E707" s="10"/>
-      <c r="F707" s="11"/>
-      <c r="G707" s="12"/>
-      <c r="H707" s="11"/>
-      <c r="I707" s="12"/>
-      <c r="J707" s="11"/>
-      <c r="K707" s="12"/>
+      <c r="D707" s="9">
+        <v>3200</v>
+      </c>
+      <c r="E707" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F707" s="11">
+        <v>4200</v>
+      </c>
+      <c r="G707" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H707" s="11">
+        <v>18500</v>
+      </c>
+      <c r="I707" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J707" s="11">
+        <v>14600</v>
+      </c>
+      <c r="K707" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
@@ -21870,209 +22019,329 @@
       <c r="J708" s="11"/>
       <c r="K708" s="12"/>
     </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A709" s="1">
+        <v>706</v>
+      </c>
+      <c r="B709" s="7" t="str">
+        <f t="shared" ref="B709:B713" si="99">IF(C709&lt;&gt;"",TEXT(C709,"ДДД"),"")</f>
+        <v>Чт</v>
+      </c>
+      <c r="C709" s="8">
+        <v>45925</v>
+      </c>
+      <c r="D709" s="9"/>
+      <c r="E709" s="10"/>
+      <c r="F709" s="11"/>
+      <c r="G709" s="12"/>
+      <c r="H709" s="11"/>
+      <c r="I709" s="12"/>
+      <c r="J709" s="11"/>
+      <c r="K709" s="12"/>
+    </row>
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A710" s="1">
+        <v>707</v>
+      </c>
+      <c r="B710" s="7" t="str">
+        <f t="shared" si="99"/>
+        <v>Пт</v>
+      </c>
+      <c r="C710" s="8">
+        <v>45926</v>
+      </c>
+      <c r="D710" s="9"/>
+      <c r="E710" s="10"/>
+      <c r="F710" s="11"/>
+      <c r="G710" s="12"/>
+      <c r="H710" s="11"/>
+      <c r="I710" s="12"/>
+      <c r="J710" s="11"/>
+      <c r="K710" s="12"/>
+    </row>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A711" s="1">
+        <v>708</v>
+      </c>
+      <c r="B711" s="7" t="str">
+        <f t="shared" si="99"/>
+        <v>Сб</v>
+      </c>
+      <c r="C711" s="8">
+        <v>45927</v>
+      </c>
+      <c r="D711" s="9"/>
+      <c r="E711" s="10"/>
+      <c r="F711" s="11"/>
+      <c r="G711" s="12"/>
+      <c r="H711" s="11"/>
+      <c r="I711" s="12"/>
+      <c r="J711" s="11"/>
+      <c r="K711" s="12"/>
+    </row>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A712" s="1">
+        <v>709</v>
+      </c>
+      <c r="B712" s="7" t="str">
+        <f t="shared" si="99"/>
+        <v>Вс</v>
+      </c>
+      <c r="C712" s="8">
+        <v>45928</v>
+      </c>
+      <c r="D712" s="9"/>
+      <c r="E712" s="10"/>
+      <c r="F712" s="11"/>
+      <c r="G712" s="12"/>
+      <c r="H712" s="11"/>
+      <c r="I712" s="12"/>
+      <c r="J712" s="11"/>
+      <c r="K712" s="12"/>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A713" s="1">
+        <v>710</v>
+      </c>
+      <c r="B713" s="7" t="str">
+        <f t="shared" si="99"/>
+        <v>Пн</v>
+      </c>
+      <c r="C713" s="8">
+        <v>45929</v>
+      </c>
+      <c r="D713" s="9"/>
+      <c r="E713" s="10"/>
+      <c r="F713" s="11"/>
+      <c r="G713" s="12"/>
+      <c r="H713" s="11"/>
+      <c r="I713" s="12"/>
+      <c r="J713" s="11"/>
+      <c r="K713" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E708">
-    <cfRule type="expression" dxfId="78" priority="36">
+  <conditionalFormatting sqref="B4:E713">
+    <cfRule type="expression" dxfId="97" priority="40">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K708">
-    <cfRule type="expression" dxfId="77" priority="37">
+  <conditionalFormatting sqref="B4:M683 B684:K713">
+    <cfRule type="expression" dxfId="96" priority="41">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="76" priority="50">
+    <cfRule type="expression" dxfId="95" priority="54">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="75" priority="34">
+    <cfRule type="expression" dxfId="94" priority="38">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="74" priority="53">
+    <cfRule type="expression" dxfId="93" priority="57">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="73" priority="51">
+    <cfRule type="expression" dxfId="92" priority="55">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="72" priority="33">
+    <cfRule type="expression" dxfId="91" priority="37">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="71" priority="52">
+    <cfRule type="expression" dxfId="90" priority="56">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="70" priority="32">
+    <cfRule type="expression" dxfId="89" priority="36">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="69" priority="31">
+    <cfRule type="expression" dxfId="88" priority="35">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="68" priority="30">
+    <cfRule type="expression" dxfId="87" priority="34">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="67" priority="29">
+    <cfRule type="expression" dxfId="86" priority="33">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="66" priority="28">
+    <cfRule type="expression" dxfId="85" priority="32">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="65" priority="27">
+    <cfRule type="expression" dxfId="84" priority="31">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="64" priority="26">
+    <cfRule type="expression" dxfId="83" priority="30">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="63" priority="25">
+    <cfRule type="expression" dxfId="82" priority="29">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="62" priority="24">
+    <cfRule type="expression" dxfId="81" priority="28">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="61" priority="23">
+    <cfRule type="expression" dxfId="80" priority="27">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="60" priority="22">
+    <cfRule type="expression" dxfId="79" priority="26">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="59" priority="21">
+    <cfRule type="expression" dxfId="78" priority="25">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="58" priority="20">
+    <cfRule type="expression" dxfId="77" priority="24">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="57" priority="19">
+    <cfRule type="expression" dxfId="76" priority="23">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="56" priority="18">
+    <cfRule type="expression" dxfId="75" priority="22">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="55" priority="17">
+    <cfRule type="expression" dxfId="74" priority="21">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="54" priority="16">
+    <cfRule type="expression" dxfId="73" priority="20">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="53" priority="15">
+    <cfRule type="expression" dxfId="72" priority="19">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="52" priority="14">
+    <cfRule type="expression" dxfId="71" priority="18">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="51" priority="13">
+    <cfRule type="expression" dxfId="70" priority="17">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="50" priority="12">
+    <cfRule type="expression" dxfId="69" priority="16">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="68" priority="15">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="48" priority="10">
+    <cfRule type="expression" dxfId="67" priority="14">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="47" priority="9">
+    <cfRule type="expression" dxfId="66" priority="13">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="65" priority="12">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="64" priority="11">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="63" priority="10">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="62" priority="9">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="61" priority="8">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="60" priority="7">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="59" priority="6">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="58" priority="5">
       <formula>$C702=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I707">
+    <cfRule type="expression" dxfId="57" priority="4">
+      <formula>$C707=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K707">
+    <cfRule type="expression" dxfId="56" priority="3">
+      <formula>$C707=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G707">
+    <cfRule type="expression" dxfId="55" priority="2">
+      <formula>$C707=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E707">
+    <cfRule type="expression" dxfId="54" priority="1">
+      <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -22082,11 +22351,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O708"/>
+  <dimension ref="A1:O716"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A690" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J710" sqref="J710"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A699" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E719" sqref="E719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39846,205 +40115,492 @@
       <c r="J708" s="11"/>
       <c r="K708" s="12"/>
     </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A709" s="1">
+        <v>708</v>
+      </c>
+      <c r="B709" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C709" s="8">
+        <v>45922</v>
+      </c>
+      <c r="D709" s="9"/>
+      <c r="E709" s="10"/>
+      <c r="F709" s="11"/>
+      <c r="G709" s="12"/>
+      <c r="H709" s="11"/>
+      <c r="I709" s="12"/>
+      <c r="J709" s="11"/>
+      <c r="K709" s="12"/>
+    </row>
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A710" s="1">
+        <v>709</v>
+      </c>
+      <c r="B710" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C710" s="8">
+        <v>45923</v>
+      </c>
+      <c r="D710" s="9">
+        <v>2600</v>
+      </c>
+      <c r="E710" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F710" s="11">
+        <v>3300</v>
+      </c>
+      <c r="G710" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H710" s="11"/>
+      <c r="I710" s="12"/>
+      <c r="J710" s="11">
+        <v>4200</v>
+      </c>
+      <c r="K710" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A711" s="1">
+        <v>710</v>
+      </c>
+      <c r="B711" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C711" s="8">
+        <v>45924</v>
+      </c>
+      <c r="D711" s="9"/>
+      <c r="E711" s="10"/>
+      <c r="F711" s="11"/>
+      <c r="G711" s="12"/>
+      <c r="H711" s="11"/>
+      <c r="I711" s="12"/>
+      <c r="J711" s="11"/>
+      <c r="K711" s="12"/>
+    </row>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A712" s="1">
+        <v>711</v>
+      </c>
+      <c r="B712" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C712" s="8">
+        <v>45925</v>
+      </c>
+      <c r="D712" s="9">
+        <v>2400</v>
+      </c>
+      <c r="E712" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F712" s="11">
+        <v>3100</v>
+      </c>
+      <c r="G712" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H712" s="11">
+        <v>4000</v>
+      </c>
+      <c r="I712" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J712" s="11">
+        <v>3600</v>
+      </c>
+      <c r="K712" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A713" s="1">
+        <v>712</v>
+      </c>
+      <c r="B713" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C713" s="8">
+        <v>45925</v>
+      </c>
+      <c r="D713" s="9">
+        <v>800</v>
+      </c>
+      <c r="E713" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F713" s="11">
+        <v>600</v>
+      </c>
+      <c r="G713" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H713" s="11">
+        <v>200</v>
+      </c>
+      <c r="I713" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J713" s="11">
+        <v>300</v>
+      </c>
+      <c r="K713" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A714" s="1">
+        <v>713</v>
+      </c>
+      <c r="B714" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C714" s="8">
+        <v>45925</v>
+      </c>
+      <c r="D714" s="9">
+        <v>200</v>
+      </c>
+      <c r="E714" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F714" s="11">
+        <v>300</v>
+      </c>
+      <c r="G714" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H714" s="11">
+        <v>10</v>
+      </c>
+      <c r="I714" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J714" s="11">
+        <v>10</v>
+      </c>
+      <c r="K714" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A715" s="1">
+        <v>714</v>
+      </c>
+      <c r="B715" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C715" s="8">
+        <v>45926</v>
+      </c>
+      <c r="D715" s="9"/>
+      <c r="E715" s="10"/>
+      <c r="F715" s="11"/>
+      <c r="G715" s="12"/>
+      <c r="H715" s="11"/>
+      <c r="I715" s="12"/>
+      <c r="J715" s="11"/>
+      <c r="K715" s="12"/>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A716" s="1">
+        <v>715</v>
+      </c>
+      <c r="B716" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C716" s="8">
+        <v>45927</v>
+      </c>
+      <c r="D716" s="9"/>
+      <c r="E716" s="10"/>
+      <c r="F716" s="11"/>
+      <c r="G716" s="12"/>
+      <c r="H716" s="11"/>
+      <c r="I716" s="12"/>
+      <c r="J716" s="11"/>
+      <c r="K716" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E708">
-    <cfRule type="expression" dxfId="45" priority="33">
+  <conditionalFormatting sqref="B4:E716">
+    <cfRule type="expression" dxfId="53" priority="48">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C708 D48:K708">
-    <cfRule type="expression" dxfId="44" priority="34">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C716 D48:K716">
+    <cfRule type="expression" dxfId="52" priority="49">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="51" priority="58">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="50" priority="61">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="41" priority="55">
+    <cfRule type="expression" dxfId="49" priority="70">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="40" priority="68">
+    <cfRule type="expression" dxfId="48" priority="83">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="39" priority="72">
+    <cfRule type="expression" dxfId="47" priority="87">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="38" priority="47">
+    <cfRule type="expression" dxfId="46" priority="62">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="34" priority="28">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="28" priority="22">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="26" priority="20">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$C705=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E710">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G710">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G710">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K710">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K710">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E712:E714">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C712=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G712:G714">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C712=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G712:G714">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C712=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I712:I714">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C712=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I712:I714">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C712=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K712:K714">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C712=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K712:K714">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C712=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G713:G714">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C713=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I713:I714">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C713=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K713:K714">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AD74BF-49BF-403B-96DD-F92175E136FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF60FB0E-C54A-49FB-85F1-F9FF4BA6E26F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,84 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="109">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1473,11 +1550,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD713"/>
+  <dimension ref="A1:AMD714"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A692" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F708" sqref="F708"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A698" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F714" sqref="F714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22024,40 +22101,75 @@
         <v>706</v>
       </c>
       <c r="B709" s="7" t="str">
-        <f t="shared" ref="B709:B713" si="99">IF(C709&lt;&gt;"",TEXT(C709,"ДДД"),"")</f>
+        <f t="shared" ref="B709:B714" si="99">IF(C709&lt;&gt;"",TEXT(C709,"ДДД"),"")</f>
         <v>Чт</v>
       </c>
       <c r="C709" s="8">
         <v>45925</v>
       </c>
-      <c r="D709" s="9"/>
-      <c r="E709" s="10"/>
-      <c r="F709" s="11"/>
-      <c r="G709" s="12"/>
-      <c r="H709" s="11"/>
-      <c r="I709" s="12"/>
-      <c r="J709" s="11"/>
-      <c r="K709" s="12"/>
+      <c r="D709" s="9">
+        <v>4800</v>
+      </c>
+      <c r="E709" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F709" s="11">
+        <v>3700</v>
+      </c>
+      <c r="G709" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H709" s="11">
+        <f>4900+10800</f>
+        <v>15700</v>
+      </c>
+      <c r="I709" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J709" s="11">
+        <f>9400+2600</f>
+        <v>12000</v>
+      </c>
+      <c r="K709" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>707</v>
       </c>
       <c r="B710" s="7" t="str">
-        <f t="shared" si="99"/>
-        <v>Пт</v>
+        <f t="shared" ref="B710" si="100">IF(C710&lt;&gt;"",TEXT(C710,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C710" s="8">
-        <v>45926</v>
-      </c>
-      <c r="D710" s="9"/>
-      <c r="E710" s="10"/>
-      <c r="F710" s="11"/>
-      <c r="G710" s="12"/>
-      <c r="H710" s="11"/>
-      <c r="I710" s="12"/>
-      <c r="J710" s="11"/>
-      <c r="K710" s="12"/>
+        <v>45925</v>
+      </c>
+      <c r="D710" s="9">
+        <f>4900+4400</f>
+        <v>9300</v>
+      </c>
+      <c r="E710" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F710" s="11">
+        <v>6700</v>
+      </c>
+      <c r="G710" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H710" s="11">
+        <v>5800</v>
+      </c>
+      <c r="I710" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J710" s="11">
+        <v>5800</v>
+      </c>
+      <c r="K710" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
@@ -22065,10 +22177,10 @@
       </c>
       <c r="B711" s="7" t="str">
         <f t="shared" si="99"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C711" s="8">
-        <v>45927</v>
+        <v>45926</v>
       </c>
       <c r="D711" s="9"/>
       <c r="E711" s="10"/>
@@ -22085,10 +22197,10 @@
       </c>
       <c r="B712" s="7" t="str">
         <f t="shared" si="99"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C712" s="8">
-        <v>45928</v>
+        <v>45927</v>
       </c>
       <c r="D712" s="9"/>
       <c r="E712" s="10"/>
@@ -22105,10 +22217,10 @@
       </c>
       <c r="B713" s="7" t="str">
         <f t="shared" si="99"/>
-        <v>Пн</v>
+        <v>Вс</v>
       </c>
       <c r="C713" s="8">
-        <v>45929</v>
+        <v>45928</v>
       </c>
       <c r="D713" s="9"/>
       <c r="E713" s="10"/>
@@ -22119,229 +22231,304 @@
       <c r="J713" s="11"/>
       <c r="K713" s="12"/>
     </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A714" s="1">
+        <v>710</v>
+      </c>
+      <c r="B714" s="7" t="str">
+        <f t="shared" si="99"/>
+        <v>Пн</v>
+      </c>
+      <c r="C714" s="8">
+        <v>45929</v>
+      </c>
+      <c r="D714" s="9"/>
+      <c r="E714" s="10"/>
+      <c r="F714" s="11"/>
+      <c r="G714" s="12"/>
+      <c r="H714" s="11"/>
+      <c r="I714" s="12"/>
+      <c r="J714" s="11"/>
+      <c r="K714" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E713">
-    <cfRule type="expression" dxfId="97" priority="40">
+  <conditionalFormatting sqref="B4:E714">
+    <cfRule type="expression" dxfId="108" priority="51">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K713">
-    <cfRule type="expression" dxfId="96" priority="41">
+  <conditionalFormatting sqref="B4:M683 B684:K714">
+    <cfRule type="expression" dxfId="107" priority="52">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="95" priority="54">
+    <cfRule type="expression" dxfId="106" priority="65">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="94" priority="38">
+    <cfRule type="expression" dxfId="105" priority="49">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="93" priority="57">
+    <cfRule type="expression" dxfId="104" priority="68">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="92" priority="55">
+    <cfRule type="expression" dxfId="103" priority="66">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="91" priority="37">
+    <cfRule type="expression" dxfId="102" priority="48">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="90" priority="56">
+    <cfRule type="expression" dxfId="101" priority="67">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="89" priority="36">
+    <cfRule type="expression" dxfId="100" priority="47">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="88" priority="35">
+    <cfRule type="expression" dxfId="99" priority="46">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="87" priority="34">
+    <cfRule type="expression" dxfId="98" priority="45">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="86" priority="33">
+    <cfRule type="expression" dxfId="97" priority="44">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="85" priority="32">
+    <cfRule type="expression" dxfId="96" priority="43">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="84" priority="31">
+    <cfRule type="expression" dxfId="95" priority="42">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="83" priority="30">
+    <cfRule type="expression" dxfId="94" priority="41">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="82" priority="29">
+    <cfRule type="expression" dxfId="93" priority="40">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="81" priority="28">
+    <cfRule type="expression" dxfId="92" priority="39">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="80" priority="27">
+    <cfRule type="expression" dxfId="91" priority="38">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="79" priority="26">
+    <cfRule type="expression" dxfId="90" priority="37">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="78" priority="25">
+    <cfRule type="expression" dxfId="89" priority="36">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="77" priority="24">
+    <cfRule type="expression" dxfId="88" priority="35">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="76" priority="23">
+    <cfRule type="expression" dxfId="87" priority="34">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="75" priority="22">
+    <cfRule type="expression" dxfId="86" priority="33">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="74" priority="21">
+    <cfRule type="expression" dxfId="85" priority="32">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="73" priority="20">
+    <cfRule type="expression" dxfId="84" priority="31">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="72" priority="19">
+    <cfRule type="expression" dxfId="83" priority="30">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="71" priority="18">
+    <cfRule type="expression" dxfId="82" priority="29">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="70" priority="17">
+    <cfRule type="expression" dxfId="81" priority="28">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="69" priority="16">
+    <cfRule type="expression" dxfId="80" priority="27">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="68" priority="15">
+    <cfRule type="expression" dxfId="79" priority="26">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="67" priority="14">
+    <cfRule type="expression" dxfId="78" priority="25">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="66" priority="13">
+    <cfRule type="expression" dxfId="77" priority="24">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="65" priority="12">
+    <cfRule type="expression" dxfId="76" priority="23">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="64" priority="11">
+    <cfRule type="expression" dxfId="75" priority="22">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="63" priority="10">
+    <cfRule type="expression" dxfId="74" priority="21">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="62" priority="9">
+    <cfRule type="expression" dxfId="73" priority="20">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="61" priority="8">
+    <cfRule type="expression" dxfId="72" priority="19">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="60" priority="7">
+    <cfRule type="expression" dxfId="71" priority="18">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="59" priority="6">
+    <cfRule type="expression" dxfId="70" priority="17">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="58" priority="5">
+    <cfRule type="expression" dxfId="69" priority="16">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="57" priority="4">
+    <cfRule type="expression" dxfId="68" priority="15">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="56" priority="3">
+    <cfRule type="expression" dxfId="67" priority="14">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="66" priority="13">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="54" priority="1">
+    <cfRule type="expression" dxfId="65" priority="12">
       <formula>$C707=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E709">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G709">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G709">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I709">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I709">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K709">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K709">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E710">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G710">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I710">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K710">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -22353,8 +22540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O716"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A699" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E719" sqref="E719"/>
     </sheetView>
   </sheetViews>
@@ -40334,272 +40521,272 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E716">
-    <cfRule type="expression" dxfId="53" priority="48">
+    <cfRule type="expression" dxfId="64" priority="48">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C716 D48:K716">
-    <cfRule type="expression" dxfId="52" priority="49">
+    <cfRule type="expression" dxfId="63" priority="49">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="51" priority="58">
+    <cfRule type="expression" dxfId="62" priority="58">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="50" priority="61">
+    <cfRule type="expression" dxfId="61" priority="61">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="49" priority="70">
+    <cfRule type="expression" dxfId="60" priority="70">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="48" priority="83">
+    <cfRule type="expression" dxfId="59" priority="83">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="47" priority="87">
+    <cfRule type="expression" dxfId="58" priority="87">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="46" priority="62">
+    <cfRule type="expression" dxfId="57" priority="62">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="56" priority="46">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="55" priority="45">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="54" priority="44">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="53" priority="43">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="52" priority="42">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="51" priority="41">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="50" priority="40">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="49" priority="39">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="48" priority="38">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="47" priority="37">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="46" priority="36">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="45" priority="35">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="44" priority="34">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="43" priority="33">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="40" priority="30">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="39" priority="29">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="37" priority="27">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="36" priority="26">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="35" priority="25">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="33" priority="23">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="32" priority="22">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="31" priority="21">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="30" priority="20">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="29" priority="19">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="27" priority="17">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="26" priority="16">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF60FB0E-C54A-49FB-85F1-F9FF4BA6E26F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B79F40C-A462-431A-BCB9-184B8F9B866C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,154 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="130">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1550,11 +1697,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD714"/>
+  <dimension ref="A1:AMD724"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A698" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F714" sqref="F714"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H720" sqref="H720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22101,7 +22248,7 @@
         <v>706</v>
       </c>
       <c r="B709" s="7" t="str">
-        <f t="shared" ref="B709:B714" si="99">IF(C709&lt;&gt;"",TEXT(C709,"ДДД"),"")</f>
+        <f t="shared" ref="B709:B713" si="99">IF(C709&lt;&gt;"",TEXT(C709,"ДДД"),"")</f>
         <v>Чт</v>
       </c>
       <c r="C709" s="8">
@@ -22236,7 +22383,7 @@
         <v>710</v>
       </c>
       <c r="B714" s="7" t="str">
-        <f t="shared" si="99"/>
+        <f>IF(C714&lt;&gt;"",TEXT(C714,"ДДД"),"")</f>
         <v>Пн</v>
       </c>
       <c r="C714" s="8">
@@ -22251,284 +22398,535 @@
       <c r="J714" s="11"/>
       <c r="K714" s="12"/>
     </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A715" s="1">
+        <v>711</v>
+      </c>
+      <c r="B715" s="7" t="str">
+        <f t="shared" ref="B715:B724" si="101">IF(C715&lt;&gt;"",TEXT(C715,"ДДД"),"")</f>
+        <v>Вт</v>
+      </c>
+      <c r="C715" s="8">
+        <v>45930</v>
+      </c>
+      <c r="D715" s="9">
+        <v>5400</v>
+      </c>
+      <c r="E715" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F715" s="11">
+        <v>5700</v>
+      </c>
+      <c r="G715" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H715" s="11">
+        <v>17200</v>
+      </c>
+      <c r="I715" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J715" s="11">
+        <v>11800</v>
+      </c>
+      <c r="K715" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A716" s="1">
+        <v>712</v>
+      </c>
+      <c r="B716" s="7" t="str">
+        <f t="shared" si="101"/>
+        <v>Ср</v>
+      </c>
+      <c r="C716" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D716" s="9"/>
+      <c r="E716" s="10"/>
+      <c r="F716" s="11"/>
+      <c r="G716" s="12"/>
+      <c r="H716" s="11"/>
+      <c r="I716" s="12"/>
+      <c r="J716" s="11"/>
+      <c r="K716" s="12"/>
+    </row>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A717" s="1">
+        <v>713</v>
+      </c>
+      <c r="B717" s="7" t="str">
+        <f t="shared" si="101"/>
+        <v>Чт</v>
+      </c>
+      <c r="C717" s="8">
+        <v>45932</v>
+      </c>
+      <c r="D717" s="9"/>
+      <c r="E717" s="10"/>
+      <c r="F717" s="11"/>
+      <c r="G717" s="12"/>
+      <c r="H717" s="11"/>
+      <c r="I717" s="12"/>
+      <c r="J717" s="11"/>
+      <c r="K717" s="12"/>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A718" s="1">
+        <v>714</v>
+      </c>
+      <c r="B718" s="7" t="str">
+        <f t="shared" si="101"/>
+        <v>Пт</v>
+      </c>
+      <c r="C718" s="8">
+        <v>45933</v>
+      </c>
+      <c r="D718" s="9"/>
+      <c r="E718" s="10"/>
+      <c r="F718" s="11"/>
+      <c r="G718" s="12"/>
+      <c r="H718" s="11"/>
+      <c r="I718" s="12"/>
+      <c r="J718" s="11"/>
+      <c r="K718" s="12"/>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A719" s="1">
+        <v>715</v>
+      </c>
+      <c r="B719" s="7" t="str">
+        <f t="shared" si="101"/>
+        <v>Сб</v>
+      </c>
+      <c r="C719" s="8">
+        <v>45934</v>
+      </c>
+      <c r="D719" s="9"/>
+      <c r="E719" s="10"/>
+      <c r="F719" s="11"/>
+      <c r="G719" s="12"/>
+      <c r="H719" s="11"/>
+      <c r="I719" s="12"/>
+      <c r="J719" s="11"/>
+      <c r="K719" s="12"/>
+    </row>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A720" s="1">
+        <v>716</v>
+      </c>
+      <c r="B720" s="7" t="str">
+        <f t="shared" si="101"/>
+        <v>Вс</v>
+      </c>
+      <c r="C720" s="8">
+        <v>45935</v>
+      </c>
+      <c r="D720" s="9"/>
+      <c r="E720" s="10"/>
+      <c r="F720" s="11"/>
+      <c r="G720" s="12"/>
+      <c r="H720" s="11"/>
+      <c r="I720" s="12"/>
+      <c r="J720" s="11"/>
+      <c r="K720" s="12"/>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A721" s="1">
+        <v>717</v>
+      </c>
+      <c r="B721" s="7" t="str">
+        <f t="shared" si="101"/>
+        <v>Пн</v>
+      </c>
+      <c r="C721" s="8">
+        <v>45936</v>
+      </c>
+      <c r="D721" s="9"/>
+      <c r="E721" s="10"/>
+      <c r="F721" s="11"/>
+      <c r="G721" s="12"/>
+      <c r="H721" s="11"/>
+      <c r="I721" s="12"/>
+      <c r="J721" s="11"/>
+      <c r="K721" s="12"/>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A722" s="1">
+        <v>718</v>
+      </c>
+      <c r="B722" s="7" t="str">
+        <f t="shared" si="101"/>
+        <v>Вт</v>
+      </c>
+      <c r="C722" s="8">
+        <v>45937</v>
+      </c>
+      <c r="D722" s="9"/>
+      <c r="E722" s="10"/>
+      <c r="F722" s="11"/>
+      <c r="G722" s="12"/>
+      <c r="H722" s="11"/>
+      <c r="I722" s="12"/>
+      <c r="J722" s="11"/>
+      <c r="K722" s="12"/>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A723" s="1">
+        <v>719</v>
+      </c>
+      <c r="B723" s="7" t="str">
+        <f t="shared" si="101"/>
+        <v>Ср</v>
+      </c>
+      <c r="C723" s="8">
+        <v>45938</v>
+      </c>
+      <c r="D723" s="9"/>
+      <c r="E723" s="10"/>
+      <c r="F723" s="11"/>
+      <c r="G723" s="12"/>
+      <c r="H723" s="11"/>
+      <c r="I723" s="12"/>
+      <c r="J723" s="11"/>
+      <c r="K723" s="12"/>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A724" s="1">
+        <v>720</v>
+      </c>
+      <c r="B724" s="7" t="str">
+        <f t="shared" si="101"/>
+        <v>Чт</v>
+      </c>
+      <c r="C724" s="8">
+        <v>45939</v>
+      </c>
+      <c r="D724" s="9"/>
+      <c r="E724" s="10"/>
+      <c r="F724" s="11"/>
+      <c r="G724" s="12"/>
+      <c r="H724" s="11"/>
+      <c r="I724" s="12"/>
+      <c r="J724" s="11"/>
+      <c r="K724" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E714">
-    <cfRule type="expression" dxfId="108" priority="51">
+  <conditionalFormatting sqref="B4:E724">
+    <cfRule type="expression" dxfId="129" priority="58">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K714">
-    <cfRule type="expression" dxfId="107" priority="52">
+  <conditionalFormatting sqref="B4:M683 B684:K724">
+    <cfRule type="expression" dxfId="128" priority="59">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="106" priority="65">
+    <cfRule type="expression" dxfId="127" priority="72">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="105" priority="49">
+    <cfRule type="expression" dxfId="126" priority="56">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="104" priority="68">
+    <cfRule type="expression" dxfId="125" priority="75">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="103" priority="66">
+    <cfRule type="expression" dxfId="124" priority="73">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="102" priority="48">
+    <cfRule type="expression" dxfId="123" priority="55">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="101" priority="67">
+    <cfRule type="expression" dxfId="122" priority="74">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="100" priority="47">
+    <cfRule type="expression" dxfId="121" priority="54">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="99" priority="46">
+    <cfRule type="expression" dxfId="120" priority="53">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="98" priority="45">
+    <cfRule type="expression" dxfId="119" priority="52">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="97" priority="44">
+    <cfRule type="expression" dxfId="118" priority="51">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="96" priority="43">
+    <cfRule type="expression" dxfId="117" priority="50">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="95" priority="42">
+    <cfRule type="expression" dxfId="116" priority="49">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="94" priority="41">
+    <cfRule type="expression" dxfId="115" priority="48">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="93" priority="40">
+    <cfRule type="expression" dxfId="114" priority="47">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="92" priority="39">
+    <cfRule type="expression" dxfId="113" priority="46">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="91" priority="38">
+    <cfRule type="expression" dxfId="112" priority="45">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="90" priority="37">
+    <cfRule type="expression" dxfId="111" priority="44">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="89" priority="36">
+    <cfRule type="expression" dxfId="110" priority="43">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="88" priority="35">
+    <cfRule type="expression" dxfId="109" priority="42">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="87" priority="34">
+    <cfRule type="expression" dxfId="108" priority="41">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="86" priority="33">
+    <cfRule type="expression" dxfId="107" priority="40">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="85" priority="32">
+    <cfRule type="expression" dxfId="106" priority="39">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="84" priority="31">
+    <cfRule type="expression" dxfId="105" priority="38">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="83" priority="30">
+    <cfRule type="expression" dxfId="104" priority="37">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="82" priority="29">
+    <cfRule type="expression" dxfId="103" priority="36">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="81" priority="28">
+    <cfRule type="expression" dxfId="102" priority="35">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="80" priority="27">
+    <cfRule type="expression" dxfId="101" priority="34">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="79" priority="26">
+    <cfRule type="expression" dxfId="100" priority="33">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="78" priority="25">
+    <cfRule type="expression" dxfId="99" priority="32">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="77" priority="24">
+    <cfRule type="expression" dxfId="98" priority="31">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="76" priority="23">
+    <cfRule type="expression" dxfId="97" priority="30">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="75" priority="22">
+    <cfRule type="expression" dxfId="96" priority="29">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="74" priority="21">
+    <cfRule type="expression" dxfId="95" priority="28">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="73" priority="20">
+    <cfRule type="expression" dxfId="94" priority="27">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="72" priority="19">
+    <cfRule type="expression" dxfId="93" priority="26">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="71" priority="18">
+    <cfRule type="expression" dxfId="92" priority="25">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="70" priority="17">
+    <cfRule type="expression" dxfId="91" priority="24">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="69" priority="16">
+    <cfRule type="expression" dxfId="90" priority="23">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="68" priority="15">
+    <cfRule type="expression" dxfId="89" priority="22">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="67" priority="14">
+    <cfRule type="expression" dxfId="88" priority="21">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="66" priority="13">
+    <cfRule type="expression" dxfId="87" priority="20">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="65" priority="12">
+    <cfRule type="expression" dxfId="86" priority="19">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="85" priority="18">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="84" priority="17">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="83" priority="16">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="82" priority="15">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="81" priority="14">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="80" priority="13">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="79" priority="12">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="78" priority="11">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="77" priority="10">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I710">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="76" priority="9">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="75" priority="8">
       <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E715">
+    <cfRule type="expression" dxfId="74" priority="7">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G715">
+    <cfRule type="expression" dxfId="73" priority="6">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G715">
+    <cfRule type="expression" dxfId="72" priority="5">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I715">
+    <cfRule type="expression" dxfId="71" priority="4">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I715">
+    <cfRule type="expression" dxfId="70" priority="3">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K715">
+    <cfRule type="expression" dxfId="69" priority="2">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K715">
+    <cfRule type="expression" dxfId="68" priority="1">
+      <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -22538,11 +22936,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O716"/>
+  <dimension ref="A1:O728"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E719" sqref="E719"/>
+      <selection pane="bottomLeft" activeCell="H727" sqref="H727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40514,280 +40912,624 @@
       <c r="J716" s="11"/>
       <c r="K716" s="12"/>
     </row>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A717" s="1">
+        <v>716</v>
+      </c>
+      <c r="B717" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C717" s="8">
+        <v>45928</v>
+      </c>
+      <c r="D717" s="9"/>
+      <c r="E717" s="10"/>
+      <c r="F717" s="11"/>
+      <c r="G717" s="12"/>
+      <c r="H717" s="11"/>
+      <c r="I717" s="12"/>
+      <c r="J717" s="11"/>
+      <c r="K717" s="12"/>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A718" s="1">
+        <v>717</v>
+      </c>
+      <c r="B718" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C718" s="8">
+        <v>45929</v>
+      </c>
+      <c r="D718" s="9"/>
+      <c r="E718" s="10"/>
+      <c r="F718" s="11"/>
+      <c r="G718" s="12"/>
+      <c r="H718" s="11"/>
+      <c r="I718" s="12"/>
+      <c r="J718" s="11"/>
+      <c r="K718" s="12"/>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A719" s="1">
+        <v>718</v>
+      </c>
+      <c r="B719" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C719" s="8">
+        <v>45930</v>
+      </c>
+      <c r="D719" s="9">
+        <v>4600</v>
+      </c>
+      <c r="E719" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F719" s="11">
+        <v>2400</v>
+      </c>
+      <c r="G719" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H719" s="11"/>
+      <c r="I719" s="12"/>
+      <c r="J719" s="11">
+        <v>4000</v>
+      </c>
+      <c r="K719" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A720" s="1">
+        <v>719</v>
+      </c>
+      <c r="B720" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C720" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D720" s="9"/>
+      <c r="E720" s="10"/>
+      <c r="F720" s="11"/>
+      <c r="G720" s="12"/>
+      <c r="H720" s="11"/>
+      <c r="I720" s="12"/>
+      <c r="J720" s="11"/>
+      <c r="K720" s="12"/>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A721" s="1">
+        <v>720</v>
+      </c>
+      <c r="B721" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C721" s="8">
+        <v>45932</v>
+      </c>
+      <c r="D721" s="9">
+        <v>4300</v>
+      </c>
+      <c r="E721" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F721" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G721" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H721" s="11">
+        <v>4300</v>
+      </c>
+      <c r="I721" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J721" s="11">
+        <v>3700</v>
+      </c>
+      <c r="K721" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A722" s="1">
+        <v>721</v>
+      </c>
+      <c r="B722" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C722" s="8">
+        <v>45932</v>
+      </c>
+      <c r="D722" s="9">
+        <v>1100</v>
+      </c>
+      <c r="E722" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F722" s="11">
+        <v>400</v>
+      </c>
+      <c r="G722" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H722" s="11">
+        <v>300</v>
+      </c>
+      <c r="I722" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J722" s="11">
+        <v>600</v>
+      </c>
+      <c r="K722" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A723" s="1">
+        <v>722</v>
+      </c>
+      <c r="B723" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C723" s="8">
+        <v>45932</v>
+      </c>
+      <c r="D723" s="9"/>
+      <c r="E723" s="12"/>
+      <c r="F723" s="11">
+        <v>200</v>
+      </c>
+      <c r="G723" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H723" s="11">
+        <v>30</v>
+      </c>
+      <c r="I723" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J723" s="11">
+        <v>20</v>
+      </c>
+      <c r="K723" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A724" s="1">
+        <v>723</v>
+      </c>
+      <c r="B724" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C724" s="8">
+        <v>45933</v>
+      </c>
+      <c r="D724" s="9"/>
+      <c r="E724" s="10"/>
+      <c r="F724" s="11"/>
+      <c r="G724" s="12"/>
+      <c r="H724" s="11"/>
+      <c r="I724" s="12"/>
+      <c r="J724" s="11"/>
+      <c r="K724" s="12"/>
+    </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A725" s="1">
+        <v>724</v>
+      </c>
+      <c r="B725" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C725" s="8">
+        <v>45934</v>
+      </c>
+      <c r="D725" s="9"/>
+      <c r="E725" s="10"/>
+      <c r="F725" s="11"/>
+      <c r="G725" s="12"/>
+      <c r="H725" s="11"/>
+      <c r="I725" s="12"/>
+      <c r="J725" s="11"/>
+      <c r="K725" s="12"/>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A726" s="1">
+        <v>725</v>
+      </c>
+      <c r="B726" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C726" s="8">
+        <v>45935</v>
+      </c>
+      <c r="D726" s="9"/>
+      <c r="E726" s="10"/>
+      <c r="F726" s="11"/>
+      <c r="G726" s="12"/>
+      <c r="H726" s="11"/>
+      <c r="I726" s="12"/>
+      <c r="J726" s="11"/>
+      <c r="K726" s="12"/>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A727" s="1">
+        <v>726</v>
+      </c>
+      <c r="B727" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C727" s="8">
+        <v>45936</v>
+      </c>
+      <c r="D727" s="9"/>
+      <c r="E727" s="10"/>
+      <c r="F727" s="11"/>
+      <c r="G727" s="12"/>
+      <c r="H727" s="11"/>
+      <c r="I727" s="12"/>
+      <c r="J727" s="11"/>
+      <c r="K727" s="12"/>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A728" s="1">
+        <v>727</v>
+      </c>
+      <c r="B728" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C728" s="8">
+        <v>45937</v>
+      </c>
+      <c r="D728" s="9"/>
+      <c r="E728" s="10"/>
+      <c r="F728" s="11"/>
+      <c r="G728" s="12"/>
+      <c r="H728" s="11"/>
+      <c r="I728" s="12"/>
+      <c r="J728" s="11"/>
+      <c r="K728" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E716">
-    <cfRule type="expression" dxfId="64" priority="48">
+  <conditionalFormatting sqref="B4:E728">
+    <cfRule type="expression" dxfId="67" priority="60">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C716 D48:K716">
-    <cfRule type="expression" dxfId="63" priority="49">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K728 B374:C728">
+    <cfRule type="expression" dxfId="66" priority="61">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="65" priority="70">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="64" priority="73">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="60" priority="70">
+    <cfRule type="expression" dxfId="63" priority="82">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="59" priority="83">
+    <cfRule type="expression" dxfId="62" priority="95">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="58" priority="87">
+    <cfRule type="expression" dxfId="61" priority="99">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="57" priority="62">
+    <cfRule type="expression" dxfId="60" priority="74">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="56" priority="46">
+    <cfRule type="expression" dxfId="59" priority="58">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="55" priority="45">
+    <cfRule type="expression" dxfId="58" priority="57">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="54" priority="44">
+    <cfRule type="expression" dxfId="57" priority="56">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="53" priority="43">
+    <cfRule type="expression" dxfId="56" priority="55">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="52" priority="42">
+    <cfRule type="expression" dxfId="55" priority="54">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="51" priority="41">
+    <cfRule type="expression" dxfId="54" priority="53">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="50" priority="40">
+    <cfRule type="expression" dxfId="53" priority="52">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="49" priority="39">
+    <cfRule type="expression" dxfId="52" priority="51">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="48" priority="38">
+    <cfRule type="expression" dxfId="51" priority="50">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="47" priority="37">
+    <cfRule type="expression" dxfId="50" priority="49">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="46" priority="36">
+    <cfRule type="expression" dxfId="49" priority="48">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="45" priority="35">
+    <cfRule type="expression" dxfId="48" priority="47">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="44" priority="34">
+    <cfRule type="expression" dxfId="47" priority="46">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="43" priority="33">
+    <cfRule type="expression" dxfId="46" priority="45">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="42" priority="32">
+    <cfRule type="expression" dxfId="45" priority="44">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="41" priority="31">
+    <cfRule type="expression" dxfId="44" priority="43">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="40" priority="30">
+    <cfRule type="expression" dxfId="43" priority="42">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="42" priority="41">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="38" priority="28">
+    <cfRule type="expression" dxfId="41" priority="40">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="37" priority="27">
+    <cfRule type="expression" dxfId="40" priority="39">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="36" priority="26">
+    <cfRule type="expression" dxfId="39" priority="38">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="35" priority="25">
+    <cfRule type="expression" dxfId="38" priority="37">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="34" priority="24">
+    <cfRule type="expression" dxfId="37" priority="36">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="33" priority="23">
+    <cfRule type="expression" dxfId="36" priority="35">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="32" priority="22">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="31" priority="21">
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="30" priority="20">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="32" priority="31">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="26" priority="16">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="24" priority="14">
+    <cfRule type="expression" dxfId="27" priority="26">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="26" priority="25">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="22" priority="12">
+    <cfRule type="expression" dxfId="25" priority="24">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="21" priority="20">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$C713=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E719">
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>$C719=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G719">
+    <cfRule type="expression" dxfId="12" priority="11">
+      <formula>$C719=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G719">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>$C719=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K719">
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>$C719=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K719">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C719=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E721:E723">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C721=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G721:G723">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C721=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G721:G723">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C721=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I721:I723">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C721=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I721:I723">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C721=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K721:K723">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C721=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K721:K723">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B79F40C-A462-431A-BCB9-184B8F9B866C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4724A9-1826-41A3-9145-DE1A28EEDA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,98 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="143">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1697,11 +1788,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD724"/>
+  <dimension ref="A1:AMD728"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H720" sqref="H720"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E723" sqref="E723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22403,7 +22494,7 @@
         <v>711</v>
       </c>
       <c r="B715" s="7" t="str">
-        <f t="shared" ref="B715:B724" si="101">IF(C715&lt;&gt;"",TEXT(C715,"ДДД"),"")</f>
+        <f t="shared" ref="B715:B725" si="101">IF(C715&lt;&gt;"",TEXT(C715,"ДДД"),"")</f>
         <v>Вт</v>
       </c>
       <c r="C715" s="8">
@@ -22451,8 +22542,12 @@
       <c r="G716" s="12"/>
       <c r="H716" s="11"/>
       <c r="I716" s="12"/>
-      <c r="J716" s="11"/>
-      <c r="K716" s="12"/>
+      <c r="J716" s="11">
+        <v>13700</v>
+      </c>
+      <c r="K716" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
@@ -22465,34 +22560,69 @@
       <c r="C717" s="8">
         <v>45932</v>
       </c>
-      <c r="D717" s="9"/>
-      <c r="E717" s="10"/>
-      <c r="F717" s="11"/>
-      <c r="G717" s="12"/>
-      <c r="H717" s="11"/>
-      <c r="I717" s="12"/>
-      <c r="J717" s="11"/>
-      <c r="K717" s="12"/>
+      <c r="D717" s="9">
+        <v>2700</v>
+      </c>
+      <c r="E717" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F717" s="11">
+        <v>3800</v>
+      </c>
+      <c r="G717" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H717" s="11">
+        <f>12800+2900</f>
+        <v>15700</v>
+      </c>
+      <c r="I717" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J717" s="11">
+        <v>900</v>
+      </c>
+      <c r="K717" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>714</v>
       </c>
       <c r="B718" s="7" t="str">
-        <f t="shared" si="101"/>
-        <v>Пт</v>
+        <f t="shared" ref="B718" si="102">IF(C718&lt;&gt;"",TEXT(C718,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C718" s="8">
-        <v>45933</v>
-      </c>
-      <c r="D718" s="9"/>
-      <c r="E718" s="10"/>
-      <c r="F718" s="11"/>
-      <c r="G718" s="12"/>
-      <c r="H718" s="11"/>
-      <c r="I718" s="12"/>
-      <c r="J718" s="11"/>
-      <c r="K718" s="12"/>
+        <v>45932</v>
+      </c>
+      <c r="D718" s="9">
+        <v>9000</v>
+      </c>
+      <c r="E718" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F718" s="11">
+        <f>5100+1300</f>
+        <v>6400</v>
+      </c>
+      <c r="G718" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H718" s="11">
+        <v>4900</v>
+      </c>
+      <c r="I718" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J718" s="11">
+        <f>3300+4900</f>
+        <v>8200</v>
+      </c>
+      <c r="K718" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
@@ -22500,10 +22630,10 @@
       </c>
       <c r="B719" s="7" t="str">
         <f t="shared" si="101"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C719" s="8">
-        <v>45934</v>
+        <v>45933</v>
       </c>
       <c r="D719" s="9"/>
       <c r="E719" s="10"/>
@@ -22520,10 +22650,10 @@
       </c>
       <c r="B720" s="7" t="str">
         <f t="shared" si="101"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C720" s="8">
-        <v>45935</v>
+        <v>45934</v>
       </c>
       <c r="D720" s="9"/>
       <c r="E720" s="10"/>
@@ -22540,10 +22670,10 @@
       </c>
       <c r="B721" s="7" t="str">
         <f t="shared" si="101"/>
-        <v>Пн</v>
+        <v>Вс</v>
       </c>
       <c r="C721" s="8">
-        <v>45936</v>
+        <v>45935</v>
       </c>
       <c r="D721" s="9"/>
       <c r="E721" s="10"/>
@@ -22560,10 +22690,10 @@
       </c>
       <c r="B722" s="7" t="str">
         <f t="shared" si="101"/>
-        <v>Вт</v>
+        <v>Пн</v>
       </c>
       <c r="C722" s="8">
-        <v>45937</v>
+        <v>45936</v>
       </c>
       <c r="D722" s="9"/>
       <c r="E722" s="10"/>
@@ -22580,10 +22710,10 @@
       </c>
       <c r="B723" s="7" t="str">
         <f t="shared" si="101"/>
-        <v>Ср</v>
+        <v>Вт</v>
       </c>
       <c r="C723" s="8">
-        <v>45938</v>
+        <v>45937</v>
       </c>
       <c r="D723" s="9"/>
       <c r="E723" s="10"/>
@@ -22600,10 +22730,10 @@
       </c>
       <c r="B724" s="7" t="str">
         <f t="shared" si="101"/>
-        <v>Чт</v>
+        <v>Ср</v>
       </c>
       <c r="C724" s="8">
-        <v>45939</v>
+        <v>45938</v>
       </c>
       <c r="D724" s="9"/>
       <c r="E724" s="10"/>
@@ -22614,319 +22744,474 @@
       <c r="J724" s="11"/>
       <c r="K724" s="12"/>
     </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A725" s="1">
+        <v>721</v>
+      </c>
+      <c r="B725" s="7" t="str">
+        <f t="shared" si="101"/>
+        <v>Чт</v>
+      </c>
+      <c r="C725" s="8">
+        <v>45939</v>
+      </c>
+      <c r="D725" s="9"/>
+      <c r="E725" s="10"/>
+      <c r="F725" s="11"/>
+      <c r="G725" s="12"/>
+      <c r="H725" s="11"/>
+      <c r="I725" s="12"/>
+      <c r="J725" s="11"/>
+      <c r="K725" s="12"/>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A726" s="1">
+        <v>722</v>
+      </c>
+      <c r="B726" s="7" t="str">
+        <f t="shared" ref="B726:B728" si="103">IF(C726&lt;&gt;"",TEXT(C726,"ДДД"),"")</f>
+        <v>Пт</v>
+      </c>
+      <c r="C726" s="8">
+        <v>45940</v>
+      </c>
+      <c r="D726" s="9"/>
+      <c r="E726" s="10"/>
+      <c r="F726" s="11"/>
+      <c r="G726" s="12"/>
+      <c r="H726" s="11"/>
+      <c r="I726" s="12"/>
+      <c r="J726" s="11"/>
+      <c r="K726" s="12"/>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A727" s="1">
+        <v>723</v>
+      </c>
+      <c r="B727" s="7" t="str">
+        <f t="shared" si="103"/>
+        <v>Сб</v>
+      </c>
+      <c r="C727" s="8">
+        <v>45941</v>
+      </c>
+      <c r="D727" s="9"/>
+      <c r="E727" s="10"/>
+      <c r="F727" s="11"/>
+      <c r="G727" s="12"/>
+      <c r="H727" s="11"/>
+      <c r="I727" s="12"/>
+      <c r="J727" s="11"/>
+      <c r="K727" s="12"/>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A728" s="1">
+        <v>724</v>
+      </c>
+      <c r="B728" s="7" t="str">
+        <f t="shared" si="103"/>
+        <v>Вс</v>
+      </c>
+      <c r="C728" s="8">
+        <v>45942</v>
+      </c>
+      <c r="D728" s="9"/>
+      <c r="E728" s="10"/>
+      <c r="F728" s="11"/>
+      <c r="G728" s="12"/>
+      <c r="H728" s="11"/>
+      <c r="I728" s="12"/>
+      <c r="J728" s="11"/>
+      <c r="K728" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E724">
-    <cfRule type="expression" dxfId="129" priority="58">
+  <conditionalFormatting sqref="B4:E728">
+    <cfRule type="expression" dxfId="142" priority="73">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K724">
-    <cfRule type="expression" dxfId="128" priority="59">
+  <conditionalFormatting sqref="B4:M683 B684:K728">
+    <cfRule type="expression" dxfId="141" priority="74">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="127" priority="72">
+    <cfRule type="expression" dxfId="140" priority="87">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="126" priority="56">
+    <cfRule type="expression" dxfId="139" priority="71">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="125" priority="75">
+    <cfRule type="expression" dxfId="138" priority="90">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="124" priority="73">
+    <cfRule type="expression" dxfId="137" priority="88">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="123" priority="55">
+    <cfRule type="expression" dxfId="136" priority="70">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="122" priority="74">
+    <cfRule type="expression" dxfId="135" priority="89">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="121" priority="54">
+    <cfRule type="expression" dxfId="134" priority="69">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="120" priority="53">
+    <cfRule type="expression" dxfId="133" priority="68">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="119" priority="52">
+    <cfRule type="expression" dxfId="132" priority="67">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="118" priority="51">
+    <cfRule type="expression" dxfId="131" priority="66">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="117" priority="50">
+    <cfRule type="expression" dxfId="130" priority="65">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="116" priority="49">
+    <cfRule type="expression" dxfId="129" priority="64">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="115" priority="48">
+    <cfRule type="expression" dxfId="128" priority="63">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="114" priority="47">
+    <cfRule type="expression" dxfId="127" priority="62">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="113" priority="46">
+    <cfRule type="expression" dxfId="126" priority="61">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="112" priority="45">
+    <cfRule type="expression" dxfId="125" priority="60">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="111" priority="44">
+    <cfRule type="expression" dxfId="124" priority="59">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="110" priority="43">
+    <cfRule type="expression" dxfId="123" priority="58">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="109" priority="42">
+    <cfRule type="expression" dxfId="122" priority="57">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="108" priority="41">
+    <cfRule type="expression" dxfId="121" priority="56">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="107" priority="40">
+    <cfRule type="expression" dxfId="120" priority="55">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="106" priority="39">
+    <cfRule type="expression" dxfId="119" priority="54">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="105" priority="38">
+    <cfRule type="expression" dxfId="118" priority="53">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="104" priority="37">
+    <cfRule type="expression" dxfId="117" priority="52">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="103" priority="36">
+    <cfRule type="expression" dxfId="116" priority="51">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="102" priority="35">
+    <cfRule type="expression" dxfId="115" priority="50">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="101" priority="34">
+    <cfRule type="expression" dxfId="114" priority="49">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="100" priority="33">
+    <cfRule type="expression" dxfId="113" priority="48">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="99" priority="32">
+    <cfRule type="expression" dxfId="112" priority="47">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="98" priority="31">
+    <cfRule type="expression" dxfId="111" priority="46">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="97" priority="30">
+    <cfRule type="expression" dxfId="110" priority="45">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="96" priority="29">
+    <cfRule type="expression" dxfId="109" priority="44">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="95" priority="28">
+    <cfRule type="expression" dxfId="108" priority="43">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="94" priority="27">
+    <cfRule type="expression" dxfId="107" priority="42">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="93" priority="26">
+    <cfRule type="expression" dxfId="106" priority="41">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="92" priority="25">
+    <cfRule type="expression" dxfId="105" priority="40">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="91" priority="24">
+    <cfRule type="expression" dxfId="104" priority="39">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="90" priority="23">
+    <cfRule type="expression" dxfId="103" priority="38">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="89" priority="22">
+    <cfRule type="expression" dxfId="102" priority="37">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="88" priority="21">
+    <cfRule type="expression" dxfId="101" priority="36">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="87" priority="20">
+    <cfRule type="expression" dxfId="100" priority="35">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="86" priority="19">
+    <cfRule type="expression" dxfId="99" priority="34">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="expression" dxfId="85" priority="18">
+    <cfRule type="expression" dxfId="98" priority="33">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="84" priority="17">
+    <cfRule type="expression" dxfId="97" priority="32">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="83" priority="16">
+    <cfRule type="expression" dxfId="96" priority="31">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="82" priority="15">
+    <cfRule type="expression" dxfId="95" priority="30">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="81" priority="14">
+    <cfRule type="expression" dxfId="94" priority="29">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="80" priority="13">
+    <cfRule type="expression" dxfId="93" priority="28">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="79" priority="12">
+    <cfRule type="expression" dxfId="92" priority="27">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="78" priority="11">
+    <cfRule type="expression" dxfId="91" priority="26">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="77" priority="10">
+    <cfRule type="expression" dxfId="90" priority="25">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I710">
-    <cfRule type="expression" dxfId="76" priority="9">
+    <cfRule type="expression" dxfId="89" priority="24">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="75" priority="8">
+    <cfRule type="expression" dxfId="88" priority="23">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E715">
-    <cfRule type="expression" dxfId="74" priority="7">
+    <cfRule type="expression" dxfId="87" priority="22">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="73" priority="6">
+    <cfRule type="expression" dxfId="86" priority="21">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="72" priority="5">
+    <cfRule type="expression" dxfId="85" priority="20">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="71" priority="4">
+    <cfRule type="expression" dxfId="84" priority="19">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="70" priority="3">
+    <cfRule type="expression" dxfId="83" priority="18">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K715">
-    <cfRule type="expression" dxfId="69" priority="2">
+  <conditionalFormatting sqref="K715:K718">
+    <cfRule type="expression" dxfId="82" priority="17">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K715">
-    <cfRule type="expression" dxfId="68" priority="1">
+  <conditionalFormatting sqref="K715:K718">
+    <cfRule type="expression" dxfId="81" priority="16">
       <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I717:I718">
+    <cfRule type="expression" dxfId="80" priority="15">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I717:I718">
+    <cfRule type="expression" dxfId="79" priority="14">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G717:G718">
+    <cfRule type="expression" dxfId="78" priority="13">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G717:G718">
+    <cfRule type="expression" dxfId="77" priority="12">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E717:E718">
+    <cfRule type="expression" dxfId="76" priority="11">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E717:E718">
+    <cfRule type="expression" dxfId="75" priority="10">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G718">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G718">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G718">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I718">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I718">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I718">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K718">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K718">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K718">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -22938,7 +23223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O728"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H727" sqref="H727"/>
     </sheetView>
@@ -41203,332 +41488,332 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E728">
-    <cfRule type="expression" dxfId="67" priority="60">
+    <cfRule type="expression" dxfId="74" priority="60">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K728 B374:C728">
-    <cfRule type="expression" dxfId="66" priority="61">
+    <cfRule type="expression" dxfId="73" priority="61">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="65" priority="70">
+    <cfRule type="expression" dxfId="72" priority="70">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="64" priority="73">
+    <cfRule type="expression" dxfId="71" priority="73">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="63" priority="82">
+    <cfRule type="expression" dxfId="70" priority="82">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="62" priority="95">
+    <cfRule type="expression" dxfId="69" priority="95">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="61" priority="99">
+    <cfRule type="expression" dxfId="68" priority="99">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="60" priority="74">
+    <cfRule type="expression" dxfId="67" priority="74">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="59" priority="58">
+    <cfRule type="expression" dxfId="66" priority="58">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="58" priority="57">
+    <cfRule type="expression" dxfId="65" priority="57">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="57" priority="56">
+    <cfRule type="expression" dxfId="64" priority="56">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="56" priority="55">
+    <cfRule type="expression" dxfId="63" priority="55">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="55" priority="54">
+    <cfRule type="expression" dxfId="62" priority="54">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="54" priority="53">
+    <cfRule type="expression" dxfId="61" priority="53">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="53" priority="52">
+    <cfRule type="expression" dxfId="60" priority="52">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="52" priority="51">
+    <cfRule type="expression" dxfId="59" priority="51">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="51" priority="50">
+    <cfRule type="expression" dxfId="58" priority="50">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="50" priority="49">
+    <cfRule type="expression" dxfId="57" priority="49">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="49" priority="48">
+    <cfRule type="expression" dxfId="56" priority="48">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="48" priority="47">
+    <cfRule type="expression" dxfId="55" priority="47">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="47" priority="46">
+    <cfRule type="expression" dxfId="54" priority="46">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="46" priority="45">
+    <cfRule type="expression" dxfId="53" priority="45">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="45" priority="44">
+    <cfRule type="expression" dxfId="52" priority="44">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="44" priority="43">
+    <cfRule type="expression" dxfId="51" priority="43">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="43" priority="42">
+    <cfRule type="expression" dxfId="50" priority="42">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="42" priority="41">
+    <cfRule type="expression" dxfId="49" priority="41">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="48" priority="40">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="40" priority="39">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="39" priority="38">
+    <cfRule type="expression" dxfId="46" priority="38">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="45" priority="37">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="37" priority="36">
+    <cfRule type="expression" dxfId="44" priority="36">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="36" priority="35">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="42" priority="34">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="34" priority="33">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="40" priority="32">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="39" priority="31">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="38" priority="30">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="37" priority="29">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="36" priority="28">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="35" priority="27">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="34" priority="26">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="26" priority="25">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="25" priority="24">
+    <cfRule type="expression" dxfId="32" priority="24">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="24" priority="23">
+    <cfRule type="expression" dxfId="31" priority="23">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="30" priority="22">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="22" priority="21">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="21" priority="20">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="24" priority="16">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4724A9-1826-41A3-9145-DE1A28EEDA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2E0F52-D494-4AD4-95A0-A56784D4F736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -1792,7 +1792,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E723" sqref="E723"/>
+      <selection pane="bottomLeft" activeCell="J721" sqref="J721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22661,8 +22661,12 @@
       <c r="G720" s="12"/>
       <c r="H720" s="11"/>
       <c r="I720" s="12"/>
-      <c r="J720" s="11"/>
-      <c r="K720" s="12"/>
+      <c r="J720" s="11">
+        <v>5500</v>
+      </c>
+      <c r="K720" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
@@ -23170,47 +23174,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="74" priority="9">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="73" priority="8">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="72" priority="7">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="71" priority="6">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="70" priority="5">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="69" priority="4">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="68" priority="3">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="67" priority="2">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41488,332 +41492,332 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E728">
-    <cfRule type="expression" dxfId="74" priority="60">
+    <cfRule type="expression" dxfId="65" priority="60">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K728 B374:C728">
-    <cfRule type="expression" dxfId="73" priority="61">
+    <cfRule type="expression" dxfId="64" priority="61">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="72" priority="70">
+    <cfRule type="expression" dxfId="63" priority="70">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="71" priority="73">
+    <cfRule type="expression" dxfId="62" priority="73">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="70" priority="82">
+    <cfRule type="expression" dxfId="61" priority="82">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="69" priority="95">
+    <cfRule type="expression" dxfId="60" priority="95">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="68" priority="99">
+    <cfRule type="expression" dxfId="59" priority="99">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="67" priority="74">
+    <cfRule type="expression" dxfId="58" priority="74">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="66" priority="58">
+    <cfRule type="expression" dxfId="57" priority="58">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="65" priority="57">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="64" priority="56">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="63" priority="55">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="62" priority="54">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="61" priority="53">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="60" priority="52">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="59" priority="51">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="58" priority="50">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="57" priority="49">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="56" priority="48">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="55" priority="47">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="54" priority="46">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="53" priority="45">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="52" priority="44">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="51" priority="43">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="50" priority="42">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="49" priority="41">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="48" priority="40">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="47" priority="39">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="46" priority="38">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="45" priority="37">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="44" priority="36">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="42" priority="34">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="41" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="40" priority="32">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="39" priority="31">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="38" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="37" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="36" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="35" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="34" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="33" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="32" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="31" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="30" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="29" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="24" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="23" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2E0F52-D494-4AD4-95A0-A56784D4F736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855C0AE7-A0D3-4999-8E38-67BE076EFD79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,224 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="143">
+  <dxfs count="174">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1790,9 +2007,9 @@
   </sheetPr>
   <dimension ref="A1:AMD728"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J721" sqref="J721"/>
+      <selection pane="bottomLeft" activeCell="J730" sqref="J730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22719,14 +22936,31 @@
       <c r="C723" s="8">
         <v>45937</v>
       </c>
-      <c r="D723" s="9"/>
-      <c r="E723" s="10"/>
-      <c r="F723" s="11"/>
-      <c r="G723" s="12"/>
-      <c r="H723" s="11"/>
-      <c r="I723" s="12"/>
-      <c r="J723" s="11"/>
-      <c r="K723" s="12"/>
+      <c r="D723" s="9">
+        <v>2500</v>
+      </c>
+      <c r="E723" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F723" s="11">
+        <v>3000</v>
+      </c>
+      <c r="G723" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H723" s="11">
+        <f>13900+11700</f>
+        <v>25600</v>
+      </c>
+      <c r="I723" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J723" s="11">
+        <v>13000</v>
+      </c>
+      <c r="K723" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
@@ -22834,388 +23068,443 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:E728">
-    <cfRule type="expression" dxfId="142" priority="73">
+    <cfRule type="expression" dxfId="173" priority="84">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:M683 B684:K728">
-    <cfRule type="expression" dxfId="141" priority="74">
+    <cfRule type="expression" dxfId="172" priority="85">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="140" priority="87">
+    <cfRule type="expression" dxfId="171" priority="98">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="139" priority="71">
+    <cfRule type="expression" dxfId="170" priority="82">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="138" priority="90">
+    <cfRule type="expression" dxfId="169" priority="101">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="137" priority="88">
+    <cfRule type="expression" dxfId="168" priority="99">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="136" priority="70">
+    <cfRule type="expression" dxfId="167" priority="81">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="135" priority="89">
+    <cfRule type="expression" dxfId="166" priority="100">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="134" priority="69">
+    <cfRule type="expression" dxfId="165" priority="80">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="133" priority="68">
+    <cfRule type="expression" dxfId="164" priority="79">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="132" priority="67">
+    <cfRule type="expression" dxfId="163" priority="78">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="131" priority="66">
+    <cfRule type="expression" dxfId="162" priority="77">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="130" priority="65">
+    <cfRule type="expression" dxfId="161" priority="76">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="129" priority="64">
+    <cfRule type="expression" dxfId="160" priority="75">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="128" priority="63">
+    <cfRule type="expression" dxfId="159" priority="74">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="127" priority="62">
+    <cfRule type="expression" dxfId="158" priority="73">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="126" priority="61">
+    <cfRule type="expression" dxfId="157" priority="72">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="125" priority="60">
+    <cfRule type="expression" dxfId="156" priority="71">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="124" priority="59">
+    <cfRule type="expression" dxfId="155" priority="70">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="123" priority="58">
+    <cfRule type="expression" dxfId="154" priority="69">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="122" priority="57">
+    <cfRule type="expression" dxfId="153" priority="68">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="121" priority="56">
+    <cfRule type="expression" dxfId="152" priority="67">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="120" priority="55">
+    <cfRule type="expression" dxfId="151" priority="66">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="119" priority="54">
+    <cfRule type="expression" dxfId="150" priority="65">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="118" priority="53">
+    <cfRule type="expression" dxfId="149" priority="64">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="117" priority="52">
+    <cfRule type="expression" dxfId="148" priority="63">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="116" priority="51">
+    <cfRule type="expression" dxfId="147" priority="62">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="115" priority="50">
+    <cfRule type="expression" dxfId="146" priority="61">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="114" priority="49">
+    <cfRule type="expression" dxfId="145" priority="60">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="113" priority="48">
+    <cfRule type="expression" dxfId="144" priority="59">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="112" priority="47">
+    <cfRule type="expression" dxfId="143" priority="58">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="111" priority="46">
+    <cfRule type="expression" dxfId="142" priority="57">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="110" priority="45">
+    <cfRule type="expression" dxfId="141" priority="56">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="109" priority="44">
+    <cfRule type="expression" dxfId="140" priority="55">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="108" priority="43">
+    <cfRule type="expression" dxfId="139" priority="54">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="107" priority="42">
+    <cfRule type="expression" dxfId="138" priority="53">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="106" priority="41">
+    <cfRule type="expression" dxfId="137" priority="52">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="105" priority="40">
+    <cfRule type="expression" dxfId="136" priority="51">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="104" priority="39">
+    <cfRule type="expression" dxfId="135" priority="50">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="103" priority="38">
+    <cfRule type="expression" dxfId="134" priority="49">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="102" priority="37">
+    <cfRule type="expression" dxfId="133" priority="48">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="101" priority="36">
+    <cfRule type="expression" dxfId="132" priority="47">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="100" priority="35">
+    <cfRule type="expression" dxfId="131" priority="46">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="99" priority="34">
+    <cfRule type="expression" dxfId="130" priority="45">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="expression" dxfId="98" priority="33">
+    <cfRule type="expression" dxfId="129" priority="44">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="97" priority="32">
+    <cfRule type="expression" dxfId="128" priority="43">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="96" priority="31">
+    <cfRule type="expression" dxfId="127" priority="42">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="95" priority="30">
+    <cfRule type="expression" dxfId="126" priority="41">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="94" priority="29">
+    <cfRule type="expression" dxfId="125" priority="40">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="93" priority="28">
+    <cfRule type="expression" dxfId="124" priority="39">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="92" priority="27">
+    <cfRule type="expression" dxfId="123" priority="38">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="91" priority="26">
+    <cfRule type="expression" dxfId="122" priority="37">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="90" priority="25">
+    <cfRule type="expression" dxfId="121" priority="36">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I710">
-    <cfRule type="expression" dxfId="89" priority="24">
+    <cfRule type="expression" dxfId="120" priority="35">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="88" priority="23">
+    <cfRule type="expression" dxfId="119" priority="34">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E715">
-    <cfRule type="expression" dxfId="87" priority="22">
+    <cfRule type="expression" dxfId="118" priority="33">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="86" priority="21">
+    <cfRule type="expression" dxfId="117" priority="32">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="85" priority="20">
+    <cfRule type="expression" dxfId="116" priority="31">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="84" priority="19">
+    <cfRule type="expression" dxfId="115" priority="30">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="83" priority="18">
+    <cfRule type="expression" dxfId="114" priority="29">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="82" priority="17">
+    <cfRule type="expression" dxfId="113" priority="28">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="81" priority="16">
+    <cfRule type="expression" dxfId="112" priority="27">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="80" priority="15">
+    <cfRule type="expression" dxfId="111" priority="26">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="79" priority="14">
+    <cfRule type="expression" dxfId="110" priority="25">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="78" priority="13">
+    <cfRule type="expression" dxfId="109" priority="24">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="77" priority="12">
+    <cfRule type="expression" dxfId="108" priority="23">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="76" priority="11">
+    <cfRule type="expression" dxfId="107" priority="22">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="75" priority="10">
+    <cfRule type="expression" dxfId="106" priority="21">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="74" priority="9">
+    <cfRule type="expression" dxfId="105" priority="20">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="73" priority="8">
+    <cfRule type="expression" dxfId="104" priority="19">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="72" priority="7">
+    <cfRule type="expression" dxfId="103" priority="18">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="71" priority="6">
+    <cfRule type="expression" dxfId="102" priority="17">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="70" priority="5">
+    <cfRule type="expression" dxfId="101" priority="16">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="69" priority="4">
+    <cfRule type="expression" dxfId="100" priority="15">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="68" priority="3">
+    <cfRule type="expression" dxfId="99" priority="14">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="67" priority="2">
+    <cfRule type="expression" dxfId="98" priority="13">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="97" priority="12">
       <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E723">
+    <cfRule type="expression" dxfId="96" priority="11">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E723">
+    <cfRule type="expression" dxfId="95" priority="10">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
+    <cfRule type="expression" dxfId="94" priority="9">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
+    <cfRule type="expression" dxfId="93" priority="8">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
+    <cfRule type="expression" dxfId="92" priority="7">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723">
+    <cfRule type="expression" dxfId="91" priority="6">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723">
+    <cfRule type="expression" dxfId="90" priority="5">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723">
+    <cfRule type="expression" dxfId="89" priority="4">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
+    <cfRule type="expression" dxfId="88" priority="3">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
+    <cfRule type="expression" dxfId="87" priority="2">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
+    <cfRule type="expression" dxfId="86" priority="1">
+      <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -23225,11 +23514,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O728"/>
+  <dimension ref="A1:O735"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H727" sqref="H727"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H737" sqref="H737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41476,14 +41765,203 @@
       <c r="C728" s="8">
         <v>45937</v>
       </c>
-      <c r="D728" s="9"/>
-      <c r="E728" s="10"/>
-      <c r="F728" s="11"/>
-      <c r="G728" s="12"/>
+      <c r="D728" s="9">
+        <v>4100</v>
+      </c>
+      <c r="E728" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F728" s="11">
+        <v>2400</v>
+      </c>
+      <c r="G728" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H728" s="11"/>
       <c r="I728" s="12"/>
-      <c r="J728" s="11"/>
-      <c r="K728" s="12"/>
+      <c r="J728" s="11">
+        <v>4700</v>
+      </c>
+      <c r="K728" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A729" s="1">
+        <v>728</v>
+      </c>
+      <c r="B729" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C729" s="8">
+        <v>45938</v>
+      </c>
+      <c r="D729" s="9"/>
+      <c r="E729" s="10"/>
+      <c r="F729" s="11"/>
+      <c r="G729" s="12"/>
+      <c r="H729" s="11"/>
+      <c r="I729" s="12"/>
+      <c r="J729" s="11"/>
+      <c r="K729" s="12"/>
+    </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A730" s="1">
+        <v>729</v>
+      </c>
+      <c r="B730" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C730" s="8">
+        <v>45939</v>
+      </c>
+      <c r="D730" s="9">
+        <v>3650</v>
+      </c>
+      <c r="E730" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F730" s="11">
+        <v>1400</v>
+      </c>
+      <c r="G730" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H730" s="11">
+        <v>4250</v>
+      </c>
+      <c r="I730" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J730" s="11">
+        <v>4150</v>
+      </c>
+      <c r="K730" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A731" s="1">
+        <v>730</v>
+      </c>
+      <c r="B731" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C731" s="8">
+        <v>45939</v>
+      </c>
+      <c r="D731" s="9">
+        <v>1390</v>
+      </c>
+      <c r="E731" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F731" s="11">
+        <v>500</v>
+      </c>
+      <c r="G731" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H731" s="11">
+        <v>70</v>
+      </c>
+      <c r="I731" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J731" s="11">
+        <v>210</v>
+      </c>
+      <c r="K731" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A732" s="1">
+        <v>731</v>
+      </c>
+      <c r="B732" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C732" s="8">
+        <v>45939</v>
+      </c>
+      <c r="D732" s="9">
+        <v>600</v>
+      </c>
+      <c r="E732" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F732" s="11">
+        <v>90</v>
+      </c>
+      <c r="G732" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H732" s="11"/>
+      <c r="I732" s="12"/>
+      <c r="J732" s="11">
+        <v>40</v>
+      </c>
+      <c r="K732" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A733" s="1">
+        <v>732</v>
+      </c>
+      <c r="B733" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C733" s="8">
+        <v>45940</v>
+      </c>
+      <c r="D733" s="9"/>
+      <c r="E733" s="10"/>
+      <c r="F733" s="11"/>
+      <c r="G733" s="12"/>
+      <c r="H733" s="11"/>
+      <c r="I733" s="12"/>
+      <c r="J733" s="11"/>
+      <c r="K733" s="12"/>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A734" s="1">
+        <v>733</v>
+      </c>
+      <c r="B734" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C734" s="8">
+        <v>45941</v>
+      </c>
+      <c r="D734" s="9"/>
+      <c r="E734" s="10"/>
+      <c r="F734" s="11"/>
+      <c r="G734" s="12"/>
+      <c r="H734" s="11"/>
+      <c r="I734" s="12"/>
+      <c r="J734" s="11"/>
+      <c r="K734" s="12"/>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A735" s="1">
+        <v>734</v>
+      </c>
+      <c r="B735" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C735" s="8">
+        <v>45942</v>
+      </c>
+      <c r="D735" s="9"/>
+      <c r="E735" s="10"/>
+      <c r="F735" s="11"/>
+      <c r="G735" s="12"/>
+      <c r="H735" s="11"/>
+      <c r="I735" s="12"/>
+      <c r="J735" s="11"/>
+      <c r="K735" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -41491,334 +41969,434 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E728">
-    <cfRule type="expression" dxfId="65" priority="60">
+  <conditionalFormatting sqref="B4:E735">
+    <cfRule type="expression" dxfId="85" priority="80">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 D48:K728 B374:C728">
-    <cfRule type="expression" dxfId="64" priority="61">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C735 D48:K735">
+    <cfRule type="expression" dxfId="84" priority="81">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="63" priority="70">
+    <cfRule type="expression" dxfId="83" priority="90">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="62" priority="73">
+    <cfRule type="expression" dxfId="82" priority="93">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="61" priority="82">
+    <cfRule type="expression" dxfId="81" priority="102">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="60" priority="95">
+    <cfRule type="expression" dxfId="80" priority="115">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="59" priority="99">
+    <cfRule type="expression" dxfId="79" priority="119">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="58" priority="74">
+    <cfRule type="expression" dxfId="78" priority="94">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="77" priority="78">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="75" priority="76">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="74" priority="75">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="73" priority="74">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="72" priority="73">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="71" priority="72">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="69" priority="70">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="68" priority="69">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="67" priority="68">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="66" priority="67">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="65" priority="66">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="63" priority="64">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="61" priority="62">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="60" priority="61">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="59" priority="60">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="57" priority="58">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$C721=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E728">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$C728=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G728">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$C728=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G728">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$C728=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K728">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$C728=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K728">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$C728=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E730">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C730=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G730">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$C730=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G730">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$C730=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I730">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C730=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I730">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C730=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K730">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C730=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K730">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C730=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731:E732">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731:E732">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731:G732">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731:G732">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731:K732">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731:K732">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C721=TODAY()</formula>
+      <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855C0AE7-A0D3-4999-8E38-67BE076EFD79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD67EAE0-4C6F-4EB2-B980-E77092495BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,168 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="174">
+  <dxfs count="197">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2005,11 +2166,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD728"/>
+  <dimension ref="A1:AMD729"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J730" sqref="J730"/>
+      <selection pane="bottomLeft" activeCell="F731" sqref="F731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22977,8 +23138,12 @@
       <c r="E724" s="10"/>
       <c r="F724" s="11"/>
       <c r="G724" s="12"/>
-      <c r="H724" s="11"/>
-      <c r="I724" s="12"/>
+      <c r="H724" s="11">
+        <v>13100</v>
+      </c>
+      <c r="I724" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J724" s="11"/>
       <c r="K724" s="12"/>
     </row>
@@ -22993,45 +23158,77 @@
       <c r="C725" s="8">
         <v>45939</v>
       </c>
-      <c r="D725" s="9"/>
-      <c r="E725" s="10"/>
-      <c r="F725" s="11"/>
-      <c r="G725" s="12"/>
-      <c r="H725" s="11"/>
-      <c r="I725" s="12"/>
-      <c r="J725" s="11"/>
-      <c r="K725" s="12"/>
+      <c r="D725" s="9">
+        <v>2900</v>
+      </c>
+      <c r="E725" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F725" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G725" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H725" s="11">
+        <v>7400</v>
+      </c>
+      <c r="I725" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J725" s="11">
+        <v>13300</v>
+      </c>
+      <c r="K725" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>722</v>
       </c>
       <c r="B726" s="7" t="str">
-        <f t="shared" ref="B726:B728" si="103">IF(C726&lt;&gt;"",TEXT(C726,"ДДД"),"")</f>
-        <v>Пт</v>
+        <f t="shared" ref="B726" si="103">IF(C726&lt;&gt;"",TEXT(C726,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C726" s="8">
-        <v>45940</v>
-      </c>
-      <c r="D726" s="9"/>
-      <c r="E726" s="10"/>
-      <c r="F726" s="11"/>
-      <c r="G726" s="12"/>
-      <c r="H726" s="11"/>
-      <c r="I726" s="12"/>
-      <c r="J726" s="11"/>
-      <c r="K726" s="12"/>
+        <v>45939</v>
+      </c>
+      <c r="D726" s="9">
+        <v>7600</v>
+      </c>
+      <c r="E726" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F726" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G726" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H726" s="11">
+        <v>4500</v>
+      </c>
+      <c r="I726" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J726" s="11">
+        <v>9700</v>
+      </c>
+      <c r="K726" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>723</v>
       </c>
       <c r="B727" s="7" t="str">
-        <f t="shared" si="103"/>
-        <v>Сб</v>
+        <f t="shared" ref="B727:B729" si="104">IF(C727&lt;&gt;"",TEXT(C727,"ДДД"),"")</f>
+        <v>Пт</v>
       </c>
       <c r="C727" s="8">
-        <v>45941</v>
+        <v>45940</v>
       </c>
       <c r="D727" s="9"/>
       <c r="E727" s="10"/>
@@ -23047,11 +23244,11 @@
         <v>724</v>
       </c>
       <c r="B728" s="7" t="str">
-        <f t="shared" si="103"/>
-        <v>Вс</v>
+        <f t="shared" si="104"/>
+        <v>Сб</v>
       </c>
       <c r="C728" s="8">
-        <v>45942</v>
+        <v>45941</v>
       </c>
       <c r="D728" s="9"/>
       <c r="E728" s="10"/>
@@ -23062,449 +23259,584 @@
       <c r="J728" s="11"/>
       <c r="K728" s="12"/>
     </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A729" s="1">
+        <v>725</v>
+      </c>
+      <c r="B729" s="7" t="str">
+        <f t="shared" si="104"/>
+        <v>Вс</v>
+      </c>
+      <c r="C729" s="8">
+        <v>45942</v>
+      </c>
+      <c r="D729" s="9"/>
+      <c r="E729" s="10"/>
+      <c r="F729" s="11"/>
+      <c r="G729" s="12"/>
+      <c r="H729" s="11"/>
+      <c r="I729" s="12"/>
+      <c r="J729" s="11"/>
+      <c r="K729" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E728">
-    <cfRule type="expression" dxfId="173" priority="84">
+  <conditionalFormatting sqref="B4:E729">
+    <cfRule type="expression" dxfId="196" priority="107">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K728">
-    <cfRule type="expression" dxfId="172" priority="85">
+  <conditionalFormatting sqref="B4:M683 B684:K729">
+    <cfRule type="expression" dxfId="195" priority="108">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="171" priority="98">
+    <cfRule type="expression" dxfId="194" priority="121">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="170" priority="82">
+    <cfRule type="expression" dxfId="193" priority="105">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="169" priority="101">
+    <cfRule type="expression" dxfId="192" priority="124">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="168" priority="99">
+    <cfRule type="expression" dxfId="191" priority="122">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="167" priority="81">
+    <cfRule type="expression" dxfId="190" priority="104">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="166" priority="100">
+    <cfRule type="expression" dxfId="189" priority="123">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="165" priority="80">
+    <cfRule type="expression" dxfId="188" priority="103">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="164" priority="79">
+    <cfRule type="expression" dxfId="187" priority="102">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="163" priority="78">
+    <cfRule type="expression" dxfId="186" priority="101">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="162" priority="77">
+    <cfRule type="expression" dxfId="185" priority="100">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="161" priority="76">
+    <cfRule type="expression" dxfId="184" priority="99">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="160" priority="75">
+    <cfRule type="expression" dxfId="183" priority="98">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="159" priority="74">
+    <cfRule type="expression" dxfId="182" priority="97">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="158" priority="73">
+    <cfRule type="expression" dxfId="181" priority="96">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="157" priority="72">
+    <cfRule type="expression" dxfId="180" priority="95">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="156" priority="71">
+    <cfRule type="expression" dxfId="179" priority="94">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="155" priority="70">
+    <cfRule type="expression" dxfId="178" priority="93">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="154" priority="69">
+    <cfRule type="expression" dxfId="177" priority="92">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="153" priority="68">
+    <cfRule type="expression" dxfId="176" priority="91">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="152" priority="67">
+    <cfRule type="expression" dxfId="175" priority="90">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="151" priority="66">
+    <cfRule type="expression" dxfId="174" priority="89">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="150" priority="65">
+    <cfRule type="expression" dxfId="173" priority="88">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="149" priority="64">
+    <cfRule type="expression" dxfId="172" priority="87">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="148" priority="63">
+    <cfRule type="expression" dxfId="171" priority="86">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="147" priority="62">
+    <cfRule type="expression" dxfId="170" priority="85">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="146" priority="61">
+    <cfRule type="expression" dxfId="169" priority="84">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="145" priority="60">
+    <cfRule type="expression" dxfId="168" priority="83">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="144" priority="59">
+    <cfRule type="expression" dxfId="167" priority="82">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="143" priority="58">
+    <cfRule type="expression" dxfId="166" priority="81">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="142" priority="57">
+    <cfRule type="expression" dxfId="165" priority="80">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="141" priority="56">
+    <cfRule type="expression" dxfId="164" priority="79">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="140" priority="55">
+    <cfRule type="expression" dxfId="163" priority="78">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="139" priority="54">
+    <cfRule type="expression" dxfId="162" priority="77">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="138" priority="53">
+    <cfRule type="expression" dxfId="161" priority="76">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="137" priority="52">
+    <cfRule type="expression" dxfId="160" priority="75">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="136" priority="51">
+    <cfRule type="expression" dxfId="159" priority="74">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="135" priority="50">
+    <cfRule type="expression" dxfId="158" priority="73">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="134" priority="49">
+    <cfRule type="expression" dxfId="157" priority="72">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="133" priority="48">
+    <cfRule type="expression" dxfId="156" priority="71">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="132" priority="47">
+    <cfRule type="expression" dxfId="155" priority="70">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="131" priority="46">
+    <cfRule type="expression" dxfId="154" priority="69">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="130" priority="45">
+    <cfRule type="expression" dxfId="153" priority="68">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="expression" dxfId="129" priority="44">
+    <cfRule type="expression" dxfId="152" priority="67">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="128" priority="43">
+    <cfRule type="expression" dxfId="151" priority="66">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="127" priority="42">
+    <cfRule type="expression" dxfId="150" priority="65">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="126" priority="41">
+    <cfRule type="expression" dxfId="149" priority="64">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="125" priority="40">
+    <cfRule type="expression" dxfId="148" priority="63">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="124" priority="39">
+    <cfRule type="expression" dxfId="147" priority="62">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="123" priority="38">
+    <cfRule type="expression" dxfId="146" priority="61">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="122" priority="37">
+    <cfRule type="expression" dxfId="145" priority="60">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="121" priority="36">
+    <cfRule type="expression" dxfId="144" priority="59">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I710">
-    <cfRule type="expression" dxfId="120" priority="35">
+    <cfRule type="expression" dxfId="143" priority="58">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="119" priority="34">
+    <cfRule type="expression" dxfId="142" priority="57">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E715">
-    <cfRule type="expression" dxfId="118" priority="33">
+    <cfRule type="expression" dxfId="141" priority="56">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="117" priority="32">
+    <cfRule type="expression" dxfId="140" priority="55">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="116" priority="31">
+    <cfRule type="expression" dxfId="139" priority="54">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="115" priority="30">
+    <cfRule type="expression" dxfId="138" priority="53">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="114" priority="29">
+    <cfRule type="expression" dxfId="137" priority="52">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="113" priority="28">
+    <cfRule type="expression" dxfId="136" priority="51">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="112" priority="27">
+    <cfRule type="expression" dxfId="135" priority="50">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="111" priority="26">
+    <cfRule type="expression" dxfId="134" priority="49">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="110" priority="25">
+    <cfRule type="expression" dxfId="133" priority="48">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="109" priority="24">
+    <cfRule type="expression" dxfId="132" priority="47">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="108" priority="23">
+    <cfRule type="expression" dxfId="131" priority="46">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="107" priority="22">
+    <cfRule type="expression" dxfId="130" priority="45">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="106" priority="21">
+    <cfRule type="expression" dxfId="129" priority="44">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="105" priority="20">
+    <cfRule type="expression" dxfId="128" priority="43">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="104" priority="19">
+    <cfRule type="expression" dxfId="127" priority="42">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="103" priority="18">
+    <cfRule type="expression" dxfId="126" priority="41">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="102" priority="17">
+    <cfRule type="expression" dxfId="125" priority="40">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="101" priority="16">
+    <cfRule type="expression" dxfId="124" priority="39">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="100" priority="15">
+    <cfRule type="expression" dxfId="123" priority="38">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="99" priority="14">
+    <cfRule type="expression" dxfId="122" priority="37">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="98" priority="13">
+    <cfRule type="expression" dxfId="121" priority="36">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="97" priority="12">
+    <cfRule type="expression" dxfId="120" priority="35">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="96" priority="11">
+    <cfRule type="expression" dxfId="119" priority="34">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="95" priority="10">
+    <cfRule type="expression" dxfId="118" priority="33">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="94" priority="9">
+    <cfRule type="expression" dxfId="117" priority="32">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="93" priority="8">
+    <cfRule type="expression" dxfId="116" priority="31">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="92" priority="7">
+    <cfRule type="expression" dxfId="115" priority="30">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I723">
-    <cfRule type="expression" dxfId="91" priority="6">
+  <conditionalFormatting sqref="I723:I724">
+    <cfRule type="expression" dxfId="114" priority="29">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I723">
-    <cfRule type="expression" dxfId="90" priority="5">
+  <conditionalFormatting sqref="I723:I724">
+    <cfRule type="expression" dxfId="113" priority="28">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I723">
-    <cfRule type="expression" dxfId="89" priority="4">
+  <conditionalFormatting sqref="I723:I724">
+    <cfRule type="expression" dxfId="112" priority="27">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="88" priority="3">
+    <cfRule type="expression" dxfId="111" priority="26">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="87" priority="2">
+    <cfRule type="expression" dxfId="110" priority="25">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="86" priority="1">
+    <cfRule type="expression" dxfId="109" priority="24">
       <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K725:K726">
+    <cfRule type="expression" dxfId="108" priority="23">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K725:K726">
+    <cfRule type="expression" dxfId="107" priority="22">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K725:K726">
+    <cfRule type="expression" dxfId="106" priority="21">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
+    <cfRule type="expression" dxfId="105" priority="20">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
+    <cfRule type="expression" dxfId="104" priority="19">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
+    <cfRule type="expression" dxfId="103" priority="18">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
+    <cfRule type="expression" dxfId="102" priority="17">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
+    <cfRule type="expression" dxfId="101" priority="16">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
+    <cfRule type="expression" dxfId="100" priority="15">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
+    <cfRule type="expression" dxfId="99" priority="14">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
+    <cfRule type="expression" dxfId="98" priority="13">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
+    <cfRule type="expression" dxfId="97" priority="12">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E726">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E726">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -23516,7 +23848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O735"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H737" sqref="H737"/>
     </sheetView>
@@ -41970,432 +42302,432 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E735">
-    <cfRule type="expression" dxfId="85" priority="80">
+    <cfRule type="expression" dxfId="96" priority="80">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C735 D48:K735">
-    <cfRule type="expression" dxfId="84" priority="81">
+    <cfRule type="expression" dxfId="95" priority="81">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="83" priority="90">
+    <cfRule type="expression" dxfId="94" priority="90">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="82" priority="93">
+    <cfRule type="expression" dxfId="93" priority="93">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="81" priority="102">
+    <cfRule type="expression" dxfId="92" priority="102">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="80" priority="115">
+    <cfRule type="expression" dxfId="91" priority="115">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="79" priority="119">
+    <cfRule type="expression" dxfId="90" priority="119">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="78" priority="94">
+    <cfRule type="expression" dxfId="89" priority="94">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="77" priority="78">
+    <cfRule type="expression" dxfId="88" priority="78">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="87" priority="77">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="75" priority="76">
+    <cfRule type="expression" dxfId="86" priority="76">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="85" priority="75">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="73" priority="74">
+    <cfRule type="expression" dxfId="84" priority="74">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="72" priority="73">
+    <cfRule type="expression" dxfId="83" priority="73">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="82" priority="72">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="81" priority="71">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="80" priority="70">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="79" priority="69">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="67" priority="68">
+    <cfRule type="expression" dxfId="78" priority="68">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="66" priority="67">
+    <cfRule type="expression" dxfId="77" priority="67">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="65" priority="66">
+    <cfRule type="expression" dxfId="76" priority="66">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="75" priority="65">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="63" priority="64">
+    <cfRule type="expression" dxfId="74" priority="64">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="73" priority="63">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="61" priority="62">
+    <cfRule type="expression" dxfId="72" priority="62">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="60" priority="61">
+    <cfRule type="expression" dxfId="71" priority="61">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="59" priority="60">
+    <cfRule type="expression" dxfId="70" priority="60">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="58" priority="59">
+    <cfRule type="expression" dxfId="69" priority="59">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="68" priority="58">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="67" priority="57">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="66" priority="56">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="65" priority="55">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="64" priority="54">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="63" priority="53">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="62" priority="52">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="61" priority="51">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="60" priority="50">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="59" priority="49">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="58" priority="48">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="57" priority="47">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="56" priority="46">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="55" priority="45">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="54" priority="44">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="53" priority="43">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="52" priority="42">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="51" priority="41">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="50" priority="40">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="49" priority="39">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="48" priority="38">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="47" priority="37">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="46" priority="36">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="45" priority="35">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="44" priority="34">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="43" priority="33">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="40" priority="30">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="39" priority="28">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="37" priority="27">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="36" priority="26">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="35" priority="25">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="33" priority="23">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="32" priority="22">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="31" priority="21">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E728">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="30" priority="20">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="29" priority="19">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="27" priority="17">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="26" priority="16">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E730">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD67EAE0-4C6F-4EB2-B980-E77092495BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACE4942-87B2-4DC2-B3BF-276706290C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,273 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="197">
+  <dxfs count="235">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2166,11 +2432,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD729"/>
+  <dimension ref="A1:AMD734"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F731" sqref="F731"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D732" sqref="D732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23279,564 +23545,755 @@
       <c r="J729" s="11"/>
       <c r="K729" s="12"/>
     </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A730" s="1">
+        <v>726</v>
+      </c>
+      <c r="B730" s="7" t="str">
+        <f t="shared" ref="B730:B734" si="105">IF(C730&lt;&gt;"",TEXT(C730,"ДДД"),"")</f>
+        <v>Пн</v>
+      </c>
+      <c r="C730" s="8">
+        <v>45943</v>
+      </c>
+      <c r="D730" s="9"/>
+      <c r="E730" s="10"/>
+      <c r="F730" s="11"/>
+      <c r="G730" s="12"/>
+      <c r="H730" s="11"/>
+      <c r="I730" s="12"/>
+      <c r="J730" s="11"/>
+      <c r="K730" s="12"/>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A731" s="1">
+        <v>727</v>
+      </c>
+      <c r="B731" s="7" t="str">
+        <f t="shared" si="105"/>
+        <v>Вт</v>
+      </c>
+      <c r="C731" s="8">
+        <v>45944</v>
+      </c>
+      <c r="D731" s="9">
+        <v>4700</v>
+      </c>
+      <c r="E731" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F731" s="11">
+        <v>3900</v>
+      </c>
+      <c r="G731" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H731" s="11">
+        <v>16200</v>
+      </c>
+      <c r="I731" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J731" s="11">
+        <v>9300</v>
+      </c>
+      <c r="K731" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A732" s="1">
+        <v>728</v>
+      </c>
+      <c r="B732" s="7" t="str">
+        <f t="shared" si="105"/>
+        <v>Ср</v>
+      </c>
+      <c r="C732" s="8">
+        <v>45945</v>
+      </c>
+      <c r="D732" s="9"/>
+      <c r="E732" s="10"/>
+      <c r="F732" s="11"/>
+      <c r="G732" s="12"/>
+      <c r="H732" s="11"/>
+      <c r="I732" s="12"/>
+      <c r="J732" s="11"/>
+      <c r="K732" s="12"/>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A733" s="1">
+        <v>729</v>
+      </c>
+      <c r="B733" s="7" t="str">
+        <f t="shared" si="105"/>
+        <v>Чт</v>
+      </c>
+      <c r="C733" s="8">
+        <v>45946</v>
+      </c>
+      <c r="D733" s="9"/>
+      <c r="E733" s="10"/>
+      <c r="F733" s="11"/>
+      <c r="G733" s="12"/>
+      <c r="H733" s="11"/>
+      <c r="I733" s="12"/>
+      <c r="J733" s="11"/>
+      <c r="K733" s="12"/>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A734" s="1">
+        <v>730</v>
+      </c>
+      <c r="B734" s="7" t="str">
+        <f t="shared" si="105"/>
+        <v>Пт</v>
+      </c>
+      <c r="C734" s="8">
+        <v>45947</v>
+      </c>
+      <c r="D734" s="9"/>
+      <c r="E734" s="10"/>
+      <c r="F734" s="11"/>
+      <c r="G734" s="12"/>
+      <c r="H734" s="11"/>
+      <c r="I734" s="12"/>
+      <c r="J734" s="11"/>
+      <c r="K734" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E729">
-    <cfRule type="expression" dxfId="196" priority="107">
+  <conditionalFormatting sqref="B4:E734">
+    <cfRule type="expression" dxfId="234" priority="122">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K729">
-    <cfRule type="expression" dxfId="195" priority="108">
+  <conditionalFormatting sqref="B4:M683 B684:K734">
+    <cfRule type="expression" dxfId="233" priority="123">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="194" priority="121">
+    <cfRule type="expression" dxfId="232" priority="136">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="193" priority="105">
+    <cfRule type="expression" dxfId="231" priority="120">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="192" priority="124">
+    <cfRule type="expression" dxfId="230" priority="139">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="191" priority="122">
+    <cfRule type="expression" dxfId="229" priority="137">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="190" priority="104">
+    <cfRule type="expression" dxfId="228" priority="119">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="189" priority="123">
+    <cfRule type="expression" dxfId="227" priority="138">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="188" priority="103">
+    <cfRule type="expression" dxfId="226" priority="118">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="187" priority="102">
+    <cfRule type="expression" dxfId="225" priority="117">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="186" priority="101">
+    <cfRule type="expression" dxfId="224" priority="116">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="185" priority="100">
+    <cfRule type="expression" dxfId="223" priority="115">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="184" priority="99">
+    <cfRule type="expression" dxfId="222" priority="114">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="183" priority="98">
+    <cfRule type="expression" dxfId="221" priority="113">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="182" priority="97">
+    <cfRule type="expression" dxfId="220" priority="112">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="181" priority="96">
+    <cfRule type="expression" dxfId="219" priority="111">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="180" priority="95">
+    <cfRule type="expression" dxfId="218" priority="110">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="179" priority="94">
+    <cfRule type="expression" dxfId="217" priority="109">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="178" priority="93">
+    <cfRule type="expression" dxfId="216" priority="108">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="177" priority="92">
+    <cfRule type="expression" dxfId="215" priority="107">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="176" priority="91">
+    <cfRule type="expression" dxfId="214" priority="106">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="175" priority="90">
+    <cfRule type="expression" dxfId="213" priority="105">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="174" priority="89">
+    <cfRule type="expression" dxfId="212" priority="104">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="173" priority="88">
+    <cfRule type="expression" dxfId="211" priority="103">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="172" priority="87">
+    <cfRule type="expression" dxfId="210" priority="102">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="171" priority="86">
+    <cfRule type="expression" dxfId="209" priority="101">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="170" priority="85">
+    <cfRule type="expression" dxfId="208" priority="100">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="169" priority="84">
+    <cfRule type="expression" dxfId="207" priority="99">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="168" priority="83">
+    <cfRule type="expression" dxfId="206" priority="98">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="167" priority="82">
+    <cfRule type="expression" dxfId="205" priority="97">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="166" priority="81">
+    <cfRule type="expression" dxfId="204" priority="96">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="165" priority="80">
+    <cfRule type="expression" dxfId="203" priority="95">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="164" priority="79">
+    <cfRule type="expression" dxfId="202" priority="94">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="163" priority="78">
+    <cfRule type="expression" dxfId="201" priority="93">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="162" priority="77">
+    <cfRule type="expression" dxfId="200" priority="92">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="161" priority="76">
+    <cfRule type="expression" dxfId="199" priority="91">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="160" priority="75">
+    <cfRule type="expression" dxfId="198" priority="90">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="159" priority="74">
+    <cfRule type="expression" dxfId="197" priority="89">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="158" priority="73">
+    <cfRule type="expression" dxfId="196" priority="88">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="157" priority="72">
+    <cfRule type="expression" dxfId="195" priority="87">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="156" priority="71">
+    <cfRule type="expression" dxfId="194" priority="86">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="155" priority="70">
+    <cfRule type="expression" dxfId="193" priority="85">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="154" priority="69">
+    <cfRule type="expression" dxfId="192" priority="84">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="153" priority="68">
+    <cfRule type="expression" dxfId="191" priority="83">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="expression" dxfId="152" priority="67">
+    <cfRule type="expression" dxfId="190" priority="82">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="151" priority="66">
+    <cfRule type="expression" dxfId="189" priority="81">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="150" priority="65">
+    <cfRule type="expression" dxfId="188" priority="80">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="149" priority="64">
+    <cfRule type="expression" dxfId="187" priority="79">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="148" priority="63">
+    <cfRule type="expression" dxfId="186" priority="78">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="147" priority="62">
+    <cfRule type="expression" dxfId="185" priority="77">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="146" priority="61">
+    <cfRule type="expression" dxfId="184" priority="76">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="145" priority="60">
+    <cfRule type="expression" dxfId="183" priority="75">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="144" priority="59">
+    <cfRule type="expression" dxfId="182" priority="74">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I710">
-    <cfRule type="expression" dxfId="143" priority="58">
+    <cfRule type="expression" dxfId="181" priority="73">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="142" priority="57">
+    <cfRule type="expression" dxfId="180" priority="72">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E715">
-    <cfRule type="expression" dxfId="141" priority="56">
+    <cfRule type="expression" dxfId="179" priority="71">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="140" priority="55">
+    <cfRule type="expression" dxfId="178" priority="70">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="139" priority="54">
+    <cfRule type="expression" dxfId="177" priority="69">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="138" priority="53">
+    <cfRule type="expression" dxfId="176" priority="68">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="137" priority="52">
+    <cfRule type="expression" dxfId="175" priority="67">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="136" priority="51">
+    <cfRule type="expression" dxfId="174" priority="66">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="135" priority="50">
+    <cfRule type="expression" dxfId="173" priority="65">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="134" priority="49">
+    <cfRule type="expression" dxfId="172" priority="64">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="133" priority="48">
+    <cfRule type="expression" dxfId="171" priority="63">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="132" priority="47">
+    <cfRule type="expression" dxfId="170" priority="62">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="131" priority="46">
+    <cfRule type="expression" dxfId="169" priority="61">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="130" priority="45">
+    <cfRule type="expression" dxfId="168" priority="60">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="129" priority="44">
+    <cfRule type="expression" dxfId="167" priority="59">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="128" priority="43">
+    <cfRule type="expression" dxfId="166" priority="58">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="127" priority="42">
+    <cfRule type="expression" dxfId="165" priority="57">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="126" priority="41">
+    <cfRule type="expression" dxfId="164" priority="56">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="125" priority="40">
+    <cfRule type="expression" dxfId="163" priority="55">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="124" priority="39">
+    <cfRule type="expression" dxfId="162" priority="54">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="123" priority="38">
+    <cfRule type="expression" dxfId="161" priority="53">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="122" priority="37">
+    <cfRule type="expression" dxfId="160" priority="52">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="121" priority="36">
+    <cfRule type="expression" dxfId="159" priority="51">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="120" priority="35">
+    <cfRule type="expression" dxfId="158" priority="50">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="119" priority="34">
+    <cfRule type="expression" dxfId="157" priority="49">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="118" priority="33">
+    <cfRule type="expression" dxfId="156" priority="48">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="117" priority="32">
+    <cfRule type="expression" dxfId="155" priority="47">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="116" priority="31">
+    <cfRule type="expression" dxfId="154" priority="46">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="115" priority="30">
+    <cfRule type="expression" dxfId="153" priority="45">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="114" priority="29">
+    <cfRule type="expression" dxfId="152" priority="44">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="113" priority="28">
+    <cfRule type="expression" dxfId="151" priority="43">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="112" priority="27">
+    <cfRule type="expression" dxfId="150" priority="42">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="111" priority="26">
+    <cfRule type="expression" dxfId="149" priority="41">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="110" priority="25">
+    <cfRule type="expression" dxfId="148" priority="40">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="109" priority="24">
+    <cfRule type="expression" dxfId="147" priority="39">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="108" priority="23">
+    <cfRule type="expression" dxfId="146" priority="38">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="107" priority="22">
+    <cfRule type="expression" dxfId="145" priority="37">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="106" priority="21">
+    <cfRule type="expression" dxfId="144" priority="36">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="105" priority="20">
+    <cfRule type="expression" dxfId="143" priority="35">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="104" priority="19">
+    <cfRule type="expression" dxfId="142" priority="34">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="103" priority="18">
+    <cfRule type="expression" dxfId="141" priority="33">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="102" priority="17">
+    <cfRule type="expression" dxfId="140" priority="32">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="101" priority="16">
+    <cfRule type="expression" dxfId="139" priority="31">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="100" priority="15">
+    <cfRule type="expression" dxfId="138" priority="30">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="99" priority="14">
+    <cfRule type="expression" dxfId="137" priority="29">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="98" priority="13">
+    <cfRule type="expression" dxfId="136" priority="28">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="97" priority="12">
+    <cfRule type="expression" dxfId="135" priority="27">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="134" priority="26">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="133" priority="25">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="132" priority="24">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="131" priority="23">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="130" priority="22">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="129" priority="21">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="128" priority="20">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="127" priority="19">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="126" priority="18">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="125" priority="17">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="124" priority="16">
       <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731">
+    <cfRule type="expression" dxfId="37" priority="15">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731">
+    <cfRule type="expression" dxfId="36" priority="14">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731">
+    <cfRule type="expression" dxfId="35" priority="13">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
+    <cfRule type="expression" dxfId="34" priority="12">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
+    <cfRule type="expression" dxfId="33" priority="11">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
+    <cfRule type="expression" dxfId="32" priority="10">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
+    <cfRule type="expression" dxfId="31" priority="9">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731">
+    <cfRule type="expression" dxfId="30" priority="8">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731">
+    <cfRule type="expression" dxfId="29" priority="7">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731">
+    <cfRule type="expression" dxfId="28" priority="6">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731">
+    <cfRule type="expression" dxfId="27" priority="5">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731">
+    <cfRule type="expression" dxfId="26" priority="4">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731">
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731">
+    <cfRule type="expression" dxfId="24" priority="2">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -23846,11 +24303,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O735"/>
+  <dimension ref="A1:O743"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H737" sqref="H737"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H746" sqref="H746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42295,440 +42752,767 @@
       <c r="J735" s="11"/>
       <c r="K735" s="12"/>
     </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A736" s="1">
+        <v>735</v>
+      </c>
+      <c r="B736" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C736" s="8">
+        <v>45943</v>
+      </c>
+      <c r="D736" s="9"/>
+      <c r="E736" s="10"/>
+      <c r="F736" s="11"/>
+      <c r="G736" s="12"/>
+      <c r="H736" s="11"/>
+      <c r="I736" s="12"/>
+      <c r="J736" s="11"/>
+      <c r="K736" s="12"/>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A737" s="1">
+        <v>736</v>
+      </c>
+      <c r="B737" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C737" s="8">
+        <v>45944</v>
+      </c>
+      <c r="D737" s="9">
+        <v>3700</v>
+      </c>
+      <c r="E737" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F737" s="11">
+        <v>3400</v>
+      </c>
+      <c r="G737" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H737" s="11"/>
+      <c r="I737" s="12"/>
+      <c r="J737" s="11">
+        <v>4200</v>
+      </c>
+      <c r="K737" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A738" s="1">
+        <v>737</v>
+      </c>
+      <c r="B738" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C738" s="8">
+        <v>45945</v>
+      </c>
+      <c r="D738" s="9"/>
+      <c r="E738" s="10"/>
+      <c r="F738" s="11"/>
+      <c r="G738" s="12"/>
+      <c r="H738" s="11"/>
+      <c r="I738" s="12"/>
+      <c r="J738" s="11"/>
+      <c r="K738" s="12"/>
+    </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A739" s="1">
+        <v>738</v>
+      </c>
+      <c r="B739" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C739" s="8">
+        <v>45946</v>
+      </c>
+      <c r="D739" s="9">
+        <v>3300</v>
+      </c>
+      <c r="E739" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F739" s="11">
+        <v>2900</v>
+      </c>
+      <c r="G739" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H739" s="11">
+        <v>4300</v>
+      </c>
+      <c r="I739" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J739" s="11">
+        <v>3700</v>
+      </c>
+      <c r="K739" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A740" s="1">
+        <v>739</v>
+      </c>
+      <c r="B740" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C740" s="8">
+        <v>45946</v>
+      </c>
+      <c r="D740" s="9">
+        <v>1400</v>
+      </c>
+      <c r="E740" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F740" s="11">
+        <v>1200</v>
+      </c>
+      <c r="G740" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H740" s="11">
+        <v>300</v>
+      </c>
+      <c r="I740" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J740" s="11">
+        <v>200</v>
+      </c>
+      <c r="K740" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A741" s="1">
+        <v>739</v>
+      </c>
+      <c r="B741" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C741" s="8">
+        <v>45946</v>
+      </c>
+      <c r="D741" s="9">
+        <v>400</v>
+      </c>
+      <c r="E741" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F741" s="11">
+        <v>200</v>
+      </c>
+      <c r="G741" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H741" s="11">
+        <v>30</v>
+      </c>
+      <c r="I741" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J741" s="11">
+        <v>50</v>
+      </c>
+      <c r="K741" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A742" s="1">
+        <v>741</v>
+      </c>
+      <c r="B742" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C742" s="8">
+        <v>45947</v>
+      </c>
+      <c r="D742" s="9"/>
+      <c r="E742" s="10"/>
+      <c r="F742" s="11"/>
+      <c r="G742" s="12"/>
+      <c r="H742" s="11"/>
+      <c r="I742" s="12"/>
+      <c r="J742" s="11"/>
+      <c r="K742" s="12"/>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A743" s="1">
+        <v>742</v>
+      </c>
+      <c r="B743" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C743" s="8">
+        <v>45948</v>
+      </c>
+      <c r="D743" s="9"/>
+      <c r="E743" s="10"/>
+      <c r="F743" s="11"/>
+      <c r="G743" s="12"/>
+      <c r="H743" s="11"/>
+      <c r="I743" s="12"/>
+      <c r="J743" s="11"/>
+      <c r="K743" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E735">
-    <cfRule type="expression" dxfId="96" priority="80">
+  <conditionalFormatting sqref="B4:E743">
+    <cfRule type="expression" dxfId="123" priority="103">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C735 D48:K735">
-    <cfRule type="expression" dxfId="95" priority="81">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K743">
+    <cfRule type="expression" dxfId="122" priority="104">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="94" priority="90">
+    <cfRule type="expression" dxfId="121" priority="113">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="93" priority="93">
+    <cfRule type="expression" dxfId="120" priority="116">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="92" priority="102">
+    <cfRule type="expression" dxfId="119" priority="125">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="91" priority="115">
+    <cfRule type="expression" dxfId="118" priority="138">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="90" priority="119">
+    <cfRule type="expression" dxfId="117" priority="142">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="89" priority="94">
+    <cfRule type="expression" dxfId="116" priority="117">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="88" priority="78">
+    <cfRule type="expression" dxfId="115" priority="101">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="87" priority="77">
+    <cfRule type="expression" dxfId="114" priority="100">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="86" priority="76">
+    <cfRule type="expression" dxfId="113" priority="99">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="85" priority="75">
+    <cfRule type="expression" dxfId="112" priority="98">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="84" priority="74">
+    <cfRule type="expression" dxfId="111" priority="97">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="83" priority="73">
+    <cfRule type="expression" dxfId="110" priority="96">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="82" priority="72">
+    <cfRule type="expression" dxfId="109" priority="95">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="81" priority="71">
+    <cfRule type="expression" dxfId="108" priority="94">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="80" priority="70">
+    <cfRule type="expression" dxfId="107" priority="93">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="79" priority="69">
+    <cfRule type="expression" dxfId="106" priority="92">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="78" priority="68">
+    <cfRule type="expression" dxfId="105" priority="91">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="77" priority="67">
+    <cfRule type="expression" dxfId="104" priority="90">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="76" priority="66">
+    <cfRule type="expression" dxfId="103" priority="89">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="75" priority="65">
+    <cfRule type="expression" dxfId="102" priority="88">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="74" priority="64">
+    <cfRule type="expression" dxfId="101" priority="87">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="73" priority="63">
+    <cfRule type="expression" dxfId="100" priority="86">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="72" priority="62">
+    <cfRule type="expression" dxfId="99" priority="85">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="71" priority="61">
+    <cfRule type="expression" dxfId="98" priority="84">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="70" priority="60">
+    <cfRule type="expression" dxfId="97" priority="83">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="69" priority="59">
+    <cfRule type="expression" dxfId="96" priority="82">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="68" priority="58">
+    <cfRule type="expression" dxfId="95" priority="81">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="67" priority="57">
+    <cfRule type="expression" dxfId="94" priority="80">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="66" priority="56">
+    <cfRule type="expression" dxfId="93" priority="79">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="65" priority="55">
+    <cfRule type="expression" dxfId="92" priority="78">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="64" priority="54">
+    <cfRule type="expression" dxfId="91" priority="77">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="63" priority="53">
+    <cfRule type="expression" dxfId="90" priority="76">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="62" priority="52">
+    <cfRule type="expression" dxfId="89" priority="75">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="61" priority="51">
+    <cfRule type="expression" dxfId="88" priority="74">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="60" priority="50">
+    <cfRule type="expression" dxfId="87" priority="73">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="59" priority="49">
+    <cfRule type="expression" dxfId="86" priority="72">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="58" priority="48">
+    <cfRule type="expression" dxfId="85" priority="71">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="57" priority="47">
+    <cfRule type="expression" dxfId="84" priority="70">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="56" priority="46">
+    <cfRule type="expression" dxfId="83" priority="69">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="55" priority="45">
+    <cfRule type="expression" dxfId="82" priority="68">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="54" priority="44">
+    <cfRule type="expression" dxfId="81" priority="67">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="53" priority="43">
+    <cfRule type="expression" dxfId="80" priority="66">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="52" priority="42">
+    <cfRule type="expression" dxfId="79" priority="65">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="51" priority="41">
+    <cfRule type="expression" dxfId="78" priority="64">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="50" priority="40">
+    <cfRule type="expression" dxfId="77" priority="63">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="49" priority="39">
+    <cfRule type="expression" dxfId="76" priority="62">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="48" priority="38">
+    <cfRule type="expression" dxfId="75" priority="61">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="47" priority="37">
+    <cfRule type="expression" dxfId="74" priority="60">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="46" priority="36">
+    <cfRule type="expression" dxfId="73" priority="59">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="45" priority="35">
+    <cfRule type="expression" dxfId="72" priority="58">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="44" priority="34">
+    <cfRule type="expression" dxfId="71" priority="57">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="43" priority="33">
+    <cfRule type="expression" dxfId="70" priority="56">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="42" priority="32">
+    <cfRule type="expression" dxfId="69" priority="55">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="41" priority="31">
+    <cfRule type="expression" dxfId="68" priority="54">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="40" priority="30">
+    <cfRule type="expression" dxfId="67" priority="53">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="39" priority="28">
+    <cfRule type="expression" dxfId="66" priority="51">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="38" priority="29">
+    <cfRule type="expression" dxfId="65" priority="52">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="37" priority="27">
+    <cfRule type="expression" dxfId="64" priority="50">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="36" priority="26">
+    <cfRule type="expression" dxfId="63" priority="49">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="35" priority="25">
+    <cfRule type="expression" dxfId="62" priority="48">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="34" priority="24">
+    <cfRule type="expression" dxfId="61" priority="47">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="33" priority="23">
+    <cfRule type="expression" dxfId="60" priority="46">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="32" priority="22">
+    <cfRule type="expression" dxfId="59" priority="45">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="31" priority="21">
+    <cfRule type="expression" dxfId="58" priority="44">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E728">
-    <cfRule type="expression" dxfId="30" priority="20">
+    <cfRule type="expression" dxfId="57" priority="43">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="56" priority="42">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="55" priority="41">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="54" priority="40">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="26" priority="16">
+    <cfRule type="expression" dxfId="53" priority="39">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E730">
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="52" priority="38">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="24" priority="14">
+    <cfRule type="expression" dxfId="51" priority="37">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="50" priority="36">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="22" priority="12">
+    <cfRule type="expression" dxfId="49" priority="35">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="48" priority="34">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="47" priority="33">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="46" priority="32">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="45" priority="31">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="44" priority="30">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="43" priority="29">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="42" priority="28">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="41" priority="27">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="38" priority="24">
       <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E737">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$C737=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G737">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$C737=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G737">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$C737=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K737">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$C737=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K737">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$C737=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E740:E741">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E740:E741">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G740:G741">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G740:G741">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G740:G741">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740:I741">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740:I741">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740:I741">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740:K741">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740:K741">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740:K741">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACE4942-87B2-4DC2-B3BF-276706290C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0074C03B-4EFE-4FDF-8C30-308D3C59DB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -2432,11 +2432,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD734"/>
+  <dimension ref="A1:AMD738"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D732" sqref="D732"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D733" sqref="D733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23661,17 +23661,97 @@
       <c r="J734" s="11"/>
       <c r="K734" s="12"/>
     </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A735" s="1">
+        <v>731</v>
+      </c>
+      <c r="B735" s="7" t="str">
+        <f t="shared" ref="B735:B738" si="106">IF(C735&lt;&gt;"",TEXT(C735,"ДДД"),"")</f>
+        <v>Сб</v>
+      </c>
+      <c r="C735" s="8">
+        <v>45948</v>
+      </c>
+      <c r="D735" s="9"/>
+      <c r="E735" s="10"/>
+      <c r="F735" s="11"/>
+      <c r="G735" s="12"/>
+      <c r="H735" s="11"/>
+      <c r="I735" s="12"/>
+      <c r="J735" s="11"/>
+      <c r="K735" s="12"/>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A736" s="1">
+        <v>732</v>
+      </c>
+      <c r="B736" s="7" t="str">
+        <f t="shared" si="106"/>
+        <v>Вс</v>
+      </c>
+      <c r="C736" s="8">
+        <v>45949</v>
+      </c>
+      <c r="D736" s="9"/>
+      <c r="E736" s="10"/>
+      <c r="F736" s="11"/>
+      <c r="G736" s="12"/>
+      <c r="H736" s="11"/>
+      <c r="I736" s="12"/>
+      <c r="J736" s="11"/>
+      <c r="K736" s="12"/>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A737" s="1">
+        <v>733</v>
+      </c>
+      <c r="B737" s="7" t="str">
+        <f t="shared" si="106"/>
+        <v>Пн</v>
+      </c>
+      <c r="C737" s="8">
+        <v>45950</v>
+      </c>
+      <c r="D737" s="9"/>
+      <c r="E737" s="10"/>
+      <c r="F737" s="11"/>
+      <c r="G737" s="12"/>
+      <c r="H737" s="11"/>
+      <c r="I737" s="12"/>
+      <c r="J737" s="11"/>
+      <c r="K737" s="12"/>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A738" s="1">
+        <v>734</v>
+      </c>
+      <c r="B738" s="7" t="str">
+        <f t="shared" si="106"/>
+        <v>Вт</v>
+      </c>
+      <c r="C738" s="8">
+        <v>45951</v>
+      </c>
+      <c r="D738" s="9"/>
+      <c r="E738" s="10"/>
+      <c r="F738" s="11"/>
+      <c r="G738" s="12"/>
+      <c r="H738" s="11"/>
+      <c r="I738" s="12"/>
+      <c r="J738" s="11"/>
+      <c r="K738" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E734">
+  <conditionalFormatting sqref="B4:E738">
     <cfRule type="expression" dxfId="234" priority="122">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K734">
+  <conditionalFormatting sqref="B4:M683 B684:K738">
     <cfRule type="expression" dxfId="233" priority="123">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
@@ -24222,77 +24302,77 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="37" priority="15">
+    <cfRule type="expression" dxfId="123" priority="15">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="36" priority="14">
+    <cfRule type="expression" dxfId="122" priority="14">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="35" priority="13">
+    <cfRule type="expression" dxfId="121" priority="13">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="34" priority="12">
+    <cfRule type="expression" dxfId="120" priority="12">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="119" priority="11">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="32" priority="10">
+    <cfRule type="expression" dxfId="118" priority="10">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="31" priority="9">
+    <cfRule type="expression" dxfId="117" priority="9">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731">
-    <cfRule type="expression" dxfId="30" priority="8">
+    <cfRule type="expression" dxfId="116" priority="8">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731">
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="115" priority="7">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731">
-    <cfRule type="expression" dxfId="28" priority="6">
+    <cfRule type="expression" dxfId="114" priority="6">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731">
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="113" priority="5">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="112" priority="4">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="111" priority="3">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="110" priority="2">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="109" priority="1">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24305,7 +24385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O743"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H746" sqref="H746"/>
     </sheetView>
@@ -42971,432 +43051,432 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E743">
-    <cfRule type="expression" dxfId="123" priority="103">
+    <cfRule type="expression" dxfId="108" priority="103">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K743">
-    <cfRule type="expression" dxfId="122" priority="104">
+    <cfRule type="expression" dxfId="107" priority="104">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="121" priority="113">
+    <cfRule type="expression" dxfId="106" priority="113">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="120" priority="116">
+    <cfRule type="expression" dxfId="105" priority="116">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="119" priority="125">
+    <cfRule type="expression" dxfId="104" priority="125">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="118" priority="138">
+    <cfRule type="expression" dxfId="103" priority="138">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="117" priority="142">
+    <cfRule type="expression" dxfId="102" priority="142">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="116" priority="117">
+    <cfRule type="expression" dxfId="101" priority="117">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="115" priority="101">
+    <cfRule type="expression" dxfId="100" priority="101">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="114" priority="100">
+    <cfRule type="expression" dxfId="99" priority="100">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="113" priority="99">
+    <cfRule type="expression" dxfId="98" priority="99">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="112" priority="98">
+    <cfRule type="expression" dxfId="97" priority="98">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="111" priority="97">
+    <cfRule type="expression" dxfId="96" priority="97">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="110" priority="96">
+    <cfRule type="expression" dxfId="95" priority="96">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="109" priority="95">
+    <cfRule type="expression" dxfId="94" priority="95">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="108" priority="94">
+    <cfRule type="expression" dxfId="93" priority="94">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="107" priority="93">
+    <cfRule type="expression" dxfId="92" priority="93">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="106" priority="92">
+    <cfRule type="expression" dxfId="91" priority="92">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="105" priority="91">
+    <cfRule type="expression" dxfId="90" priority="91">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="104" priority="90">
+    <cfRule type="expression" dxfId="89" priority="90">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="103" priority="89">
+    <cfRule type="expression" dxfId="88" priority="89">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="102" priority="88">
+    <cfRule type="expression" dxfId="87" priority="88">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="101" priority="87">
+    <cfRule type="expression" dxfId="86" priority="87">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="100" priority="86">
+    <cfRule type="expression" dxfId="85" priority="86">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="99" priority="85">
+    <cfRule type="expression" dxfId="84" priority="85">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="98" priority="84">
+    <cfRule type="expression" dxfId="83" priority="84">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="97" priority="83">
+    <cfRule type="expression" dxfId="82" priority="83">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="96" priority="82">
+    <cfRule type="expression" dxfId="81" priority="82">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="95" priority="81">
+    <cfRule type="expression" dxfId="80" priority="81">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="94" priority="80">
+    <cfRule type="expression" dxfId="79" priority="80">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="93" priority="79">
+    <cfRule type="expression" dxfId="78" priority="79">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="92" priority="78">
+    <cfRule type="expression" dxfId="77" priority="78">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="91" priority="77">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="90" priority="76">
+    <cfRule type="expression" dxfId="75" priority="76">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="89" priority="75">
+    <cfRule type="expression" dxfId="74" priority="75">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="88" priority="74">
+    <cfRule type="expression" dxfId="73" priority="74">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="87" priority="73">
+    <cfRule type="expression" dxfId="72" priority="73">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="86" priority="72">
+    <cfRule type="expression" dxfId="71" priority="72">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="85" priority="71">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="84" priority="70">
+    <cfRule type="expression" dxfId="69" priority="70">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="83" priority="69">
+    <cfRule type="expression" dxfId="68" priority="69">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="82" priority="68">
+    <cfRule type="expression" dxfId="67" priority="68">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="81" priority="67">
+    <cfRule type="expression" dxfId="66" priority="67">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="80" priority="66">
+    <cfRule type="expression" dxfId="65" priority="66">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="79" priority="65">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="78" priority="64">
+    <cfRule type="expression" dxfId="63" priority="64">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="77" priority="63">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="76" priority="62">
+    <cfRule type="expression" dxfId="61" priority="62">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="75" priority="61">
+    <cfRule type="expression" dxfId="60" priority="61">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="74" priority="60">
+    <cfRule type="expression" dxfId="59" priority="60">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="73" priority="59">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="72" priority="58">
+    <cfRule type="expression" dxfId="57" priority="58">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="71" priority="57">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="70" priority="56">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="69" priority="55">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="68" priority="54">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="67" priority="53">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="66" priority="51">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="65" priority="52">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="64" priority="50">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="63" priority="49">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="62" priority="48">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="61" priority="47">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="60" priority="46">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="59" priority="45">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="58" priority="44">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E728">
-    <cfRule type="expression" dxfId="57" priority="43">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="56" priority="42">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="55" priority="41">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="54" priority="40">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="53" priority="39">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E730">
-    <cfRule type="expression" dxfId="52" priority="38">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="51" priority="37">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="50" priority="36">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="49" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="48" priority="34">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="47" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="46" priority="32">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="45" priority="31">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="44" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="43" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="42" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="41" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="40" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="39" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="38" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0074C03B-4EFE-4FDF-8C30-308D3C59DB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499B31C5-5164-43E0-BCD8-5EAFA0F71611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,280 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="235">
+  <dxfs count="274">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2432,11 +2705,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD738"/>
+  <dimension ref="A1:AMD739"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D733" sqref="D733"/>
+      <selection pane="bottomLeft" activeCell="F739" sqref="F739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23550,7 +23823,7 @@
         <v>726</v>
       </c>
       <c r="B730" s="7" t="str">
-        <f t="shared" ref="B730:B734" si="105">IF(C730&lt;&gt;"",TEXT(C730,"ДДД"),"")</f>
+        <f t="shared" ref="B730:B735" si="105">IF(C730&lt;&gt;"",TEXT(C730,"ДДД"),"")</f>
         <v>Пн</v>
       </c>
       <c r="C730" s="8">
@@ -23616,8 +23889,12 @@
       <c r="E732" s="10"/>
       <c r="F732" s="11"/>
       <c r="G732" s="12"/>
-      <c r="H732" s="11"/>
-      <c r="I732" s="12"/>
+      <c r="H732" s="11">
+        <v>12000</v>
+      </c>
+      <c r="I732" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J732" s="11"/>
       <c r="K732" s="12"/>
     </row>
@@ -23632,45 +23909,77 @@
       <c r="C733" s="8">
         <v>45946</v>
       </c>
-      <c r="D733" s="9"/>
-      <c r="E733" s="10"/>
-      <c r="F733" s="11"/>
-      <c r="G733" s="12"/>
-      <c r="H733" s="11"/>
-      <c r="I733" s="12"/>
-      <c r="J733" s="11"/>
-      <c r="K733" s="12"/>
+      <c r="D733" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E733" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F733" s="11">
+        <v>3900</v>
+      </c>
+      <c r="G733" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H733" s="11">
+        <v>7200</v>
+      </c>
+      <c r="I733" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J733" s="11">
+        <v>15600</v>
+      </c>
+      <c r="K733" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>730</v>
       </c>
       <c r="B734" s="7" t="str">
-        <f t="shared" si="105"/>
-        <v>Пт</v>
+        <f t="shared" ref="B734" si="106">IF(C734&lt;&gt;"",TEXT(C734,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C734" s="8">
-        <v>45947</v>
-      </c>
-      <c r="D734" s="9"/>
-      <c r="E734" s="10"/>
-      <c r="F734" s="11"/>
-      <c r="G734" s="12"/>
-      <c r="H734" s="11"/>
-      <c r="I734" s="12"/>
-      <c r="J734" s="11"/>
-      <c r="K734" s="12"/>
+        <v>45946</v>
+      </c>
+      <c r="D734" s="9">
+        <v>5900</v>
+      </c>
+      <c r="E734" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F734" s="11">
+        <v>6400</v>
+      </c>
+      <c r="G734" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H734" s="11">
+        <v>2300</v>
+      </c>
+      <c r="I734" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J734" s="11">
+        <v>5700</v>
+      </c>
+      <c r="K734" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>731</v>
       </c>
       <c r="B735" s="7" t="str">
-        <f t="shared" ref="B735:B738" si="106">IF(C735&lt;&gt;"",TEXT(C735,"ДДД"),"")</f>
-        <v>Сб</v>
+        <f t="shared" si="105"/>
+        <v>Пт</v>
       </c>
       <c r="C735" s="8">
-        <v>45948</v>
+        <v>45947</v>
       </c>
       <c r="D735" s="9"/>
       <c r="E735" s="10"/>
@@ -23686,11 +23995,11 @@
         <v>732</v>
       </c>
       <c r="B736" s="7" t="str">
-        <f t="shared" si="106"/>
-        <v>Вс</v>
+        <f t="shared" ref="B736:B739" si="107">IF(C736&lt;&gt;"",TEXT(C736,"ДДД"),"")</f>
+        <v>Сб</v>
       </c>
       <c r="C736" s="8">
-        <v>45949</v>
+        <v>45948</v>
       </c>
       <c r="D736" s="9"/>
       <c r="E736" s="10"/>
@@ -23706,11 +24015,11 @@
         <v>733</v>
       </c>
       <c r="B737" s="7" t="str">
-        <f t="shared" si="106"/>
-        <v>Пн</v>
+        <f t="shared" si="107"/>
+        <v>Вс</v>
       </c>
       <c r="C737" s="8">
-        <v>45950</v>
+        <v>45949</v>
       </c>
       <c r="D737" s="9"/>
       <c r="E737" s="10"/>
@@ -23726,11 +24035,11 @@
         <v>734</v>
       </c>
       <c r="B738" s="7" t="str">
-        <f t="shared" si="106"/>
-        <v>Вт</v>
+        <f t="shared" si="107"/>
+        <v>Пн</v>
       </c>
       <c r="C738" s="8">
-        <v>45951</v>
+        <v>45950</v>
       </c>
       <c r="D738" s="9"/>
       <c r="E738" s="10"/>
@@ -23741,639 +24050,854 @@
       <c r="J738" s="11"/>
       <c r="K738" s="12"/>
     </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A739" s="1">
+        <v>735</v>
+      </c>
+      <c r="B739" s="7" t="str">
+        <f t="shared" si="107"/>
+        <v>Вт</v>
+      </c>
+      <c r="C739" s="8">
+        <v>45951</v>
+      </c>
+      <c r="D739" s="9"/>
+      <c r="E739" s="10"/>
+      <c r="F739" s="11"/>
+      <c r="G739" s="12"/>
+      <c r="H739" s="11"/>
+      <c r="I739" s="12"/>
+      <c r="J739" s="11"/>
+      <c r="K739" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E738">
-    <cfRule type="expression" dxfId="234" priority="122">
+  <conditionalFormatting sqref="B4:E739">
+    <cfRule type="expression" dxfId="273" priority="161">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K738">
-    <cfRule type="expression" dxfId="233" priority="123">
+  <conditionalFormatting sqref="B4:M683 B684:K739">
+    <cfRule type="expression" dxfId="272" priority="162">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="232" priority="136">
+    <cfRule type="expression" dxfId="271" priority="175">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="231" priority="120">
+    <cfRule type="expression" dxfId="270" priority="159">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="230" priority="139">
+    <cfRule type="expression" dxfId="269" priority="178">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="229" priority="137">
+    <cfRule type="expression" dxfId="268" priority="176">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="228" priority="119">
+    <cfRule type="expression" dxfId="267" priority="158">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="227" priority="138">
+    <cfRule type="expression" dxfId="266" priority="177">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="226" priority="118">
+    <cfRule type="expression" dxfId="265" priority="157">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="225" priority="117">
+    <cfRule type="expression" dxfId="264" priority="156">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="224" priority="116">
+    <cfRule type="expression" dxfId="263" priority="155">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="223" priority="115">
+    <cfRule type="expression" dxfId="262" priority="154">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="222" priority="114">
+    <cfRule type="expression" dxfId="261" priority="153">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="221" priority="113">
+    <cfRule type="expression" dxfId="260" priority="152">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="220" priority="112">
+    <cfRule type="expression" dxfId="259" priority="151">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="219" priority="111">
+    <cfRule type="expression" dxfId="258" priority="150">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="218" priority="110">
+    <cfRule type="expression" dxfId="257" priority="149">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="217" priority="109">
+    <cfRule type="expression" dxfId="256" priority="148">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="216" priority="108">
+    <cfRule type="expression" dxfId="255" priority="147">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="215" priority="107">
+    <cfRule type="expression" dxfId="254" priority="146">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="214" priority="106">
+    <cfRule type="expression" dxfId="253" priority="145">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="213" priority="105">
+    <cfRule type="expression" dxfId="252" priority="144">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="212" priority="104">
+    <cfRule type="expression" dxfId="251" priority="143">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="211" priority="103">
+    <cfRule type="expression" dxfId="250" priority="142">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="210" priority="102">
+    <cfRule type="expression" dxfId="249" priority="141">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="209" priority="101">
+    <cfRule type="expression" dxfId="248" priority="140">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="208" priority="100">
+    <cfRule type="expression" dxfId="247" priority="139">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="207" priority="99">
+    <cfRule type="expression" dxfId="246" priority="138">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="206" priority="98">
+    <cfRule type="expression" dxfId="245" priority="137">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="205" priority="97">
+    <cfRule type="expression" dxfId="244" priority="136">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="204" priority="96">
+    <cfRule type="expression" dxfId="243" priority="135">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="203" priority="95">
+    <cfRule type="expression" dxfId="242" priority="134">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="202" priority="94">
+    <cfRule type="expression" dxfId="241" priority="133">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="201" priority="93">
+    <cfRule type="expression" dxfId="240" priority="132">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="200" priority="92">
+    <cfRule type="expression" dxfId="239" priority="131">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="199" priority="91">
+    <cfRule type="expression" dxfId="238" priority="130">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="198" priority="90">
+    <cfRule type="expression" dxfId="237" priority="129">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="197" priority="89">
+    <cfRule type="expression" dxfId="236" priority="128">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="196" priority="88">
+    <cfRule type="expression" dxfId="235" priority="127">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="195" priority="87">
+    <cfRule type="expression" dxfId="234" priority="126">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="194" priority="86">
+    <cfRule type="expression" dxfId="233" priority="125">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="193" priority="85">
+    <cfRule type="expression" dxfId="232" priority="124">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="192" priority="84">
+    <cfRule type="expression" dxfId="231" priority="123">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="191" priority="83">
+    <cfRule type="expression" dxfId="230" priority="122">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="expression" dxfId="190" priority="82">
+    <cfRule type="expression" dxfId="229" priority="121">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="189" priority="81">
+    <cfRule type="expression" dxfId="228" priority="120">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="188" priority="80">
+    <cfRule type="expression" dxfId="227" priority="119">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="187" priority="79">
+    <cfRule type="expression" dxfId="226" priority="118">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="186" priority="78">
+    <cfRule type="expression" dxfId="225" priority="117">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="185" priority="77">
+    <cfRule type="expression" dxfId="224" priority="116">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="184" priority="76">
+    <cfRule type="expression" dxfId="223" priority="115">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="183" priority="75">
+    <cfRule type="expression" dxfId="222" priority="114">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="182" priority="74">
+    <cfRule type="expression" dxfId="221" priority="113">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I710">
-    <cfRule type="expression" dxfId="181" priority="73">
+    <cfRule type="expression" dxfId="220" priority="112">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="180" priority="72">
+    <cfRule type="expression" dxfId="219" priority="111">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E715">
-    <cfRule type="expression" dxfId="179" priority="71">
+    <cfRule type="expression" dxfId="218" priority="110">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="178" priority="70">
+    <cfRule type="expression" dxfId="217" priority="109">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="177" priority="69">
+    <cfRule type="expression" dxfId="216" priority="108">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="176" priority="68">
+    <cfRule type="expression" dxfId="215" priority="107">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="175" priority="67">
+    <cfRule type="expression" dxfId="214" priority="106">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="174" priority="66">
+    <cfRule type="expression" dxfId="213" priority="105">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="173" priority="65">
+    <cfRule type="expression" dxfId="212" priority="104">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="172" priority="64">
+    <cfRule type="expression" dxfId="211" priority="103">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="171" priority="63">
+    <cfRule type="expression" dxfId="210" priority="102">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="170" priority="62">
+    <cfRule type="expression" dxfId="209" priority="101">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="169" priority="61">
+    <cfRule type="expression" dxfId="208" priority="100">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="168" priority="60">
+    <cfRule type="expression" dxfId="207" priority="99">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="167" priority="59">
+    <cfRule type="expression" dxfId="206" priority="98">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="166" priority="58">
+    <cfRule type="expression" dxfId="205" priority="97">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="165" priority="57">
+    <cfRule type="expression" dxfId="204" priority="96">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="164" priority="56">
+    <cfRule type="expression" dxfId="203" priority="95">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="163" priority="55">
+    <cfRule type="expression" dxfId="202" priority="94">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="162" priority="54">
+    <cfRule type="expression" dxfId="201" priority="93">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="161" priority="53">
+    <cfRule type="expression" dxfId="200" priority="92">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="160" priority="52">
+    <cfRule type="expression" dxfId="199" priority="91">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="159" priority="51">
+    <cfRule type="expression" dxfId="198" priority="90">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="158" priority="50">
+    <cfRule type="expression" dxfId="197" priority="89">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="157" priority="49">
+    <cfRule type="expression" dxfId="196" priority="88">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="156" priority="48">
+    <cfRule type="expression" dxfId="195" priority="87">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="155" priority="47">
+    <cfRule type="expression" dxfId="194" priority="86">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="154" priority="46">
+    <cfRule type="expression" dxfId="193" priority="85">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="153" priority="45">
+    <cfRule type="expression" dxfId="192" priority="84">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="152" priority="44">
+    <cfRule type="expression" dxfId="191" priority="83">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="151" priority="43">
+    <cfRule type="expression" dxfId="190" priority="82">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="150" priority="42">
+    <cfRule type="expression" dxfId="189" priority="81">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="149" priority="41">
+    <cfRule type="expression" dxfId="188" priority="80">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="148" priority="40">
+    <cfRule type="expression" dxfId="187" priority="79">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="147" priority="39">
+    <cfRule type="expression" dxfId="186" priority="78">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="146" priority="38">
+    <cfRule type="expression" dxfId="185" priority="77">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="145" priority="37">
+    <cfRule type="expression" dxfId="184" priority="76">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="144" priority="36">
+    <cfRule type="expression" dxfId="183" priority="75">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="143" priority="35">
+    <cfRule type="expression" dxfId="182" priority="74">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="142" priority="34">
+    <cfRule type="expression" dxfId="181" priority="73">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="141" priority="33">
+    <cfRule type="expression" dxfId="180" priority="72">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="140" priority="32">
+    <cfRule type="expression" dxfId="179" priority="71">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="139" priority="31">
+    <cfRule type="expression" dxfId="178" priority="70">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="138" priority="30">
+    <cfRule type="expression" dxfId="177" priority="69">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="137" priority="29">
+    <cfRule type="expression" dxfId="176" priority="68">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="136" priority="28">
+    <cfRule type="expression" dxfId="175" priority="67">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="135" priority="27">
+    <cfRule type="expression" dxfId="174" priority="66">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
-    <cfRule type="expression" dxfId="134" priority="26">
+    <cfRule type="expression" dxfId="173" priority="65">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
-    <cfRule type="expression" dxfId="133" priority="25">
+    <cfRule type="expression" dxfId="172" priority="64">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="132" priority="24">
+    <cfRule type="expression" dxfId="171" priority="63">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="131" priority="23">
+    <cfRule type="expression" dxfId="170" priority="62">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="130" priority="22">
+    <cfRule type="expression" dxfId="169" priority="61">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="129" priority="21">
+    <cfRule type="expression" dxfId="168" priority="60">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="128" priority="20">
+    <cfRule type="expression" dxfId="167" priority="59">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="127" priority="19">
+    <cfRule type="expression" dxfId="166" priority="58">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="126" priority="18">
+    <cfRule type="expression" dxfId="165" priority="57">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="125" priority="17">
+    <cfRule type="expression" dxfId="164" priority="56">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="124" priority="16">
+    <cfRule type="expression" dxfId="163" priority="55">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="123" priority="15">
+    <cfRule type="expression" dxfId="162" priority="54">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="122" priority="14">
+    <cfRule type="expression" dxfId="161" priority="53">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="121" priority="13">
+    <cfRule type="expression" dxfId="160" priority="52">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="120" priority="12">
+    <cfRule type="expression" dxfId="159" priority="51">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="119" priority="11">
+    <cfRule type="expression" dxfId="158" priority="50">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="118" priority="10">
+    <cfRule type="expression" dxfId="157" priority="49">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="117" priority="9">
+    <cfRule type="expression" dxfId="156" priority="48">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I731">
-    <cfRule type="expression" dxfId="116" priority="8">
+  <conditionalFormatting sqref="I731:I732">
+    <cfRule type="expression" dxfId="155" priority="47">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I731">
-    <cfRule type="expression" dxfId="115" priority="7">
+  <conditionalFormatting sqref="I731:I732">
+    <cfRule type="expression" dxfId="154" priority="46">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I731">
-    <cfRule type="expression" dxfId="114" priority="6">
+  <conditionalFormatting sqref="I731:I732">
+    <cfRule type="expression" dxfId="153" priority="45">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I731">
-    <cfRule type="expression" dxfId="113" priority="5">
+  <conditionalFormatting sqref="I731:I732">
+    <cfRule type="expression" dxfId="152" priority="44">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="112" priority="4">
+    <cfRule type="expression" dxfId="151" priority="43">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="111" priority="3">
+    <cfRule type="expression" dxfId="150" priority="42">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="110" priority="2">
+    <cfRule type="expression" dxfId="149" priority="41">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="109" priority="1">
+    <cfRule type="expression" dxfId="148" priority="40">
       <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -43051,547 +43575,547 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E743">
-    <cfRule type="expression" dxfId="108" priority="103">
+    <cfRule type="expression" dxfId="147" priority="103">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K743">
-    <cfRule type="expression" dxfId="107" priority="104">
+    <cfRule type="expression" dxfId="146" priority="104">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="106" priority="113">
+    <cfRule type="expression" dxfId="145" priority="113">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="105" priority="116">
+    <cfRule type="expression" dxfId="144" priority="116">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="104" priority="125">
+    <cfRule type="expression" dxfId="143" priority="125">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="103" priority="138">
+    <cfRule type="expression" dxfId="142" priority="138">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="102" priority="142">
+    <cfRule type="expression" dxfId="141" priority="142">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="101" priority="117">
+    <cfRule type="expression" dxfId="140" priority="117">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="100" priority="101">
+    <cfRule type="expression" dxfId="139" priority="101">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="99" priority="100">
+    <cfRule type="expression" dxfId="138" priority="100">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="98" priority="99">
+    <cfRule type="expression" dxfId="137" priority="99">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="97" priority="98">
+    <cfRule type="expression" dxfId="136" priority="98">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="96" priority="97">
+    <cfRule type="expression" dxfId="135" priority="97">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="95" priority="96">
+    <cfRule type="expression" dxfId="134" priority="96">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="94" priority="95">
+    <cfRule type="expression" dxfId="133" priority="95">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="93" priority="94">
+    <cfRule type="expression" dxfId="132" priority="94">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="92" priority="93">
+    <cfRule type="expression" dxfId="131" priority="93">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="91" priority="92">
+    <cfRule type="expression" dxfId="130" priority="92">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="90" priority="91">
+    <cfRule type="expression" dxfId="129" priority="91">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="89" priority="90">
+    <cfRule type="expression" dxfId="128" priority="90">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="88" priority="89">
+    <cfRule type="expression" dxfId="127" priority="89">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="87" priority="88">
+    <cfRule type="expression" dxfId="126" priority="88">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="86" priority="87">
+    <cfRule type="expression" dxfId="125" priority="87">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="85" priority="86">
+    <cfRule type="expression" dxfId="124" priority="86">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="84" priority="85">
+    <cfRule type="expression" dxfId="123" priority="85">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="83" priority="84">
+    <cfRule type="expression" dxfId="122" priority="84">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="121" priority="83">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="81" priority="82">
+    <cfRule type="expression" dxfId="120" priority="82">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="80" priority="81">
+    <cfRule type="expression" dxfId="119" priority="81">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="79" priority="80">
+    <cfRule type="expression" dxfId="118" priority="80">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="78" priority="79">
+    <cfRule type="expression" dxfId="117" priority="79">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="77" priority="78">
+    <cfRule type="expression" dxfId="116" priority="78">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="115" priority="77">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="75" priority="76">
+    <cfRule type="expression" dxfId="114" priority="76">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="113" priority="75">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="73" priority="74">
+    <cfRule type="expression" dxfId="112" priority="74">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="72" priority="73">
+    <cfRule type="expression" dxfId="111" priority="73">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="110" priority="72">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="109" priority="71">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="108" priority="70">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="107" priority="69">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="67" priority="68">
+    <cfRule type="expression" dxfId="106" priority="68">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="66" priority="67">
+    <cfRule type="expression" dxfId="105" priority="67">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="65" priority="66">
+    <cfRule type="expression" dxfId="104" priority="66">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="103" priority="65">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="63" priority="64">
+    <cfRule type="expression" dxfId="102" priority="64">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="101" priority="63">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="61" priority="62">
+    <cfRule type="expression" dxfId="100" priority="62">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="60" priority="61">
+    <cfRule type="expression" dxfId="99" priority="61">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="59" priority="60">
+    <cfRule type="expression" dxfId="98" priority="60">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="58" priority="59">
+    <cfRule type="expression" dxfId="97" priority="59">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="96" priority="58">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="95" priority="57">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="94" priority="56">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="93" priority="55">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="92" priority="54">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="91" priority="53">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="51" priority="51">
+    <cfRule type="expression" dxfId="90" priority="51">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="89" priority="52">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="88" priority="50">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="87" priority="49">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="86" priority="48">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="85" priority="47">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="84" priority="46">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="83" priority="45">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="82" priority="44">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E728">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="81" priority="43">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="80" priority="42">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="79" priority="41">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="78" priority="40">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="77" priority="39">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E730">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="76" priority="38">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="75" priority="37">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="74" priority="36">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="73" priority="35">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="72" priority="34">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="71" priority="33">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="70" priority="32">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="69" priority="31">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="68" priority="30">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="67" priority="29">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="66" priority="28">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="65" priority="27">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="64" priority="26">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="63" priority="25">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="62" priority="24">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E737">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="61" priority="23">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="60" priority="22">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="59" priority="21">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="58" priority="20">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="57" priority="19">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="56" priority="18">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="55" priority="17">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="54" priority="16">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="53" priority="15">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="52" priority="14">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="51" priority="13">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="50" priority="12">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="49" priority="11">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="48" priority="10">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="46" priority="8">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="44" priority="6">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="41" priority="3">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499B31C5-5164-43E0-BCD8-5EAFA0F71611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCC737C-A733-4DC9-B0FB-EF9F6E479A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,77 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="274">
+  <dxfs count="284">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2709,7 +2779,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F739" sqref="F739"/>
+      <selection pane="bottomLeft" activeCell="J741" sqref="J741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24005,10 +24075,18 @@
       <c r="E736" s="10"/>
       <c r="F736" s="11"/>
       <c r="G736" s="12"/>
-      <c r="H736" s="11"/>
-      <c r="I736" s="12"/>
-      <c r="J736" s="11"/>
-      <c r="K736" s="12"/>
+      <c r="H736" s="11">
+        <v>4800</v>
+      </c>
+      <c r="I736" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J736" s="11">
+        <v>5400</v>
+      </c>
+      <c r="K736" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
@@ -24076,828 +24154,878 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:E739">
-    <cfRule type="expression" dxfId="273" priority="161">
+    <cfRule type="expression" dxfId="283" priority="171">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:M683 B684:K739">
-    <cfRule type="expression" dxfId="272" priority="162">
+    <cfRule type="expression" dxfId="282" priority="172">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="271" priority="175">
+    <cfRule type="expression" dxfId="281" priority="185">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="270" priority="159">
+    <cfRule type="expression" dxfId="280" priority="169">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="269" priority="178">
+    <cfRule type="expression" dxfId="279" priority="188">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="268" priority="176">
+    <cfRule type="expression" dxfId="278" priority="186">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="267" priority="158">
+    <cfRule type="expression" dxfId="277" priority="168">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="266" priority="177">
+    <cfRule type="expression" dxfId="276" priority="187">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="265" priority="157">
+    <cfRule type="expression" dxfId="275" priority="167">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="264" priority="156">
+    <cfRule type="expression" dxfId="274" priority="166">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="263" priority="155">
+    <cfRule type="expression" dxfId="273" priority="165">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="262" priority="154">
+    <cfRule type="expression" dxfId="272" priority="164">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="261" priority="153">
+    <cfRule type="expression" dxfId="271" priority="163">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="260" priority="152">
+    <cfRule type="expression" dxfId="270" priority="162">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="259" priority="151">
+    <cfRule type="expression" dxfId="269" priority="161">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="258" priority="150">
+    <cfRule type="expression" dxfId="268" priority="160">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="257" priority="149">
+    <cfRule type="expression" dxfId="267" priority="159">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="256" priority="148">
+    <cfRule type="expression" dxfId="266" priority="158">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="255" priority="147">
+    <cfRule type="expression" dxfId="265" priority="157">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="254" priority="146">
+    <cfRule type="expression" dxfId="264" priority="156">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="253" priority="145">
+    <cfRule type="expression" dxfId="263" priority="155">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="252" priority="144">
+    <cfRule type="expression" dxfId="262" priority="154">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="251" priority="143">
+    <cfRule type="expression" dxfId="261" priority="153">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="250" priority="142">
+    <cfRule type="expression" dxfId="260" priority="152">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="249" priority="141">
+    <cfRule type="expression" dxfId="259" priority="151">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="248" priority="140">
+    <cfRule type="expression" dxfId="258" priority="150">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="247" priority="139">
+    <cfRule type="expression" dxfId="257" priority="149">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="246" priority="138">
+    <cfRule type="expression" dxfId="256" priority="148">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="245" priority="137">
+    <cfRule type="expression" dxfId="255" priority="147">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="244" priority="136">
+    <cfRule type="expression" dxfId="254" priority="146">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="243" priority="135">
+    <cfRule type="expression" dxfId="253" priority="145">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="242" priority="134">
+    <cfRule type="expression" dxfId="252" priority="144">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="241" priority="133">
+    <cfRule type="expression" dxfId="251" priority="143">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="240" priority="132">
+    <cfRule type="expression" dxfId="250" priority="142">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="239" priority="131">
+    <cfRule type="expression" dxfId="249" priority="141">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="238" priority="130">
+    <cfRule type="expression" dxfId="248" priority="140">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="237" priority="129">
+    <cfRule type="expression" dxfId="247" priority="139">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="236" priority="128">
+    <cfRule type="expression" dxfId="246" priority="138">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="235" priority="127">
+    <cfRule type="expression" dxfId="245" priority="137">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="234" priority="126">
+    <cfRule type="expression" dxfId="244" priority="136">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="233" priority="125">
+    <cfRule type="expression" dxfId="243" priority="135">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="232" priority="124">
+    <cfRule type="expression" dxfId="242" priority="134">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="231" priority="123">
+    <cfRule type="expression" dxfId="241" priority="133">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="230" priority="122">
+    <cfRule type="expression" dxfId="240" priority="132">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="expression" dxfId="229" priority="121">
+    <cfRule type="expression" dxfId="239" priority="131">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="228" priority="120">
+    <cfRule type="expression" dxfId="238" priority="130">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="227" priority="119">
+    <cfRule type="expression" dxfId="237" priority="129">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="226" priority="118">
+    <cfRule type="expression" dxfId="236" priority="128">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="225" priority="117">
+    <cfRule type="expression" dxfId="235" priority="127">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="224" priority="116">
+    <cfRule type="expression" dxfId="234" priority="126">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="223" priority="115">
+    <cfRule type="expression" dxfId="233" priority="125">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="222" priority="114">
+    <cfRule type="expression" dxfId="232" priority="124">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="221" priority="113">
+    <cfRule type="expression" dxfId="231" priority="123">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I710">
-    <cfRule type="expression" dxfId="220" priority="112">
+    <cfRule type="expression" dxfId="230" priority="122">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="219" priority="111">
+    <cfRule type="expression" dxfId="229" priority="121">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E715">
-    <cfRule type="expression" dxfId="218" priority="110">
+    <cfRule type="expression" dxfId="228" priority="120">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="217" priority="109">
+    <cfRule type="expression" dxfId="227" priority="119">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="216" priority="108">
+    <cfRule type="expression" dxfId="226" priority="118">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="215" priority="107">
+    <cfRule type="expression" dxfId="225" priority="117">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="214" priority="106">
+    <cfRule type="expression" dxfId="224" priority="116">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="213" priority="105">
+    <cfRule type="expression" dxfId="223" priority="115">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="212" priority="104">
+    <cfRule type="expression" dxfId="222" priority="114">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="211" priority="103">
+    <cfRule type="expression" dxfId="221" priority="113">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="210" priority="102">
+    <cfRule type="expression" dxfId="220" priority="112">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="209" priority="101">
+    <cfRule type="expression" dxfId="219" priority="111">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="208" priority="100">
+    <cfRule type="expression" dxfId="218" priority="110">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="207" priority="99">
+    <cfRule type="expression" dxfId="217" priority="109">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="206" priority="98">
+    <cfRule type="expression" dxfId="216" priority="108">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="205" priority="97">
+    <cfRule type="expression" dxfId="215" priority="107">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="204" priority="96">
+    <cfRule type="expression" dxfId="214" priority="106">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="203" priority="95">
+    <cfRule type="expression" dxfId="213" priority="105">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="202" priority="94">
+    <cfRule type="expression" dxfId="212" priority="104">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="201" priority="93">
+    <cfRule type="expression" dxfId="211" priority="103">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="200" priority="92">
+    <cfRule type="expression" dxfId="210" priority="102">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="199" priority="91">
+    <cfRule type="expression" dxfId="209" priority="101">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="198" priority="90">
+    <cfRule type="expression" dxfId="208" priority="100">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="197" priority="89">
+    <cfRule type="expression" dxfId="207" priority="99">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
+    <cfRule type="expression" dxfId="206" priority="98">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E723">
+    <cfRule type="expression" dxfId="205" priority="97">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
+    <cfRule type="expression" dxfId="204" priority="96">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
+    <cfRule type="expression" dxfId="203" priority="95">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
+    <cfRule type="expression" dxfId="202" priority="94">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723:I724">
+    <cfRule type="expression" dxfId="201" priority="93">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723:I724">
+    <cfRule type="expression" dxfId="200" priority="92">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723:I724">
+    <cfRule type="expression" dxfId="199" priority="91">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
+    <cfRule type="expression" dxfId="198" priority="90">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
+    <cfRule type="expression" dxfId="197" priority="89">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
     <cfRule type="expression" dxfId="196" priority="88">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E723">
+  <conditionalFormatting sqref="K725:K726">
     <cfRule type="expression" dxfId="195" priority="87">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="194" priority="86">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="193" priority="85">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="192" priority="84">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="191" priority="83">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="190" priority="82">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="189" priority="81">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="188" priority="80">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="187" priority="79">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="186" priority="78">
-      <formula>$C723=TODAY()</formula>
+      <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
+    <cfRule type="expression" dxfId="194" priority="86">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K725:K726">
+    <cfRule type="expression" dxfId="193" priority="85">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
+    <cfRule type="expression" dxfId="192" priority="84">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
+    <cfRule type="expression" dxfId="191" priority="83">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
+    <cfRule type="expression" dxfId="190" priority="82">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
+    <cfRule type="expression" dxfId="189" priority="81">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
+    <cfRule type="expression" dxfId="188" priority="80">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
+    <cfRule type="expression" dxfId="187" priority="79">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
+    <cfRule type="expression" dxfId="186" priority="78">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
     <cfRule type="expression" dxfId="185" priority="77">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K725:K726">
+  <conditionalFormatting sqref="E725:E726">
     <cfRule type="expression" dxfId="184" priority="76">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K725:K726">
+  <conditionalFormatting sqref="E726">
     <cfRule type="expression" dxfId="183" priority="75">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="182" priority="74">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="181" priority="73">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="180" priority="72">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="179" priority="71">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="178" priority="70">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="177" priority="69">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="176" priority="68">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="175" priority="67">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="174" priority="66">
-      <formula>$C725=TODAY()</formula>
+      <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
+    <cfRule type="expression" dxfId="182" priority="74">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
+    <cfRule type="expression" dxfId="181" priority="73">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
+    <cfRule type="expression" dxfId="180" priority="72">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
+    <cfRule type="expression" dxfId="179" priority="71">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
+    <cfRule type="expression" dxfId="178" priority="70">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
+    <cfRule type="expression" dxfId="177" priority="69">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
+    <cfRule type="expression" dxfId="176" priority="68">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
+    <cfRule type="expression" dxfId="175" priority="67">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
+    <cfRule type="expression" dxfId="174" priority="66">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
     <cfRule type="expression" dxfId="173" priority="65">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E726">
+  <conditionalFormatting sqref="E731">
     <cfRule type="expression" dxfId="172" priority="64">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="171" priority="63">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="170" priority="62">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="169" priority="61">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="168" priority="60">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="167" priority="59">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="166" priority="58">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="165" priority="57">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="164" priority="56">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="163" priority="55">
-      <formula>$C726=TODAY()</formula>
+      <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
+    <cfRule type="expression" dxfId="171" priority="63">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731">
+    <cfRule type="expression" dxfId="170" priority="62">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
+    <cfRule type="expression" dxfId="169" priority="61">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
+    <cfRule type="expression" dxfId="168" priority="60">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
+    <cfRule type="expression" dxfId="167" priority="59">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
+    <cfRule type="expression" dxfId="166" priority="58">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
+    <cfRule type="expression" dxfId="165" priority="57">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
+    <cfRule type="expression" dxfId="164" priority="56">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
+    <cfRule type="expression" dxfId="163" priority="55">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
     <cfRule type="expression" dxfId="162" priority="54">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E731">
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="161" priority="53">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E731">
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="160" priority="52">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="159" priority="51">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="158" priority="50">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+  <conditionalFormatting sqref="K733">
     <cfRule type="expression" dxfId="157" priority="49">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="156" priority="48">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="155" priority="47">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="154" priority="46">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="153" priority="45">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="152" priority="44">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="151" priority="43">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="150" priority="42">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="149" priority="41">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="148" priority="40">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="38" priority="39">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="156" priority="48">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="155" priority="47">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="154" priority="46">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="153" priority="45">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="152" priority="44">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="151" priority="43">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="150" priority="42">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="149" priority="41">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="148" priority="40">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="147" priority="39">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="146" priority="38">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="145" priority="37">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="144" priority="36">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="143" priority="35">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="142" priority="34">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="141" priority="33">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="140" priority="32">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="139" priority="31">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="138" priority="30">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="137" priority="29">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="136" priority="28">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="135" priority="27">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="134" priority="26">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="133" priority="25">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="132" priority="24">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="131" priority="23">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="130" priority="22">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="129" priority="21">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="128" priority="20">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="127" priority="19">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="126" priority="18">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="125" priority="17">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="124" priority="16">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="123" priority="15">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="122" priority="14">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="121" priority="13">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="120" priority="12">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
+    <cfRule type="expression" dxfId="119" priority="11">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C734=TODAY()</formula>
+      <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -43575,547 +43703,547 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E743">
-    <cfRule type="expression" dxfId="147" priority="103">
+    <cfRule type="expression" dxfId="118" priority="103">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K743">
-    <cfRule type="expression" dxfId="146" priority="104">
+    <cfRule type="expression" dxfId="117" priority="104">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="145" priority="113">
+    <cfRule type="expression" dxfId="116" priority="113">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="144" priority="116">
+    <cfRule type="expression" dxfId="115" priority="116">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="143" priority="125">
+    <cfRule type="expression" dxfId="114" priority="125">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="142" priority="138">
+    <cfRule type="expression" dxfId="113" priority="138">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="141" priority="142">
+    <cfRule type="expression" dxfId="112" priority="142">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="140" priority="117">
+    <cfRule type="expression" dxfId="111" priority="117">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="139" priority="101">
+    <cfRule type="expression" dxfId="110" priority="101">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="138" priority="100">
+    <cfRule type="expression" dxfId="109" priority="100">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="137" priority="99">
+    <cfRule type="expression" dxfId="108" priority="99">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="136" priority="98">
+    <cfRule type="expression" dxfId="107" priority="98">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="135" priority="97">
+    <cfRule type="expression" dxfId="106" priority="97">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="134" priority="96">
+    <cfRule type="expression" dxfId="105" priority="96">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="133" priority="95">
+    <cfRule type="expression" dxfId="104" priority="95">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="132" priority="94">
+    <cfRule type="expression" dxfId="103" priority="94">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="131" priority="93">
+    <cfRule type="expression" dxfId="102" priority="93">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="130" priority="92">
+    <cfRule type="expression" dxfId="101" priority="92">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="129" priority="91">
+    <cfRule type="expression" dxfId="100" priority="91">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="128" priority="90">
+    <cfRule type="expression" dxfId="99" priority="90">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="127" priority="89">
+    <cfRule type="expression" dxfId="98" priority="89">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="126" priority="88">
+    <cfRule type="expression" dxfId="97" priority="88">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="125" priority="87">
+    <cfRule type="expression" dxfId="96" priority="87">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="124" priority="86">
+    <cfRule type="expression" dxfId="95" priority="86">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="123" priority="85">
+    <cfRule type="expression" dxfId="94" priority="85">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="122" priority="84">
+    <cfRule type="expression" dxfId="93" priority="84">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="121" priority="83">
+    <cfRule type="expression" dxfId="92" priority="83">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="120" priority="82">
+    <cfRule type="expression" dxfId="91" priority="82">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="119" priority="81">
+    <cfRule type="expression" dxfId="90" priority="81">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="118" priority="80">
+    <cfRule type="expression" dxfId="89" priority="80">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="117" priority="79">
+    <cfRule type="expression" dxfId="88" priority="79">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="116" priority="78">
+    <cfRule type="expression" dxfId="87" priority="78">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="115" priority="77">
+    <cfRule type="expression" dxfId="86" priority="77">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="114" priority="76">
+    <cfRule type="expression" dxfId="85" priority="76">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="113" priority="75">
+    <cfRule type="expression" dxfId="84" priority="75">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="112" priority="74">
+    <cfRule type="expression" dxfId="83" priority="74">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="111" priority="73">
+    <cfRule type="expression" dxfId="82" priority="73">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="110" priority="72">
+    <cfRule type="expression" dxfId="81" priority="72">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="109" priority="71">
+    <cfRule type="expression" dxfId="80" priority="71">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="108" priority="70">
+    <cfRule type="expression" dxfId="79" priority="70">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="107" priority="69">
+    <cfRule type="expression" dxfId="78" priority="69">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="106" priority="68">
+    <cfRule type="expression" dxfId="77" priority="68">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="105" priority="67">
+    <cfRule type="expression" dxfId="76" priority="67">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="104" priority="66">
+    <cfRule type="expression" dxfId="75" priority="66">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="103" priority="65">
+    <cfRule type="expression" dxfId="74" priority="65">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="102" priority="64">
+    <cfRule type="expression" dxfId="73" priority="64">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="101" priority="63">
+    <cfRule type="expression" dxfId="72" priority="63">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="100" priority="62">
+    <cfRule type="expression" dxfId="71" priority="62">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="99" priority="61">
+    <cfRule type="expression" dxfId="70" priority="61">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="98" priority="60">
+    <cfRule type="expression" dxfId="69" priority="60">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="97" priority="59">
+    <cfRule type="expression" dxfId="68" priority="59">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="96" priority="58">
+    <cfRule type="expression" dxfId="67" priority="58">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="95" priority="57">
+    <cfRule type="expression" dxfId="66" priority="57">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="94" priority="56">
+    <cfRule type="expression" dxfId="65" priority="56">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="93" priority="55">
+    <cfRule type="expression" dxfId="64" priority="55">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="92" priority="54">
+    <cfRule type="expression" dxfId="63" priority="54">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="91" priority="53">
+    <cfRule type="expression" dxfId="62" priority="53">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="90" priority="51">
+    <cfRule type="expression" dxfId="61" priority="51">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="89" priority="52">
+    <cfRule type="expression" dxfId="60" priority="52">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="88" priority="50">
+    <cfRule type="expression" dxfId="59" priority="50">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="87" priority="49">
+    <cfRule type="expression" dxfId="58" priority="49">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="86" priority="48">
+    <cfRule type="expression" dxfId="57" priority="48">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="85" priority="47">
+    <cfRule type="expression" dxfId="56" priority="47">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="84" priority="46">
+    <cfRule type="expression" dxfId="55" priority="46">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="83" priority="45">
+    <cfRule type="expression" dxfId="54" priority="45">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="82" priority="44">
+    <cfRule type="expression" dxfId="53" priority="44">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E728">
-    <cfRule type="expression" dxfId="81" priority="43">
+    <cfRule type="expression" dxfId="52" priority="43">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="80" priority="42">
+    <cfRule type="expression" dxfId="51" priority="42">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="79" priority="41">
+    <cfRule type="expression" dxfId="50" priority="41">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="78" priority="40">
+    <cfRule type="expression" dxfId="49" priority="40">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="77" priority="39">
+    <cfRule type="expression" dxfId="48" priority="39">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E730">
-    <cfRule type="expression" dxfId="76" priority="38">
+    <cfRule type="expression" dxfId="47" priority="38">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="75" priority="37">
+    <cfRule type="expression" dxfId="46" priority="37">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="74" priority="36">
+    <cfRule type="expression" dxfId="45" priority="36">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="73" priority="35">
+    <cfRule type="expression" dxfId="44" priority="35">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="72" priority="34">
+    <cfRule type="expression" dxfId="43" priority="34">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="71" priority="33">
+    <cfRule type="expression" dxfId="42" priority="33">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="70" priority="32">
+    <cfRule type="expression" dxfId="41" priority="32">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="69" priority="31">
+    <cfRule type="expression" dxfId="40" priority="31">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="68" priority="30">
+    <cfRule type="expression" dxfId="39" priority="30">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="67" priority="29">
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="66" priority="28">
+    <cfRule type="expression" dxfId="37" priority="28">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="65" priority="27">
+    <cfRule type="expression" dxfId="36" priority="27">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="64" priority="26">
+    <cfRule type="expression" dxfId="35" priority="26">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="63" priority="25">
+    <cfRule type="expression" dxfId="34" priority="25">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="62" priority="24">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E737">
-    <cfRule type="expression" dxfId="61" priority="23">
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="60" priority="22">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="59" priority="21">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="58" priority="20">
+    <cfRule type="expression" dxfId="29" priority="20">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="57" priority="19">
+    <cfRule type="expression" dxfId="28" priority="19">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="56" priority="18">
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="55" priority="17">
+    <cfRule type="expression" dxfId="26" priority="17">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="54" priority="16">
+    <cfRule type="expression" dxfId="25" priority="16">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="53" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="52" priority="14">
+    <cfRule type="expression" dxfId="23" priority="14">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="51" priority="13">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="50" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="48" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="47" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="45" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="44" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCC737C-A733-4DC9-B0FB-EF9F6E479A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001B9A15-04F4-4674-9DED-BACC0170D9F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,343 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="284">
+  <dxfs count="332">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2775,11 +3111,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD739"/>
+  <dimension ref="A1:AMD743"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J741" sqref="J741"/>
+      <selection pane="bottomLeft" activeCell="J742" sqref="J742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24139,893 +24475,1084 @@
       <c r="C739" s="8">
         <v>45951</v>
       </c>
-      <c r="D739" s="9"/>
-      <c r="E739" s="10"/>
-      <c r="F739" s="11"/>
-      <c r="G739" s="12"/>
-      <c r="H739" s="11"/>
-      <c r="I739" s="12"/>
-      <c r="J739" s="11"/>
-      <c r="K739" s="12"/>
+      <c r="D739" s="9">
+        <v>5900</v>
+      </c>
+      <c r="E739" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F739" s="11">
+        <v>5300</v>
+      </c>
+      <c r="G739" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H739" s="11">
+        <v>8200</v>
+      </c>
+      <c r="I739" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J739" s="11">
+        <v>10600</v>
+      </c>
+      <c r="K739" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A740" s="1">
+        <v>736</v>
+      </c>
+      <c r="B740" s="7" t="str">
+        <f t="shared" ref="B740:B743" si="108">IF(C740&lt;&gt;"",TEXT(C740,"ДДД"),"")</f>
+        <v>Ср</v>
+      </c>
+      <c r="C740" s="8">
+        <v>45952</v>
+      </c>
+      <c r="D740" s="9"/>
+      <c r="E740" s="10"/>
+      <c r="F740" s="11"/>
+      <c r="G740" s="12"/>
+      <c r="H740" s="11"/>
+      <c r="I740" s="12"/>
+      <c r="J740" s="11"/>
+      <c r="K740" s="12"/>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A741" s="1">
+        <v>737</v>
+      </c>
+      <c r="B741" s="7" t="str">
+        <f t="shared" si="108"/>
+        <v>Чт</v>
+      </c>
+      <c r="C741" s="8">
+        <v>45953</v>
+      </c>
+      <c r="D741" s="9"/>
+      <c r="E741" s="10"/>
+      <c r="F741" s="11"/>
+      <c r="G741" s="12"/>
+      <c r="H741" s="11"/>
+      <c r="I741" s="12"/>
+      <c r="J741" s="11"/>
+      <c r="K741" s="12"/>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A742" s="1">
+        <v>738</v>
+      </c>
+      <c r="B742" s="7" t="str">
+        <f t="shared" si="108"/>
+        <v>Пт</v>
+      </c>
+      <c r="C742" s="8">
+        <v>45954</v>
+      </c>
+      <c r="D742" s="9"/>
+      <c r="E742" s="10"/>
+      <c r="F742" s="11"/>
+      <c r="G742" s="12"/>
+      <c r="H742" s="11"/>
+      <c r="I742" s="12"/>
+      <c r="J742" s="11"/>
+      <c r="K742" s="12"/>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A743" s="1">
+        <v>739</v>
+      </c>
+      <c r="B743" s="7" t="str">
+        <f t="shared" si="108"/>
+        <v>Сб</v>
+      </c>
+      <c r="C743" s="8">
+        <v>45955</v>
+      </c>
+      <c r="D743" s="9"/>
+      <c r="E743" s="10"/>
+      <c r="F743" s="11"/>
+      <c r="G743" s="12"/>
+      <c r="H743" s="11"/>
+      <c r="I743" s="12"/>
+      <c r="J743" s="11"/>
+      <c r="K743" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E739">
-    <cfRule type="expression" dxfId="283" priority="171">
+  <conditionalFormatting sqref="B4:E743">
+    <cfRule type="expression" dxfId="331" priority="190">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K739">
-    <cfRule type="expression" dxfId="282" priority="172">
+  <conditionalFormatting sqref="B4:M683 B684:K743">
+    <cfRule type="expression" dxfId="330" priority="191">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="281" priority="185">
+    <cfRule type="expression" dxfId="329" priority="204">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="280" priority="169">
+    <cfRule type="expression" dxfId="328" priority="188">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="279" priority="188">
+    <cfRule type="expression" dxfId="327" priority="207">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="278" priority="186">
+    <cfRule type="expression" dxfId="326" priority="205">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="277" priority="168">
+    <cfRule type="expression" dxfId="325" priority="187">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="276" priority="187">
+    <cfRule type="expression" dxfId="324" priority="206">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="275" priority="167">
+    <cfRule type="expression" dxfId="323" priority="186">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="274" priority="166">
+    <cfRule type="expression" dxfId="322" priority="185">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="273" priority="165">
+    <cfRule type="expression" dxfId="321" priority="184">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="272" priority="164">
+    <cfRule type="expression" dxfId="320" priority="183">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="271" priority="163">
+    <cfRule type="expression" dxfId="319" priority="182">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="270" priority="162">
+    <cfRule type="expression" dxfId="318" priority="181">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="269" priority="161">
+    <cfRule type="expression" dxfId="317" priority="180">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="268" priority="160">
+    <cfRule type="expression" dxfId="316" priority="179">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="267" priority="159">
+    <cfRule type="expression" dxfId="315" priority="178">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="266" priority="158">
+    <cfRule type="expression" dxfId="314" priority="177">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="265" priority="157">
+    <cfRule type="expression" dxfId="313" priority="176">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="264" priority="156">
+    <cfRule type="expression" dxfId="312" priority="175">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="263" priority="155">
+    <cfRule type="expression" dxfId="311" priority="174">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="262" priority="154">
+    <cfRule type="expression" dxfId="310" priority="173">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="261" priority="153">
+    <cfRule type="expression" dxfId="309" priority="172">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="260" priority="152">
+    <cfRule type="expression" dxfId="308" priority="171">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="259" priority="151">
+    <cfRule type="expression" dxfId="307" priority="170">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="258" priority="150">
+    <cfRule type="expression" dxfId="306" priority="169">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="257" priority="149">
+    <cfRule type="expression" dxfId="305" priority="168">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="256" priority="148">
+    <cfRule type="expression" dxfId="304" priority="167">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="255" priority="147">
+    <cfRule type="expression" dxfId="303" priority="166">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="254" priority="146">
+    <cfRule type="expression" dxfId="302" priority="165">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="253" priority="145">
+    <cfRule type="expression" dxfId="301" priority="164">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="252" priority="144">
+    <cfRule type="expression" dxfId="300" priority="163">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="251" priority="143">
+    <cfRule type="expression" dxfId="299" priority="162">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="250" priority="142">
+    <cfRule type="expression" dxfId="298" priority="161">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="249" priority="141">
+    <cfRule type="expression" dxfId="297" priority="160">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="248" priority="140">
+    <cfRule type="expression" dxfId="296" priority="159">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="247" priority="139">
+    <cfRule type="expression" dxfId="295" priority="158">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="246" priority="138">
+    <cfRule type="expression" dxfId="294" priority="157">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="245" priority="137">
+    <cfRule type="expression" dxfId="293" priority="156">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="244" priority="136">
+    <cfRule type="expression" dxfId="292" priority="155">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="243" priority="135">
+    <cfRule type="expression" dxfId="291" priority="154">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="242" priority="134">
+    <cfRule type="expression" dxfId="290" priority="153">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="241" priority="133">
+    <cfRule type="expression" dxfId="289" priority="152">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="240" priority="132">
+    <cfRule type="expression" dxfId="288" priority="151">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="expression" dxfId="239" priority="131">
+    <cfRule type="expression" dxfId="287" priority="150">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="238" priority="130">
+    <cfRule type="expression" dxfId="286" priority="149">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="237" priority="129">
+    <cfRule type="expression" dxfId="285" priority="148">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="236" priority="128">
+    <cfRule type="expression" dxfId="284" priority="147">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="235" priority="127">
+    <cfRule type="expression" dxfId="283" priority="146">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="234" priority="126">
+    <cfRule type="expression" dxfId="282" priority="145">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="233" priority="125">
+    <cfRule type="expression" dxfId="281" priority="144">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="232" priority="124">
+    <cfRule type="expression" dxfId="280" priority="143">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="231" priority="123">
+    <cfRule type="expression" dxfId="279" priority="142">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I710">
-    <cfRule type="expression" dxfId="230" priority="122">
+    <cfRule type="expression" dxfId="278" priority="141">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="229" priority="121">
+    <cfRule type="expression" dxfId="277" priority="140">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E715">
-    <cfRule type="expression" dxfId="228" priority="120">
+    <cfRule type="expression" dxfId="276" priority="139">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="227" priority="119">
+    <cfRule type="expression" dxfId="275" priority="138">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="226" priority="118">
+    <cfRule type="expression" dxfId="274" priority="137">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="225" priority="117">
+    <cfRule type="expression" dxfId="273" priority="136">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="224" priority="116">
+    <cfRule type="expression" dxfId="272" priority="135">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="223" priority="115">
+    <cfRule type="expression" dxfId="271" priority="134">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="222" priority="114">
+    <cfRule type="expression" dxfId="270" priority="133">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="221" priority="113">
+    <cfRule type="expression" dxfId="269" priority="132">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="220" priority="112">
+    <cfRule type="expression" dxfId="268" priority="131">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="219" priority="111">
+    <cfRule type="expression" dxfId="267" priority="130">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="218" priority="110">
+    <cfRule type="expression" dxfId="266" priority="129">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="217" priority="109">
+    <cfRule type="expression" dxfId="265" priority="128">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="216" priority="108">
+    <cfRule type="expression" dxfId="264" priority="127">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="215" priority="107">
+    <cfRule type="expression" dxfId="263" priority="126">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="214" priority="106">
+    <cfRule type="expression" dxfId="262" priority="125">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="213" priority="105">
+    <cfRule type="expression" dxfId="261" priority="124">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="212" priority="104">
+    <cfRule type="expression" dxfId="260" priority="123">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="211" priority="103">
+    <cfRule type="expression" dxfId="259" priority="122">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="210" priority="102">
+    <cfRule type="expression" dxfId="258" priority="121">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="209" priority="101">
+    <cfRule type="expression" dxfId="257" priority="120">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="208" priority="100">
+    <cfRule type="expression" dxfId="256" priority="119">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="207" priority="99">
+    <cfRule type="expression" dxfId="255" priority="118">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="206" priority="98">
+    <cfRule type="expression" dxfId="254" priority="117">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="205" priority="97">
+    <cfRule type="expression" dxfId="253" priority="116">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="204" priority="96">
+    <cfRule type="expression" dxfId="252" priority="115">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="203" priority="95">
+    <cfRule type="expression" dxfId="251" priority="114">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="202" priority="94">
+    <cfRule type="expression" dxfId="250" priority="113">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="201" priority="93">
+    <cfRule type="expression" dxfId="249" priority="112">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="200" priority="92">
+    <cfRule type="expression" dxfId="248" priority="111">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="199" priority="91">
+    <cfRule type="expression" dxfId="247" priority="110">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="198" priority="90">
+    <cfRule type="expression" dxfId="246" priority="109">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="197" priority="89">
+    <cfRule type="expression" dxfId="245" priority="108">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="196" priority="88">
+    <cfRule type="expression" dxfId="244" priority="107">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="195" priority="87">
+    <cfRule type="expression" dxfId="243" priority="106">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="194" priority="86">
+    <cfRule type="expression" dxfId="242" priority="105">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="193" priority="85">
+    <cfRule type="expression" dxfId="241" priority="104">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="192" priority="84">
+    <cfRule type="expression" dxfId="240" priority="103">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="191" priority="83">
+    <cfRule type="expression" dxfId="239" priority="102">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="190" priority="82">
+    <cfRule type="expression" dxfId="238" priority="101">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="189" priority="81">
+    <cfRule type="expression" dxfId="237" priority="100">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="188" priority="80">
+    <cfRule type="expression" dxfId="236" priority="99">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="187" priority="79">
+    <cfRule type="expression" dxfId="235" priority="98">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="186" priority="78">
+    <cfRule type="expression" dxfId="234" priority="97">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="185" priority="77">
+    <cfRule type="expression" dxfId="233" priority="96">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="184" priority="76">
+    <cfRule type="expression" dxfId="232" priority="95">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
-    <cfRule type="expression" dxfId="183" priority="75">
+    <cfRule type="expression" dxfId="231" priority="94">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
-    <cfRule type="expression" dxfId="182" priority="74">
+    <cfRule type="expression" dxfId="230" priority="93">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="181" priority="73">
+    <cfRule type="expression" dxfId="229" priority="92">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="180" priority="72">
+    <cfRule type="expression" dxfId="228" priority="91">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="179" priority="71">
+    <cfRule type="expression" dxfId="227" priority="90">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="178" priority="70">
+    <cfRule type="expression" dxfId="226" priority="89">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="177" priority="69">
+    <cfRule type="expression" dxfId="225" priority="88">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="176" priority="68">
+    <cfRule type="expression" dxfId="224" priority="87">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="175" priority="67">
+    <cfRule type="expression" dxfId="223" priority="86">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="174" priority="66">
+    <cfRule type="expression" dxfId="222" priority="85">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="173" priority="65">
+    <cfRule type="expression" dxfId="221" priority="84">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="172" priority="64">
+    <cfRule type="expression" dxfId="220" priority="83">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="171" priority="63">
+    <cfRule type="expression" dxfId="219" priority="82">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="170" priority="62">
+    <cfRule type="expression" dxfId="218" priority="81">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="169" priority="61">
+    <cfRule type="expression" dxfId="217" priority="80">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="168" priority="60">
+    <cfRule type="expression" dxfId="216" priority="79">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="167" priority="59">
+    <cfRule type="expression" dxfId="215" priority="78">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="166" priority="58">
+    <cfRule type="expression" dxfId="214" priority="77">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="165" priority="57">
+    <cfRule type="expression" dxfId="213" priority="76">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="164" priority="56">
+    <cfRule type="expression" dxfId="212" priority="75">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="163" priority="55">
+    <cfRule type="expression" dxfId="211" priority="74">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="162" priority="54">
+    <cfRule type="expression" dxfId="210" priority="73">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="161" priority="53">
+    <cfRule type="expression" dxfId="209" priority="72">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="160" priority="52">
+    <cfRule type="expression" dxfId="208" priority="71">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="159" priority="51">
+    <cfRule type="expression" dxfId="207" priority="70">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="158" priority="50">
+    <cfRule type="expression" dxfId="206" priority="69">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="157" priority="49">
+    <cfRule type="expression" dxfId="205" priority="68">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="156" priority="48">
+    <cfRule type="expression" dxfId="204" priority="67">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="155" priority="47">
+    <cfRule type="expression" dxfId="203" priority="66">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="154" priority="46">
+    <cfRule type="expression" dxfId="202" priority="65">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="153" priority="45">
+    <cfRule type="expression" dxfId="201" priority="64">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="152" priority="44">
+    <cfRule type="expression" dxfId="200" priority="63">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="151" priority="43">
+    <cfRule type="expression" dxfId="199" priority="62">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="150" priority="42">
+    <cfRule type="expression" dxfId="198" priority="61">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="149" priority="41">
+    <cfRule type="expression" dxfId="197" priority="60">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="148" priority="40">
+    <cfRule type="expression" dxfId="196" priority="59">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="147" priority="39">
+    <cfRule type="expression" dxfId="195" priority="58">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="146" priority="38">
+    <cfRule type="expression" dxfId="194" priority="57">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="145" priority="37">
+    <cfRule type="expression" dxfId="193" priority="56">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="144" priority="36">
+    <cfRule type="expression" dxfId="192" priority="55">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="143" priority="35">
+    <cfRule type="expression" dxfId="191" priority="54">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="142" priority="34">
+    <cfRule type="expression" dxfId="190" priority="53">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="141" priority="33">
+    <cfRule type="expression" dxfId="189" priority="52">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="140" priority="32">
+    <cfRule type="expression" dxfId="188" priority="51">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="139" priority="31">
+    <cfRule type="expression" dxfId="187" priority="50">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="138" priority="30">
+    <cfRule type="expression" dxfId="186" priority="49">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="137" priority="29">
+    <cfRule type="expression" dxfId="185" priority="48">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="136" priority="28">
+    <cfRule type="expression" dxfId="184" priority="47">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="135" priority="27">
+    <cfRule type="expression" dxfId="183" priority="46">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="134" priority="26">
+    <cfRule type="expression" dxfId="182" priority="45">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="133" priority="25">
+    <cfRule type="expression" dxfId="181" priority="44">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="132" priority="24">
+    <cfRule type="expression" dxfId="180" priority="43">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="131" priority="23">
+    <cfRule type="expression" dxfId="179" priority="42">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="130" priority="22">
+    <cfRule type="expression" dxfId="178" priority="41">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="129" priority="21">
+    <cfRule type="expression" dxfId="177" priority="40">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="128" priority="20">
+    <cfRule type="expression" dxfId="176" priority="39">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="127" priority="19">
+    <cfRule type="expression" dxfId="175" priority="38">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="126" priority="18">
+    <cfRule type="expression" dxfId="174" priority="37">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="125" priority="17">
+    <cfRule type="expression" dxfId="173" priority="36">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="124" priority="16">
+    <cfRule type="expression" dxfId="172" priority="35">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="123" priority="15">
+    <cfRule type="expression" dxfId="171" priority="34">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="122" priority="14">
+    <cfRule type="expression" dxfId="170" priority="33">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="121" priority="13">
+    <cfRule type="expression" dxfId="169" priority="32">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="120" priority="12">
+    <cfRule type="expression" dxfId="168" priority="31">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="119" priority="11">
+    <cfRule type="expression" dxfId="167" priority="30">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="166" priority="29">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="165" priority="28">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="164" priority="27">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="163" priority="26">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="162" priority="25">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="161" priority="24">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="160" priority="23">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="159" priority="22">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="158" priority="21">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="157" priority="20">
       <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
+    <cfRule type="expression" dxfId="156" priority="19">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
+    <cfRule type="expression" dxfId="155" priority="18">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
+    <cfRule type="expression" dxfId="154" priority="17">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
+    <cfRule type="expression" dxfId="153" priority="16">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
+    <cfRule type="expression" dxfId="152" priority="15">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
+    <cfRule type="expression" dxfId="151" priority="14">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
+    <cfRule type="expression" dxfId="150" priority="13">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
+    <cfRule type="expression" dxfId="149" priority="12">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
+    <cfRule type="expression" dxfId="148" priority="11">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
+    <cfRule type="expression" dxfId="147" priority="10">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
+    <cfRule type="expression" dxfId="146" priority="9">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
+    <cfRule type="expression" dxfId="145" priority="8">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
+    <cfRule type="expression" dxfId="144" priority="7">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
+    <cfRule type="expression" dxfId="143" priority="6">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
+    <cfRule type="expression" dxfId="142" priority="5">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
+    <cfRule type="expression" dxfId="141" priority="4">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
+    <cfRule type="expression" dxfId="140" priority="3">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
+    <cfRule type="expression" dxfId="139" priority="2">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
+    <cfRule type="expression" dxfId="138" priority="1">
+      <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -25035,11 +25562,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O743"/>
+  <dimension ref="A1:O752"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H746" sqref="H746"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H755" sqref="H755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43696,555 +44223,923 @@
       <c r="J743" s="11"/>
       <c r="K743" s="12"/>
     </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A744" s="1">
+        <v>743</v>
+      </c>
+      <c r="B744" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C744" s="8">
+        <v>45949</v>
+      </c>
+      <c r="D744" s="9"/>
+      <c r="E744" s="10"/>
+      <c r="F744" s="11"/>
+      <c r="G744" s="12"/>
+      <c r="H744" s="11"/>
+      <c r="I744" s="12"/>
+      <c r="J744" s="11"/>
+      <c r="K744" s="12"/>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A745" s="1">
+        <v>744</v>
+      </c>
+      <c r="B745" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C745" s="8">
+        <v>45950</v>
+      </c>
+      <c r="D745" s="9"/>
+      <c r="E745" s="10"/>
+      <c r="F745" s="11"/>
+      <c r="G745" s="12"/>
+      <c r="H745" s="11"/>
+      <c r="I745" s="12"/>
+      <c r="J745" s="11"/>
+      <c r="K745" s="12"/>
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A746" s="1">
+        <v>745</v>
+      </c>
+      <c r="B746" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C746" s="8">
+        <v>45951</v>
+      </c>
+      <c r="D746" s="9">
+        <v>5200</v>
+      </c>
+      <c r="E746" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F746" s="11">
+        <v>3000</v>
+      </c>
+      <c r="G746" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H746" s="11"/>
+      <c r="I746" s="12"/>
+      <c r="J746" s="11">
+        <v>4500</v>
+      </c>
+      <c r="K746" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A747" s="1">
+        <v>746</v>
+      </c>
+      <c r="B747" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C747" s="8">
+        <v>45952</v>
+      </c>
+      <c r="D747" s="9"/>
+      <c r="E747" s="10"/>
+      <c r="F747" s="11"/>
+      <c r="G747" s="12"/>
+      <c r="H747" s="11"/>
+      <c r="I747" s="12"/>
+      <c r="J747" s="11"/>
+      <c r="K747" s="12"/>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A748" s="1">
+        <v>747</v>
+      </c>
+      <c r="B748" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C748" s="8">
+        <v>45953</v>
+      </c>
+      <c r="D748" s="9">
+        <v>4700</v>
+      </c>
+      <c r="E748" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F748" s="11"/>
+      <c r="G748" s="12"/>
+      <c r="H748" s="11">
+        <v>4200</v>
+      </c>
+      <c r="I748" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J748" s="11">
+        <v>4100</v>
+      </c>
+      <c r="K748" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A749" s="1">
+        <v>748</v>
+      </c>
+      <c r="B749" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C749" s="8">
+        <v>45953</v>
+      </c>
+      <c r="D749" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E749" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F749" s="11">
+        <v>1300</v>
+      </c>
+      <c r="G749" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H749" s="11">
+        <v>100</v>
+      </c>
+      <c r="I749" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J749" s="11">
+        <v>600</v>
+      </c>
+      <c r="K749" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A750" s="1">
+        <v>749</v>
+      </c>
+      <c r="B750" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C750" s="8">
+        <v>45953</v>
+      </c>
+      <c r="D750" s="9">
+        <v>300</v>
+      </c>
+      <c r="E750" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F750" s="11">
+        <v>100</v>
+      </c>
+      <c r="G750" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H750" s="11"/>
+      <c r="I750" s="12"/>
+      <c r="J750" s="11">
+        <v>20</v>
+      </c>
+      <c r="K750" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A751" s="1">
+        <v>750</v>
+      </c>
+      <c r="B751" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C751" s="8">
+        <v>45954</v>
+      </c>
+      <c r="D751" s="9"/>
+      <c r="E751" s="10"/>
+      <c r="F751" s="11"/>
+      <c r="G751" s="12"/>
+      <c r="H751" s="11"/>
+      <c r="I751" s="12"/>
+      <c r="J751" s="11"/>
+      <c r="K751" s="12"/>
+    </row>
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A752" s="1">
+        <v>751</v>
+      </c>
+      <c r="B752" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C752" s="8">
+        <v>45955</v>
+      </c>
+      <c r="D752" s="9"/>
+      <c r="E752" s="10"/>
+      <c r="F752" s="11"/>
+      <c r="G752" s="12"/>
+      <c r="H752" s="11"/>
+      <c r="I752" s="12"/>
+      <c r="J752" s="11"/>
+      <c r="K752" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E743">
-    <cfRule type="expression" dxfId="118" priority="103">
+  <conditionalFormatting sqref="B4:E752">
+    <cfRule type="expression" dxfId="137" priority="132">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K743">
-    <cfRule type="expression" dxfId="117" priority="104">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K752">
+    <cfRule type="expression" dxfId="136" priority="133">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="116" priority="113">
+    <cfRule type="expression" dxfId="135" priority="142">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="115" priority="116">
+    <cfRule type="expression" dxfId="134" priority="145">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="114" priority="125">
+    <cfRule type="expression" dxfId="133" priority="154">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="113" priority="138">
+    <cfRule type="expression" dxfId="132" priority="167">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="112" priority="142">
+    <cfRule type="expression" dxfId="131" priority="171">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="111" priority="117">
+    <cfRule type="expression" dxfId="130" priority="146">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="110" priority="101">
+    <cfRule type="expression" dxfId="129" priority="130">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="109" priority="100">
+    <cfRule type="expression" dxfId="128" priority="129">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="108" priority="99">
+    <cfRule type="expression" dxfId="127" priority="128">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="107" priority="98">
+    <cfRule type="expression" dxfId="126" priority="127">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="106" priority="97">
+    <cfRule type="expression" dxfId="125" priority="126">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="105" priority="96">
+    <cfRule type="expression" dxfId="124" priority="125">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="104" priority="95">
+    <cfRule type="expression" dxfId="123" priority="124">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="103" priority="94">
+    <cfRule type="expression" dxfId="122" priority="123">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="102" priority="93">
+    <cfRule type="expression" dxfId="121" priority="122">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="101" priority="92">
+    <cfRule type="expression" dxfId="120" priority="121">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="100" priority="91">
+    <cfRule type="expression" dxfId="119" priority="120">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="99" priority="90">
+    <cfRule type="expression" dxfId="118" priority="119">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="98" priority="89">
+    <cfRule type="expression" dxfId="117" priority="118">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="97" priority="88">
+    <cfRule type="expression" dxfId="116" priority="117">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="96" priority="87">
+    <cfRule type="expression" dxfId="115" priority="116">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="95" priority="86">
+    <cfRule type="expression" dxfId="114" priority="115">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="94" priority="85">
+    <cfRule type="expression" dxfId="113" priority="114">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="93" priority="84">
+    <cfRule type="expression" dxfId="112" priority="113">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="92" priority="83">
+    <cfRule type="expression" dxfId="111" priority="112">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="91" priority="82">
+    <cfRule type="expression" dxfId="110" priority="111">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="90" priority="81">
+    <cfRule type="expression" dxfId="109" priority="110">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="89" priority="80">
+    <cfRule type="expression" dxfId="108" priority="109">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="88" priority="79">
+    <cfRule type="expression" dxfId="107" priority="108">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="87" priority="78">
+    <cfRule type="expression" dxfId="106" priority="107">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="86" priority="77">
+    <cfRule type="expression" dxfId="105" priority="106">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="85" priority="76">
+    <cfRule type="expression" dxfId="104" priority="105">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="84" priority="75">
+    <cfRule type="expression" dxfId="103" priority="104">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="83" priority="74">
+    <cfRule type="expression" dxfId="102" priority="103">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="82" priority="73">
+    <cfRule type="expression" dxfId="101" priority="102">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="81" priority="72">
+    <cfRule type="expression" dxfId="100" priority="101">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="80" priority="71">
+    <cfRule type="expression" dxfId="99" priority="100">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="79" priority="70">
+    <cfRule type="expression" dxfId="98" priority="99">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="78" priority="69">
+    <cfRule type="expression" dxfId="97" priority="98">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="77" priority="68">
+    <cfRule type="expression" dxfId="96" priority="97">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="76" priority="67">
+    <cfRule type="expression" dxfId="95" priority="96">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="75" priority="66">
+    <cfRule type="expression" dxfId="94" priority="95">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="74" priority="65">
+    <cfRule type="expression" dxfId="93" priority="94">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="73" priority="64">
+    <cfRule type="expression" dxfId="92" priority="93">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="72" priority="63">
+    <cfRule type="expression" dxfId="91" priority="92">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="71" priority="62">
+    <cfRule type="expression" dxfId="90" priority="91">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="70" priority="61">
+    <cfRule type="expression" dxfId="89" priority="90">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="69" priority="60">
+    <cfRule type="expression" dxfId="88" priority="89">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="68" priority="59">
+    <cfRule type="expression" dxfId="87" priority="88">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="67" priority="58">
+    <cfRule type="expression" dxfId="86" priority="87">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="66" priority="57">
+    <cfRule type="expression" dxfId="85" priority="86">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="65" priority="56">
+    <cfRule type="expression" dxfId="84" priority="85">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="64" priority="55">
+    <cfRule type="expression" dxfId="83" priority="84">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="63" priority="54">
+    <cfRule type="expression" dxfId="82" priority="83">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="62" priority="53">
+    <cfRule type="expression" dxfId="81" priority="82">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="61" priority="51">
+    <cfRule type="expression" dxfId="80" priority="80">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="60" priority="52">
+    <cfRule type="expression" dxfId="79" priority="81">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="59" priority="50">
+    <cfRule type="expression" dxfId="78" priority="79">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="58" priority="49">
+    <cfRule type="expression" dxfId="77" priority="78">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="57" priority="48">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="56" priority="47">
+    <cfRule type="expression" dxfId="75" priority="76">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="55" priority="46">
+    <cfRule type="expression" dxfId="74" priority="75">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="54" priority="45">
+    <cfRule type="expression" dxfId="73" priority="74">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="53" priority="44">
+    <cfRule type="expression" dxfId="72" priority="73">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E728">
-    <cfRule type="expression" dxfId="52" priority="43">
+    <cfRule type="expression" dxfId="71" priority="72">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="51" priority="42">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="50" priority="41">
+    <cfRule type="expression" dxfId="69" priority="70">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="49" priority="40">
+    <cfRule type="expression" dxfId="68" priority="69">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="48" priority="39">
+    <cfRule type="expression" dxfId="67" priority="68">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E730">
-    <cfRule type="expression" dxfId="47" priority="38">
+    <cfRule type="expression" dxfId="66" priority="67">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="46" priority="37">
+    <cfRule type="expression" dxfId="65" priority="66">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="45" priority="36">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="44" priority="35">
+    <cfRule type="expression" dxfId="63" priority="64">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="43" priority="34">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="42" priority="33">
+    <cfRule type="expression" dxfId="61" priority="62">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="60" priority="61">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="40" priority="31">
+    <cfRule type="expression" dxfId="59" priority="60">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="39" priority="30">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="38" priority="29">
+    <cfRule type="expression" dxfId="57" priority="58">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="37" priority="28">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="36" priority="27">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="35" priority="26">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="34" priority="25">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="33" priority="24">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E737">
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="29" priority="20">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="28" priority="19">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="26" priority="17">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="25" priority="16">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="23" priority="14">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="22" priority="13">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E746">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$C746=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G746">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>$C746=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G746">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>$C746=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K746">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$C746=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K746">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$C746=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E748">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I748">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I748">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K748">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K748">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E749">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E749">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G749">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G749">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G749">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I749">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I749">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I749">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K749">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K749">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K749">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E750">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E750">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G750">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G750">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G750">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K750">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K750">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K750">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001B9A15-04F4-4674-9DED-BACC0170D9F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB2087-9766-4F61-9199-0DACEBC3ACCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,378 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="332">
+  <dxfs count="385">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3111,11 +3482,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD743"/>
+  <dimension ref="A1:AMD744"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J742" sqref="J742"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A731" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J745" sqref="J745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24505,7 +24876,7 @@
         <v>736</v>
       </c>
       <c r="B740" s="7" t="str">
-        <f t="shared" ref="B740:B743" si="108">IF(C740&lt;&gt;"",TEXT(C740,"ДДД"),"")</f>
+        <f t="shared" ref="B740:B744" si="108">IF(C740&lt;&gt;"",TEXT(C740,"ДДД"),"")</f>
         <v>Ср</v>
       </c>
       <c r="C740" s="8">
@@ -24516,9 +24887,13 @@
       <c r="F740" s="11"/>
       <c r="G740" s="12"/>
       <c r="H740" s="11"/>
-      <c r="I740" s="12"/>
-      <c r="J740" s="11"/>
-      <c r="K740" s="12"/>
+      <c r="I740" s="10"/>
+      <c r="J740" s="11">
+        <v>12000</v>
+      </c>
+      <c r="K740" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
@@ -24531,34 +24906,66 @@
       <c r="C741" s="8">
         <v>45953</v>
       </c>
-      <c r="D741" s="9"/>
-      <c r="E741" s="10"/>
-      <c r="F741" s="11"/>
-      <c r="G741" s="12"/>
-      <c r="H741" s="11"/>
-      <c r="I741" s="12"/>
-      <c r="J741" s="11"/>
-      <c r="K741" s="12"/>
+      <c r="D741" s="9">
+        <v>2100</v>
+      </c>
+      <c r="E741" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F741" s="11">
+        <v>2900</v>
+      </c>
+      <c r="G741" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H741" s="11">
+        <v>9500</v>
+      </c>
+      <c r="I741" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J741" s="11">
+        <v>3500</v>
+      </c>
+      <c r="K741" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>738</v>
       </c>
       <c r="B742" s="7" t="str">
-        <f t="shared" si="108"/>
-        <v>Пт</v>
+        <f t="shared" ref="B742" si="109">IF(C742&lt;&gt;"",TEXT(C742,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C742" s="8">
-        <v>45954</v>
-      </c>
-      <c r="D742" s="9"/>
-      <c r="E742" s="10"/>
-      <c r="F742" s="11"/>
-      <c r="G742" s="12"/>
-      <c r="H742" s="11"/>
-      <c r="I742" s="12"/>
-      <c r="J742" s="11"/>
-      <c r="K742" s="12"/>
+        <v>45953</v>
+      </c>
+      <c r="D742" s="9">
+        <v>9500</v>
+      </c>
+      <c r="E742" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F742" s="11">
+        <v>5300</v>
+      </c>
+      <c r="G742" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H742" s="11">
+        <v>4200</v>
+      </c>
+      <c r="I742" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J742" s="11">
+        <v>6200</v>
+      </c>
+      <c r="K742" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
@@ -24566,10 +24973,10 @@
       </c>
       <c r="B743" s="7" t="str">
         <f t="shared" si="108"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C743" s="8">
-        <v>45955</v>
+        <v>45954</v>
       </c>
       <c r="D743" s="9"/>
       <c r="E743" s="10"/>
@@ -24580,979 +24987,1264 @@
       <c r="J743" s="11"/>
       <c r="K743" s="12"/>
     </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A744" s="1">
+        <v>740</v>
+      </c>
+      <c r="B744" s="7" t="str">
+        <f t="shared" si="108"/>
+        <v>Сб</v>
+      </c>
+      <c r="C744" s="8">
+        <v>45955</v>
+      </c>
+      <c r="D744" s="9"/>
+      <c r="E744" s="10"/>
+      <c r="F744" s="11"/>
+      <c r="G744" s="12"/>
+      <c r="H744" s="11"/>
+      <c r="I744" s="12"/>
+      <c r="J744" s="11"/>
+      <c r="K744" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E743">
-    <cfRule type="expression" dxfId="331" priority="190">
+  <conditionalFormatting sqref="B4:E744">
+    <cfRule type="expression" dxfId="384" priority="243">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K743">
-    <cfRule type="expression" dxfId="330" priority="191">
+  <conditionalFormatting sqref="B4:M683 B684:K744">
+    <cfRule type="expression" dxfId="383" priority="244">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="329" priority="204">
+    <cfRule type="expression" dxfId="382" priority="257">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="328" priority="188">
+    <cfRule type="expression" dxfId="381" priority="241">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="327" priority="207">
+    <cfRule type="expression" dxfId="380" priority="260">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="326" priority="205">
+    <cfRule type="expression" dxfId="379" priority="258">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="325" priority="187">
+    <cfRule type="expression" dxfId="378" priority="240">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="324" priority="206">
+    <cfRule type="expression" dxfId="377" priority="259">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="323" priority="186">
+    <cfRule type="expression" dxfId="376" priority="239">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="322" priority="185">
+    <cfRule type="expression" dxfId="375" priority="238">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="321" priority="184">
+    <cfRule type="expression" dxfId="374" priority="237">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="320" priority="183">
+    <cfRule type="expression" dxfId="373" priority="236">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="319" priority="182">
+    <cfRule type="expression" dxfId="372" priority="235">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="318" priority="181">
+    <cfRule type="expression" dxfId="371" priority="234">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="317" priority="180">
+    <cfRule type="expression" dxfId="370" priority="233">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="316" priority="179">
+    <cfRule type="expression" dxfId="369" priority="232">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="315" priority="178">
+    <cfRule type="expression" dxfId="368" priority="231">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="314" priority="177">
+    <cfRule type="expression" dxfId="367" priority="230">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="313" priority="176">
+    <cfRule type="expression" dxfId="366" priority="229">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="312" priority="175">
+    <cfRule type="expression" dxfId="365" priority="228">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="311" priority="174">
+    <cfRule type="expression" dxfId="364" priority="227">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="310" priority="173">
+    <cfRule type="expression" dxfId="363" priority="226">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="309" priority="172">
+    <cfRule type="expression" dxfId="362" priority="225">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="308" priority="171">
+    <cfRule type="expression" dxfId="361" priority="224">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="307" priority="170">
+    <cfRule type="expression" dxfId="360" priority="223">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="306" priority="169">
+    <cfRule type="expression" dxfId="359" priority="222">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="305" priority="168">
+    <cfRule type="expression" dxfId="358" priority="221">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="304" priority="167">
+    <cfRule type="expression" dxfId="357" priority="220">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="303" priority="166">
+    <cfRule type="expression" dxfId="356" priority="219">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="302" priority="165">
+    <cfRule type="expression" dxfId="355" priority="218">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="301" priority="164">
+    <cfRule type="expression" dxfId="354" priority="217">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="300" priority="163">
+    <cfRule type="expression" dxfId="353" priority="216">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="299" priority="162">
+    <cfRule type="expression" dxfId="352" priority="215">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="298" priority="161">
+    <cfRule type="expression" dxfId="351" priority="214">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="297" priority="160">
+    <cfRule type="expression" dxfId="350" priority="213">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="296" priority="159">
+    <cfRule type="expression" dxfId="349" priority="212">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="295" priority="158">
+    <cfRule type="expression" dxfId="348" priority="211">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="294" priority="157">
+    <cfRule type="expression" dxfId="347" priority="210">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="293" priority="156">
+    <cfRule type="expression" dxfId="346" priority="209">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="292" priority="155">
+    <cfRule type="expression" dxfId="345" priority="208">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="291" priority="154">
+    <cfRule type="expression" dxfId="344" priority="207">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="290" priority="153">
+    <cfRule type="expression" dxfId="343" priority="206">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="289" priority="152">
+    <cfRule type="expression" dxfId="342" priority="205">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="288" priority="151">
+    <cfRule type="expression" dxfId="341" priority="204">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="expression" dxfId="287" priority="150">
+    <cfRule type="expression" dxfId="340" priority="203">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="286" priority="149">
+    <cfRule type="expression" dxfId="339" priority="202">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="285" priority="148">
+    <cfRule type="expression" dxfId="338" priority="201">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="284" priority="147">
+    <cfRule type="expression" dxfId="337" priority="200">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="283" priority="146">
+    <cfRule type="expression" dxfId="336" priority="199">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="282" priority="145">
+    <cfRule type="expression" dxfId="335" priority="198">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="281" priority="144">
+    <cfRule type="expression" dxfId="334" priority="197">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="280" priority="143">
+    <cfRule type="expression" dxfId="333" priority="196">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="279" priority="142">
+    <cfRule type="expression" dxfId="332" priority="195">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I710">
-    <cfRule type="expression" dxfId="278" priority="141">
+    <cfRule type="expression" dxfId="331" priority="194">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="277" priority="140">
+    <cfRule type="expression" dxfId="330" priority="193">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E715">
-    <cfRule type="expression" dxfId="276" priority="139">
+    <cfRule type="expression" dxfId="329" priority="192">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="275" priority="138">
+    <cfRule type="expression" dxfId="328" priority="191">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="274" priority="137">
+    <cfRule type="expression" dxfId="327" priority="190">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="273" priority="136">
+    <cfRule type="expression" dxfId="326" priority="189">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="272" priority="135">
+    <cfRule type="expression" dxfId="325" priority="188">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="271" priority="134">
+    <cfRule type="expression" dxfId="324" priority="187">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="270" priority="133">
+    <cfRule type="expression" dxfId="323" priority="186">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="269" priority="132">
+    <cfRule type="expression" dxfId="322" priority="185">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="268" priority="131">
+    <cfRule type="expression" dxfId="321" priority="184">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="267" priority="130">
+    <cfRule type="expression" dxfId="320" priority="183">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="266" priority="129">
+    <cfRule type="expression" dxfId="319" priority="182">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="265" priority="128">
+    <cfRule type="expression" dxfId="318" priority="181">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="264" priority="127">
+    <cfRule type="expression" dxfId="317" priority="180">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="263" priority="126">
+    <cfRule type="expression" dxfId="316" priority="179">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="262" priority="125">
+    <cfRule type="expression" dxfId="315" priority="178">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="261" priority="124">
+    <cfRule type="expression" dxfId="314" priority="177">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="260" priority="123">
+    <cfRule type="expression" dxfId="313" priority="176">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="259" priority="122">
+    <cfRule type="expression" dxfId="312" priority="175">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="258" priority="121">
+    <cfRule type="expression" dxfId="311" priority="174">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="257" priority="120">
+    <cfRule type="expression" dxfId="310" priority="173">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="256" priority="119">
+    <cfRule type="expression" dxfId="309" priority="172">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="255" priority="118">
+    <cfRule type="expression" dxfId="308" priority="171">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="254" priority="117">
+    <cfRule type="expression" dxfId="307" priority="170">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="253" priority="116">
+    <cfRule type="expression" dxfId="306" priority="169">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="252" priority="115">
+    <cfRule type="expression" dxfId="305" priority="168">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="251" priority="114">
+    <cfRule type="expression" dxfId="304" priority="167">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="250" priority="113">
+    <cfRule type="expression" dxfId="303" priority="166">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="249" priority="112">
+    <cfRule type="expression" dxfId="302" priority="165">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="248" priority="111">
+    <cfRule type="expression" dxfId="301" priority="164">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="247" priority="110">
+    <cfRule type="expression" dxfId="300" priority="163">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="246" priority="109">
+    <cfRule type="expression" dxfId="299" priority="162">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="245" priority="108">
+    <cfRule type="expression" dxfId="298" priority="161">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="244" priority="107">
+    <cfRule type="expression" dxfId="297" priority="160">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="243" priority="106">
+    <cfRule type="expression" dxfId="296" priority="159">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="242" priority="105">
+    <cfRule type="expression" dxfId="295" priority="158">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="241" priority="104">
+    <cfRule type="expression" dxfId="294" priority="157">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="240" priority="103">
+    <cfRule type="expression" dxfId="293" priority="156">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="239" priority="102">
+    <cfRule type="expression" dxfId="292" priority="155">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="238" priority="101">
+    <cfRule type="expression" dxfId="291" priority="154">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="237" priority="100">
+    <cfRule type="expression" dxfId="290" priority="153">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="236" priority="99">
+    <cfRule type="expression" dxfId="289" priority="152">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="235" priority="98">
+    <cfRule type="expression" dxfId="288" priority="151">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="234" priority="97">
+    <cfRule type="expression" dxfId="287" priority="150">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="233" priority="96">
+    <cfRule type="expression" dxfId="286" priority="149">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="232" priority="95">
+    <cfRule type="expression" dxfId="285" priority="148">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
-    <cfRule type="expression" dxfId="231" priority="94">
+    <cfRule type="expression" dxfId="284" priority="147">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
-    <cfRule type="expression" dxfId="230" priority="93">
+    <cfRule type="expression" dxfId="283" priority="146">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="229" priority="92">
+    <cfRule type="expression" dxfId="282" priority="145">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="228" priority="91">
+    <cfRule type="expression" dxfId="281" priority="144">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="227" priority="90">
+    <cfRule type="expression" dxfId="280" priority="143">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="226" priority="89">
+    <cfRule type="expression" dxfId="279" priority="142">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="225" priority="88">
+    <cfRule type="expression" dxfId="278" priority="141">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="224" priority="87">
+    <cfRule type="expression" dxfId="277" priority="140">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="223" priority="86">
+    <cfRule type="expression" dxfId="276" priority="139">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="222" priority="85">
+    <cfRule type="expression" dxfId="275" priority="138">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="221" priority="84">
+    <cfRule type="expression" dxfId="274" priority="137">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="220" priority="83">
+    <cfRule type="expression" dxfId="273" priority="136">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="219" priority="82">
+    <cfRule type="expression" dxfId="272" priority="135">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="218" priority="81">
+    <cfRule type="expression" dxfId="271" priority="134">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="217" priority="80">
+    <cfRule type="expression" dxfId="270" priority="133">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="216" priority="79">
+    <cfRule type="expression" dxfId="269" priority="132">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="215" priority="78">
+    <cfRule type="expression" dxfId="268" priority="131">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="214" priority="77">
+    <cfRule type="expression" dxfId="267" priority="130">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="213" priority="76">
+    <cfRule type="expression" dxfId="266" priority="129">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="212" priority="75">
+    <cfRule type="expression" dxfId="265" priority="128">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="211" priority="74">
+    <cfRule type="expression" dxfId="264" priority="127">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="210" priority="73">
+    <cfRule type="expression" dxfId="263" priority="126">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="209" priority="72">
+    <cfRule type="expression" dxfId="262" priority="125">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="208" priority="71">
+    <cfRule type="expression" dxfId="261" priority="124">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="207" priority="70">
+    <cfRule type="expression" dxfId="260" priority="123">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="206" priority="69">
+    <cfRule type="expression" dxfId="259" priority="122">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="205" priority="68">
+    <cfRule type="expression" dxfId="258" priority="121">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="204" priority="67">
+    <cfRule type="expression" dxfId="257" priority="120">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="203" priority="66">
+    <cfRule type="expression" dxfId="256" priority="119">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="202" priority="65">
+    <cfRule type="expression" dxfId="255" priority="118">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="201" priority="64">
+    <cfRule type="expression" dxfId="254" priority="117">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="200" priority="63">
+    <cfRule type="expression" dxfId="253" priority="116">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="199" priority="62">
+    <cfRule type="expression" dxfId="252" priority="115">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="198" priority="61">
+    <cfRule type="expression" dxfId="251" priority="114">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="197" priority="60">
+    <cfRule type="expression" dxfId="250" priority="113">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="196" priority="59">
+    <cfRule type="expression" dxfId="249" priority="112">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="195" priority="58">
+    <cfRule type="expression" dxfId="248" priority="111">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="194" priority="57">
+    <cfRule type="expression" dxfId="247" priority="110">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="193" priority="56">
+    <cfRule type="expression" dxfId="246" priority="109">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="192" priority="55">
+    <cfRule type="expression" dxfId="245" priority="108">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="191" priority="54">
+    <cfRule type="expression" dxfId="244" priority="107">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="190" priority="53">
+    <cfRule type="expression" dxfId="243" priority="106">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="189" priority="52">
+    <cfRule type="expression" dxfId="242" priority="105">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="188" priority="51">
+    <cfRule type="expression" dxfId="241" priority="104">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="187" priority="50">
+    <cfRule type="expression" dxfId="240" priority="103">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="186" priority="49">
+    <cfRule type="expression" dxfId="239" priority="102">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="185" priority="48">
+    <cfRule type="expression" dxfId="238" priority="101">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="184" priority="47">
+    <cfRule type="expression" dxfId="237" priority="100">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="183" priority="46">
+    <cfRule type="expression" dxfId="236" priority="99">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="182" priority="45">
+    <cfRule type="expression" dxfId="235" priority="98">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="181" priority="44">
+    <cfRule type="expression" dxfId="234" priority="97">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="180" priority="43">
+    <cfRule type="expression" dxfId="233" priority="96">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="179" priority="42">
+    <cfRule type="expression" dxfId="232" priority="95">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="178" priority="41">
+    <cfRule type="expression" dxfId="231" priority="94">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="177" priority="40">
+    <cfRule type="expression" dxfId="230" priority="93">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="176" priority="39">
+    <cfRule type="expression" dxfId="229" priority="92">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="175" priority="38">
+    <cfRule type="expression" dxfId="228" priority="91">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="174" priority="37">
+    <cfRule type="expression" dxfId="227" priority="90">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="173" priority="36">
+    <cfRule type="expression" dxfId="226" priority="89">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="172" priority="35">
+    <cfRule type="expression" dxfId="225" priority="88">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="171" priority="34">
+    <cfRule type="expression" dxfId="224" priority="87">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="170" priority="33">
+    <cfRule type="expression" dxfId="223" priority="86">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="169" priority="32">
+    <cfRule type="expression" dxfId="222" priority="85">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="168" priority="31">
+    <cfRule type="expression" dxfId="221" priority="84">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="167" priority="30">
+    <cfRule type="expression" dxfId="220" priority="83">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="166" priority="29">
+    <cfRule type="expression" dxfId="219" priority="82">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="165" priority="28">
+    <cfRule type="expression" dxfId="218" priority="81">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="164" priority="27">
+    <cfRule type="expression" dxfId="217" priority="80">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="163" priority="26">
+    <cfRule type="expression" dxfId="216" priority="79">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="162" priority="25">
+    <cfRule type="expression" dxfId="215" priority="78">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="161" priority="24">
+    <cfRule type="expression" dxfId="214" priority="77">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="160" priority="23">
+    <cfRule type="expression" dxfId="213" priority="76">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="159" priority="22">
+    <cfRule type="expression" dxfId="212" priority="75">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="158" priority="21">
+    <cfRule type="expression" dxfId="211" priority="74">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="157" priority="20">
+    <cfRule type="expression" dxfId="210" priority="73">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="156" priority="19">
+    <cfRule type="expression" dxfId="209" priority="72">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="155" priority="18">
+    <cfRule type="expression" dxfId="208" priority="71">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="154" priority="17">
+    <cfRule type="expression" dxfId="207" priority="70">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="153" priority="16">
+    <cfRule type="expression" dxfId="206" priority="69">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="152" priority="15">
+    <cfRule type="expression" dxfId="205" priority="68">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="151" priority="14">
+    <cfRule type="expression" dxfId="204" priority="67">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="150" priority="13">
+    <cfRule type="expression" dxfId="203" priority="66">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="149" priority="12">
+    <cfRule type="expression" dxfId="202" priority="65">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="148" priority="11">
+    <cfRule type="expression" dxfId="201" priority="64">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="147" priority="10">
+    <cfRule type="expression" dxfId="200" priority="63">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="146" priority="9">
+    <cfRule type="expression" dxfId="199" priority="62">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="145" priority="8">
+    <cfRule type="expression" dxfId="198" priority="61">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="144" priority="7">
+    <cfRule type="expression" dxfId="197" priority="60">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="143" priority="6">
+    <cfRule type="expression" dxfId="196" priority="59">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="142" priority="5">
+    <cfRule type="expression" dxfId="195" priority="58">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="141" priority="4">
+    <cfRule type="expression" dxfId="194" priority="57">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="140" priority="3">
+    <cfRule type="expression" dxfId="193" priority="56">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="139" priority="2">
+    <cfRule type="expression" dxfId="192" priority="55">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="138" priority="1">
+    <cfRule type="expression" dxfId="191" priority="54">
       <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E741">
+    <cfRule type="expression" dxfId="52" priority="53">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E741">
+    <cfRule type="expression" dxfId="51" priority="52">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E741">
+    <cfRule type="expression" dxfId="50" priority="51">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E741">
+    <cfRule type="expression" dxfId="49" priority="50">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
+    <cfRule type="expression" dxfId="48" priority="49">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
+    <cfRule type="expression" dxfId="47" priority="48">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
+    <cfRule type="expression" dxfId="46" priority="47">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -25564,7 +26256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O752"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H755" sqref="H755"/>
     </sheetView>
@@ -44453,692 +45145,692 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E752">
-    <cfRule type="expression" dxfId="137" priority="132">
+    <cfRule type="expression" dxfId="190" priority="132">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K752">
-    <cfRule type="expression" dxfId="136" priority="133">
+    <cfRule type="expression" dxfId="189" priority="133">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="135" priority="142">
+    <cfRule type="expression" dxfId="188" priority="142">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="134" priority="145">
+    <cfRule type="expression" dxfId="187" priority="145">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="133" priority="154">
+    <cfRule type="expression" dxfId="186" priority="154">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="132" priority="167">
+    <cfRule type="expression" dxfId="185" priority="167">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="131" priority="171">
+    <cfRule type="expression" dxfId="184" priority="171">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="130" priority="146">
+    <cfRule type="expression" dxfId="183" priority="146">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="129" priority="130">
+    <cfRule type="expression" dxfId="182" priority="130">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="128" priority="129">
+    <cfRule type="expression" dxfId="181" priority="129">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="127" priority="128">
+    <cfRule type="expression" dxfId="180" priority="128">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="126" priority="127">
+    <cfRule type="expression" dxfId="179" priority="127">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="125" priority="126">
+    <cfRule type="expression" dxfId="178" priority="126">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="124" priority="125">
+    <cfRule type="expression" dxfId="177" priority="125">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="123" priority="124">
+    <cfRule type="expression" dxfId="176" priority="124">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="122" priority="123">
+    <cfRule type="expression" dxfId="175" priority="123">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="121" priority="122">
+    <cfRule type="expression" dxfId="174" priority="122">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="120" priority="121">
+    <cfRule type="expression" dxfId="173" priority="121">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="119" priority="120">
+    <cfRule type="expression" dxfId="172" priority="120">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="118" priority="119">
+    <cfRule type="expression" dxfId="171" priority="119">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="117" priority="118">
+    <cfRule type="expression" dxfId="170" priority="118">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="116" priority="117">
+    <cfRule type="expression" dxfId="169" priority="117">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="115" priority="116">
+    <cfRule type="expression" dxfId="168" priority="116">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="114" priority="115">
+    <cfRule type="expression" dxfId="167" priority="115">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="113" priority="114">
+    <cfRule type="expression" dxfId="166" priority="114">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="112" priority="113">
+    <cfRule type="expression" dxfId="165" priority="113">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="111" priority="112">
+    <cfRule type="expression" dxfId="164" priority="112">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="110" priority="111">
+    <cfRule type="expression" dxfId="163" priority="111">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="109" priority="110">
+    <cfRule type="expression" dxfId="162" priority="110">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="108" priority="109">
+    <cfRule type="expression" dxfId="161" priority="109">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="107" priority="108">
+    <cfRule type="expression" dxfId="160" priority="108">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="106" priority="107">
+    <cfRule type="expression" dxfId="159" priority="107">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="105" priority="106">
+    <cfRule type="expression" dxfId="158" priority="106">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="104" priority="105">
+    <cfRule type="expression" dxfId="157" priority="105">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="103" priority="104">
+    <cfRule type="expression" dxfId="156" priority="104">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="102" priority="103">
+    <cfRule type="expression" dxfId="155" priority="103">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="101" priority="102">
+    <cfRule type="expression" dxfId="154" priority="102">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="100" priority="101">
+    <cfRule type="expression" dxfId="153" priority="101">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="99" priority="100">
+    <cfRule type="expression" dxfId="152" priority="100">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="98" priority="99">
+    <cfRule type="expression" dxfId="151" priority="99">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="97" priority="98">
+    <cfRule type="expression" dxfId="150" priority="98">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="96" priority="97">
+    <cfRule type="expression" dxfId="149" priority="97">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="95" priority="96">
+    <cfRule type="expression" dxfId="148" priority="96">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="94" priority="95">
+    <cfRule type="expression" dxfId="147" priority="95">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="93" priority="94">
+    <cfRule type="expression" dxfId="146" priority="94">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="92" priority="93">
+    <cfRule type="expression" dxfId="145" priority="93">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="91" priority="92">
+    <cfRule type="expression" dxfId="144" priority="92">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="90" priority="91">
+    <cfRule type="expression" dxfId="143" priority="91">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="89" priority="90">
+    <cfRule type="expression" dxfId="142" priority="90">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="88" priority="89">
+    <cfRule type="expression" dxfId="141" priority="89">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="87" priority="88">
+    <cfRule type="expression" dxfId="140" priority="88">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="86" priority="87">
+    <cfRule type="expression" dxfId="139" priority="87">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="85" priority="86">
+    <cfRule type="expression" dxfId="138" priority="86">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="84" priority="85">
+    <cfRule type="expression" dxfId="137" priority="85">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="83" priority="84">
+    <cfRule type="expression" dxfId="136" priority="84">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="135" priority="83">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="81" priority="82">
+    <cfRule type="expression" dxfId="134" priority="82">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="80" priority="80">
+    <cfRule type="expression" dxfId="133" priority="80">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="79" priority="81">
+    <cfRule type="expression" dxfId="132" priority="81">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="78" priority="79">
+    <cfRule type="expression" dxfId="131" priority="79">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="77" priority="78">
+    <cfRule type="expression" dxfId="130" priority="78">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="129" priority="77">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="75" priority="76">
+    <cfRule type="expression" dxfId="128" priority="76">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="127" priority="75">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="73" priority="74">
+    <cfRule type="expression" dxfId="126" priority="74">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="72" priority="73">
+    <cfRule type="expression" dxfId="125" priority="73">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E728">
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="124" priority="72">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="123" priority="71">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="122" priority="70">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="121" priority="69">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="67" priority="68">
+    <cfRule type="expression" dxfId="120" priority="68">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E730">
-    <cfRule type="expression" dxfId="66" priority="67">
+    <cfRule type="expression" dxfId="119" priority="67">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="65" priority="66">
+    <cfRule type="expression" dxfId="118" priority="66">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="117" priority="65">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="63" priority="64">
+    <cfRule type="expression" dxfId="116" priority="64">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="115" priority="63">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="61" priority="62">
+    <cfRule type="expression" dxfId="114" priority="62">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="60" priority="61">
+    <cfRule type="expression" dxfId="113" priority="61">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="59" priority="60">
+    <cfRule type="expression" dxfId="112" priority="60">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="58" priority="59">
+    <cfRule type="expression" dxfId="111" priority="59">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="110" priority="58">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="109" priority="57">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="108" priority="56">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="107" priority="55">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="106" priority="54">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="105" priority="53">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E737">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="104" priority="52">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="103" priority="51">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="102" priority="50">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="101" priority="49">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="100" priority="48">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="99" priority="47">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="98" priority="46">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="97" priority="45">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="96" priority="44">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="95" priority="43">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="94" priority="42">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="93" priority="41">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="92" priority="40">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="91" priority="39">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="90" priority="38">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="89" priority="37">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="88" priority="36">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="87" priority="35">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="86" priority="34">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="85" priority="33">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="84" priority="32">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="83" priority="31">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="82" priority="30">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E746">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="81" priority="29">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G746">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="80" priority="28">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G746">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="79" priority="27">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K746">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="78" priority="26">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K746">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="77" priority="25">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E748">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="76" priority="24">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="75" priority="23">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="74" priority="22">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K748">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="73" priority="21">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K748">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="72" priority="20">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E749">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="71" priority="19">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E749">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="70" priority="18">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="69" priority="17">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="68" priority="16">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="67" priority="15">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="66" priority="14">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="65" priority="13">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="64" priority="12">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="63" priority="11">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="62" priority="10">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="61" priority="9">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="60" priority="8">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="59" priority="7">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="58" priority="6">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="57" priority="5">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB2087-9766-4F61-9199-0DACEBC3ACCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CC169A-A279-446E-94EC-BE6099734DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,77 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="385">
+  <dxfs count="395">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3482,11 +3552,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD744"/>
+  <dimension ref="A1:AMD747"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A731" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J745" sqref="J745"/>
+      <pane ySplit="3" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I753" sqref="I753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25002,1249 +25072,1367 @@
       <c r="E744" s="10"/>
       <c r="F744" s="11"/>
       <c r="G744" s="12"/>
-      <c r="H744" s="11"/>
-      <c r="I744" s="12"/>
-      <c r="J744" s="11"/>
-      <c r="K744" s="12"/>
+      <c r="H744" s="11">
+        <v>2800</v>
+      </c>
+      <c r="I744" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J744" s="11">
+        <v>7200</v>
+      </c>
+      <c r="K744" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A745" s="1">
+        <v>741</v>
+      </c>
+      <c r="B745" s="7" t="str">
+        <f t="shared" ref="B745:B747" si="110">IF(C745&lt;&gt;"",TEXT(C745,"ДДД"),"")</f>
+        <v>Вс</v>
+      </c>
+      <c r="C745" s="8">
+        <v>45956</v>
+      </c>
+      <c r="D745" s="9"/>
+      <c r="E745" s="10"/>
+      <c r="F745" s="11"/>
+      <c r="G745" s="12"/>
+      <c r="H745" s="11"/>
+      <c r="I745" s="12"/>
+      <c r="J745" s="11"/>
+      <c r="K745" s="12"/>
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A746" s="1">
+        <v>742</v>
+      </c>
+      <c r="B746" s="7" t="str">
+        <f t="shared" si="110"/>
+        <v>Пн</v>
+      </c>
+      <c r="C746" s="8">
+        <v>45957</v>
+      </c>
+      <c r="D746" s="9"/>
+      <c r="E746" s="10"/>
+      <c r="F746" s="11"/>
+      <c r="G746" s="12"/>
+      <c r="H746" s="11"/>
+      <c r="I746" s="12"/>
+      <c r="J746" s="11"/>
+      <c r="K746" s="12"/>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A747" s="1">
+        <v>743</v>
+      </c>
+      <c r="B747" s="7" t="str">
+        <f t="shared" si="110"/>
+        <v>Вт</v>
+      </c>
+      <c r="C747" s="8">
+        <v>45958</v>
+      </c>
+      <c r="D747" s="9"/>
+      <c r="E747" s="10"/>
+      <c r="F747" s="11"/>
+      <c r="G747" s="12"/>
+      <c r="H747" s="11"/>
+      <c r="I747" s="12"/>
+      <c r="J747" s="11"/>
+      <c r="K747" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E744">
-    <cfRule type="expression" dxfId="384" priority="243">
+  <conditionalFormatting sqref="B4:E747">
+    <cfRule type="expression" dxfId="394" priority="253">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K744">
-    <cfRule type="expression" dxfId="383" priority="244">
+  <conditionalFormatting sqref="B4:M683 B684:K747">
+    <cfRule type="expression" dxfId="393" priority="254">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="382" priority="257">
+    <cfRule type="expression" dxfId="392" priority="267">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="381" priority="241">
+    <cfRule type="expression" dxfId="391" priority="251">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="380" priority="260">
+    <cfRule type="expression" dxfId="390" priority="270">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="379" priority="258">
+    <cfRule type="expression" dxfId="389" priority="268">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="378" priority="240">
+    <cfRule type="expression" dxfId="388" priority="250">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="377" priority="259">
+    <cfRule type="expression" dxfId="387" priority="269">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="376" priority="239">
+    <cfRule type="expression" dxfId="386" priority="249">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="375" priority="238">
+    <cfRule type="expression" dxfId="385" priority="248">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="374" priority="237">
+    <cfRule type="expression" dxfId="384" priority="247">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="373" priority="236">
+    <cfRule type="expression" dxfId="383" priority="246">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="372" priority="235">
+    <cfRule type="expression" dxfId="382" priority="245">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="371" priority="234">
+    <cfRule type="expression" dxfId="381" priority="244">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="370" priority="233">
+    <cfRule type="expression" dxfId="380" priority="243">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="369" priority="232">
+    <cfRule type="expression" dxfId="379" priority="242">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="368" priority="231">
+    <cfRule type="expression" dxfId="378" priority="241">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="367" priority="230">
+    <cfRule type="expression" dxfId="377" priority="240">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="366" priority="229">
+    <cfRule type="expression" dxfId="376" priority="239">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="365" priority="228">
+    <cfRule type="expression" dxfId="375" priority="238">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="364" priority="227">
+    <cfRule type="expression" dxfId="374" priority="237">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="363" priority="226">
+    <cfRule type="expression" dxfId="373" priority="236">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="362" priority="225">
+    <cfRule type="expression" dxfId="372" priority="235">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="361" priority="224">
+    <cfRule type="expression" dxfId="371" priority="234">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="360" priority="223">
+    <cfRule type="expression" dxfId="370" priority="233">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="359" priority="222">
+    <cfRule type="expression" dxfId="369" priority="232">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="358" priority="221">
+    <cfRule type="expression" dxfId="368" priority="231">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="357" priority="220">
+    <cfRule type="expression" dxfId="367" priority="230">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="356" priority="219">
+    <cfRule type="expression" dxfId="366" priority="229">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="355" priority="218">
+    <cfRule type="expression" dxfId="365" priority="228">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="354" priority="217">
+    <cfRule type="expression" dxfId="364" priority="227">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="353" priority="216">
+    <cfRule type="expression" dxfId="363" priority="226">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="352" priority="215">
+    <cfRule type="expression" dxfId="362" priority="225">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="351" priority="214">
+    <cfRule type="expression" dxfId="361" priority="224">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="350" priority="213">
+    <cfRule type="expression" dxfId="360" priority="223">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="349" priority="212">
+    <cfRule type="expression" dxfId="359" priority="222">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="348" priority="211">
+    <cfRule type="expression" dxfId="358" priority="221">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="347" priority="210">
+    <cfRule type="expression" dxfId="357" priority="220">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="346" priority="209">
+    <cfRule type="expression" dxfId="356" priority="219">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="345" priority="208">
+    <cfRule type="expression" dxfId="355" priority="218">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="344" priority="207">
+    <cfRule type="expression" dxfId="354" priority="217">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="343" priority="206">
+    <cfRule type="expression" dxfId="353" priority="216">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="342" priority="205">
+    <cfRule type="expression" dxfId="352" priority="215">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="341" priority="204">
+    <cfRule type="expression" dxfId="351" priority="214">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="expression" dxfId="340" priority="203">
+    <cfRule type="expression" dxfId="350" priority="213">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="339" priority="202">
+    <cfRule type="expression" dxfId="349" priority="212">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="338" priority="201">
+    <cfRule type="expression" dxfId="348" priority="211">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="337" priority="200">
+    <cfRule type="expression" dxfId="347" priority="210">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="336" priority="199">
+    <cfRule type="expression" dxfId="346" priority="209">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="335" priority="198">
+    <cfRule type="expression" dxfId="345" priority="208">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="334" priority="197">
+    <cfRule type="expression" dxfId="344" priority="207">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="333" priority="196">
+    <cfRule type="expression" dxfId="343" priority="206">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="332" priority="195">
+    <cfRule type="expression" dxfId="342" priority="205">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I710">
-    <cfRule type="expression" dxfId="331" priority="194">
+    <cfRule type="expression" dxfId="341" priority="204">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="330" priority="193">
+    <cfRule type="expression" dxfId="340" priority="203">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E715">
-    <cfRule type="expression" dxfId="329" priority="192">
+    <cfRule type="expression" dxfId="339" priority="202">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="328" priority="191">
+    <cfRule type="expression" dxfId="338" priority="201">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="327" priority="190">
+    <cfRule type="expression" dxfId="337" priority="200">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="326" priority="189">
+    <cfRule type="expression" dxfId="336" priority="199">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="325" priority="188">
+    <cfRule type="expression" dxfId="335" priority="198">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="324" priority="187">
+    <cfRule type="expression" dxfId="334" priority="197">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="323" priority="186">
+    <cfRule type="expression" dxfId="333" priority="196">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="322" priority="185">
+    <cfRule type="expression" dxfId="332" priority="195">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="321" priority="184">
+    <cfRule type="expression" dxfId="331" priority="194">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="320" priority="183">
+    <cfRule type="expression" dxfId="330" priority="193">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="319" priority="182">
+    <cfRule type="expression" dxfId="329" priority="192">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="318" priority="181">
+    <cfRule type="expression" dxfId="328" priority="191">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="317" priority="180">
+    <cfRule type="expression" dxfId="327" priority="190">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="316" priority="179">
+    <cfRule type="expression" dxfId="326" priority="189">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="315" priority="178">
+    <cfRule type="expression" dxfId="325" priority="188">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="314" priority="177">
+    <cfRule type="expression" dxfId="324" priority="187">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="313" priority="176">
+    <cfRule type="expression" dxfId="323" priority="186">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="312" priority="175">
+    <cfRule type="expression" dxfId="322" priority="185">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="311" priority="174">
+    <cfRule type="expression" dxfId="321" priority="184">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="310" priority="173">
+    <cfRule type="expression" dxfId="320" priority="183">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="309" priority="172">
+    <cfRule type="expression" dxfId="319" priority="182">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="308" priority="171">
+    <cfRule type="expression" dxfId="318" priority="181">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
+    <cfRule type="expression" dxfId="317" priority="180">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E723">
+    <cfRule type="expression" dxfId="316" priority="179">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
+    <cfRule type="expression" dxfId="315" priority="178">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
+    <cfRule type="expression" dxfId="314" priority="177">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
+    <cfRule type="expression" dxfId="313" priority="176">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723:I724">
+    <cfRule type="expression" dxfId="312" priority="175">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723:I724">
+    <cfRule type="expression" dxfId="311" priority="174">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723:I724">
+    <cfRule type="expression" dxfId="310" priority="173">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
+    <cfRule type="expression" dxfId="309" priority="172">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
+    <cfRule type="expression" dxfId="308" priority="171">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
     <cfRule type="expression" dxfId="307" priority="170">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E723">
+  <conditionalFormatting sqref="K725:K726">
     <cfRule type="expression" dxfId="306" priority="169">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="305" priority="168">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="304" priority="167">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="303" priority="166">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="302" priority="165">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="301" priority="164">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="300" priority="163">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="299" priority="162">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="298" priority="161">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="297" priority="160">
-      <formula>$C723=TODAY()</formula>
+      <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
+    <cfRule type="expression" dxfId="305" priority="168">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K725:K726">
+    <cfRule type="expression" dxfId="304" priority="167">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
+    <cfRule type="expression" dxfId="303" priority="166">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
+    <cfRule type="expression" dxfId="302" priority="165">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
+    <cfRule type="expression" dxfId="301" priority="164">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
+    <cfRule type="expression" dxfId="300" priority="163">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
+    <cfRule type="expression" dxfId="299" priority="162">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
+    <cfRule type="expression" dxfId="298" priority="161">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
+    <cfRule type="expression" dxfId="297" priority="160">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
     <cfRule type="expression" dxfId="296" priority="159">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K725:K726">
+  <conditionalFormatting sqref="E725:E726">
     <cfRule type="expression" dxfId="295" priority="158">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K725:K726">
+  <conditionalFormatting sqref="E726">
     <cfRule type="expression" dxfId="294" priority="157">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="293" priority="156">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="292" priority="155">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="291" priority="154">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="290" priority="153">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="289" priority="152">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="288" priority="151">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="287" priority="150">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="286" priority="149">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="285" priority="148">
-      <formula>$C725=TODAY()</formula>
+      <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
+    <cfRule type="expression" dxfId="293" priority="156">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
+    <cfRule type="expression" dxfId="292" priority="155">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
+    <cfRule type="expression" dxfId="291" priority="154">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
+    <cfRule type="expression" dxfId="290" priority="153">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
+    <cfRule type="expression" dxfId="289" priority="152">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
+    <cfRule type="expression" dxfId="288" priority="151">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
+    <cfRule type="expression" dxfId="287" priority="150">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
+    <cfRule type="expression" dxfId="286" priority="149">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
+    <cfRule type="expression" dxfId="285" priority="148">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
     <cfRule type="expression" dxfId="284" priority="147">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E726">
+  <conditionalFormatting sqref="E731">
     <cfRule type="expression" dxfId="283" priority="146">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="282" priority="145">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="281" priority="144">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="280" priority="143">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="279" priority="142">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="278" priority="141">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="277" priority="140">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="276" priority="139">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="275" priority="138">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="274" priority="137">
-      <formula>$C726=TODAY()</formula>
+      <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
+    <cfRule type="expression" dxfId="282" priority="145">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731">
+    <cfRule type="expression" dxfId="281" priority="144">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
+    <cfRule type="expression" dxfId="280" priority="143">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
+    <cfRule type="expression" dxfId="279" priority="142">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
+    <cfRule type="expression" dxfId="278" priority="141">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
+    <cfRule type="expression" dxfId="277" priority="140">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
+    <cfRule type="expression" dxfId="276" priority="139">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
+    <cfRule type="expression" dxfId="275" priority="138">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
+    <cfRule type="expression" dxfId="274" priority="137">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
     <cfRule type="expression" dxfId="273" priority="136">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E731">
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="272" priority="135">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E731">
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="271" priority="134">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="270" priority="133">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="269" priority="132">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+  <conditionalFormatting sqref="K733">
     <cfRule type="expression" dxfId="268" priority="131">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="267" priority="130">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="266" priority="129">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="265" priority="128">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="264" priority="127">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="263" priority="126">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="262" priority="125">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="261" priority="124">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="260" priority="123">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="259" priority="122">
-      <formula>$C731=TODAY()</formula>
+      <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
+    <cfRule type="expression" dxfId="267" priority="130">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
+    <cfRule type="expression" dxfId="266" priority="129">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
+    <cfRule type="expression" dxfId="265" priority="128">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
+    <cfRule type="expression" dxfId="264" priority="127">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
+    <cfRule type="expression" dxfId="263" priority="126">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
+    <cfRule type="expression" dxfId="262" priority="125">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
+    <cfRule type="expression" dxfId="261" priority="124">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
+    <cfRule type="expression" dxfId="260" priority="123">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
+    <cfRule type="expression" dxfId="259" priority="122">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
     <cfRule type="expression" dxfId="258" priority="121">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K733">
+  <conditionalFormatting sqref="G733">
     <cfRule type="expression" dxfId="257" priority="120">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K733">
+  <conditionalFormatting sqref="E733">
     <cfRule type="expression" dxfId="256" priority="119">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K733">
+  <conditionalFormatting sqref="E733">
     <cfRule type="expression" dxfId="255" priority="118">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I733">
+  <conditionalFormatting sqref="E733">
     <cfRule type="expression" dxfId="254" priority="117">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I733">
+  <conditionalFormatting sqref="E733">
     <cfRule type="expression" dxfId="253" priority="116">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I733">
+  <conditionalFormatting sqref="E734">
     <cfRule type="expression" dxfId="252" priority="115">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="251" priority="114">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="250" priority="113">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="249" priority="112">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="248" priority="111">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="247" priority="110">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="246" priority="109">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="245" priority="108">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="244" priority="107">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="243" priority="106">
-      <formula>$C733=TODAY()</formula>
+      <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
+    <cfRule type="expression" dxfId="251" priority="114">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
+    <cfRule type="expression" dxfId="250" priority="113">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
+    <cfRule type="expression" dxfId="249" priority="112">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
+    <cfRule type="expression" dxfId="248" priority="111">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
+    <cfRule type="expression" dxfId="247" priority="110">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
+    <cfRule type="expression" dxfId="246" priority="109">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
+    <cfRule type="expression" dxfId="245" priority="108">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
+    <cfRule type="expression" dxfId="244" priority="107">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
+    <cfRule type="expression" dxfId="243" priority="106">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="242" priority="105">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="241" priority="104">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="240" priority="103">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="239" priority="102">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="238" priority="101">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="237" priority="100">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="236" priority="99">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="235" priority="98">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="234" priority="97">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="233" priority="96">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="232" priority="95">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="231" priority="94">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="230" priority="93">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+  <conditionalFormatting sqref="I736">
     <cfRule type="expression" dxfId="229" priority="92">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="228" priority="91">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="227" priority="90">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="226" priority="89">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="225" priority="88">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="224" priority="87">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="223" priority="86">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="222" priority="85">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="221" priority="84">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="220" priority="83">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="219" priority="82">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="218" priority="81">
+    <cfRule type="expression" dxfId="228" priority="91">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="217" priority="80">
+    <cfRule type="expression" dxfId="227" priority="90">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="216" priority="79">
+    <cfRule type="expression" dxfId="226" priority="89">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="215" priority="78">
+    <cfRule type="expression" dxfId="225" priority="88">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="214" priority="77">
+    <cfRule type="expression" dxfId="224" priority="87">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="213" priority="76">
+    <cfRule type="expression" dxfId="223" priority="86">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="212" priority="75">
+    <cfRule type="expression" dxfId="222" priority="85">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="211" priority="74">
+    <cfRule type="expression" dxfId="221" priority="84">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="210" priority="73">
+    <cfRule type="expression" dxfId="220" priority="83">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
+    <cfRule type="expression" dxfId="219" priority="82">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
+    <cfRule type="expression" dxfId="218" priority="81">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
+    <cfRule type="expression" dxfId="217" priority="80">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
+    <cfRule type="expression" dxfId="216" priority="79">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
+    <cfRule type="expression" dxfId="215" priority="78">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
+    <cfRule type="expression" dxfId="214" priority="77">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
+    <cfRule type="expression" dxfId="213" priority="76">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
+    <cfRule type="expression" dxfId="212" priority="75">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
+    <cfRule type="expression" dxfId="211" priority="74">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
+    <cfRule type="expression" dxfId="210" priority="73">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="209" priority="72">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E739">
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="208" priority="71">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E739">
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="207" priority="70">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E739">
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="206" priority="69">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="205" priority="68">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="204" priority="67">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="203" priority="66">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="202" priority="65">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="201" priority="64">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
+  <conditionalFormatting sqref="E741">
     <cfRule type="expression" dxfId="200" priority="63">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="199" priority="62">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="198" priority="61">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="197" priority="60">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="196" priority="59">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="195" priority="58">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="194" priority="57">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="193" priority="56">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="192" priority="55">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="191" priority="54">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E741">
-    <cfRule type="expression" dxfId="52" priority="53">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E741">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="199" priority="62">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E741">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="198" priority="61">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E741">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="197" priority="60">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="196" priority="59">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="195" priority="58">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="194" priority="57">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="193" priority="56">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="192" priority="55">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="191" priority="54">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="190" priority="53">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="189" priority="52">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="188" priority="51">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="187" priority="50">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="186" priority="49">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="185" priority="48">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="184" priority="47">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="183" priority="46">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="182" priority="45">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="181" priority="44">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="180" priority="43">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="179" priority="42">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="178" priority="41">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="177" priority="40">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="176" priority="39">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="175" priority="38">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="174" priority="37">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="173" priority="36">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="172" priority="35">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="171" priority="34">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="170" priority="33">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="169" priority="32">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="168" priority="31">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="167" priority="30">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="166" priority="29">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="165" priority="28">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="164" priority="27">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="163" priority="26">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="162" priority="25">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="161" priority="24">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="160" priority="23">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="159" priority="22">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="158" priority="21">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="157" priority="20">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="156" priority="19">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="155" priority="18">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="154" priority="17">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="153" priority="16">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="152" priority="15">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="151" priority="14">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="150" priority="13">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="149" priority="12">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
+    <cfRule type="expression" dxfId="148" priority="11">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C740=TODAY()</formula>
+      <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -45145,692 +45333,692 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E752">
-    <cfRule type="expression" dxfId="190" priority="132">
+    <cfRule type="expression" dxfId="147" priority="132">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K752">
-    <cfRule type="expression" dxfId="189" priority="133">
+    <cfRule type="expression" dxfId="146" priority="133">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="188" priority="142">
+    <cfRule type="expression" dxfId="145" priority="142">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="187" priority="145">
+    <cfRule type="expression" dxfId="144" priority="145">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="186" priority="154">
+    <cfRule type="expression" dxfId="143" priority="154">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="185" priority="167">
+    <cfRule type="expression" dxfId="142" priority="167">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="184" priority="171">
+    <cfRule type="expression" dxfId="141" priority="171">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="183" priority="146">
+    <cfRule type="expression" dxfId="140" priority="146">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="182" priority="130">
+    <cfRule type="expression" dxfId="139" priority="130">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="181" priority="129">
+    <cfRule type="expression" dxfId="138" priority="129">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="180" priority="128">
+    <cfRule type="expression" dxfId="137" priority="128">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="179" priority="127">
+    <cfRule type="expression" dxfId="136" priority="127">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="178" priority="126">
+    <cfRule type="expression" dxfId="135" priority="126">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="177" priority="125">
+    <cfRule type="expression" dxfId="134" priority="125">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="176" priority="124">
+    <cfRule type="expression" dxfId="133" priority="124">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="175" priority="123">
+    <cfRule type="expression" dxfId="132" priority="123">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="174" priority="122">
+    <cfRule type="expression" dxfId="131" priority="122">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="173" priority="121">
+    <cfRule type="expression" dxfId="130" priority="121">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="172" priority="120">
+    <cfRule type="expression" dxfId="129" priority="120">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="171" priority="119">
+    <cfRule type="expression" dxfId="128" priority="119">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="170" priority="118">
+    <cfRule type="expression" dxfId="127" priority="118">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="169" priority="117">
+    <cfRule type="expression" dxfId="126" priority="117">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="168" priority="116">
+    <cfRule type="expression" dxfId="125" priority="116">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="167" priority="115">
+    <cfRule type="expression" dxfId="124" priority="115">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="166" priority="114">
+    <cfRule type="expression" dxfId="123" priority="114">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="165" priority="113">
+    <cfRule type="expression" dxfId="122" priority="113">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="164" priority="112">
+    <cfRule type="expression" dxfId="121" priority="112">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="163" priority="111">
+    <cfRule type="expression" dxfId="120" priority="111">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="162" priority="110">
+    <cfRule type="expression" dxfId="119" priority="110">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="161" priority="109">
+    <cfRule type="expression" dxfId="118" priority="109">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="160" priority="108">
+    <cfRule type="expression" dxfId="117" priority="108">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="159" priority="107">
+    <cfRule type="expression" dxfId="116" priority="107">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="158" priority="106">
+    <cfRule type="expression" dxfId="115" priority="106">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="157" priority="105">
+    <cfRule type="expression" dxfId="114" priority="105">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="156" priority="104">
+    <cfRule type="expression" dxfId="113" priority="104">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="155" priority="103">
+    <cfRule type="expression" dxfId="112" priority="103">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="154" priority="102">
+    <cfRule type="expression" dxfId="111" priority="102">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="153" priority="101">
+    <cfRule type="expression" dxfId="110" priority="101">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="152" priority="100">
+    <cfRule type="expression" dxfId="109" priority="100">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="151" priority="99">
+    <cfRule type="expression" dxfId="108" priority="99">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="150" priority="98">
+    <cfRule type="expression" dxfId="107" priority="98">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="149" priority="97">
+    <cfRule type="expression" dxfId="106" priority="97">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="148" priority="96">
+    <cfRule type="expression" dxfId="105" priority="96">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="147" priority="95">
+    <cfRule type="expression" dxfId="104" priority="95">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="146" priority="94">
+    <cfRule type="expression" dxfId="103" priority="94">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="145" priority="93">
+    <cfRule type="expression" dxfId="102" priority="93">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="144" priority="92">
+    <cfRule type="expression" dxfId="101" priority="92">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="143" priority="91">
+    <cfRule type="expression" dxfId="100" priority="91">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="142" priority="90">
+    <cfRule type="expression" dxfId="99" priority="90">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="141" priority="89">
+    <cfRule type="expression" dxfId="98" priority="89">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="140" priority="88">
+    <cfRule type="expression" dxfId="97" priority="88">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="139" priority="87">
+    <cfRule type="expression" dxfId="96" priority="87">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="138" priority="86">
+    <cfRule type="expression" dxfId="95" priority="86">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="137" priority="85">
+    <cfRule type="expression" dxfId="94" priority="85">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="136" priority="84">
+    <cfRule type="expression" dxfId="93" priority="84">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="135" priority="83">
+    <cfRule type="expression" dxfId="92" priority="83">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="134" priority="82">
+    <cfRule type="expression" dxfId="91" priority="82">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="133" priority="80">
+    <cfRule type="expression" dxfId="90" priority="80">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="132" priority="81">
+    <cfRule type="expression" dxfId="89" priority="81">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="131" priority="79">
+    <cfRule type="expression" dxfId="88" priority="79">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="130" priority="78">
+    <cfRule type="expression" dxfId="87" priority="78">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="129" priority="77">
+    <cfRule type="expression" dxfId="86" priority="77">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="128" priority="76">
+    <cfRule type="expression" dxfId="85" priority="76">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="127" priority="75">
+    <cfRule type="expression" dxfId="84" priority="75">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="126" priority="74">
+    <cfRule type="expression" dxfId="83" priority="74">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="125" priority="73">
+    <cfRule type="expression" dxfId="82" priority="73">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E728">
-    <cfRule type="expression" dxfId="124" priority="72">
+    <cfRule type="expression" dxfId="81" priority="72">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="123" priority="71">
+    <cfRule type="expression" dxfId="80" priority="71">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="122" priority="70">
+    <cfRule type="expression" dxfId="79" priority="70">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="121" priority="69">
+    <cfRule type="expression" dxfId="78" priority="69">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="120" priority="68">
+    <cfRule type="expression" dxfId="77" priority="68">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E730">
-    <cfRule type="expression" dxfId="119" priority="67">
+    <cfRule type="expression" dxfId="76" priority="67">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="118" priority="66">
+    <cfRule type="expression" dxfId="75" priority="66">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="117" priority="65">
+    <cfRule type="expression" dxfId="74" priority="65">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="116" priority="64">
+    <cfRule type="expression" dxfId="73" priority="64">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="115" priority="63">
+    <cfRule type="expression" dxfId="72" priority="63">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="114" priority="62">
+    <cfRule type="expression" dxfId="71" priority="62">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="113" priority="61">
+    <cfRule type="expression" dxfId="70" priority="61">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="112" priority="60">
+    <cfRule type="expression" dxfId="69" priority="60">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="111" priority="59">
+    <cfRule type="expression" dxfId="68" priority="59">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="110" priority="58">
+    <cfRule type="expression" dxfId="67" priority="58">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="109" priority="57">
+    <cfRule type="expression" dxfId="66" priority="57">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="108" priority="56">
+    <cfRule type="expression" dxfId="65" priority="56">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="107" priority="55">
+    <cfRule type="expression" dxfId="64" priority="55">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="106" priority="54">
+    <cfRule type="expression" dxfId="63" priority="54">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="105" priority="53">
+    <cfRule type="expression" dxfId="62" priority="53">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E737">
-    <cfRule type="expression" dxfId="104" priority="52">
+    <cfRule type="expression" dxfId="61" priority="52">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="103" priority="51">
+    <cfRule type="expression" dxfId="60" priority="51">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="102" priority="50">
+    <cfRule type="expression" dxfId="59" priority="50">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="101" priority="49">
+    <cfRule type="expression" dxfId="58" priority="49">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="100" priority="48">
+    <cfRule type="expression" dxfId="57" priority="48">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="99" priority="47">
+    <cfRule type="expression" dxfId="56" priority="47">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="98" priority="46">
+    <cfRule type="expression" dxfId="55" priority="46">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="97" priority="45">
+    <cfRule type="expression" dxfId="54" priority="45">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="96" priority="44">
+    <cfRule type="expression" dxfId="53" priority="44">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="95" priority="43">
+    <cfRule type="expression" dxfId="52" priority="43">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="94" priority="42">
+    <cfRule type="expression" dxfId="51" priority="42">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="93" priority="41">
+    <cfRule type="expression" dxfId="50" priority="41">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="92" priority="40">
+    <cfRule type="expression" dxfId="49" priority="40">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="91" priority="39">
+    <cfRule type="expression" dxfId="48" priority="39">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="90" priority="38">
+    <cfRule type="expression" dxfId="47" priority="38">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="89" priority="37">
+    <cfRule type="expression" dxfId="46" priority="37">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="88" priority="36">
+    <cfRule type="expression" dxfId="45" priority="36">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="87" priority="35">
+    <cfRule type="expression" dxfId="44" priority="35">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="86" priority="34">
+    <cfRule type="expression" dxfId="43" priority="34">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="85" priority="33">
+    <cfRule type="expression" dxfId="42" priority="33">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="84" priority="32">
+    <cfRule type="expression" dxfId="41" priority="32">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="83" priority="31">
+    <cfRule type="expression" dxfId="40" priority="31">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="82" priority="30">
+    <cfRule type="expression" dxfId="39" priority="30">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E746">
-    <cfRule type="expression" dxfId="81" priority="29">
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G746">
-    <cfRule type="expression" dxfId="80" priority="28">
+    <cfRule type="expression" dxfId="37" priority="28">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G746">
-    <cfRule type="expression" dxfId="79" priority="27">
+    <cfRule type="expression" dxfId="36" priority="27">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K746">
-    <cfRule type="expression" dxfId="78" priority="26">
+    <cfRule type="expression" dxfId="35" priority="26">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K746">
-    <cfRule type="expression" dxfId="77" priority="25">
+    <cfRule type="expression" dxfId="34" priority="25">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E748">
-    <cfRule type="expression" dxfId="76" priority="24">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="75" priority="23">
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="74" priority="22">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K748">
-    <cfRule type="expression" dxfId="73" priority="21">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K748">
-    <cfRule type="expression" dxfId="72" priority="20">
+    <cfRule type="expression" dxfId="29" priority="20">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E749">
-    <cfRule type="expression" dxfId="71" priority="19">
+    <cfRule type="expression" dxfId="28" priority="19">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E749">
-    <cfRule type="expression" dxfId="70" priority="18">
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="69" priority="17">
+    <cfRule type="expression" dxfId="26" priority="17">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="68" priority="16">
+    <cfRule type="expression" dxfId="25" priority="16">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="67" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="66" priority="14">
+    <cfRule type="expression" dxfId="23" priority="14">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="65" priority="13">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="64" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="63" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="62" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="61" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="60" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="59" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="58" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="57" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="55" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CC169A-A279-446E-94EC-BE6099734DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F217A6-95A5-427F-B815-E19C04907402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,364 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="395">
+  <dxfs count="446">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3552,11 +3909,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD747"/>
+  <dimension ref="A1:AMD752"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I753" sqref="I753"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G756" sqref="G756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25136,1303 +25493,1520 @@
       <c r="C747" s="8">
         <v>45958</v>
       </c>
-      <c r="D747" s="9"/>
-      <c r="E747" s="10"/>
-      <c r="F747" s="11"/>
-      <c r="G747" s="12"/>
-      <c r="H747" s="11"/>
-      <c r="I747" s="12"/>
-      <c r="J747" s="11"/>
-      <c r="K747" s="12"/>
+      <c r="D747" s="9">
+        <v>4600</v>
+      </c>
+      <c r="E747" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F747" s="11">
+        <f>4200+1000</f>
+        <v>5200</v>
+      </c>
+      <c r="G747" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H747" s="11">
+        <v>15000</v>
+      </c>
+      <c r="I747" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J747" s="11">
+        <v>12900</v>
+      </c>
+      <c r="K747" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A748" s="1">
+        <v>744</v>
+      </c>
+      <c r="B748" s="7" t="str">
+        <f t="shared" ref="B748:B752" si="111">IF(C748&lt;&gt;"",TEXT(C748,"ДДД"),"")</f>
+        <v>Ср</v>
+      </c>
+      <c r="C748" s="8">
+        <v>45959</v>
+      </c>
+      <c r="D748" s="9"/>
+      <c r="E748" s="10"/>
+      <c r="F748" s="11"/>
+      <c r="G748" s="12"/>
+      <c r="H748" s="11"/>
+      <c r="I748" s="12"/>
+      <c r="J748" s="11"/>
+      <c r="K748" s="12"/>
+    </row>
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A749" s="1">
+        <v>745</v>
+      </c>
+      <c r="B749" s="7" t="str">
+        <f t="shared" si="111"/>
+        <v>Чт</v>
+      </c>
+      <c r="C749" s="8">
+        <v>45960</v>
+      </c>
+      <c r="D749" s="9"/>
+      <c r="E749" s="10"/>
+      <c r="F749" s="11"/>
+      <c r="G749" s="12"/>
+      <c r="H749" s="11"/>
+      <c r="I749" s="12"/>
+      <c r="J749" s="11"/>
+      <c r="K749" s="12"/>
+    </row>
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A750" s="1">
+        <v>746</v>
+      </c>
+      <c r="B750" s="7" t="str">
+        <f t="shared" si="111"/>
+        <v>Пт</v>
+      </c>
+      <c r="C750" s="8">
+        <v>45961</v>
+      </c>
+      <c r="D750" s="9"/>
+      <c r="E750" s="10"/>
+      <c r="F750" s="11"/>
+      <c r="G750" s="12"/>
+      <c r="H750" s="11"/>
+      <c r="I750" s="12"/>
+      <c r="J750" s="11"/>
+      <c r="K750" s="12"/>
+    </row>
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A751" s="1">
+        <v>747</v>
+      </c>
+      <c r="B751" s="7" t="str">
+        <f t="shared" si="111"/>
+        <v>Сб</v>
+      </c>
+      <c r="C751" s="8">
+        <v>45962</v>
+      </c>
+      <c r="D751" s="9"/>
+      <c r="E751" s="10"/>
+      <c r="F751" s="11"/>
+      <c r="G751" s="12"/>
+      <c r="H751" s="11"/>
+      <c r="I751" s="12"/>
+      <c r="J751" s="11"/>
+      <c r="K751" s="12"/>
+    </row>
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A752" s="1">
+        <v>748</v>
+      </c>
+      <c r="B752" s="7" t="str">
+        <f t="shared" si="111"/>
+        <v>Вс</v>
+      </c>
+      <c r="C752" s="8">
+        <v>45963</v>
+      </c>
+      <c r="D752" s="9"/>
+      <c r="E752" s="10"/>
+      <c r="F752" s="11"/>
+      <c r="G752" s="12"/>
+      <c r="H752" s="11"/>
+      <c r="I752" s="12"/>
+      <c r="J752" s="11"/>
+      <c r="K752" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E747">
-    <cfRule type="expression" dxfId="394" priority="253">
+  <conditionalFormatting sqref="B4:E752">
+    <cfRule type="expression" dxfId="445" priority="273">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K747">
-    <cfRule type="expression" dxfId="393" priority="254">
+  <conditionalFormatting sqref="B4:M683 B684:K752">
+    <cfRule type="expression" dxfId="444" priority="274">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="392" priority="267">
+    <cfRule type="expression" dxfId="443" priority="287">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="391" priority="251">
+    <cfRule type="expression" dxfId="442" priority="271">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="390" priority="270">
+    <cfRule type="expression" dxfId="441" priority="290">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="389" priority="268">
+    <cfRule type="expression" dxfId="440" priority="288">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="388" priority="250">
+    <cfRule type="expression" dxfId="439" priority="270">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="387" priority="269">
+    <cfRule type="expression" dxfId="438" priority="289">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="386" priority="249">
+    <cfRule type="expression" dxfId="437" priority="269">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="385" priority="248">
+    <cfRule type="expression" dxfId="436" priority="268">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="384" priority="247">
+    <cfRule type="expression" dxfId="435" priority="267">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="383" priority="246">
+    <cfRule type="expression" dxfId="434" priority="266">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="382" priority="245">
+    <cfRule type="expression" dxfId="433" priority="265">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="381" priority="244">
+    <cfRule type="expression" dxfId="432" priority="264">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="380" priority="243">
+    <cfRule type="expression" dxfId="431" priority="263">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="379" priority="242">
+    <cfRule type="expression" dxfId="430" priority="262">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="378" priority="241">
+    <cfRule type="expression" dxfId="429" priority="261">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="377" priority="240">
+    <cfRule type="expression" dxfId="428" priority="260">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="376" priority="239">
+    <cfRule type="expression" dxfId="427" priority="259">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="375" priority="238">
+    <cfRule type="expression" dxfId="426" priority="258">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="374" priority="237">
+    <cfRule type="expression" dxfId="425" priority="257">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="373" priority="236">
+    <cfRule type="expression" dxfId="424" priority="256">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="372" priority="235">
+    <cfRule type="expression" dxfId="423" priority="255">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="371" priority="234">
+    <cfRule type="expression" dxfId="422" priority="254">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="370" priority="233">
+    <cfRule type="expression" dxfId="421" priority="253">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="369" priority="232">
+    <cfRule type="expression" dxfId="420" priority="252">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="368" priority="231">
+    <cfRule type="expression" dxfId="419" priority="251">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="367" priority="230">
+    <cfRule type="expression" dxfId="418" priority="250">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="366" priority="229">
+    <cfRule type="expression" dxfId="417" priority="249">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="365" priority="228">
+    <cfRule type="expression" dxfId="416" priority="248">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="364" priority="227">
+    <cfRule type="expression" dxfId="415" priority="247">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="363" priority="226">
+    <cfRule type="expression" dxfId="414" priority="246">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="362" priority="225">
+    <cfRule type="expression" dxfId="413" priority="245">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="361" priority="224">
+    <cfRule type="expression" dxfId="412" priority="244">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="360" priority="223">
+    <cfRule type="expression" dxfId="411" priority="243">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="359" priority="222">
+    <cfRule type="expression" dxfId="410" priority="242">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="358" priority="221">
+    <cfRule type="expression" dxfId="409" priority="241">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="357" priority="220">
+    <cfRule type="expression" dxfId="408" priority="240">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="356" priority="219">
+    <cfRule type="expression" dxfId="407" priority="239">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="355" priority="218">
+    <cfRule type="expression" dxfId="406" priority="238">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="354" priority="217">
+    <cfRule type="expression" dxfId="405" priority="237">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="353" priority="216">
+    <cfRule type="expression" dxfId="404" priority="236">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="352" priority="215">
+    <cfRule type="expression" dxfId="403" priority="235">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="351" priority="214">
+    <cfRule type="expression" dxfId="402" priority="234">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="expression" dxfId="350" priority="213">
+    <cfRule type="expression" dxfId="401" priority="233">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="349" priority="212">
+    <cfRule type="expression" dxfId="400" priority="232">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="348" priority="211">
+    <cfRule type="expression" dxfId="399" priority="231">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="347" priority="210">
+    <cfRule type="expression" dxfId="398" priority="230">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="346" priority="209">
+    <cfRule type="expression" dxfId="397" priority="229">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="345" priority="208">
+    <cfRule type="expression" dxfId="396" priority="228">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="344" priority="207">
+    <cfRule type="expression" dxfId="395" priority="227">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="343" priority="206">
+    <cfRule type="expression" dxfId="394" priority="226">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="342" priority="205">
+    <cfRule type="expression" dxfId="393" priority="225">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I710">
-    <cfRule type="expression" dxfId="341" priority="204">
+    <cfRule type="expression" dxfId="392" priority="224">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="340" priority="203">
+    <cfRule type="expression" dxfId="391" priority="223">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E715">
-    <cfRule type="expression" dxfId="339" priority="202">
+    <cfRule type="expression" dxfId="390" priority="222">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="338" priority="201">
+    <cfRule type="expression" dxfId="389" priority="221">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="337" priority="200">
+    <cfRule type="expression" dxfId="388" priority="220">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="336" priority="199">
+    <cfRule type="expression" dxfId="387" priority="219">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="335" priority="198">
+    <cfRule type="expression" dxfId="386" priority="218">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="334" priority="197">
+    <cfRule type="expression" dxfId="385" priority="217">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="333" priority="196">
+    <cfRule type="expression" dxfId="384" priority="216">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="332" priority="195">
+    <cfRule type="expression" dxfId="383" priority="215">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="331" priority="194">
+    <cfRule type="expression" dxfId="382" priority="214">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="330" priority="193">
+    <cfRule type="expression" dxfId="381" priority="213">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="329" priority="192">
+    <cfRule type="expression" dxfId="380" priority="212">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="328" priority="191">
+    <cfRule type="expression" dxfId="379" priority="211">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="327" priority="190">
+    <cfRule type="expression" dxfId="378" priority="210">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="326" priority="189">
+    <cfRule type="expression" dxfId="377" priority="209">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="325" priority="188">
+    <cfRule type="expression" dxfId="376" priority="208">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="324" priority="187">
+    <cfRule type="expression" dxfId="375" priority="207">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="323" priority="186">
+    <cfRule type="expression" dxfId="374" priority="206">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="322" priority="185">
+    <cfRule type="expression" dxfId="373" priority="205">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="321" priority="184">
+    <cfRule type="expression" dxfId="372" priority="204">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="320" priority="183">
+    <cfRule type="expression" dxfId="371" priority="203">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="319" priority="182">
+    <cfRule type="expression" dxfId="370" priority="202">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="318" priority="181">
+    <cfRule type="expression" dxfId="369" priority="201">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="317" priority="180">
+    <cfRule type="expression" dxfId="368" priority="200">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="316" priority="179">
+    <cfRule type="expression" dxfId="367" priority="199">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="315" priority="178">
+    <cfRule type="expression" dxfId="366" priority="198">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="314" priority="177">
+    <cfRule type="expression" dxfId="365" priority="197">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="313" priority="176">
+    <cfRule type="expression" dxfId="364" priority="196">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="312" priority="175">
+    <cfRule type="expression" dxfId="363" priority="195">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="311" priority="174">
+    <cfRule type="expression" dxfId="362" priority="194">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="310" priority="173">
+    <cfRule type="expression" dxfId="361" priority="193">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="309" priority="172">
+    <cfRule type="expression" dxfId="360" priority="192">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="308" priority="171">
+    <cfRule type="expression" dxfId="359" priority="191">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="307" priority="170">
+    <cfRule type="expression" dxfId="358" priority="190">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="306" priority="169">
+    <cfRule type="expression" dxfId="357" priority="189">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="305" priority="168">
+    <cfRule type="expression" dxfId="356" priority="188">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="304" priority="167">
+    <cfRule type="expression" dxfId="355" priority="187">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="303" priority="166">
+    <cfRule type="expression" dxfId="354" priority="186">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="302" priority="165">
+    <cfRule type="expression" dxfId="353" priority="185">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="301" priority="164">
+    <cfRule type="expression" dxfId="352" priority="184">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="300" priority="163">
+    <cfRule type="expression" dxfId="351" priority="183">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="299" priority="162">
+    <cfRule type="expression" dxfId="350" priority="182">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="298" priority="161">
+    <cfRule type="expression" dxfId="349" priority="181">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="297" priority="160">
+    <cfRule type="expression" dxfId="348" priority="180">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="296" priority="159">
+    <cfRule type="expression" dxfId="347" priority="179">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="295" priority="158">
+    <cfRule type="expression" dxfId="346" priority="178">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
-    <cfRule type="expression" dxfId="294" priority="157">
+    <cfRule type="expression" dxfId="345" priority="177">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
-    <cfRule type="expression" dxfId="293" priority="156">
+    <cfRule type="expression" dxfId="344" priority="176">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="292" priority="155">
+    <cfRule type="expression" dxfId="343" priority="175">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="291" priority="154">
+    <cfRule type="expression" dxfId="342" priority="174">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="290" priority="153">
+    <cfRule type="expression" dxfId="341" priority="173">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="289" priority="152">
+    <cfRule type="expression" dxfId="340" priority="172">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="288" priority="151">
+    <cfRule type="expression" dxfId="339" priority="171">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="287" priority="150">
+    <cfRule type="expression" dxfId="338" priority="170">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="286" priority="149">
+    <cfRule type="expression" dxfId="337" priority="169">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="285" priority="148">
+    <cfRule type="expression" dxfId="336" priority="168">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="284" priority="147">
+    <cfRule type="expression" dxfId="335" priority="167">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="283" priority="146">
+    <cfRule type="expression" dxfId="334" priority="166">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="282" priority="145">
+    <cfRule type="expression" dxfId="333" priority="165">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="281" priority="144">
+    <cfRule type="expression" dxfId="332" priority="164">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="280" priority="143">
+    <cfRule type="expression" dxfId="331" priority="163">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="279" priority="142">
+    <cfRule type="expression" dxfId="330" priority="162">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="278" priority="141">
+    <cfRule type="expression" dxfId="329" priority="161">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="277" priority="140">
+    <cfRule type="expression" dxfId="328" priority="160">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="276" priority="139">
+    <cfRule type="expression" dxfId="327" priority="159">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="275" priority="138">
+    <cfRule type="expression" dxfId="326" priority="158">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="274" priority="137">
+    <cfRule type="expression" dxfId="325" priority="157">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="273" priority="136">
+    <cfRule type="expression" dxfId="324" priority="156">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="272" priority="135">
+    <cfRule type="expression" dxfId="323" priority="155">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="271" priority="134">
+    <cfRule type="expression" dxfId="322" priority="154">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="270" priority="133">
+    <cfRule type="expression" dxfId="321" priority="153">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="269" priority="132">
+    <cfRule type="expression" dxfId="320" priority="152">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="268" priority="131">
+    <cfRule type="expression" dxfId="319" priority="151">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="267" priority="130">
+    <cfRule type="expression" dxfId="318" priority="150">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="266" priority="129">
+    <cfRule type="expression" dxfId="317" priority="149">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="265" priority="128">
+    <cfRule type="expression" dxfId="316" priority="148">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="264" priority="127">
+    <cfRule type="expression" dxfId="315" priority="147">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="263" priority="126">
+    <cfRule type="expression" dxfId="314" priority="146">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="262" priority="125">
+    <cfRule type="expression" dxfId="313" priority="145">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="261" priority="124">
+    <cfRule type="expression" dxfId="312" priority="144">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="260" priority="123">
+    <cfRule type="expression" dxfId="311" priority="143">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="259" priority="122">
+    <cfRule type="expression" dxfId="310" priority="142">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="258" priority="121">
+    <cfRule type="expression" dxfId="309" priority="141">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="257" priority="120">
+    <cfRule type="expression" dxfId="308" priority="140">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="256" priority="119">
+    <cfRule type="expression" dxfId="307" priority="139">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="255" priority="118">
+    <cfRule type="expression" dxfId="306" priority="138">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="254" priority="117">
+    <cfRule type="expression" dxfId="305" priority="137">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="253" priority="116">
+    <cfRule type="expression" dxfId="304" priority="136">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="252" priority="115">
+    <cfRule type="expression" dxfId="303" priority="135">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="251" priority="114">
+    <cfRule type="expression" dxfId="302" priority="134">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="250" priority="113">
+    <cfRule type="expression" dxfId="301" priority="133">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="249" priority="112">
+    <cfRule type="expression" dxfId="300" priority="132">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="248" priority="111">
+    <cfRule type="expression" dxfId="299" priority="131">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="247" priority="110">
+    <cfRule type="expression" dxfId="298" priority="130">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="246" priority="109">
+    <cfRule type="expression" dxfId="297" priority="129">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="245" priority="108">
+    <cfRule type="expression" dxfId="296" priority="128">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="244" priority="107">
+    <cfRule type="expression" dxfId="295" priority="127">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="243" priority="106">
+    <cfRule type="expression" dxfId="294" priority="126">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="242" priority="105">
+    <cfRule type="expression" dxfId="293" priority="125">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="241" priority="104">
+    <cfRule type="expression" dxfId="292" priority="124">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="240" priority="103">
+    <cfRule type="expression" dxfId="291" priority="123">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="239" priority="102">
+    <cfRule type="expression" dxfId="290" priority="122">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="238" priority="101">
+    <cfRule type="expression" dxfId="289" priority="121">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="237" priority="100">
+    <cfRule type="expression" dxfId="288" priority="120">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="236" priority="99">
+    <cfRule type="expression" dxfId="287" priority="119">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="235" priority="98">
+    <cfRule type="expression" dxfId="286" priority="118">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="234" priority="97">
+    <cfRule type="expression" dxfId="285" priority="117">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="233" priority="96">
+    <cfRule type="expression" dxfId="284" priority="116">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="232" priority="95">
+    <cfRule type="expression" dxfId="283" priority="115">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="231" priority="94">
+    <cfRule type="expression" dxfId="282" priority="114">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="230" priority="93">
+    <cfRule type="expression" dxfId="281" priority="113">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="229" priority="92">
+    <cfRule type="expression" dxfId="280" priority="112">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="228" priority="91">
+    <cfRule type="expression" dxfId="279" priority="111">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="227" priority="90">
+    <cfRule type="expression" dxfId="278" priority="110">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="226" priority="89">
+    <cfRule type="expression" dxfId="277" priority="109">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="225" priority="88">
+    <cfRule type="expression" dxfId="276" priority="108">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="224" priority="87">
+    <cfRule type="expression" dxfId="275" priority="107">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="223" priority="86">
+    <cfRule type="expression" dxfId="274" priority="106">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="222" priority="85">
+    <cfRule type="expression" dxfId="273" priority="105">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="221" priority="84">
+    <cfRule type="expression" dxfId="272" priority="104">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="220" priority="83">
+    <cfRule type="expression" dxfId="271" priority="103">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="219" priority="82">
+    <cfRule type="expression" dxfId="270" priority="102">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="218" priority="81">
+    <cfRule type="expression" dxfId="269" priority="101">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="217" priority="80">
+    <cfRule type="expression" dxfId="268" priority="100">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="216" priority="79">
+    <cfRule type="expression" dxfId="267" priority="99">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="215" priority="78">
+    <cfRule type="expression" dxfId="266" priority="98">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="214" priority="77">
+    <cfRule type="expression" dxfId="265" priority="97">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="213" priority="76">
+    <cfRule type="expression" dxfId="264" priority="96">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="212" priority="75">
+    <cfRule type="expression" dxfId="263" priority="95">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="211" priority="74">
+    <cfRule type="expression" dxfId="262" priority="94">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="210" priority="73">
+    <cfRule type="expression" dxfId="261" priority="93">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="209" priority="72">
+    <cfRule type="expression" dxfId="260" priority="92">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="208" priority="71">
+    <cfRule type="expression" dxfId="259" priority="91">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="207" priority="70">
+    <cfRule type="expression" dxfId="258" priority="90">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="206" priority="69">
+    <cfRule type="expression" dxfId="257" priority="89">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="205" priority="68">
+    <cfRule type="expression" dxfId="256" priority="88">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="204" priority="67">
+    <cfRule type="expression" dxfId="255" priority="87">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="203" priority="66">
+    <cfRule type="expression" dxfId="254" priority="86">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="202" priority="65">
+    <cfRule type="expression" dxfId="253" priority="85">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="201" priority="64">
+    <cfRule type="expression" dxfId="252" priority="84">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E741">
-    <cfRule type="expression" dxfId="200" priority="63">
+    <cfRule type="expression" dxfId="251" priority="83">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E741">
-    <cfRule type="expression" dxfId="199" priority="62">
+    <cfRule type="expression" dxfId="250" priority="82">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E741">
-    <cfRule type="expression" dxfId="198" priority="61">
+    <cfRule type="expression" dxfId="249" priority="81">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E741">
-    <cfRule type="expression" dxfId="197" priority="60">
+    <cfRule type="expression" dxfId="248" priority="80">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="196" priority="59">
+    <cfRule type="expression" dxfId="247" priority="79">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="195" priority="58">
+    <cfRule type="expression" dxfId="246" priority="78">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="194" priority="57">
+    <cfRule type="expression" dxfId="245" priority="77">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="193" priority="56">
+    <cfRule type="expression" dxfId="244" priority="76">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="192" priority="55">
+    <cfRule type="expression" dxfId="243" priority="75">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="191" priority="54">
+    <cfRule type="expression" dxfId="242" priority="74">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="190" priority="53">
+    <cfRule type="expression" dxfId="241" priority="73">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="189" priority="52">
+    <cfRule type="expression" dxfId="240" priority="72">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="188" priority="51">
+    <cfRule type="expression" dxfId="239" priority="71">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="187" priority="50">
+    <cfRule type="expression" dxfId="238" priority="70">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="186" priority="49">
+    <cfRule type="expression" dxfId="237" priority="69">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="185" priority="48">
+    <cfRule type="expression" dxfId="236" priority="68">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="184" priority="47">
+    <cfRule type="expression" dxfId="235" priority="67">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="183" priority="46">
+    <cfRule type="expression" dxfId="234" priority="66">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="182" priority="45">
+    <cfRule type="expression" dxfId="233" priority="65">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="181" priority="44">
+    <cfRule type="expression" dxfId="232" priority="64">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="180" priority="43">
+    <cfRule type="expression" dxfId="231" priority="63">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="179" priority="42">
+    <cfRule type="expression" dxfId="230" priority="62">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="178" priority="41">
+    <cfRule type="expression" dxfId="229" priority="61">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="177" priority="40">
+    <cfRule type="expression" dxfId="228" priority="60">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="176" priority="39">
+    <cfRule type="expression" dxfId="227" priority="59">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="175" priority="38">
+    <cfRule type="expression" dxfId="226" priority="58">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="174" priority="37">
+    <cfRule type="expression" dxfId="225" priority="57">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="173" priority="36">
+    <cfRule type="expression" dxfId="224" priority="56">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="172" priority="35">
+    <cfRule type="expression" dxfId="223" priority="55">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="171" priority="34">
+    <cfRule type="expression" dxfId="222" priority="54">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="170" priority="33">
+    <cfRule type="expression" dxfId="221" priority="53">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="169" priority="32">
+    <cfRule type="expression" dxfId="220" priority="52">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="168" priority="31">
+    <cfRule type="expression" dxfId="219" priority="51">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="167" priority="30">
+    <cfRule type="expression" dxfId="218" priority="50">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="166" priority="29">
+    <cfRule type="expression" dxfId="217" priority="49">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="165" priority="28">
+    <cfRule type="expression" dxfId="216" priority="48">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="164" priority="27">
+    <cfRule type="expression" dxfId="215" priority="47">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="163" priority="26">
+    <cfRule type="expression" dxfId="214" priority="46">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="162" priority="25">
+    <cfRule type="expression" dxfId="213" priority="45">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="161" priority="24">
+    <cfRule type="expression" dxfId="212" priority="44">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="160" priority="23">
+    <cfRule type="expression" dxfId="211" priority="43">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="159" priority="22">
+    <cfRule type="expression" dxfId="210" priority="42">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="158" priority="21">
+    <cfRule type="expression" dxfId="209" priority="41">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="157" priority="20">
+    <cfRule type="expression" dxfId="208" priority="40">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="156" priority="19">
+    <cfRule type="expression" dxfId="207" priority="39">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="155" priority="18">
+    <cfRule type="expression" dxfId="206" priority="38">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="154" priority="17">
+    <cfRule type="expression" dxfId="205" priority="37">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="153" priority="16">
+    <cfRule type="expression" dxfId="204" priority="36">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="152" priority="15">
+    <cfRule type="expression" dxfId="203" priority="35">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="151" priority="14">
+    <cfRule type="expression" dxfId="202" priority="34">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="150" priority="13">
+    <cfRule type="expression" dxfId="201" priority="33">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="149" priority="12">
+    <cfRule type="expression" dxfId="200" priority="32">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="148" priority="11">
+    <cfRule type="expression" dxfId="199" priority="31">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I744">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="198" priority="30">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I744">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="197" priority="29">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I744">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="196" priority="28">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I744">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="195" priority="27">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I744">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="194" priority="26">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="193" priority="25">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="192" priority="24">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="191" priority="23">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="190" priority="22">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="189" priority="21">
       <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E747">
+    <cfRule type="expression" dxfId="188" priority="20">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E747">
+    <cfRule type="expression" dxfId="187" priority="19">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E747">
+    <cfRule type="expression" dxfId="186" priority="18">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E747">
+    <cfRule type="expression" dxfId="185" priority="17">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E747">
+    <cfRule type="expression" dxfId="184" priority="16">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G747">
+    <cfRule type="expression" dxfId="183" priority="15">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G747">
+    <cfRule type="expression" dxfId="182" priority="14">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G747">
+    <cfRule type="expression" dxfId="181" priority="13">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G747">
+    <cfRule type="expression" dxfId="180" priority="12">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G747">
+    <cfRule type="expression" dxfId="179" priority="11">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I747">
+    <cfRule type="expression" dxfId="178" priority="10">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I747">
+    <cfRule type="expression" dxfId="177" priority="9">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I747">
+    <cfRule type="expression" dxfId="176" priority="8">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I747">
+    <cfRule type="expression" dxfId="175" priority="7">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I747">
+    <cfRule type="expression" dxfId="174" priority="6">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K747">
+    <cfRule type="expression" dxfId="173" priority="5">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K747">
+    <cfRule type="expression" dxfId="172" priority="4">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K747">
+    <cfRule type="expression" dxfId="171" priority="3">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K747">
+    <cfRule type="expression" dxfId="170" priority="2">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K747">
+    <cfRule type="expression" dxfId="169" priority="1">
+      <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -26442,11 +27016,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O752"/>
+  <dimension ref="A1:O760"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H755" sqref="H755"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A743" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H764" sqref="H764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45326,700 +45900,1059 @@
       <c r="J752" s="11"/>
       <c r="K752" s="12"/>
     </row>
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A753" s="1">
+        <v>752</v>
+      </c>
+      <c r="B753" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C753" s="8">
+        <v>45956</v>
+      </c>
+      <c r="D753" s="9"/>
+      <c r="E753" s="10"/>
+      <c r="F753" s="11"/>
+      <c r="G753" s="12"/>
+      <c r="H753" s="11"/>
+      <c r="I753" s="12"/>
+      <c r="J753" s="11"/>
+      <c r="K753" s="12"/>
+    </row>
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A754" s="1">
+        <v>753</v>
+      </c>
+      <c r="B754" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C754" s="8">
+        <v>45957</v>
+      </c>
+      <c r="D754" s="9"/>
+      <c r="E754" s="10"/>
+      <c r="F754" s="11"/>
+      <c r="G754" s="12"/>
+      <c r="H754" s="11"/>
+      <c r="I754" s="12"/>
+      <c r="J754" s="11"/>
+      <c r="K754" s="12"/>
+    </row>
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A755" s="1">
+        <v>754</v>
+      </c>
+      <c r="B755" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C755" s="8">
+        <v>45958</v>
+      </c>
+      <c r="D755" s="9">
+        <v>3900</v>
+      </c>
+      <c r="E755" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F755" s="11">
+        <v>2800</v>
+      </c>
+      <c r="G755" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H755" s="11"/>
+      <c r="I755" s="12"/>
+      <c r="J755" s="11">
+        <v>3900</v>
+      </c>
+      <c r="K755" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A756" s="1">
+        <v>755</v>
+      </c>
+      <c r="B756" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C756" s="8">
+        <v>45959</v>
+      </c>
+      <c r="D756" s="9"/>
+      <c r="E756" s="10"/>
+      <c r="F756" s="11"/>
+      <c r="G756" s="12"/>
+      <c r="H756" s="11"/>
+      <c r="I756" s="12"/>
+      <c r="J756" s="11"/>
+      <c r="K756" s="12"/>
+    </row>
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A757" s="1">
+        <v>756</v>
+      </c>
+      <c r="B757" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C757" s="8">
+        <v>45960</v>
+      </c>
+      <c r="D757" s="9">
+        <v>3200</v>
+      </c>
+      <c r="E757" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F757" s="11">
+        <v>2200</v>
+      </c>
+      <c r="G757" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H757" s="11">
+        <v>5300</v>
+      </c>
+      <c r="I757" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J757" s="11">
+        <v>3200</v>
+      </c>
+      <c r="K757" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A758" s="1">
+        <v>757</v>
+      </c>
+      <c r="B758" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C758" s="8">
+        <v>45960</v>
+      </c>
+      <c r="D758" s="9">
+        <v>1300</v>
+      </c>
+      <c r="E758" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F758" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G758" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H758" s="11">
+        <v>100</v>
+      </c>
+      <c r="I758" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J758" s="11">
+        <v>400</v>
+      </c>
+      <c r="K758" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A759" s="1">
+        <v>758</v>
+      </c>
+      <c r="B759" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C759" s="8">
+        <v>45960</v>
+      </c>
+      <c r="D759" s="9">
+        <v>300</v>
+      </c>
+      <c r="E759" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F759" s="11">
+        <v>400</v>
+      </c>
+      <c r="G759" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H759" s="11"/>
+      <c r="I759" s="12"/>
+      <c r="J759" s="11"/>
+      <c r="K759" s="12"/>
+    </row>
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A760" s="1">
+        <v>759</v>
+      </c>
+      <c r="B760" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C760" s="8">
+        <v>45961</v>
+      </c>
+      <c r="D760" s="9"/>
+      <c r="E760" s="10"/>
+      <c r="F760" s="11"/>
+      <c r="G760" s="12"/>
+      <c r="H760" s="11"/>
+      <c r="I760" s="12"/>
+      <c r="J760" s="11"/>
+      <c r="K760" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E752">
-    <cfRule type="expression" dxfId="147" priority="132">
+  <conditionalFormatting sqref="B4:E760">
+    <cfRule type="expression" dxfId="168" priority="163">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K752">
-    <cfRule type="expression" dxfId="146" priority="133">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K760">
+    <cfRule type="expression" dxfId="167" priority="164">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="145" priority="142">
+    <cfRule type="expression" dxfId="166" priority="173">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="144" priority="145">
+    <cfRule type="expression" dxfId="165" priority="176">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="143" priority="154">
+    <cfRule type="expression" dxfId="164" priority="185">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="142" priority="167">
+    <cfRule type="expression" dxfId="163" priority="198">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="141" priority="171">
+    <cfRule type="expression" dxfId="162" priority="202">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="140" priority="146">
+    <cfRule type="expression" dxfId="161" priority="177">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="139" priority="130">
+    <cfRule type="expression" dxfId="160" priority="161">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="138" priority="129">
+    <cfRule type="expression" dxfId="159" priority="160">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="137" priority="128">
+    <cfRule type="expression" dxfId="158" priority="159">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="136" priority="127">
+    <cfRule type="expression" dxfId="157" priority="158">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="135" priority="126">
+    <cfRule type="expression" dxfId="156" priority="157">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="134" priority="125">
+    <cfRule type="expression" dxfId="155" priority="156">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="133" priority="124">
+    <cfRule type="expression" dxfId="154" priority="155">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="132" priority="123">
+    <cfRule type="expression" dxfId="153" priority="154">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="131" priority="122">
+    <cfRule type="expression" dxfId="152" priority="153">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="130" priority="121">
+    <cfRule type="expression" dxfId="151" priority="152">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="129" priority="120">
+    <cfRule type="expression" dxfId="150" priority="151">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="128" priority="119">
+    <cfRule type="expression" dxfId="149" priority="150">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="127" priority="118">
+    <cfRule type="expression" dxfId="148" priority="149">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="126" priority="117">
+    <cfRule type="expression" dxfId="147" priority="148">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="125" priority="116">
+    <cfRule type="expression" dxfId="146" priority="147">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="124" priority="115">
+    <cfRule type="expression" dxfId="145" priority="146">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="123" priority="114">
+    <cfRule type="expression" dxfId="144" priority="145">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="122" priority="113">
+    <cfRule type="expression" dxfId="143" priority="144">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="121" priority="112">
+    <cfRule type="expression" dxfId="142" priority="143">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="120" priority="111">
+    <cfRule type="expression" dxfId="141" priority="142">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="119" priority="110">
+    <cfRule type="expression" dxfId="140" priority="141">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="118" priority="109">
+    <cfRule type="expression" dxfId="139" priority="140">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="117" priority="108">
+    <cfRule type="expression" dxfId="138" priority="139">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="116" priority="107">
+    <cfRule type="expression" dxfId="137" priority="138">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="115" priority="106">
+    <cfRule type="expression" dxfId="136" priority="137">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="114" priority="105">
+    <cfRule type="expression" dxfId="135" priority="136">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="113" priority="104">
+    <cfRule type="expression" dxfId="134" priority="135">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="112" priority="103">
+    <cfRule type="expression" dxfId="133" priority="134">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="111" priority="102">
+    <cfRule type="expression" dxfId="132" priority="133">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="110" priority="101">
+    <cfRule type="expression" dxfId="131" priority="132">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="109" priority="100">
+    <cfRule type="expression" dxfId="130" priority="131">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="108" priority="99">
+    <cfRule type="expression" dxfId="129" priority="130">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="107" priority="98">
+    <cfRule type="expression" dxfId="128" priority="129">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="106" priority="97">
+    <cfRule type="expression" dxfId="127" priority="128">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="105" priority="96">
+    <cfRule type="expression" dxfId="126" priority="127">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="104" priority="95">
+    <cfRule type="expression" dxfId="125" priority="126">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="103" priority="94">
+    <cfRule type="expression" dxfId="124" priority="125">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="102" priority="93">
+    <cfRule type="expression" dxfId="123" priority="124">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="101" priority="92">
+    <cfRule type="expression" dxfId="122" priority="123">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="100" priority="91">
+    <cfRule type="expression" dxfId="121" priority="122">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="99" priority="90">
+    <cfRule type="expression" dxfId="120" priority="121">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="98" priority="89">
+    <cfRule type="expression" dxfId="119" priority="120">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="97" priority="88">
+    <cfRule type="expression" dxfId="118" priority="119">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="96" priority="87">
+    <cfRule type="expression" dxfId="117" priority="118">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="95" priority="86">
+    <cfRule type="expression" dxfId="116" priority="117">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="94" priority="85">
+    <cfRule type="expression" dxfId="115" priority="116">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="93" priority="84">
+    <cfRule type="expression" dxfId="114" priority="115">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="92" priority="83">
+    <cfRule type="expression" dxfId="113" priority="114">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="91" priority="82">
+    <cfRule type="expression" dxfId="112" priority="113">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="90" priority="80">
+    <cfRule type="expression" dxfId="111" priority="111">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="89" priority="81">
+    <cfRule type="expression" dxfId="110" priority="112">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="88" priority="79">
+    <cfRule type="expression" dxfId="109" priority="110">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="87" priority="78">
+    <cfRule type="expression" dxfId="108" priority="109">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="86" priority="77">
+    <cfRule type="expression" dxfId="107" priority="108">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="85" priority="76">
+    <cfRule type="expression" dxfId="106" priority="107">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="84" priority="75">
+    <cfRule type="expression" dxfId="105" priority="106">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="83" priority="74">
+    <cfRule type="expression" dxfId="104" priority="105">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="82" priority="73">
+    <cfRule type="expression" dxfId="103" priority="104">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E728">
-    <cfRule type="expression" dxfId="81" priority="72">
+    <cfRule type="expression" dxfId="102" priority="103">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="80" priority="71">
+    <cfRule type="expression" dxfId="101" priority="102">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="79" priority="70">
+    <cfRule type="expression" dxfId="100" priority="101">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="78" priority="69">
+    <cfRule type="expression" dxfId="99" priority="100">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="77" priority="68">
+    <cfRule type="expression" dxfId="98" priority="99">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E730">
-    <cfRule type="expression" dxfId="76" priority="67">
+    <cfRule type="expression" dxfId="97" priority="98">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="75" priority="66">
+    <cfRule type="expression" dxfId="96" priority="97">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="74" priority="65">
+    <cfRule type="expression" dxfId="95" priority="96">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="73" priority="64">
+    <cfRule type="expression" dxfId="94" priority="95">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="72" priority="63">
+    <cfRule type="expression" dxfId="93" priority="94">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="71" priority="62">
+    <cfRule type="expression" dxfId="92" priority="93">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="70" priority="61">
+    <cfRule type="expression" dxfId="91" priority="92">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="69" priority="60">
+    <cfRule type="expression" dxfId="90" priority="91">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="68" priority="59">
+    <cfRule type="expression" dxfId="89" priority="90">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="67" priority="58">
+    <cfRule type="expression" dxfId="88" priority="89">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="66" priority="57">
+    <cfRule type="expression" dxfId="87" priority="88">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="65" priority="56">
+    <cfRule type="expression" dxfId="86" priority="87">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="64" priority="55">
+    <cfRule type="expression" dxfId="85" priority="86">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="63" priority="54">
+    <cfRule type="expression" dxfId="84" priority="85">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="62" priority="53">
+    <cfRule type="expression" dxfId="83" priority="84">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E737">
-    <cfRule type="expression" dxfId="61" priority="52">
+    <cfRule type="expression" dxfId="82" priority="83">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="60" priority="51">
+    <cfRule type="expression" dxfId="81" priority="82">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="59" priority="50">
+    <cfRule type="expression" dxfId="80" priority="81">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="58" priority="49">
+    <cfRule type="expression" dxfId="79" priority="80">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="57" priority="48">
+    <cfRule type="expression" dxfId="78" priority="79">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="56" priority="47">
+    <cfRule type="expression" dxfId="77" priority="78">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="55" priority="46">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="54" priority="45">
+    <cfRule type="expression" dxfId="75" priority="76">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="53" priority="44">
+    <cfRule type="expression" dxfId="74" priority="75">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="52" priority="43">
+    <cfRule type="expression" dxfId="73" priority="74">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="51" priority="42">
+    <cfRule type="expression" dxfId="72" priority="73">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="50" priority="41">
+    <cfRule type="expression" dxfId="71" priority="72">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="49" priority="40">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="48" priority="39">
+    <cfRule type="expression" dxfId="69" priority="70">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="47" priority="38">
+    <cfRule type="expression" dxfId="68" priority="69">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="46" priority="37">
+    <cfRule type="expression" dxfId="67" priority="68">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="45" priority="36">
+    <cfRule type="expression" dxfId="66" priority="67">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="44" priority="35">
+    <cfRule type="expression" dxfId="65" priority="66">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="43" priority="34">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="42" priority="33">
+    <cfRule type="expression" dxfId="63" priority="64">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="40" priority="31">
+    <cfRule type="expression" dxfId="61" priority="62">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="39" priority="30">
+    <cfRule type="expression" dxfId="60" priority="61">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E746">
-    <cfRule type="expression" dxfId="38" priority="29">
+    <cfRule type="expression" dxfId="59" priority="60">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G746">
-    <cfRule type="expression" dxfId="37" priority="28">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G746">
-    <cfRule type="expression" dxfId="36" priority="27">
+    <cfRule type="expression" dxfId="57" priority="58">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K746">
-    <cfRule type="expression" dxfId="35" priority="26">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K746">
-    <cfRule type="expression" dxfId="34" priority="25">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E748">
-    <cfRule type="expression" dxfId="33" priority="24">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K748">
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K748">
-    <cfRule type="expression" dxfId="29" priority="20">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E749">
-    <cfRule type="expression" dxfId="28" priority="19">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E749">
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="26" priority="17">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="25" priority="16">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="23" priority="14">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="22" priority="13">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E755">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G755">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G755">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I755">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I755">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K755">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K755">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E757">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$C757=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G757">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$C757=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G757">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$C757=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I757">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$C757=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I757">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$C757=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K757">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$C757=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K757">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$C757=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E758">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$C758=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E758">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$C758=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G758">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C758=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G758">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$C758=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G758">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$C758=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I758">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C758=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I758">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C758=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I758">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C758=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K758">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C758=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K758">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C758=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K758">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C758=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E759">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C759=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E759">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C759=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E759">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C759=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G759">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C759=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G759">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C759=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G759">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C759=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F217A6-95A5-427F-B815-E19C04907402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C29C201-3446-4532-B119-090303BA3DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,336 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="446">
+  <dxfs count="493">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3909,11 +4238,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD752"/>
+  <dimension ref="A1:AMD753"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G756" sqref="G756"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H753" sqref="H753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25524,18 +25853,26 @@
         <v>744</v>
       </c>
       <c r="B748" s="7" t="str">
-        <f t="shared" ref="B748:B752" si="111">IF(C748&lt;&gt;"",TEXT(C748,"ДДД"),"")</f>
+        <f t="shared" ref="B748:B753" si="111">IF(C748&lt;&gt;"",TEXT(C748,"ДДД"),"")</f>
         <v>Ср</v>
       </c>
       <c r="C748" s="8">
         <v>45959</v>
       </c>
-      <c r="D748" s="9"/>
-      <c r="E748" s="10"/>
+      <c r="D748" s="9">
+        <v>2700</v>
+      </c>
+      <c r="E748" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F748" s="11"/>
       <c r="G748" s="12"/>
-      <c r="H748" s="11"/>
-      <c r="I748" s="12"/>
+      <c r="H748" s="11">
+        <v>10000</v>
+      </c>
+      <c r="I748" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J748" s="11"/>
       <c r="K748" s="12"/>
     </row>
@@ -25552,32 +25889,56 @@
       </c>
       <c r="D749" s="9"/>
       <c r="E749" s="10"/>
-      <c r="F749" s="11"/>
-      <c r="G749" s="12"/>
+      <c r="F749" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G749" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="H749" s="11"/>
       <c r="I749" s="12"/>
-      <c r="J749" s="11"/>
-      <c r="K749" s="12"/>
+      <c r="J749" s="11">
+        <v>7100</v>
+      </c>
+      <c r="K749" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>746</v>
       </c>
       <c r="B750" s="7" t="str">
-        <f t="shared" si="111"/>
-        <v>Пт</v>
+        <f t="shared" ref="B750" si="112">IF(C750&lt;&gt;"",TEXT(C750,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C750" s="8">
-        <v>45961</v>
-      </c>
-      <c r="D750" s="9"/>
-      <c r="E750" s="10"/>
-      <c r="F750" s="11"/>
-      <c r="G750" s="12"/>
-      <c r="H750" s="11"/>
-      <c r="I750" s="12"/>
-      <c r="J750" s="11"/>
-      <c r="K750" s="12"/>
+        <v>45960</v>
+      </c>
+      <c r="D750" s="9">
+        <v>12800</v>
+      </c>
+      <c r="E750" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F750" s="11">
+        <v>5900</v>
+      </c>
+      <c r="G750" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H750" s="11">
+        <v>5300</v>
+      </c>
+      <c r="I750" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J750" s="11">
+        <v>9900</v>
+      </c>
+      <c r="K750" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
@@ -25585,10 +25946,10 @@
       </c>
       <c r="B751" s="7" t="str">
         <f t="shared" si="111"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C751" s="8">
-        <v>45962</v>
+        <v>45961</v>
       </c>
       <c r="D751" s="9"/>
       <c r="E751" s="10"/>
@@ -25605,10 +25966,10 @@
       </c>
       <c r="B752" s="7" t="str">
         <f t="shared" si="111"/>
-        <v>Вс</v>
+        <v>Сб</v>
       </c>
       <c r="C752" s="8">
-        <v>45963</v>
+        <v>45962</v>
       </c>
       <c r="D752" s="9"/>
       <c r="E752" s="10"/>
@@ -25619,1394 +25980,1649 @@
       <c r="J752" s="11"/>
       <c r="K752" s="12"/>
     </row>
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A753" s="1">
+        <v>749</v>
+      </c>
+      <c r="B753" s="7" t="str">
+        <f t="shared" si="111"/>
+        <v>Вс</v>
+      </c>
+      <c r="C753" s="8">
+        <v>45963</v>
+      </c>
+      <c r="D753" s="9"/>
+      <c r="E753" s="10"/>
+      <c r="F753" s="11"/>
+      <c r="G753" s="12"/>
+      <c r="H753" s="11"/>
+      <c r="I753" s="12"/>
+      <c r="J753" s="11"/>
+      <c r="K753" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E752">
-    <cfRule type="expression" dxfId="445" priority="273">
+  <conditionalFormatting sqref="B4:E753">
+    <cfRule type="expression" dxfId="492" priority="320">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K752">
-    <cfRule type="expression" dxfId="444" priority="274">
+  <conditionalFormatting sqref="B4:M683 B684:K753">
+    <cfRule type="expression" dxfId="491" priority="321">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="443" priority="287">
+    <cfRule type="expression" dxfId="490" priority="334">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="442" priority="271">
+    <cfRule type="expression" dxfId="489" priority="318">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="441" priority="290">
+    <cfRule type="expression" dxfId="488" priority="337">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="440" priority="288">
+    <cfRule type="expression" dxfId="487" priority="335">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="439" priority="270">
+    <cfRule type="expression" dxfId="486" priority="317">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="438" priority="289">
+    <cfRule type="expression" dxfId="485" priority="336">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
+    <cfRule type="expression" dxfId="484" priority="316">
+      <formula>$C661=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G670">
+    <cfRule type="expression" dxfId="483" priority="315">
+      <formula>$C670=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I670">
+    <cfRule type="expression" dxfId="482" priority="314">
+      <formula>$C670=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K670">
+    <cfRule type="expression" dxfId="481" priority="313">
+      <formula>$C670=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G678">
+    <cfRule type="expression" dxfId="480" priority="312">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E678">
+    <cfRule type="expression" dxfId="479" priority="311">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I678">
+    <cfRule type="expression" dxfId="478" priority="310">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K678">
+    <cfRule type="expression" dxfId="477" priority="309">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G686">
+    <cfRule type="expression" dxfId="476" priority="308">
+      <formula>$C686=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I686">
+    <cfRule type="expression" dxfId="475" priority="307">
+      <formula>$C686=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K686">
+    <cfRule type="expression" dxfId="474" priority="306">
+      <formula>$C686=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G691">
+    <cfRule type="expression" dxfId="473" priority="305">
+      <formula>$C691=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I691">
+    <cfRule type="expression" dxfId="472" priority="304">
+      <formula>$C691=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K691">
+    <cfRule type="expression" dxfId="471" priority="303">
+      <formula>$C691=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E693">
+    <cfRule type="expression" dxfId="470" priority="302">
+      <formula>$C693=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G693">
+    <cfRule type="expression" dxfId="469" priority="301">
+      <formula>$C693=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I693">
+    <cfRule type="expression" dxfId="468" priority="300">
+      <formula>$C693=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K693">
+    <cfRule type="expression" dxfId="467" priority="299">
+      <formula>$C693=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E694">
+    <cfRule type="expression" dxfId="466" priority="298">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G694">
+    <cfRule type="expression" dxfId="465" priority="297">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I694">
+    <cfRule type="expression" dxfId="464" priority="296">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K694">
+    <cfRule type="expression" dxfId="463" priority="295">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G699">
+    <cfRule type="expression" dxfId="462" priority="294">
+      <formula>$C699=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I699">
+    <cfRule type="expression" dxfId="461" priority="293">
+      <formula>$C699=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K699">
+    <cfRule type="expression" dxfId="460" priority="292">
+      <formula>$C699=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G701">
+    <cfRule type="expression" dxfId="459" priority="291">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I701">
+    <cfRule type="expression" dxfId="458" priority="290">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K701">
+    <cfRule type="expression" dxfId="457" priority="289">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K702">
+    <cfRule type="expression" dxfId="456" priority="288">
+      <formula>$C702=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I702">
+    <cfRule type="expression" dxfId="455" priority="287">
+      <formula>$C702=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G702">
+    <cfRule type="expression" dxfId="454" priority="286">
+      <formula>$C702=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E702">
+    <cfRule type="expression" dxfId="453" priority="285">
+      <formula>$C702=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I707">
+    <cfRule type="expression" dxfId="452" priority="284">
+      <formula>$C707=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K707">
+    <cfRule type="expression" dxfId="451" priority="283">
+      <formula>$C707=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G707">
+    <cfRule type="expression" dxfId="450" priority="282">
+      <formula>$C707=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E707">
+    <cfRule type="expression" dxfId="449" priority="281">
+      <formula>$C707=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E709">
+    <cfRule type="expression" dxfId="448" priority="280">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G709">
+    <cfRule type="expression" dxfId="447" priority="279">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G709">
+    <cfRule type="expression" dxfId="446" priority="278">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I709">
+    <cfRule type="expression" dxfId="445" priority="277">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I709">
+    <cfRule type="expression" dxfId="444" priority="276">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K709">
+    <cfRule type="expression" dxfId="443" priority="275">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K709">
+    <cfRule type="expression" dxfId="442" priority="274">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E710">
+    <cfRule type="expression" dxfId="441" priority="273">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G710">
+    <cfRule type="expression" dxfId="440" priority="272">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I710">
+    <cfRule type="expression" dxfId="439" priority="271">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K710">
+    <cfRule type="expression" dxfId="438" priority="270">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E715">
     <cfRule type="expression" dxfId="437" priority="269">
-      <formula>$C661=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G670">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G715">
     <cfRule type="expression" dxfId="436" priority="268">
-      <formula>$C670=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I670">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G715">
     <cfRule type="expression" dxfId="435" priority="267">
-      <formula>$C670=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K670">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I715">
     <cfRule type="expression" dxfId="434" priority="266">
-      <formula>$C670=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G678">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I715">
     <cfRule type="expression" dxfId="433" priority="265">
-      <formula>$C678=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E678">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K715:K718">
     <cfRule type="expression" dxfId="432" priority="264">
-      <formula>$C678=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I678">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K715:K718">
     <cfRule type="expression" dxfId="431" priority="263">
-      <formula>$C678=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K678">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I717:I718">
     <cfRule type="expression" dxfId="430" priority="262">
-      <formula>$C678=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G686">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I717:I718">
     <cfRule type="expression" dxfId="429" priority="261">
-      <formula>$C686=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I686">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G717:G718">
     <cfRule type="expression" dxfId="428" priority="260">
-      <formula>$C686=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K686">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G717:G718">
     <cfRule type="expression" dxfId="427" priority="259">
-      <formula>$C686=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G691">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E717:E718">
     <cfRule type="expression" dxfId="426" priority="258">
-      <formula>$C691=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I691">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E717:E718">
     <cfRule type="expression" dxfId="425" priority="257">
-      <formula>$C691=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K691">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G718">
     <cfRule type="expression" dxfId="424" priority="256">
-      <formula>$C691=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E693">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G718">
     <cfRule type="expression" dxfId="423" priority="255">
-      <formula>$C693=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G693">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G718">
     <cfRule type="expression" dxfId="422" priority="254">
-      <formula>$C693=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I693">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I718">
     <cfRule type="expression" dxfId="421" priority="253">
-      <formula>$C693=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K693">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I718">
     <cfRule type="expression" dxfId="420" priority="252">
-      <formula>$C693=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E694">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I718">
     <cfRule type="expression" dxfId="419" priority="251">
-      <formula>$C694=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G694">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K718">
     <cfRule type="expression" dxfId="418" priority="250">
-      <formula>$C694=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I694">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K718">
     <cfRule type="expression" dxfId="417" priority="249">
-      <formula>$C694=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K694">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K718">
     <cfRule type="expression" dxfId="416" priority="248">
-      <formula>$C694=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G699">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E723">
     <cfRule type="expression" dxfId="415" priority="247">
-      <formula>$C699=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I699">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E723">
     <cfRule type="expression" dxfId="414" priority="246">
-      <formula>$C699=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K699">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
     <cfRule type="expression" dxfId="413" priority="245">
-      <formula>$C699=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G701">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
     <cfRule type="expression" dxfId="412" priority="244">
-      <formula>$C701=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I701">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
     <cfRule type="expression" dxfId="411" priority="243">
-      <formula>$C701=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K701">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723:I724">
     <cfRule type="expression" dxfId="410" priority="242">
-      <formula>$C701=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K702">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723:I724">
     <cfRule type="expression" dxfId="409" priority="241">
-      <formula>$C702=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I702">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723:I724">
     <cfRule type="expression" dxfId="408" priority="240">
-      <formula>$C702=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G702">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
     <cfRule type="expression" dxfId="407" priority="239">
-      <formula>$C702=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E702">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
     <cfRule type="expression" dxfId="406" priority="238">
-      <formula>$C702=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I707">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
     <cfRule type="expression" dxfId="405" priority="237">
-      <formula>$C707=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K707">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K725:K726">
     <cfRule type="expression" dxfId="404" priority="236">
-      <formula>$C707=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G707">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K725:K726">
     <cfRule type="expression" dxfId="403" priority="235">
-      <formula>$C707=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E707">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K725:K726">
     <cfRule type="expression" dxfId="402" priority="234">
-      <formula>$C707=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
     <cfRule type="expression" dxfId="401" priority="233">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
     <cfRule type="expression" dxfId="400" priority="232">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
     <cfRule type="expression" dxfId="399" priority="231">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
     <cfRule type="expression" dxfId="398" priority="230">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
     <cfRule type="expression" dxfId="397" priority="229">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
     <cfRule type="expression" dxfId="396" priority="228">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
     <cfRule type="expression" dxfId="395" priority="227">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E710">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
     <cfRule type="expression" dxfId="394" priority="226">
-      <formula>$C710=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G710">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
     <cfRule type="expression" dxfId="393" priority="225">
-      <formula>$C710=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I710">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E726">
     <cfRule type="expression" dxfId="392" priority="224">
-      <formula>$C710=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K710">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E726">
     <cfRule type="expression" dxfId="391" priority="223">
-      <formula>$C710=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E715">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
     <cfRule type="expression" dxfId="390" priority="222">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G715">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
     <cfRule type="expression" dxfId="389" priority="221">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G715">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
     <cfRule type="expression" dxfId="388" priority="220">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I715">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
     <cfRule type="expression" dxfId="387" priority="219">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I715">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
     <cfRule type="expression" dxfId="386" priority="218">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K715:K718">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
     <cfRule type="expression" dxfId="385" priority="217">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K715:K718">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
     <cfRule type="expression" dxfId="384" priority="216">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I717:I718">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
     <cfRule type="expression" dxfId="383" priority="215">
-      <formula>$C717=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I717:I718">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
     <cfRule type="expression" dxfId="382" priority="214">
-      <formula>$C717=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G717:G718">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731">
     <cfRule type="expression" dxfId="381" priority="213">
-      <formula>$C717=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G717:G718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731">
     <cfRule type="expression" dxfId="380" priority="212">
-      <formula>$C717=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E717:E718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731">
     <cfRule type="expression" dxfId="379" priority="211">
-      <formula>$C717=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E717:E718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
     <cfRule type="expression" dxfId="378" priority="210">
-      <formula>$C717=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
     <cfRule type="expression" dxfId="377" priority="209">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
     <cfRule type="expression" dxfId="376" priority="208">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
     <cfRule type="expression" dxfId="375" priority="207">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
     <cfRule type="expression" dxfId="374" priority="206">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
     <cfRule type="expression" dxfId="373" priority="205">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
     <cfRule type="expression" dxfId="372" priority="204">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
     <cfRule type="expression" dxfId="371" priority="203">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="370" priority="202">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="369" priority="201">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E723">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="368" priority="200">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E723">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="367" priority="199">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G723">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
     <cfRule type="expression" dxfId="366" priority="198">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
     <cfRule type="expression" dxfId="365" priority="197">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
     <cfRule type="expression" dxfId="364" priority="196">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I723:I724">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
     <cfRule type="expression" dxfId="363" priority="195">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I723:I724">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
     <cfRule type="expression" dxfId="362" priority="194">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I723:I724">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
     <cfRule type="expression" dxfId="361" priority="193">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
     <cfRule type="expression" dxfId="360" priority="192">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
     <cfRule type="expression" dxfId="359" priority="191">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
     <cfRule type="expression" dxfId="358" priority="190">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K725:K726">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
     <cfRule type="expression" dxfId="357" priority="189">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K725:K726">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
     <cfRule type="expression" dxfId="356" priority="188">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K725:K726">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
     <cfRule type="expression" dxfId="355" priority="187">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I725:I726">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733">
     <cfRule type="expression" dxfId="354" priority="186">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I725:I726">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733">
     <cfRule type="expression" dxfId="353" priority="185">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I725:I726">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733">
     <cfRule type="expression" dxfId="352" priority="184">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G725:G726">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733">
     <cfRule type="expression" dxfId="351" priority="183">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G725:G726">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
     <cfRule type="expression" dxfId="350" priority="182">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G725:G726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
     <cfRule type="expression" dxfId="349" priority="181">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
     <cfRule type="expression" dxfId="348" priority="180">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
     <cfRule type="expression" dxfId="347" priority="179">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
     <cfRule type="expression" dxfId="346" priority="178">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="345" priority="177">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="344" priority="176">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="343" priority="175">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="342" priority="174">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="341" priority="173">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="340" priority="172">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="339" priority="171">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="338" priority="170">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="337" priority="169">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="336" priority="168">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="335" priority="167">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E731">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="334" priority="166">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E731">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="333" priority="165">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E731">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="332" priority="164">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="331" priority="163">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="330" priority="162">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="329" priority="161">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="328" priority="160">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
     <cfRule type="expression" dxfId="327" priority="159">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
     <cfRule type="expression" dxfId="326" priority="158">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
     <cfRule type="expression" dxfId="325" priority="157">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
     <cfRule type="expression" dxfId="324" priority="156">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
     <cfRule type="expression" dxfId="323" priority="155">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
     <cfRule type="expression" dxfId="322" priority="154">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
     <cfRule type="expression" dxfId="321" priority="153">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
     <cfRule type="expression" dxfId="320" priority="152">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K733">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
     <cfRule type="expression" dxfId="319" priority="151">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K733">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
     <cfRule type="expression" dxfId="318" priority="150">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K733">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
     <cfRule type="expression" dxfId="317" priority="149">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
     <cfRule type="expression" dxfId="316" priority="148">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
     <cfRule type="expression" dxfId="315" priority="147">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
     <cfRule type="expression" dxfId="314" priority="146">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
     <cfRule type="expression" dxfId="313" priority="145">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
     <cfRule type="expression" dxfId="312" priority="144">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
     <cfRule type="expression" dxfId="311" priority="143">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
     <cfRule type="expression" dxfId="310" priority="142">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
     <cfRule type="expression" dxfId="309" priority="141">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="308" priority="140">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="307" priority="139">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="306" priority="138">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="305" priority="137">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="304" priority="136">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="303" priority="135">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="302" priority="134">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="301" priority="133">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="300" priority="132">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="299" priority="131">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E741">
     <cfRule type="expression" dxfId="298" priority="130">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E741">
     <cfRule type="expression" dxfId="297" priority="129">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E741">
     <cfRule type="expression" dxfId="296" priority="128">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E741">
     <cfRule type="expression" dxfId="295" priority="127">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
     <cfRule type="expression" dxfId="294" priority="126">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
     <cfRule type="expression" dxfId="293" priority="125">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
     <cfRule type="expression" dxfId="292" priority="124">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
     <cfRule type="expression" dxfId="291" priority="123">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
     <cfRule type="expression" dxfId="290" priority="122">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
     <cfRule type="expression" dxfId="289" priority="121">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
     <cfRule type="expression" dxfId="288" priority="120">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
     <cfRule type="expression" dxfId="287" priority="119">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
     <cfRule type="expression" dxfId="286" priority="118">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
     <cfRule type="expression" dxfId="285" priority="117">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
     <cfRule type="expression" dxfId="284" priority="116">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
     <cfRule type="expression" dxfId="283" priority="115">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
     <cfRule type="expression" dxfId="282" priority="114">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
     <cfRule type="expression" dxfId="281" priority="113">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I736">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
     <cfRule type="expression" dxfId="280" priority="112">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I736">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
     <cfRule type="expression" dxfId="279" priority="111">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I736">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
     <cfRule type="expression" dxfId="278" priority="110">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I736">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
     <cfRule type="expression" dxfId="277" priority="109">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I736">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
     <cfRule type="expression" dxfId="276" priority="108">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K736">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
     <cfRule type="expression" dxfId="275" priority="107">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K736">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
     <cfRule type="expression" dxfId="274" priority="106">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K736">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
     <cfRule type="expression" dxfId="273" priority="105">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K736">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
     <cfRule type="expression" dxfId="272" priority="104">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K736">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
     <cfRule type="expression" dxfId="271" priority="103">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
     <cfRule type="expression" dxfId="270" priority="102">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
     <cfRule type="expression" dxfId="269" priority="101">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
     <cfRule type="expression" dxfId="268" priority="100">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
     <cfRule type="expression" dxfId="267" priority="99">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
     <cfRule type="expression" dxfId="266" priority="98">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
     <cfRule type="expression" dxfId="265" priority="97">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
     <cfRule type="expression" dxfId="264" priority="96">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
     <cfRule type="expression" dxfId="263" priority="95">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
     <cfRule type="expression" dxfId="262" priority="94">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
     <cfRule type="expression" dxfId="261" priority="93">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
     <cfRule type="expression" dxfId="260" priority="92">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
     <cfRule type="expression" dxfId="259" priority="91">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
     <cfRule type="expression" dxfId="258" priority="90">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
     <cfRule type="expression" dxfId="257" priority="89">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
     <cfRule type="expression" dxfId="256" priority="88">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
     <cfRule type="expression" dxfId="255" priority="87">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
     <cfRule type="expression" dxfId="254" priority="86">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
     <cfRule type="expression" dxfId="253" priority="85">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
     <cfRule type="expression" dxfId="252" priority="84">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E741">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
     <cfRule type="expression" dxfId="251" priority="83">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E741">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
     <cfRule type="expression" dxfId="250" priority="82">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E741">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
     <cfRule type="expression" dxfId="249" priority="81">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E741">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
     <cfRule type="expression" dxfId="248" priority="80">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G741">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
     <cfRule type="expression" dxfId="247" priority="79">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G741">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
     <cfRule type="expression" dxfId="246" priority="78">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G741">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
     <cfRule type="expression" dxfId="245" priority="77">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
     <cfRule type="expression" dxfId="244" priority="76">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
     <cfRule type="expression" dxfId="243" priority="75">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
     <cfRule type="expression" dxfId="242" priority="74">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
     <cfRule type="expression" dxfId="241" priority="73">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
     <cfRule type="expression" dxfId="240" priority="72">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
     <cfRule type="expression" dxfId="239" priority="71">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
     <cfRule type="expression" dxfId="238" priority="70">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
     <cfRule type="expression" dxfId="237" priority="69">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
     <cfRule type="expression" dxfId="236" priority="68">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E747">
     <cfRule type="expression" dxfId="235" priority="67">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K741">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E747">
     <cfRule type="expression" dxfId="234" priority="66">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K741">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E747">
     <cfRule type="expression" dxfId="233" priority="65">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I740">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E747">
     <cfRule type="expression" dxfId="232" priority="64">
-      <formula>$C740=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I740">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E747">
     <cfRule type="expression" dxfId="231" priority="63">
-      <formula>$C740=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I740">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G747">
     <cfRule type="expression" dxfId="230" priority="62">
-      <formula>$C740=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I740">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G747">
     <cfRule type="expression" dxfId="229" priority="61">
-      <formula>$C740=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I740">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G747">
     <cfRule type="expression" dxfId="228" priority="60">
-      <formula>$C740=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G747">
     <cfRule type="expression" dxfId="227" priority="59">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G747">
     <cfRule type="expression" dxfId="226" priority="58">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I747">
     <cfRule type="expression" dxfId="225" priority="57">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I747">
     <cfRule type="expression" dxfId="224" priority="56">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I747">
     <cfRule type="expression" dxfId="223" priority="55">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I747">
     <cfRule type="expression" dxfId="222" priority="54">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I747">
     <cfRule type="expression" dxfId="221" priority="53">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K747">
     <cfRule type="expression" dxfId="220" priority="52">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K747">
     <cfRule type="expression" dxfId="219" priority="51">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K747">
     <cfRule type="expression" dxfId="218" priority="50">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K747">
     <cfRule type="expression" dxfId="217" priority="49">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K747">
     <cfRule type="expression" dxfId="216" priority="48">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I742">
+      <formula>$C747=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I748">
     <cfRule type="expression" dxfId="215" priority="47">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I742">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I748">
     <cfRule type="expression" dxfId="214" priority="46">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I742">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I748">
     <cfRule type="expression" dxfId="213" priority="45">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I742">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I748">
     <cfRule type="expression" dxfId="212" priority="44">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I742">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I748">
     <cfRule type="expression" dxfId="211" priority="43">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I742">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E748">
     <cfRule type="expression" dxfId="210" priority="42">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K742">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E748">
     <cfRule type="expression" dxfId="209" priority="41">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K742">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E748">
     <cfRule type="expression" dxfId="208" priority="40">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K742">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E748">
     <cfRule type="expression" dxfId="207" priority="39">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K742">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E748">
     <cfRule type="expression" dxfId="206" priority="38">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K742">
+      <formula>$C748=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G749:G750">
     <cfRule type="expression" dxfId="205" priority="37">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K742">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G749:G750">
     <cfRule type="expression" dxfId="204" priority="36">
-      <formula>$C742=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K740">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G749:G750">
     <cfRule type="expression" dxfId="203" priority="35">
-      <formula>$C740=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K740">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G749:G750">
     <cfRule type="expression" dxfId="202" priority="34">
-      <formula>$C740=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K740">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G749:G750">
     <cfRule type="expression" dxfId="201" priority="33">
-      <formula>$C740=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K740">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K749:K750">
     <cfRule type="expression" dxfId="200" priority="32">
-      <formula>$C740=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K740">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K749:K750">
     <cfRule type="expression" dxfId="199" priority="31">
-      <formula>$C740=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I744">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K749:K750">
     <cfRule type="expression" dxfId="198" priority="30">
-      <formula>$C744=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I744">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K749:K750">
     <cfRule type="expression" dxfId="197" priority="29">
-      <formula>$C744=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I744">
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K749:K750">
     <cfRule type="expression" dxfId="196" priority="28">
-      <formula>$C744=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I744">
-    <cfRule type="expression" dxfId="195" priority="27">
-      <formula>$C744=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I744">
-    <cfRule type="expression" dxfId="194" priority="26">
-      <formula>$C744=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="193" priority="25">
-      <formula>$C744=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="192" priority="24">
-      <formula>$C744=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="191" priority="23">
-      <formula>$C744=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="190" priority="22">
-      <formula>$C744=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="189" priority="21">
-      <formula>$C744=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E747">
-    <cfRule type="expression" dxfId="188" priority="20">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E747">
-    <cfRule type="expression" dxfId="187" priority="19">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E747">
-    <cfRule type="expression" dxfId="186" priority="18">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E747">
-    <cfRule type="expression" dxfId="185" priority="17">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E747">
-    <cfRule type="expression" dxfId="184" priority="16">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G747">
-    <cfRule type="expression" dxfId="183" priority="15">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G747">
-    <cfRule type="expression" dxfId="182" priority="14">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G747">
-    <cfRule type="expression" dxfId="181" priority="13">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G747">
-    <cfRule type="expression" dxfId="180" priority="12">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G747">
-    <cfRule type="expression" dxfId="179" priority="11">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I747">
-    <cfRule type="expression" dxfId="178" priority="10">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I747">
-    <cfRule type="expression" dxfId="177" priority="9">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I747">
-    <cfRule type="expression" dxfId="176" priority="8">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I747">
-    <cfRule type="expression" dxfId="175" priority="7">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I747">
-    <cfRule type="expression" dxfId="174" priority="6">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K747">
-    <cfRule type="expression" dxfId="173" priority="5">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K747">
-    <cfRule type="expression" dxfId="172" priority="4">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K747">
-    <cfRule type="expression" dxfId="171" priority="3">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K747">
-    <cfRule type="expression" dxfId="170" priority="2">
-      <formula>$C747=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K747">
-    <cfRule type="expression" dxfId="169" priority="1">
-      <formula>$C747=TODAY()</formula>
+      <formula>$C749=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E750">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E750">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E750">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E750">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E750">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E750">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G750">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G750">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G750">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G750">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G750">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G750">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G750">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I750">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I750">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I750">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I750">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I750">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I750">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I750">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K750">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K750">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K750">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K750">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K750">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K750">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K750">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -27018,7 +27634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O760"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A743" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H764" sqref="H764"/>
     </sheetView>
@@ -46111,847 +46727,847 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B4:E760">
-    <cfRule type="expression" dxfId="168" priority="163">
+    <cfRule type="expression" dxfId="195" priority="163">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K760">
-    <cfRule type="expression" dxfId="167" priority="164">
+    <cfRule type="expression" dxfId="194" priority="164">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="166" priority="173">
+    <cfRule type="expression" dxfId="193" priority="173">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="165" priority="176">
+    <cfRule type="expression" dxfId="192" priority="176">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="164" priority="185">
+    <cfRule type="expression" dxfId="191" priority="185">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="163" priority="198">
+    <cfRule type="expression" dxfId="190" priority="198">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="162" priority="202">
+    <cfRule type="expression" dxfId="189" priority="202">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="161" priority="177">
+    <cfRule type="expression" dxfId="188" priority="177">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="160" priority="161">
+    <cfRule type="expression" dxfId="187" priority="161">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="159" priority="160">
+    <cfRule type="expression" dxfId="186" priority="160">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="158" priority="159">
+    <cfRule type="expression" dxfId="185" priority="159">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="157" priority="158">
+    <cfRule type="expression" dxfId="184" priority="158">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="156" priority="157">
+    <cfRule type="expression" dxfId="183" priority="157">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="155" priority="156">
+    <cfRule type="expression" dxfId="182" priority="156">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="154" priority="155">
+    <cfRule type="expression" dxfId="181" priority="155">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="153" priority="154">
+    <cfRule type="expression" dxfId="180" priority="154">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="152" priority="153">
+    <cfRule type="expression" dxfId="179" priority="153">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="151" priority="152">
+    <cfRule type="expression" dxfId="178" priority="152">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="150" priority="151">
+    <cfRule type="expression" dxfId="177" priority="151">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="149" priority="150">
+    <cfRule type="expression" dxfId="176" priority="150">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="148" priority="149">
+    <cfRule type="expression" dxfId="175" priority="149">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="147" priority="148">
+    <cfRule type="expression" dxfId="174" priority="148">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="146" priority="147">
+    <cfRule type="expression" dxfId="173" priority="147">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="145" priority="146">
+    <cfRule type="expression" dxfId="172" priority="146">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="144" priority="145">
+    <cfRule type="expression" dxfId="171" priority="145">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="143" priority="144">
+    <cfRule type="expression" dxfId="170" priority="144">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="142" priority="143">
+    <cfRule type="expression" dxfId="169" priority="143">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="141" priority="142">
+    <cfRule type="expression" dxfId="168" priority="142">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="140" priority="141">
+    <cfRule type="expression" dxfId="167" priority="141">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="139" priority="140">
+    <cfRule type="expression" dxfId="166" priority="140">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="138" priority="139">
+    <cfRule type="expression" dxfId="165" priority="139">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="137" priority="138">
+    <cfRule type="expression" dxfId="164" priority="138">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="136" priority="137">
+    <cfRule type="expression" dxfId="163" priority="137">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="135" priority="136">
+    <cfRule type="expression" dxfId="162" priority="136">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="134" priority="135">
+    <cfRule type="expression" dxfId="161" priority="135">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="133" priority="134">
+    <cfRule type="expression" dxfId="160" priority="134">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="132" priority="133">
+    <cfRule type="expression" dxfId="159" priority="133">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="131" priority="132">
+    <cfRule type="expression" dxfId="158" priority="132">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="130" priority="131">
+    <cfRule type="expression" dxfId="157" priority="131">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="129" priority="130">
+    <cfRule type="expression" dxfId="156" priority="130">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="128" priority="129">
+    <cfRule type="expression" dxfId="155" priority="129">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="127" priority="128">
+    <cfRule type="expression" dxfId="154" priority="128">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="126" priority="127">
+    <cfRule type="expression" dxfId="153" priority="127">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="125" priority="126">
+    <cfRule type="expression" dxfId="152" priority="126">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="124" priority="125">
+    <cfRule type="expression" dxfId="151" priority="125">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="123" priority="124">
+    <cfRule type="expression" dxfId="150" priority="124">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="122" priority="123">
+    <cfRule type="expression" dxfId="149" priority="123">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="121" priority="122">
+    <cfRule type="expression" dxfId="148" priority="122">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="120" priority="121">
+    <cfRule type="expression" dxfId="147" priority="121">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="119" priority="120">
+    <cfRule type="expression" dxfId="146" priority="120">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="118" priority="119">
+    <cfRule type="expression" dxfId="145" priority="119">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="117" priority="118">
+    <cfRule type="expression" dxfId="144" priority="118">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="116" priority="117">
+    <cfRule type="expression" dxfId="143" priority="117">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="115" priority="116">
+    <cfRule type="expression" dxfId="142" priority="116">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="114" priority="115">
+    <cfRule type="expression" dxfId="141" priority="115">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="113" priority="114">
+    <cfRule type="expression" dxfId="140" priority="114">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="112" priority="113">
+    <cfRule type="expression" dxfId="139" priority="113">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="111" priority="111">
+    <cfRule type="expression" dxfId="138" priority="111">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="110" priority="112">
+    <cfRule type="expression" dxfId="137" priority="112">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="109" priority="110">
+    <cfRule type="expression" dxfId="136" priority="110">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="108" priority="109">
+    <cfRule type="expression" dxfId="135" priority="109">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="107" priority="108">
+    <cfRule type="expression" dxfId="134" priority="108">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="106" priority="107">
+    <cfRule type="expression" dxfId="133" priority="107">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="105" priority="106">
+    <cfRule type="expression" dxfId="132" priority="106">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="104" priority="105">
+    <cfRule type="expression" dxfId="131" priority="105">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="103" priority="104">
+    <cfRule type="expression" dxfId="130" priority="104">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E728">
-    <cfRule type="expression" dxfId="102" priority="103">
+    <cfRule type="expression" dxfId="129" priority="103">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="101" priority="102">
+    <cfRule type="expression" dxfId="128" priority="102">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="100" priority="101">
+    <cfRule type="expression" dxfId="127" priority="101">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="99" priority="100">
+    <cfRule type="expression" dxfId="126" priority="100">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="98" priority="99">
+    <cfRule type="expression" dxfId="125" priority="99">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E730">
-    <cfRule type="expression" dxfId="97" priority="98">
+    <cfRule type="expression" dxfId="124" priority="98">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="96" priority="97">
+    <cfRule type="expression" dxfId="123" priority="97">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="95" priority="96">
+    <cfRule type="expression" dxfId="122" priority="96">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="94" priority="95">
+    <cfRule type="expression" dxfId="121" priority="95">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="93" priority="94">
+    <cfRule type="expression" dxfId="120" priority="94">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="92" priority="93">
+    <cfRule type="expression" dxfId="119" priority="93">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="91" priority="92">
+    <cfRule type="expression" dxfId="118" priority="92">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="90" priority="91">
+    <cfRule type="expression" dxfId="117" priority="91">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="89" priority="90">
+    <cfRule type="expression" dxfId="116" priority="90">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="88" priority="89">
+    <cfRule type="expression" dxfId="115" priority="89">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="87" priority="88">
+    <cfRule type="expression" dxfId="114" priority="88">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="86" priority="87">
+    <cfRule type="expression" dxfId="113" priority="87">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="85" priority="86">
+    <cfRule type="expression" dxfId="112" priority="86">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="84" priority="85">
+    <cfRule type="expression" dxfId="111" priority="85">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="83" priority="84">
+    <cfRule type="expression" dxfId="110" priority="84">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E737">
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="109" priority="83">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="81" priority="82">
+    <cfRule type="expression" dxfId="108" priority="82">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="80" priority="81">
+    <cfRule type="expression" dxfId="107" priority="81">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="79" priority="80">
+    <cfRule type="expression" dxfId="106" priority="80">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="78" priority="79">
+    <cfRule type="expression" dxfId="105" priority="79">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="77" priority="78">
+    <cfRule type="expression" dxfId="104" priority="78">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="103" priority="77">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="75" priority="76">
+    <cfRule type="expression" dxfId="102" priority="76">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="101" priority="75">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="73" priority="74">
+    <cfRule type="expression" dxfId="100" priority="74">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="72" priority="73">
+    <cfRule type="expression" dxfId="99" priority="73">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="98" priority="72">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="97" priority="71">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="96" priority="70">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="95" priority="69">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="67" priority="68">
+    <cfRule type="expression" dxfId="94" priority="68">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="66" priority="67">
+    <cfRule type="expression" dxfId="93" priority="67">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="65" priority="66">
+    <cfRule type="expression" dxfId="92" priority="66">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="91" priority="65">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="63" priority="64">
+    <cfRule type="expression" dxfId="90" priority="64">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="89" priority="63">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="61" priority="62">
+    <cfRule type="expression" dxfId="88" priority="62">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="60" priority="61">
+    <cfRule type="expression" dxfId="87" priority="61">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E746">
-    <cfRule type="expression" dxfId="59" priority="60">
+    <cfRule type="expression" dxfId="86" priority="60">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G746">
-    <cfRule type="expression" dxfId="58" priority="59">
+    <cfRule type="expression" dxfId="85" priority="59">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G746">
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="84" priority="58">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K746">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="83" priority="57">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K746">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="82" priority="56">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E748">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="81" priority="55">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="80" priority="54">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="79" priority="53">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K748">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="78" priority="52">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K748">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="77" priority="51">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E749">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="76" priority="50">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E749">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="75" priority="49">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="74" priority="48">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="73" priority="47">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="72" priority="46">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="71" priority="45">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="70" priority="44">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="69" priority="43">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="68" priority="42">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="67" priority="41">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="66" priority="40">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="65" priority="39">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="64" priority="38">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="63" priority="37">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="62" priority="36">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="61" priority="35">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="60" priority="34">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="59" priority="33">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="58" priority="32">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E755">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="57" priority="31">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G755">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="56" priority="30">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G755">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="55" priority="29">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I755">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="54" priority="28">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I755">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="53" priority="27">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K755">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="52" priority="26">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K755">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="51" priority="25">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E757">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="50" priority="24">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G757">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="49" priority="23">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G757">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="48" priority="22">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I757">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="47" priority="21">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I757">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="46" priority="20">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K757">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="45" priority="19">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K757">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="44" priority="18">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E758">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="43" priority="17">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E758">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="42" priority="16">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G758">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="41" priority="15">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G758">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G758">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="39" priority="13">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I758">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="38" priority="12">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I758">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="37" priority="11">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I758">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="36" priority="10">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K758">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K758">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K758">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E759">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>$C759=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E759">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>$C759=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E759">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>$C759=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G759">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>$C759=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G759">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>$C759=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G759">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>$C759=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C29C201-3446-4532-B119-090303BA3DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E984B87-249F-4F85-A7DA-EF89D3EFFD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,406 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="493">
+  <dxfs count="550">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4238,11 +4637,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD753"/>
+  <dimension ref="A1:AMD759"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H753" sqref="H753"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P753" sqref="P753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26000,1629 +26399,1880 @@
       <c r="J753" s="11"/>
       <c r="K753" s="12"/>
     </row>
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A754" s="1">
+        <v>750</v>
+      </c>
+      <c r="B754" s="7" t="str">
+        <f t="shared" ref="B754:B759" si="113">IF(C754&lt;&gt;"",TEXT(C754,"ДДД"),"")</f>
+        <v>Пн</v>
+      </c>
+      <c r="C754" s="8">
+        <v>45964</v>
+      </c>
+      <c r="D754" s="9"/>
+      <c r="E754" s="10"/>
+      <c r="F754" s="11"/>
+      <c r="G754" s="12"/>
+      <c r="H754" s="11"/>
+      <c r="I754" s="12"/>
+      <c r="J754" s="11"/>
+      <c r="K754" s="12"/>
+    </row>
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A755" s="1">
+        <v>751</v>
+      </c>
+      <c r="B755" s="7" t="str">
+        <f t="shared" si="113"/>
+        <v>Вт</v>
+      </c>
+      <c r="C755" s="8">
+        <v>45965</v>
+      </c>
+      <c r="D755" s="9">
+        <v>4000</v>
+      </c>
+      <c r="E755" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F755" s="11">
+        <v>4500</v>
+      </c>
+      <c r="G755" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H755" s="11">
+        <v>15300</v>
+      </c>
+      <c r="I755" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J755" s="11">
+        <v>13500</v>
+      </c>
+      <c r="K755" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A756" s="1">
+        <v>752</v>
+      </c>
+      <c r="B756" s="7" t="str">
+        <f t="shared" si="113"/>
+        <v>Ср</v>
+      </c>
+      <c r="C756" s="8">
+        <v>45966</v>
+      </c>
+      <c r="D756" s="9"/>
+      <c r="E756" s="10"/>
+      <c r="F756" s="11"/>
+      <c r="G756" s="12"/>
+      <c r="H756" s="11"/>
+      <c r="I756" s="12"/>
+      <c r="J756" s="11"/>
+      <c r="K756" s="12"/>
+    </row>
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A757" s="1">
+        <v>753</v>
+      </c>
+      <c r="B757" s="7" t="str">
+        <f t="shared" si="113"/>
+        <v>Чт</v>
+      </c>
+      <c r="C757" s="8">
+        <v>45967</v>
+      </c>
+      <c r="D757" s="9"/>
+      <c r="E757" s="10"/>
+      <c r="F757" s="11"/>
+      <c r="G757" s="12"/>
+      <c r="H757" s="11"/>
+      <c r="I757" s="12"/>
+      <c r="J757" s="11"/>
+      <c r="K757" s="12"/>
+    </row>
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A758" s="1">
+        <v>754</v>
+      </c>
+      <c r="B758" s="7" t="str">
+        <f t="shared" si="113"/>
+        <v>Пт</v>
+      </c>
+      <c r="C758" s="8">
+        <v>45968</v>
+      </c>
+      <c r="D758" s="9"/>
+      <c r="E758" s="10"/>
+      <c r="F758" s="11"/>
+      <c r="G758" s="12"/>
+      <c r="H758" s="11"/>
+      <c r="I758" s="12"/>
+      <c r="J758" s="11"/>
+      <c r="K758" s="12"/>
+    </row>
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A759" s="1">
+        <v>755</v>
+      </c>
+      <c r="B759" s="7" t="str">
+        <f t="shared" si="113"/>
+        <v>Сб</v>
+      </c>
+      <c r="C759" s="8">
+        <v>45969</v>
+      </c>
+      <c r="D759" s="9"/>
+      <c r="E759" s="10"/>
+      <c r="F759" s="11"/>
+      <c r="G759" s="12"/>
+      <c r="H759" s="11"/>
+      <c r="I759" s="12"/>
+      <c r="J759" s="11"/>
+      <c r="K759" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E753">
-    <cfRule type="expression" dxfId="492" priority="320">
+  <conditionalFormatting sqref="B4:E759">
+    <cfRule type="expression" dxfId="549" priority="343">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K753">
-    <cfRule type="expression" dxfId="491" priority="321">
+  <conditionalFormatting sqref="B4:M683 B684:K759">
+    <cfRule type="expression" dxfId="548" priority="344">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="490" priority="334">
+    <cfRule type="expression" dxfId="547" priority="357">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="489" priority="318">
+    <cfRule type="expression" dxfId="546" priority="341">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="488" priority="337">
+    <cfRule type="expression" dxfId="545" priority="360">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="487" priority="335">
+    <cfRule type="expression" dxfId="544" priority="358">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="486" priority="317">
+    <cfRule type="expression" dxfId="543" priority="340">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="485" priority="336">
+    <cfRule type="expression" dxfId="542" priority="359">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
-    <cfRule type="expression" dxfId="484" priority="316">
+    <cfRule type="expression" dxfId="541" priority="339">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G670">
-    <cfRule type="expression" dxfId="483" priority="315">
+    <cfRule type="expression" dxfId="540" priority="338">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I670">
-    <cfRule type="expression" dxfId="482" priority="314">
+    <cfRule type="expression" dxfId="539" priority="337">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K670">
-    <cfRule type="expression" dxfId="481" priority="313">
+    <cfRule type="expression" dxfId="538" priority="336">
       <formula>$C670=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G678">
-    <cfRule type="expression" dxfId="480" priority="312">
+    <cfRule type="expression" dxfId="537" priority="335">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E678">
-    <cfRule type="expression" dxfId="479" priority="311">
+    <cfRule type="expression" dxfId="536" priority="334">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I678">
-    <cfRule type="expression" dxfId="478" priority="310">
+    <cfRule type="expression" dxfId="535" priority="333">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K678">
-    <cfRule type="expression" dxfId="477" priority="309">
+    <cfRule type="expression" dxfId="534" priority="332">
       <formula>$C678=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G686">
-    <cfRule type="expression" dxfId="476" priority="308">
+    <cfRule type="expression" dxfId="533" priority="331">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I686">
-    <cfRule type="expression" dxfId="475" priority="307">
+    <cfRule type="expression" dxfId="532" priority="330">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K686">
-    <cfRule type="expression" dxfId="474" priority="306">
+    <cfRule type="expression" dxfId="531" priority="329">
       <formula>$C686=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G691">
-    <cfRule type="expression" dxfId="473" priority="305">
+    <cfRule type="expression" dxfId="530" priority="328">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I691">
-    <cfRule type="expression" dxfId="472" priority="304">
+    <cfRule type="expression" dxfId="529" priority="327">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K691">
-    <cfRule type="expression" dxfId="471" priority="303">
+    <cfRule type="expression" dxfId="528" priority="326">
       <formula>$C691=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E693">
-    <cfRule type="expression" dxfId="470" priority="302">
+    <cfRule type="expression" dxfId="527" priority="325">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693">
-    <cfRule type="expression" dxfId="469" priority="301">
+    <cfRule type="expression" dxfId="526" priority="324">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I693">
-    <cfRule type="expression" dxfId="468" priority="300">
+    <cfRule type="expression" dxfId="525" priority="323">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K693">
-    <cfRule type="expression" dxfId="467" priority="299">
+    <cfRule type="expression" dxfId="524" priority="322">
       <formula>$C693=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="466" priority="298">
+    <cfRule type="expression" dxfId="523" priority="321">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G694">
-    <cfRule type="expression" dxfId="465" priority="297">
+    <cfRule type="expression" dxfId="522" priority="320">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="464" priority="296">
+    <cfRule type="expression" dxfId="521" priority="319">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="463" priority="295">
+    <cfRule type="expression" dxfId="520" priority="318">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G699">
-    <cfRule type="expression" dxfId="462" priority="294">
+    <cfRule type="expression" dxfId="519" priority="317">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I699">
-    <cfRule type="expression" dxfId="461" priority="293">
+    <cfRule type="expression" dxfId="518" priority="316">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K699">
-    <cfRule type="expression" dxfId="460" priority="292">
+    <cfRule type="expression" dxfId="517" priority="315">
       <formula>$C699=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="459" priority="291">
+    <cfRule type="expression" dxfId="516" priority="314">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I701">
-    <cfRule type="expression" dxfId="458" priority="290">
+    <cfRule type="expression" dxfId="515" priority="313">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="457" priority="289">
+    <cfRule type="expression" dxfId="514" priority="312">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K702">
-    <cfRule type="expression" dxfId="456" priority="288">
+    <cfRule type="expression" dxfId="513" priority="311">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I702">
-    <cfRule type="expression" dxfId="455" priority="287">
+    <cfRule type="expression" dxfId="512" priority="310">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G702">
-    <cfRule type="expression" dxfId="454" priority="286">
+    <cfRule type="expression" dxfId="511" priority="309">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E702">
-    <cfRule type="expression" dxfId="453" priority="285">
+    <cfRule type="expression" dxfId="510" priority="308">
       <formula>$C702=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I707">
-    <cfRule type="expression" dxfId="452" priority="284">
+    <cfRule type="expression" dxfId="509" priority="307">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K707">
-    <cfRule type="expression" dxfId="451" priority="283">
+    <cfRule type="expression" dxfId="508" priority="306">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G707">
-    <cfRule type="expression" dxfId="450" priority="282">
+    <cfRule type="expression" dxfId="507" priority="305">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707">
-    <cfRule type="expression" dxfId="449" priority="281">
+    <cfRule type="expression" dxfId="506" priority="304">
       <formula>$C707=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="expression" dxfId="448" priority="280">
+    <cfRule type="expression" dxfId="505" priority="303">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="447" priority="279">
+    <cfRule type="expression" dxfId="504" priority="302">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G709">
-    <cfRule type="expression" dxfId="446" priority="278">
+    <cfRule type="expression" dxfId="503" priority="301">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="445" priority="277">
+    <cfRule type="expression" dxfId="502" priority="300">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I709">
-    <cfRule type="expression" dxfId="444" priority="276">
+    <cfRule type="expression" dxfId="501" priority="299">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="443" priority="275">
+    <cfRule type="expression" dxfId="500" priority="298">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K709">
-    <cfRule type="expression" dxfId="442" priority="274">
+    <cfRule type="expression" dxfId="499" priority="297">
       <formula>$C709=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="441" priority="273">
+    <cfRule type="expression" dxfId="498" priority="296">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="440" priority="272">
+    <cfRule type="expression" dxfId="497" priority="295">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I710">
-    <cfRule type="expression" dxfId="439" priority="271">
+    <cfRule type="expression" dxfId="496" priority="294">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="438" priority="270">
+    <cfRule type="expression" dxfId="495" priority="293">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E715">
-    <cfRule type="expression" dxfId="437" priority="269">
+    <cfRule type="expression" dxfId="494" priority="292">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="436" priority="268">
+    <cfRule type="expression" dxfId="493" priority="291">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="expression" dxfId="435" priority="267">
+    <cfRule type="expression" dxfId="492" priority="290">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="434" priority="266">
+    <cfRule type="expression" dxfId="491" priority="289">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I715">
-    <cfRule type="expression" dxfId="433" priority="265">
+    <cfRule type="expression" dxfId="490" priority="288">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="432" priority="264">
+    <cfRule type="expression" dxfId="489" priority="287">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K715:K718">
-    <cfRule type="expression" dxfId="431" priority="263">
+    <cfRule type="expression" dxfId="488" priority="286">
       <formula>$C715=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="430" priority="262">
+    <cfRule type="expression" dxfId="487" priority="285">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I717:I718">
-    <cfRule type="expression" dxfId="429" priority="261">
+    <cfRule type="expression" dxfId="486" priority="284">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="428" priority="260">
+    <cfRule type="expression" dxfId="485" priority="283">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G718">
-    <cfRule type="expression" dxfId="427" priority="259">
+    <cfRule type="expression" dxfId="484" priority="282">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="426" priority="258">
+    <cfRule type="expression" dxfId="483" priority="281">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E717:E718">
-    <cfRule type="expression" dxfId="425" priority="257">
+    <cfRule type="expression" dxfId="482" priority="280">
       <formula>$C717=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="424" priority="256">
+    <cfRule type="expression" dxfId="481" priority="279">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="423" priority="255">
+    <cfRule type="expression" dxfId="480" priority="278">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G718">
-    <cfRule type="expression" dxfId="422" priority="254">
+    <cfRule type="expression" dxfId="479" priority="277">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="421" priority="253">
+    <cfRule type="expression" dxfId="478" priority="276">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="420" priority="252">
+    <cfRule type="expression" dxfId="477" priority="275">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I718">
-    <cfRule type="expression" dxfId="419" priority="251">
+    <cfRule type="expression" dxfId="476" priority="274">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="418" priority="250">
+    <cfRule type="expression" dxfId="475" priority="273">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="417" priority="249">
+    <cfRule type="expression" dxfId="474" priority="272">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K718">
-    <cfRule type="expression" dxfId="416" priority="248">
+    <cfRule type="expression" dxfId="473" priority="271">
       <formula>$C718=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="415" priority="247">
+    <cfRule type="expression" dxfId="472" priority="270">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E723">
-    <cfRule type="expression" dxfId="414" priority="246">
+    <cfRule type="expression" dxfId="471" priority="269">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="413" priority="245">
+    <cfRule type="expression" dxfId="470" priority="268">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="412" priority="244">
+    <cfRule type="expression" dxfId="469" priority="267">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="expression" dxfId="411" priority="243">
+    <cfRule type="expression" dxfId="468" priority="266">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="410" priority="242">
+    <cfRule type="expression" dxfId="467" priority="265">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="409" priority="241">
+    <cfRule type="expression" dxfId="466" priority="264">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I723:I724">
-    <cfRule type="expression" dxfId="408" priority="240">
+    <cfRule type="expression" dxfId="465" priority="263">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="407" priority="239">
+    <cfRule type="expression" dxfId="464" priority="262">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="406" priority="238">
+    <cfRule type="expression" dxfId="463" priority="261">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K723">
-    <cfRule type="expression" dxfId="405" priority="237">
+    <cfRule type="expression" dxfId="462" priority="260">
       <formula>$C723=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="404" priority="236">
+    <cfRule type="expression" dxfId="461" priority="259">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="403" priority="235">
+    <cfRule type="expression" dxfId="460" priority="258">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K725:K726">
-    <cfRule type="expression" dxfId="402" priority="234">
+    <cfRule type="expression" dxfId="459" priority="257">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="401" priority="233">
+    <cfRule type="expression" dxfId="458" priority="256">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="400" priority="232">
+    <cfRule type="expression" dxfId="457" priority="255">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I725:I726">
-    <cfRule type="expression" dxfId="399" priority="231">
+    <cfRule type="expression" dxfId="456" priority="254">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="398" priority="230">
+    <cfRule type="expression" dxfId="455" priority="253">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="397" priority="229">
+    <cfRule type="expression" dxfId="454" priority="252">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="expression" dxfId="396" priority="228">
+    <cfRule type="expression" dxfId="453" priority="251">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="395" priority="227">
+    <cfRule type="expression" dxfId="452" priority="250">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="394" priority="226">
+    <cfRule type="expression" dxfId="451" priority="249">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E725:E726">
-    <cfRule type="expression" dxfId="393" priority="225">
+    <cfRule type="expression" dxfId="450" priority="248">
       <formula>$C725=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
-    <cfRule type="expression" dxfId="392" priority="224">
+    <cfRule type="expression" dxfId="449" priority="247">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E726">
-    <cfRule type="expression" dxfId="391" priority="223">
+    <cfRule type="expression" dxfId="448" priority="246">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="390" priority="222">
+    <cfRule type="expression" dxfId="447" priority="245">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="389" priority="221">
+    <cfRule type="expression" dxfId="446" priority="244">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G726">
-    <cfRule type="expression" dxfId="388" priority="220">
+    <cfRule type="expression" dxfId="445" priority="243">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="387" priority="219">
+    <cfRule type="expression" dxfId="444" priority="242">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="386" priority="218">
+    <cfRule type="expression" dxfId="443" priority="241">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I726">
-    <cfRule type="expression" dxfId="385" priority="217">
+    <cfRule type="expression" dxfId="442" priority="240">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="384" priority="216">
+    <cfRule type="expression" dxfId="441" priority="239">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="383" priority="215">
+    <cfRule type="expression" dxfId="440" priority="238">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K726">
-    <cfRule type="expression" dxfId="382" priority="214">
+    <cfRule type="expression" dxfId="439" priority="237">
       <formula>$C726=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="381" priority="213">
+    <cfRule type="expression" dxfId="438" priority="236">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="380" priority="212">
+    <cfRule type="expression" dxfId="437" priority="235">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731">
-    <cfRule type="expression" dxfId="379" priority="211">
+    <cfRule type="expression" dxfId="436" priority="234">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="378" priority="210">
+    <cfRule type="expression" dxfId="435" priority="233">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="377" priority="209">
+    <cfRule type="expression" dxfId="434" priority="232">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="376" priority="208">
+    <cfRule type="expression" dxfId="433" priority="231">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="expression" dxfId="375" priority="207">
+    <cfRule type="expression" dxfId="432" priority="230">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="374" priority="206">
+    <cfRule type="expression" dxfId="431" priority="229">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="373" priority="205">
+    <cfRule type="expression" dxfId="430" priority="228">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="372" priority="204">
+    <cfRule type="expression" dxfId="429" priority="227">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="371" priority="203">
+    <cfRule type="expression" dxfId="428" priority="226">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="370" priority="202">
+    <cfRule type="expression" dxfId="427" priority="225">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="369" priority="201">
+    <cfRule type="expression" dxfId="426" priority="224">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="368" priority="200">
+    <cfRule type="expression" dxfId="425" priority="223">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731">
-    <cfRule type="expression" dxfId="367" priority="199">
+    <cfRule type="expression" dxfId="424" priority="222">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="366" priority="198">
+    <cfRule type="expression" dxfId="423" priority="221">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="365" priority="197">
+    <cfRule type="expression" dxfId="422" priority="220">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="364" priority="196">
+    <cfRule type="expression" dxfId="421" priority="219">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K733">
-    <cfRule type="expression" dxfId="363" priority="195">
+    <cfRule type="expression" dxfId="420" priority="218">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="362" priority="194">
+    <cfRule type="expression" dxfId="419" priority="217">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="361" priority="193">
+    <cfRule type="expression" dxfId="418" priority="216">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="360" priority="192">
+    <cfRule type="expression" dxfId="417" priority="215">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I733">
-    <cfRule type="expression" dxfId="359" priority="191">
+    <cfRule type="expression" dxfId="416" priority="214">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="358" priority="190">
+    <cfRule type="expression" dxfId="415" priority="213">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="357" priority="189">
+    <cfRule type="expression" dxfId="414" priority="212">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="356" priority="188">
+    <cfRule type="expression" dxfId="413" priority="211">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G733">
-    <cfRule type="expression" dxfId="355" priority="187">
+    <cfRule type="expression" dxfId="412" priority="210">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="354" priority="186">
+    <cfRule type="expression" dxfId="411" priority="209">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="353" priority="185">
+    <cfRule type="expression" dxfId="410" priority="208">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="352" priority="184">
+    <cfRule type="expression" dxfId="409" priority="207">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E733">
-    <cfRule type="expression" dxfId="351" priority="183">
+    <cfRule type="expression" dxfId="408" priority="206">
       <formula>$C733=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="350" priority="182">
+    <cfRule type="expression" dxfId="407" priority="205">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="349" priority="181">
+    <cfRule type="expression" dxfId="406" priority="204">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="348" priority="180">
+    <cfRule type="expression" dxfId="405" priority="203">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="347" priority="179">
+    <cfRule type="expression" dxfId="404" priority="202">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E734">
-    <cfRule type="expression" dxfId="346" priority="178">
+    <cfRule type="expression" dxfId="403" priority="201">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="345" priority="177">
+    <cfRule type="expression" dxfId="402" priority="200">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="344" priority="176">
+    <cfRule type="expression" dxfId="401" priority="199">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="343" priority="175">
+    <cfRule type="expression" dxfId="400" priority="198">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="342" priority="174">
+    <cfRule type="expression" dxfId="399" priority="197">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="341" priority="173">
+    <cfRule type="expression" dxfId="398" priority="196">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="expression" dxfId="340" priority="172">
+    <cfRule type="expression" dxfId="397" priority="195">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="339" priority="171">
+    <cfRule type="expression" dxfId="396" priority="194">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="338" priority="170">
+    <cfRule type="expression" dxfId="395" priority="193">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="337" priority="169">
+    <cfRule type="expression" dxfId="394" priority="192">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="336" priority="168">
+    <cfRule type="expression" dxfId="393" priority="191">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="335" priority="167">
+    <cfRule type="expression" dxfId="392" priority="190">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I734">
-    <cfRule type="expression" dxfId="334" priority="166">
+    <cfRule type="expression" dxfId="391" priority="189">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="333" priority="165">
+    <cfRule type="expression" dxfId="390" priority="188">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="332" priority="164">
+    <cfRule type="expression" dxfId="389" priority="187">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="331" priority="163">
+    <cfRule type="expression" dxfId="388" priority="186">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="330" priority="162">
+    <cfRule type="expression" dxfId="387" priority="185">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="329" priority="161">
+    <cfRule type="expression" dxfId="386" priority="184">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K734">
-    <cfRule type="expression" dxfId="328" priority="160">
+    <cfRule type="expression" dxfId="385" priority="183">
       <formula>$C734=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="327" priority="159">
+    <cfRule type="expression" dxfId="384" priority="182">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="326" priority="158">
+    <cfRule type="expression" dxfId="383" priority="181">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="325" priority="157">
+    <cfRule type="expression" dxfId="382" priority="180">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="324" priority="156">
+    <cfRule type="expression" dxfId="381" priority="179">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I736">
-    <cfRule type="expression" dxfId="323" priority="155">
+    <cfRule type="expression" dxfId="380" priority="178">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="322" priority="154">
+    <cfRule type="expression" dxfId="379" priority="177">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="321" priority="153">
+    <cfRule type="expression" dxfId="378" priority="176">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="320" priority="152">
+    <cfRule type="expression" dxfId="377" priority="175">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="319" priority="151">
+    <cfRule type="expression" dxfId="376" priority="174">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K736">
-    <cfRule type="expression" dxfId="318" priority="150">
+    <cfRule type="expression" dxfId="375" priority="173">
       <formula>$C736=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="317" priority="149">
+    <cfRule type="expression" dxfId="374" priority="172">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="316" priority="148">
+    <cfRule type="expression" dxfId="373" priority="171">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="315" priority="147">
+    <cfRule type="expression" dxfId="372" priority="170">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="314" priority="146">
+    <cfRule type="expression" dxfId="371" priority="169">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="313" priority="145">
+    <cfRule type="expression" dxfId="370" priority="168">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="312" priority="144">
+    <cfRule type="expression" dxfId="369" priority="167">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="311" priority="143">
+    <cfRule type="expression" dxfId="368" priority="166">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="310" priority="142">
+    <cfRule type="expression" dxfId="367" priority="165">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="309" priority="141">
+    <cfRule type="expression" dxfId="366" priority="164">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="308" priority="140">
+    <cfRule type="expression" dxfId="365" priority="163">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="307" priority="139">
+    <cfRule type="expression" dxfId="364" priority="162">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="306" priority="138">
+    <cfRule type="expression" dxfId="363" priority="161">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="305" priority="137">
+    <cfRule type="expression" dxfId="362" priority="160">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="304" priority="136">
+    <cfRule type="expression" dxfId="361" priority="159">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="303" priority="135">
+    <cfRule type="expression" dxfId="360" priority="158">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="302" priority="134">
+    <cfRule type="expression" dxfId="359" priority="157">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="301" priority="133">
+    <cfRule type="expression" dxfId="358" priority="156">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="300" priority="132">
+    <cfRule type="expression" dxfId="357" priority="155">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="299" priority="131">
+    <cfRule type="expression" dxfId="356" priority="154">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E741">
-    <cfRule type="expression" dxfId="298" priority="130">
+    <cfRule type="expression" dxfId="355" priority="153">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E741">
-    <cfRule type="expression" dxfId="297" priority="129">
+    <cfRule type="expression" dxfId="354" priority="152">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E741">
-    <cfRule type="expression" dxfId="296" priority="128">
+    <cfRule type="expression" dxfId="353" priority="151">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E741">
-    <cfRule type="expression" dxfId="295" priority="127">
+    <cfRule type="expression" dxfId="352" priority="150">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="294" priority="126">
+    <cfRule type="expression" dxfId="351" priority="149">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="293" priority="125">
+    <cfRule type="expression" dxfId="350" priority="148">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="292" priority="124">
+    <cfRule type="expression" dxfId="349" priority="147">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="291" priority="123">
+    <cfRule type="expression" dxfId="348" priority="146">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G741">
-    <cfRule type="expression" dxfId="290" priority="122">
+    <cfRule type="expression" dxfId="347" priority="145">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="289" priority="121">
+    <cfRule type="expression" dxfId="346" priority="144">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="288" priority="120">
+    <cfRule type="expression" dxfId="345" priority="143">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="287" priority="119">
+    <cfRule type="expression" dxfId="344" priority="142">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="286" priority="118">
+    <cfRule type="expression" dxfId="343" priority="141">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I741">
-    <cfRule type="expression" dxfId="285" priority="117">
+    <cfRule type="expression" dxfId="342" priority="140">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="284" priority="116">
+    <cfRule type="expression" dxfId="341" priority="139">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="283" priority="115">
+    <cfRule type="expression" dxfId="340" priority="138">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="282" priority="114">
+    <cfRule type="expression" dxfId="339" priority="137">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="281" priority="113">
+    <cfRule type="expression" dxfId="338" priority="136">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K741">
-    <cfRule type="expression" dxfId="280" priority="112">
+    <cfRule type="expression" dxfId="337" priority="135">
       <formula>$C741=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="279" priority="111">
+    <cfRule type="expression" dxfId="336" priority="134">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="278" priority="110">
+    <cfRule type="expression" dxfId="335" priority="133">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="277" priority="109">
+    <cfRule type="expression" dxfId="334" priority="132">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="276" priority="108">
+    <cfRule type="expression" dxfId="333" priority="131">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740">
-    <cfRule type="expression" dxfId="275" priority="107">
+    <cfRule type="expression" dxfId="332" priority="130">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="274" priority="106">
+    <cfRule type="expression" dxfId="331" priority="129">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="273" priority="105">
+    <cfRule type="expression" dxfId="330" priority="128">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="272" priority="104">
+    <cfRule type="expression" dxfId="329" priority="127">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="271" priority="103">
+    <cfRule type="expression" dxfId="328" priority="126">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="270" priority="102">
+    <cfRule type="expression" dxfId="327" priority="125">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742">
-    <cfRule type="expression" dxfId="269" priority="101">
+    <cfRule type="expression" dxfId="326" priority="124">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="268" priority="100">
+    <cfRule type="expression" dxfId="325" priority="123">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="267" priority="99">
+    <cfRule type="expression" dxfId="324" priority="122">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="266" priority="98">
+    <cfRule type="expression" dxfId="323" priority="121">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="265" priority="97">
+    <cfRule type="expression" dxfId="322" priority="120">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="264" priority="96">
+    <cfRule type="expression" dxfId="321" priority="119">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G742">
-    <cfRule type="expression" dxfId="263" priority="95">
+    <cfRule type="expression" dxfId="320" priority="118">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="262" priority="94">
+    <cfRule type="expression" dxfId="319" priority="117">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="261" priority="93">
+    <cfRule type="expression" dxfId="318" priority="116">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="260" priority="92">
+    <cfRule type="expression" dxfId="317" priority="115">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="259" priority="91">
+    <cfRule type="expression" dxfId="316" priority="114">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="258" priority="90">
+    <cfRule type="expression" dxfId="315" priority="113">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I742">
-    <cfRule type="expression" dxfId="257" priority="89">
+    <cfRule type="expression" dxfId="314" priority="112">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="256" priority="88">
+    <cfRule type="expression" dxfId="313" priority="111">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="255" priority="87">
+    <cfRule type="expression" dxfId="312" priority="110">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="254" priority="86">
+    <cfRule type="expression" dxfId="311" priority="109">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="253" priority="85">
+    <cfRule type="expression" dxfId="310" priority="108">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="252" priority="84">
+    <cfRule type="expression" dxfId="309" priority="107">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K742">
-    <cfRule type="expression" dxfId="251" priority="83">
+    <cfRule type="expression" dxfId="308" priority="106">
       <formula>$C742=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="250" priority="82">
+    <cfRule type="expression" dxfId="307" priority="105">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="249" priority="81">
+    <cfRule type="expression" dxfId="306" priority="104">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="248" priority="80">
+    <cfRule type="expression" dxfId="305" priority="103">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="247" priority="79">
+    <cfRule type="expression" dxfId="304" priority="102">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740">
-    <cfRule type="expression" dxfId="246" priority="78">
+    <cfRule type="expression" dxfId="303" priority="101">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I744">
-    <cfRule type="expression" dxfId="245" priority="77">
+    <cfRule type="expression" dxfId="302" priority="100">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I744">
-    <cfRule type="expression" dxfId="244" priority="76">
+    <cfRule type="expression" dxfId="301" priority="99">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I744">
-    <cfRule type="expression" dxfId="243" priority="75">
+    <cfRule type="expression" dxfId="300" priority="98">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I744">
-    <cfRule type="expression" dxfId="242" priority="74">
+    <cfRule type="expression" dxfId="299" priority="97">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I744">
-    <cfRule type="expression" dxfId="241" priority="73">
+    <cfRule type="expression" dxfId="298" priority="96">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="240" priority="72">
+    <cfRule type="expression" dxfId="297" priority="95">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="239" priority="71">
+    <cfRule type="expression" dxfId="296" priority="94">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="238" priority="70">
+    <cfRule type="expression" dxfId="295" priority="93">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="237" priority="69">
+    <cfRule type="expression" dxfId="294" priority="92">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K744">
-    <cfRule type="expression" dxfId="236" priority="68">
+    <cfRule type="expression" dxfId="293" priority="91">
       <formula>$C744=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E747">
-    <cfRule type="expression" dxfId="235" priority="67">
+    <cfRule type="expression" dxfId="292" priority="90">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E747">
-    <cfRule type="expression" dxfId="234" priority="66">
+    <cfRule type="expression" dxfId="291" priority="89">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E747">
-    <cfRule type="expression" dxfId="233" priority="65">
+    <cfRule type="expression" dxfId="290" priority="88">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E747">
-    <cfRule type="expression" dxfId="232" priority="64">
+    <cfRule type="expression" dxfId="289" priority="87">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E747">
-    <cfRule type="expression" dxfId="231" priority="63">
+    <cfRule type="expression" dxfId="288" priority="86">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G747">
-    <cfRule type="expression" dxfId="230" priority="62">
+    <cfRule type="expression" dxfId="287" priority="85">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G747">
-    <cfRule type="expression" dxfId="229" priority="61">
+    <cfRule type="expression" dxfId="286" priority="84">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G747">
-    <cfRule type="expression" dxfId="228" priority="60">
+    <cfRule type="expression" dxfId="285" priority="83">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G747">
-    <cfRule type="expression" dxfId="227" priority="59">
+    <cfRule type="expression" dxfId="284" priority="82">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G747">
-    <cfRule type="expression" dxfId="226" priority="58">
+    <cfRule type="expression" dxfId="283" priority="81">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I747">
-    <cfRule type="expression" dxfId="225" priority="57">
+    <cfRule type="expression" dxfId="282" priority="80">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I747">
-    <cfRule type="expression" dxfId="224" priority="56">
+    <cfRule type="expression" dxfId="281" priority="79">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I747">
-    <cfRule type="expression" dxfId="223" priority="55">
+    <cfRule type="expression" dxfId="280" priority="78">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I747">
-    <cfRule type="expression" dxfId="222" priority="54">
+    <cfRule type="expression" dxfId="279" priority="77">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I747">
-    <cfRule type="expression" dxfId="221" priority="53">
+    <cfRule type="expression" dxfId="278" priority="76">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K747">
-    <cfRule type="expression" dxfId="220" priority="52">
+    <cfRule type="expression" dxfId="277" priority="75">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K747">
-    <cfRule type="expression" dxfId="219" priority="51">
+    <cfRule type="expression" dxfId="276" priority="74">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K747">
-    <cfRule type="expression" dxfId="218" priority="50">
+    <cfRule type="expression" dxfId="275" priority="73">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K747">
-    <cfRule type="expression" dxfId="217" priority="49">
+    <cfRule type="expression" dxfId="274" priority="72">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K747">
-    <cfRule type="expression" dxfId="216" priority="48">
+    <cfRule type="expression" dxfId="273" priority="71">
       <formula>$C747=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="215" priority="47">
+    <cfRule type="expression" dxfId="272" priority="70">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="214" priority="46">
+    <cfRule type="expression" dxfId="271" priority="69">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="213" priority="45">
+    <cfRule type="expression" dxfId="270" priority="68">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="212" priority="44">
+    <cfRule type="expression" dxfId="269" priority="67">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="211" priority="43">
+    <cfRule type="expression" dxfId="268" priority="66">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E748">
-    <cfRule type="expression" dxfId="210" priority="42">
+    <cfRule type="expression" dxfId="267" priority="65">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E748">
-    <cfRule type="expression" dxfId="209" priority="41">
+    <cfRule type="expression" dxfId="266" priority="64">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E748">
-    <cfRule type="expression" dxfId="208" priority="40">
+    <cfRule type="expression" dxfId="265" priority="63">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E748">
-    <cfRule type="expression" dxfId="207" priority="39">
+    <cfRule type="expression" dxfId="264" priority="62">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E748">
-    <cfRule type="expression" dxfId="206" priority="38">
+    <cfRule type="expression" dxfId="263" priority="61">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749:G750">
-    <cfRule type="expression" dxfId="205" priority="37">
+    <cfRule type="expression" dxfId="262" priority="60">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749:G750">
-    <cfRule type="expression" dxfId="204" priority="36">
+    <cfRule type="expression" dxfId="261" priority="59">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749:G750">
-    <cfRule type="expression" dxfId="203" priority="35">
+    <cfRule type="expression" dxfId="260" priority="58">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749:G750">
-    <cfRule type="expression" dxfId="202" priority="34">
+    <cfRule type="expression" dxfId="259" priority="57">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749:G750">
-    <cfRule type="expression" dxfId="201" priority="33">
+    <cfRule type="expression" dxfId="258" priority="56">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749:K750">
-    <cfRule type="expression" dxfId="200" priority="32">
+    <cfRule type="expression" dxfId="257" priority="55">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749:K750">
-    <cfRule type="expression" dxfId="199" priority="31">
+    <cfRule type="expression" dxfId="256" priority="54">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749:K750">
-    <cfRule type="expression" dxfId="198" priority="30">
+    <cfRule type="expression" dxfId="255" priority="53">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749:K750">
-    <cfRule type="expression" dxfId="197" priority="29">
+    <cfRule type="expression" dxfId="254" priority="52">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749:K750">
-    <cfRule type="expression" dxfId="196" priority="28">
+    <cfRule type="expression" dxfId="253" priority="51">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="252" priority="50">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="251" priority="49">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="250" priority="48">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="249" priority="47">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="248" priority="46">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="247" priority="45">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="246" priority="44">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="245" priority="43">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="244" priority="42">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="243" priority="41">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="242" priority="40">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="241" priority="39">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="240" priority="38">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I750">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="239" priority="37">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I750">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="238" priority="36">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I750">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="237" priority="35">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I750">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="236" priority="34">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I750">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="235" priority="33">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I750">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="234" priority="32">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I750">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="233" priority="31">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="232" priority="30">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="231" priority="29">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="230" priority="28">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="229" priority="27">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="228" priority="26">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="227" priority="25">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="226" priority="24">
       <formula>$C750=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E755">
+    <cfRule type="expression" dxfId="225" priority="23">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E755">
+    <cfRule type="expression" dxfId="224" priority="22">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E755">
+    <cfRule type="expression" dxfId="223" priority="21">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E755">
+    <cfRule type="expression" dxfId="222" priority="20">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E755">
+    <cfRule type="expression" dxfId="221" priority="19">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G755">
+    <cfRule type="expression" dxfId="220" priority="18">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G755">
+    <cfRule type="expression" dxfId="219" priority="17">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G755">
+    <cfRule type="expression" dxfId="218" priority="16">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G755">
+    <cfRule type="expression" dxfId="217" priority="15">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G755">
+    <cfRule type="expression" dxfId="216" priority="14">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G755">
+    <cfRule type="expression" dxfId="215" priority="13">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I755">
+    <cfRule type="expression" dxfId="214" priority="12">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I755">
+    <cfRule type="expression" dxfId="213" priority="11">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I755">
+    <cfRule type="expression" dxfId="212" priority="10">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I755">
+    <cfRule type="expression" dxfId="211" priority="9">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I755">
+    <cfRule type="expression" dxfId="210" priority="8">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I755">
+    <cfRule type="expression" dxfId="209" priority="7">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K755">
+    <cfRule type="expression" dxfId="208" priority="6">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K755">
+    <cfRule type="expression" dxfId="207" priority="5">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K755">
+    <cfRule type="expression" dxfId="206" priority="4">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K755">
+    <cfRule type="expression" dxfId="205" priority="3">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K755">
+    <cfRule type="expression" dxfId="204" priority="2">
+      <formula>$C755=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K755">
+    <cfRule type="expression" dxfId="203" priority="1">
+      <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -27632,11 +28282,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O760"/>
+  <dimension ref="A1:O773"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A743" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H764" sqref="H764"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A755" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I770" sqref="I770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46720,855 +47370,1328 @@
       <c r="J760" s="11"/>
       <c r="K760" s="12"/>
     </row>
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A761" s="1">
+        <v>760</v>
+      </c>
+      <c r="B761" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C761" s="8">
+        <v>45962</v>
+      </c>
+      <c r="D761" s="9"/>
+      <c r="E761" s="10"/>
+      <c r="F761" s="11"/>
+      <c r="G761" s="12"/>
+      <c r="H761" s="11"/>
+      <c r="I761" s="12"/>
+      <c r="J761" s="11"/>
+      <c r="K761" s="12"/>
+    </row>
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A762" s="1">
+        <v>761</v>
+      </c>
+      <c r="B762" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C762" s="8">
+        <v>45963</v>
+      </c>
+      <c r="D762" s="9"/>
+      <c r="E762" s="10"/>
+      <c r="F762" s="11"/>
+      <c r="G762" s="12"/>
+      <c r="H762" s="11"/>
+      <c r="I762" s="12"/>
+      <c r="J762" s="11"/>
+      <c r="K762" s="12"/>
+    </row>
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A763" s="1">
+        <v>762</v>
+      </c>
+      <c r="B763" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C763" s="8">
+        <v>45964</v>
+      </c>
+      <c r="D763" s="9"/>
+      <c r="E763" s="10"/>
+      <c r="F763" s="11"/>
+      <c r="G763" s="12"/>
+      <c r="H763" s="11"/>
+      <c r="I763" s="12"/>
+      <c r="J763" s="11"/>
+      <c r="K763" s="12"/>
+    </row>
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A764" s="1">
+        <v>763</v>
+      </c>
+      <c r="B764" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C764" s="8">
+        <v>45965</v>
+      </c>
+      <c r="D764" s="9">
+        <v>3200</v>
+      </c>
+      <c r="E764" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F764" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G764" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H764" s="11"/>
+      <c r="I764" s="12"/>
+      <c r="J764" s="11">
+        <v>4800</v>
+      </c>
+      <c r="K764" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A765" s="1">
+        <v>764</v>
+      </c>
+      <c r="B765" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C765" s="8">
+        <v>45966</v>
+      </c>
+      <c r="D765" s="9"/>
+      <c r="E765" s="10"/>
+      <c r="F765" s="11"/>
+      <c r="G765" s="12"/>
+      <c r="H765" s="11"/>
+      <c r="I765" s="12"/>
+      <c r="J765" s="11"/>
+      <c r="K765" s="12"/>
+    </row>
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A766" s="1">
+        <v>765</v>
+      </c>
+      <c r="B766" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C766" s="8">
+        <v>45967</v>
+      </c>
+      <c r="D766" s="9">
+        <v>2700</v>
+      </c>
+      <c r="E766" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F766" s="11">
+        <v>3300</v>
+      </c>
+      <c r="G766" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H766" s="11">
+        <v>3700</v>
+      </c>
+      <c r="I766" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J766" s="11">
+        <v>4100</v>
+      </c>
+      <c r="K766" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A767" s="1">
+        <v>766</v>
+      </c>
+      <c r="B767" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C767" s="8">
+        <v>45967</v>
+      </c>
+      <c r="D767" s="9">
+        <v>2100</v>
+      </c>
+      <c r="E767" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F767" s="11">
+        <v>800</v>
+      </c>
+      <c r="G767" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H767" s="11">
+        <v>200</v>
+      </c>
+      <c r="I767" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J767" s="11">
+        <v>200</v>
+      </c>
+      <c r="K767" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A768" s="1">
+        <v>767</v>
+      </c>
+      <c r="B768" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C768" s="8">
+        <v>45967</v>
+      </c>
+      <c r="D768" s="9">
+        <v>500</v>
+      </c>
+      <c r="E768" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F768" s="11">
+        <v>100</v>
+      </c>
+      <c r="G768" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H768" s="11">
+        <v>10</v>
+      </c>
+      <c r="I768" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J768" s="11"/>
+      <c r="K768" s="12"/>
+    </row>
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A769" s="1">
+        <v>768</v>
+      </c>
+      <c r="B769" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C769" s="8">
+        <v>45968</v>
+      </c>
+      <c r="D769" s="9"/>
+      <c r="E769" s="10"/>
+      <c r="F769" s="11"/>
+      <c r="G769" s="12"/>
+      <c r="H769" s="11"/>
+      <c r="I769" s="12"/>
+      <c r="J769" s="11"/>
+      <c r="K769" s="12"/>
+    </row>
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A770" s="1">
+        <v>769</v>
+      </c>
+      <c r="B770" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C770" s="8">
+        <v>45969</v>
+      </c>
+      <c r="D770" s="9"/>
+      <c r="E770" s="10"/>
+      <c r="F770" s="11"/>
+      <c r="G770" s="12"/>
+      <c r="H770" s="11"/>
+      <c r="I770" s="12"/>
+      <c r="J770" s="11"/>
+      <c r="K770" s="12"/>
+    </row>
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A771" s="1">
+        <v>770</v>
+      </c>
+      <c r="B771" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C771" s="8">
+        <v>45970</v>
+      </c>
+      <c r="D771" s="9"/>
+      <c r="E771" s="10"/>
+      <c r="F771" s="11"/>
+      <c r="G771" s="12"/>
+      <c r="H771" s="11"/>
+      <c r="I771" s="12"/>
+      <c r="J771" s="11"/>
+      <c r="K771" s="12"/>
+    </row>
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A772" s="1">
+        <v>771</v>
+      </c>
+      <c r="B772" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C772" s="8">
+        <v>45971</v>
+      </c>
+      <c r="D772" s="9"/>
+      <c r="E772" s="10"/>
+      <c r="F772" s="11"/>
+      <c r="G772" s="12"/>
+      <c r="H772" s="11"/>
+      <c r="I772" s="12"/>
+      <c r="J772" s="11"/>
+      <c r="K772" s="12"/>
+    </row>
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A773" s="1">
+        <v>772</v>
+      </c>
+      <c r="B773" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C773" s="8">
+        <v>45972</v>
+      </c>
+      <c r="D773" s="9"/>
+      <c r="E773" s="10"/>
+      <c r="F773" s="11"/>
+      <c r="G773" s="12"/>
+      <c r="H773" s="11"/>
+      <c r="I773" s="12"/>
+      <c r="J773" s="11"/>
+      <c r="K773" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B4:E760">
-    <cfRule type="expression" dxfId="195" priority="163">
+  <conditionalFormatting sqref="B4:E773">
+    <cfRule type="expression" dxfId="202" priority="197">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K760">
-    <cfRule type="expression" dxfId="194" priority="164">
+  <conditionalFormatting sqref="C4:G17 J4:M43 B4:B373 C18:C373 B374:C739 D48:K739 B740:K773">
+    <cfRule type="expression" dxfId="201" priority="198">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G47 J44:K47">
-    <cfRule type="expression" dxfId="193" priority="173">
+    <cfRule type="expression" dxfId="200" priority="207">
       <formula>$B18=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="192" priority="176">
+    <cfRule type="expression" dxfId="199" priority="210">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="expression" dxfId="191" priority="185">
+    <cfRule type="expression" dxfId="198" priority="219">
       <formula>$C70=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I47">
-    <cfRule type="expression" dxfId="190" priority="198">
+    <cfRule type="expression" dxfId="197" priority="232">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="189" priority="202">
+    <cfRule type="expression" dxfId="196" priority="236">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="188" priority="177">
+    <cfRule type="expression" dxfId="195" priority="211">
       <formula>$C13=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G685">
-    <cfRule type="expression" dxfId="187" priority="161">
+    <cfRule type="expression" dxfId="194" priority="195">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I685">
-    <cfRule type="expression" dxfId="186" priority="160">
+    <cfRule type="expression" dxfId="193" priority="194">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K685">
-    <cfRule type="expression" dxfId="185" priority="159">
+    <cfRule type="expression" dxfId="192" priority="193">
       <formula>$C685=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G692">
-    <cfRule type="expression" dxfId="184" priority="158">
+    <cfRule type="expression" dxfId="191" priority="192">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E692">
-    <cfRule type="expression" dxfId="183" priority="157">
+    <cfRule type="expression" dxfId="190" priority="191">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K692">
-    <cfRule type="expression" dxfId="182" priority="156">
+    <cfRule type="expression" dxfId="189" priority="190">
       <formula>$C692=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E694">
-    <cfRule type="expression" dxfId="181" priority="155">
+    <cfRule type="expression" dxfId="188" priority="189">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="180" priority="154">
+    <cfRule type="expression" dxfId="187" priority="188">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="179" priority="153">
+    <cfRule type="expression" dxfId="186" priority="187">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="178" priority="152">
+    <cfRule type="expression" dxfId="185" priority="186">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I694">
-    <cfRule type="expression" dxfId="177" priority="151">
+    <cfRule type="expression" dxfId="184" priority="185">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="176" priority="150">
+    <cfRule type="expression" dxfId="183" priority="184">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K694">
-    <cfRule type="expression" dxfId="175" priority="149">
+    <cfRule type="expression" dxfId="182" priority="183">
       <formula>$C694=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G695">
-    <cfRule type="expression" dxfId="174" priority="148">
+    <cfRule type="expression" dxfId="181" priority="182">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I695">
-    <cfRule type="expression" dxfId="173" priority="147">
+    <cfRule type="expression" dxfId="180" priority="181">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K695">
-    <cfRule type="expression" dxfId="172" priority="146">
+    <cfRule type="expression" dxfId="179" priority="180">
       <formula>$C695=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="expression" dxfId="171" priority="145">
+    <cfRule type="expression" dxfId="178" priority="179">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="170" priority="144">
+    <cfRule type="expression" dxfId="177" priority="178">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G701">
-    <cfRule type="expression" dxfId="169" priority="143">
+    <cfRule type="expression" dxfId="176" priority="177">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="168" priority="142">
+    <cfRule type="expression" dxfId="175" priority="176">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K701">
-    <cfRule type="expression" dxfId="167" priority="141">
+    <cfRule type="expression" dxfId="174" priority="175">
       <formula>$C701=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E703">
-    <cfRule type="expression" dxfId="166" priority="140">
+    <cfRule type="expression" dxfId="173" priority="174">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="165" priority="139">
+    <cfRule type="expression" dxfId="172" priority="173">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I703">
-    <cfRule type="expression" dxfId="164" priority="138">
+    <cfRule type="expression" dxfId="171" priority="172">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="163" priority="137">
+    <cfRule type="expression" dxfId="170" priority="171">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K703">
-    <cfRule type="expression" dxfId="162" priority="136">
+    <cfRule type="expression" dxfId="169" priority="170">
       <formula>$C703=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="expression" dxfId="161" priority="135">
+    <cfRule type="expression" dxfId="168" priority="169">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I704">
-    <cfRule type="expression" dxfId="160" priority="134">
+    <cfRule type="expression" dxfId="167" priority="168">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K704">
-    <cfRule type="expression" dxfId="159" priority="133">
+    <cfRule type="expression" dxfId="166" priority="167">
       <formula>$C704=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G705">
-    <cfRule type="expression" dxfId="158" priority="132">
+    <cfRule type="expression" dxfId="165" priority="166">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K705">
-    <cfRule type="expression" dxfId="157" priority="131">
+    <cfRule type="expression" dxfId="164" priority="165">
       <formula>$C705=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">
-    <cfRule type="expression" dxfId="156" priority="130">
+    <cfRule type="expression" dxfId="163" priority="164">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="155" priority="129">
+    <cfRule type="expression" dxfId="162" priority="163">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G710">
-    <cfRule type="expression" dxfId="154" priority="128">
+    <cfRule type="expression" dxfId="161" priority="162">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="153" priority="127">
+    <cfRule type="expression" dxfId="160" priority="161">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K710">
-    <cfRule type="expression" dxfId="152" priority="126">
+    <cfRule type="expression" dxfId="159" priority="160">
       <formula>$C710=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712:E714">
-    <cfRule type="expression" dxfId="151" priority="125">
+    <cfRule type="expression" dxfId="158" priority="159">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="150" priority="124">
+    <cfRule type="expression" dxfId="157" priority="158">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712:G714">
-    <cfRule type="expression" dxfId="149" priority="123">
+    <cfRule type="expression" dxfId="156" priority="157">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="148" priority="122">
+    <cfRule type="expression" dxfId="155" priority="156">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I712:I714">
-    <cfRule type="expression" dxfId="147" priority="121">
+    <cfRule type="expression" dxfId="154" priority="155">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="146" priority="120">
+    <cfRule type="expression" dxfId="153" priority="154">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K712:K714">
-    <cfRule type="expression" dxfId="145" priority="119">
+    <cfRule type="expression" dxfId="152" priority="153">
       <formula>$C712=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="expression" dxfId="144" priority="118">
+    <cfRule type="expression" dxfId="151" priority="152">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I713:I714">
-    <cfRule type="expression" dxfId="143" priority="117">
+    <cfRule type="expression" dxfId="150" priority="151">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K713:K714">
-    <cfRule type="expression" dxfId="142" priority="116">
+    <cfRule type="expression" dxfId="149" priority="150">
       <formula>$C713=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="expression" dxfId="141" priority="115">
+    <cfRule type="expression" dxfId="148" priority="149">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="140" priority="114">
+    <cfRule type="expression" dxfId="147" priority="148">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G719">
-    <cfRule type="expression" dxfId="139" priority="113">
+    <cfRule type="expression" dxfId="146" priority="147">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="138" priority="111">
+    <cfRule type="expression" dxfId="145" priority="145">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K719">
-    <cfRule type="expression" dxfId="137" priority="112">
+    <cfRule type="expression" dxfId="144" priority="146">
       <formula>$C719=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E721:E723">
-    <cfRule type="expression" dxfId="136" priority="110">
+    <cfRule type="expression" dxfId="143" priority="144">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="135" priority="109">
+    <cfRule type="expression" dxfId="142" priority="143">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G721:G723">
-    <cfRule type="expression" dxfId="134" priority="108">
+    <cfRule type="expression" dxfId="141" priority="142">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="133" priority="107">
+    <cfRule type="expression" dxfId="140" priority="141">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I721:I723">
-    <cfRule type="expression" dxfId="132" priority="106">
+    <cfRule type="expression" dxfId="139" priority="140">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="131" priority="105">
+    <cfRule type="expression" dxfId="138" priority="139">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K721:K723">
-    <cfRule type="expression" dxfId="130" priority="104">
+    <cfRule type="expression" dxfId="137" priority="138">
       <formula>$C721=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E728">
-    <cfRule type="expression" dxfId="129" priority="103">
+    <cfRule type="expression" dxfId="136" priority="137">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="128" priority="102">
+    <cfRule type="expression" dxfId="135" priority="136">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G728">
-    <cfRule type="expression" dxfId="127" priority="101">
+    <cfRule type="expression" dxfId="134" priority="135">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="126" priority="100">
+    <cfRule type="expression" dxfId="133" priority="134">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K728">
-    <cfRule type="expression" dxfId="125" priority="99">
+    <cfRule type="expression" dxfId="132" priority="133">
       <formula>$C728=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E730">
-    <cfRule type="expression" dxfId="124" priority="98">
+    <cfRule type="expression" dxfId="131" priority="132">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="123" priority="97">
+    <cfRule type="expression" dxfId="130" priority="131">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G730">
-    <cfRule type="expression" dxfId="122" priority="96">
+    <cfRule type="expression" dxfId="129" priority="130">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="121" priority="95">
+    <cfRule type="expression" dxfId="128" priority="129">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I730">
-    <cfRule type="expression" dxfId="120" priority="94">
+    <cfRule type="expression" dxfId="127" priority="128">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="119" priority="93">
+    <cfRule type="expression" dxfId="126" priority="127">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K730">
-    <cfRule type="expression" dxfId="118" priority="92">
+    <cfRule type="expression" dxfId="125" priority="126">
       <formula>$C730=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="117" priority="91">
+    <cfRule type="expression" dxfId="124" priority="125">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E732">
-    <cfRule type="expression" dxfId="116" priority="90">
+    <cfRule type="expression" dxfId="123" priority="124">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="115" priority="89">
+    <cfRule type="expression" dxfId="122" priority="123">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731:G732">
-    <cfRule type="expression" dxfId="114" priority="88">
+    <cfRule type="expression" dxfId="121" priority="122">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="113" priority="87">
+    <cfRule type="expression" dxfId="120" priority="121">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K731:K732">
-    <cfRule type="expression" dxfId="112" priority="86">
+    <cfRule type="expression" dxfId="119" priority="120">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="111" priority="85">
+    <cfRule type="expression" dxfId="118" priority="119">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I731:I732">
-    <cfRule type="expression" dxfId="110" priority="84">
+    <cfRule type="expression" dxfId="117" priority="118">
       <formula>$C731=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E737">
-    <cfRule type="expression" dxfId="109" priority="83">
+    <cfRule type="expression" dxfId="116" priority="117">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="108" priority="82">
+    <cfRule type="expression" dxfId="115" priority="116">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G737">
-    <cfRule type="expression" dxfId="107" priority="81">
+    <cfRule type="expression" dxfId="114" priority="115">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="106" priority="80">
+    <cfRule type="expression" dxfId="113" priority="114">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K737">
-    <cfRule type="expression" dxfId="105" priority="79">
+    <cfRule type="expression" dxfId="112" priority="113">
       <formula>$C737=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E739">
-    <cfRule type="expression" dxfId="104" priority="78">
+    <cfRule type="expression" dxfId="111" priority="112">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="103" priority="77">
+    <cfRule type="expression" dxfId="110" priority="111">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="expression" dxfId="102" priority="76">
+    <cfRule type="expression" dxfId="109" priority="110">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="101" priority="75">
+    <cfRule type="expression" dxfId="108" priority="109">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I739">
-    <cfRule type="expression" dxfId="100" priority="74">
+    <cfRule type="expression" dxfId="107" priority="108">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="99" priority="73">
+    <cfRule type="expression" dxfId="106" priority="107">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K739">
-    <cfRule type="expression" dxfId="98" priority="72">
+    <cfRule type="expression" dxfId="105" priority="106">
       <formula>$C739=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="97" priority="71">
+    <cfRule type="expression" dxfId="104" priority="105">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E741">
-    <cfRule type="expression" dxfId="96" priority="70">
+    <cfRule type="expression" dxfId="103" priority="104">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="95" priority="69">
+    <cfRule type="expression" dxfId="102" priority="103">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="94" priority="68">
+    <cfRule type="expression" dxfId="101" priority="102">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G740:G741">
-    <cfRule type="expression" dxfId="93" priority="67">
+    <cfRule type="expression" dxfId="100" priority="101">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="92" priority="66">
+    <cfRule type="expression" dxfId="99" priority="100">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="91" priority="65">
+    <cfRule type="expression" dxfId="98" priority="99">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I740:I741">
-    <cfRule type="expression" dxfId="90" priority="64">
+    <cfRule type="expression" dxfId="97" priority="98">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="89" priority="63">
+    <cfRule type="expression" dxfId="96" priority="97">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="88" priority="62">
+    <cfRule type="expression" dxfId="95" priority="96">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K740:K741">
-    <cfRule type="expression" dxfId="87" priority="61">
+    <cfRule type="expression" dxfId="94" priority="95">
       <formula>$C740=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E746">
-    <cfRule type="expression" dxfId="86" priority="60">
+    <cfRule type="expression" dxfId="93" priority="94">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G746">
-    <cfRule type="expression" dxfId="85" priority="59">
+    <cfRule type="expression" dxfId="92" priority="93">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G746">
-    <cfRule type="expression" dxfId="84" priority="58">
+    <cfRule type="expression" dxfId="91" priority="92">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K746">
-    <cfRule type="expression" dxfId="83" priority="57">
+    <cfRule type="expression" dxfId="90" priority="91">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K746">
-    <cfRule type="expression" dxfId="82" priority="56">
+    <cfRule type="expression" dxfId="89" priority="90">
       <formula>$C746=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E748">
-    <cfRule type="expression" dxfId="81" priority="55">
+    <cfRule type="expression" dxfId="88" priority="89">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="80" priority="54">
+    <cfRule type="expression" dxfId="87" priority="88">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I748">
-    <cfRule type="expression" dxfId="79" priority="53">
+    <cfRule type="expression" dxfId="86" priority="87">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K748">
-    <cfRule type="expression" dxfId="78" priority="52">
+    <cfRule type="expression" dxfId="85" priority="86">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K748">
-    <cfRule type="expression" dxfId="77" priority="51">
+    <cfRule type="expression" dxfId="84" priority="85">
       <formula>$C748=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E749">
-    <cfRule type="expression" dxfId="76" priority="50">
+    <cfRule type="expression" dxfId="83" priority="84">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E749">
-    <cfRule type="expression" dxfId="75" priority="49">
+    <cfRule type="expression" dxfId="82" priority="83">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="74" priority="48">
+    <cfRule type="expression" dxfId="81" priority="82">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="73" priority="47">
+    <cfRule type="expression" dxfId="80" priority="81">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G749">
-    <cfRule type="expression" dxfId="72" priority="46">
+    <cfRule type="expression" dxfId="79" priority="80">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="71" priority="45">
+    <cfRule type="expression" dxfId="78" priority="79">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="70" priority="44">
+    <cfRule type="expression" dxfId="77" priority="78">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I749">
-    <cfRule type="expression" dxfId="69" priority="43">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="68" priority="42">
+    <cfRule type="expression" dxfId="75" priority="76">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="67" priority="41">
+    <cfRule type="expression" dxfId="74" priority="75">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K749">
-    <cfRule type="expression" dxfId="66" priority="40">
+    <cfRule type="expression" dxfId="73" priority="74">
       <formula>$C749=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="65" priority="39">
+    <cfRule type="expression" dxfId="72" priority="73">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E750">
-    <cfRule type="expression" dxfId="64" priority="38">
+    <cfRule type="expression" dxfId="71" priority="72">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="63" priority="37">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="62" priority="36">
+    <cfRule type="expression" dxfId="69" priority="70">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G750">
-    <cfRule type="expression" dxfId="61" priority="35">
+    <cfRule type="expression" dxfId="68" priority="69">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="60" priority="34">
+    <cfRule type="expression" dxfId="67" priority="68">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="59" priority="33">
+    <cfRule type="expression" dxfId="66" priority="67">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K750">
-    <cfRule type="expression" dxfId="58" priority="32">
+    <cfRule type="expression" dxfId="65" priority="66">
       <formula>$C750=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E755">
-    <cfRule type="expression" dxfId="57" priority="31">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G755">
-    <cfRule type="expression" dxfId="56" priority="30">
+    <cfRule type="expression" dxfId="63" priority="64">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G755">
-    <cfRule type="expression" dxfId="55" priority="29">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I755">
-    <cfRule type="expression" dxfId="54" priority="28">
+    <cfRule type="expression" dxfId="61" priority="62">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I755">
-    <cfRule type="expression" dxfId="53" priority="27">
+    <cfRule type="expression" dxfId="60" priority="61">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K755">
-    <cfRule type="expression" dxfId="52" priority="26">
+    <cfRule type="expression" dxfId="59" priority="60">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K755">
-    <cfRule type="expression" dxfId="51" priority="25">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>$C755=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E757">
-    <cfRule type="expression" dxfId="50" priority="24">
+    <cfRule type="expression" dxfId="57" priority="58">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G757">
-    <cfRule type="expression" dxfId="49" priority="23">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G757">
-    <cfRule type="expression" dxfId="48" priority="22">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I757">
-    <cfRule type="expression" dxfId="47" priority="21">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I757">
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K757">
-    <cfRule type="expression" dxfId="45" priority="19">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K757">
-    <cfRule type="expression" dxfId="44" priority="18">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>$C757=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E758">
-    <cfRule type="expression" dxfId="43" priority="17">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E758">
-    <cfRule type="expression" dxfId="42" priority="16">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G758">
-    <cfRule type="expression" dxfId="41" priority="15">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G758">
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G758">
-    <cfRule type="expression" dxfId="39" priority="13">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I758">
-    <cfRule type="expression" dxfId="38" priority="12">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I758">
-    <cfRule type="expression" dxfId="37" priority="11">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I758">
-    <cfRule type="expression" dxfId="36" priority="10">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K758">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K758">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K758">
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>$C758=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E759">
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>$C759=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E759">
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>$C759=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E759">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>$C759=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G759">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>$C759=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G759">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>$C759=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G759">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$C759=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E764">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>$C764=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G764">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>$C764=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G764">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>$C764=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K764">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>$C764=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K764">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>$C764=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E766">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$C766=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G766">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>$C766=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G766">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>$C766=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I766">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$C766=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I766">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$C766=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K766">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$C766=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K766">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$C766=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E767">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$C767=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E767">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$C767=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G767">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$C767=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G767">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$C767=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G767">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$C767=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I767">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$C767=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I767">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$C767=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I767">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C767=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K767">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$C767=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K767">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$C767=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K767">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C767=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E768">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C768=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E768">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C768=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E768">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C768=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G768">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C768=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G768">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C768=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G768">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C768=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G768">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C768=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I768">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C768=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I768">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C768=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I768">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C768=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I768">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C768=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
+++ b/графики/план поставок ПОКОМ, Останкино филиалы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E984B87-249F-4F85-A7DA-EF89D3EFFD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58F34D1-A9D2-401B-AC4D-06FC3444FCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОКОМ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="31">
   <si>
     <t>План поставок ПОКОМ</t>
   </si>
@@ -405,7 +405,364 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Обычный 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="550">
+  <dxfs count="601">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4637,11 +4994,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD759"/>
+  <dimension ref="A1:AMD760"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P753" sqref="P753"/>
+      <selection pane="bottomLeft" activeCell="K763" sqref="K763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26404,7 +26761,7 @@
         <v>750</v>
       </c>
       <c r="B754" s="7" t="str">
-        <f t="shared" ref="B754:B759" si="113">IF(C754&lt;&gt;"",TEXT(C754,"ДДД"),"")</f>
+        <f t="shared" ref="B754:B760" si="113">IF(C754&lt;&gt;"",TEXT(C754,"ДДД"),"")</f>
         <v>Пн</v>
       </c>
       <c r="C754" s="8">
@@ -26470,10 +26827,18 @@
       <c r="E756" s="10"/>
       <c r="F756" s="11"/>
       <c r="G756" s="12"/>
-      <c r="H756" s="11"/>
-      <c r="I756" s="12"/>
-      <c r="J756" s="11"/>
-      <c r="K756" s="12"/>
+      <c r="H756" s="11">
+        <v>5200</v>
+      </c>
+      <c r="I756" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J756" s="11">
+        <v>7300</v>
+      </c>
+      <c r="K756" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
@@ -26486,10 +26851,18 @@
       <c r="C757" s="8">
         <v>45967</v>
       </c>
-      <c r="D757" s="9"/>
-      <c r="E757" s="10"/>
-      <c r="F757" s="11"/>
-      <c r="G757" s="12"/>
+      <c r="D757" s="9">
+        <v>4000</v>
+      </c>
+      <c r="E757" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F757" s="11">
+        <v>2100</v>
+      </c>
+      <c r="G757" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="H757" s="11"/>
       <c r="I757" s="12"/>
       <c r="J757" s="11"/>
@@ -26500,20 +26873,36 @@
         <v>754</v>
       </c>
       <c r="B758" s="7" t="str">
-        <f t="shared" si="113"/>
-        <v>Пт</v>
+        <f t="shared" ref="B758" si="114">IF(C758&lt;&gt;"",TEXT(C758,"ДДД"),"")</f>
+        <v>Чт</v>
       </c>
       <c r="C758" s="8">
-        <v>45968</v>
-      </c>
-      <c r="D758" s="9"/>
-      <c r="E758" s="10"/>
-      <c r="F758" s="11"/>
-      <c r="G758" s="12"/>
-      <c r="H758" s="11"/>
-      <c r="I758" s="12"/>
-      <c r="J758" s="11"/>
-      <c r="K758" s="12"/>
+        <v>45967</v>
+      </c>
+      <c r="D758" s="9">
+        <v>2800</v>
+      </c>
+      <c r="E758" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F758" s="11">
+        <v>5900</v>
+      </c>
+      <c r="G758" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H758" s="11">
+        <v>3600</v>
+      </c>
+      <c r="I758" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J758" s="11">
+        <v>3900</v>
+      </c>
+      <c r="K758" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
@@ -26521,10 +26910,10 @@
       </c>
       <c r="B759" s="7" t="str">
         <f t="shared" si="113"/>
-        <v>Сб</v>
+        <v>Пт</v>
       </c>
       <c r="C759" s="8">
-        <v>45969</v>
+        <v>45968</v>
       </c>
       <c r="D759" s="9"/>
       <c r="E759" s="10"/>
@@ -26535,1744 +26924,2019 @@
       <c r="J759" s="11"/>
       <c r="K759" s="12"/>
     </row>
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A760" s="1">
+        <v>756</v>
+      </c>
+      <c r="B760" s="7" t="str">
+        <f t="shared" si="113"/>
+        <v>Сб</v>
+      </c>
+      <c r="C760" s="8">
+        <v>45969</v>
+      </c>
+      <c r="D760" s="9"/>
+      <c r="E760" s="10"/>
+      <c r="F760" s="11"/>
+      <c r="G760" s="12"/>
+      <c r="H760" s="11"/>
+      <c r="I760" s="12"/>
+      <c r="J760" s="11"/>
+      <c r="K760" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E759">
-    <cfRule type="expression" dxfId="549" priority="343">
+  <conditionalFormatting sqref="B4:E760">
+    <cfRule type="expression" dxfId="600" priority="394">
       <formula>$C4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M683 B684:K759">
-    <cfRule type="expression" dxfId="548" priority="344">
+  <conditionalFormatting sqref="B4:M683 B684:K760">
+    <cfRule type="expression" dxfId="599" priority="395">
       <formula>$B4=TEXT(TODAY(),"ДДД")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="547" priority="357">
+    <cfRule type="expression" dxfId="598" priority="408">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G661">
-    <cfRule type="expression" dxfId="546" priority="341">
+    <cfRule type="expression" dxfId="597" priority="392">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:I129">
-    <cfRule type="expression" dxfId="545" priority="360">
+    <cfRule type="expression" dxfId="596" priority="411">
       <formula>$C128=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="544" priority="358">
+    <cfRule type="expression" dxfId="595" priority="409">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I661">
-    <cfRule type="expression" dxfId="543" priority="340">
+    <cfRule type="expression" dxfId="594" priority="391">
       <formula>$C661=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="542" priority="359">
+    <cfRule type="expression" dxfId="593" priority="410">
       <formula>$C34=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K661">
+    <cfRule type="expression" dxfId="592" priority="390">
+      <formula>$C661=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G670">
+    <cfRule type="expression" dxfId="591" priority="389">
+      <formula>$C670=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I670">
+    <cfRule type="expression" dxfId="590" priority="388">
+      <formula>$C670=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K670">
+    <cfRule type="expression" dxfId="589" priority="387">
+      <formula>$C670=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G678">
+    <cfRule type="expression" dxfId="588" priority="386">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E678">
+    <cfRule type="expression" dxfId="587" priority="385">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I678">
+    <cfRule type="expression" dxfId="586" priority="384">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K678">
+    <cfRule type="expression" dxfId="585" priority="383">
+      <formula>$C678=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G686">
+    <cfRule type="expression" dxfId="584" priority="382">
+      <formula>$C686=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I686">
+    <cfRule type="expression" dxfId="583" priority="381">
+      <formula>$C686=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K686">
+    <cfRule type="expression" dxfId="582" priority="380">
+      <formula>$C686=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G691">
+    <cfRule type="expression" dxfId="581" priority="379">
+      <formula>$C691=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I691">
+    <cfRule type="expression" dxfId="580" priority="378">
+      <formula>$C691=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K691">
+    <cfRule type="expression" dxfId="579" priority="377">
+      <formula>$C691=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E693">
+    <cfRule type="expression" dxfId="578" priority="376">
+      <formula>$C693=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G693">
+    <cfRule type="expression" dxfId="577" priority="375">
+      <formula>$C693=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I693">
+    <cfRule type="expression" dxfId="576" priority="374">
+      <formula>$C693=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K693">
+    <cfRule type="expression" dxfId="575" priority="373">
+      <formula>$C693=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E694">
+    <cfRule type="expression" dxfId="574" priority="372">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G694">
+    <cfRule type="expression" dxfId="573" priority="371">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I694">
+    <cfRule type="expression" dxfId="572" priority="370">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K694">
+    <cfRule type="expression" dxfId="571" priority="369">
+      <formula>$C694=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G699">
+    <cfRule type="expression" dxfId="570" priority="368">
+      <formula>$C699=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I699">
+    <cfRule type="expression" dxfId="569" priority="367">
+      <formula>$C699=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K699">
+    <cfRule type="expression" dxfId="568" priority="366">
+      <formula>$C699=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G701">
+    <cfRule type="expression" dxfId="567" priority="365">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I701">
+    <cfRule type="expression" dxfId="566" priority="364">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K701">
+    <cfRule type="expression" dxfId="565" priority="363">
+      <formula>$C701=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K702">
+    <cfRule type="expression" dxfId="564" priority="362">
+      <formula>$C702=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I702">
+    <cfRule type="expression" dxfId="563" priority="361">
+      <formula>$C702=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G702">
+    <cfRule type="expression" dxfId="562" priority="360">
+      <formula>$C702=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E702">
+    <cfRule type="expression" dxfId="561" priority="359">
+      <formula>$C702=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I707">
+    <cfRule type="expression" dxfId="560" priority="358">
+      <formula>$C707=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K707">
+    <cfRule type="expression" dxfId="559" priority="357">
+      <formula>$C707=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G707">
+    <cfRule type="expression" dxfId="558" priority="356">
+      <formula>$C707=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E707">
+    <cfRule type="expression" dxfId="557" priority="355">
+      <formula>$C707=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E709">
+    <cfRule type="expression" dxfId="556" priority="354">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G709">
+    <cfRule type="expression" dxfId="555" priority="353">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G709">
+    <cfRule type="expression" dxfId="554" priority="352">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I709">
+    <cfRule type="expression" dxfId="553" priority="351">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I709">
+    <cfRule type="expression" dxfId="552" priority="350">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K709">
+    <cfRule type="expression" dxfId="551" priority="349">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K709">
+    <cfRule type="expression" dxfId="550" priority="348">
+      <formula>$C709=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E710">
+    <cfRule type="expression" dxfId="549" priority="347">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G710">
+    <cfRule type="expression" dxfId="548" priority="346">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I710">
+    <cfRule type="expression" dxfId="547" priority="345">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K710">
+    <cfRule type="expression" dxfId="546" priority="344">
+      <formula>$C710=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E715">
+    <cfRule type="expression" dxfId="545" priority="343">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G715">
+    <cfRule type="expression" dxfId="544" priority="342">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G715">
+    <cfRule type="expression" dxfId="543" priority="341">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I715">
+    <cfRule type="expression" dxfId="542" priority="340">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I715">
     <cfRule type="expression" dxfId="541" priority="339">
-      <formula>$C661=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G670">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K715:K718">
     <cfRule type="expression" dxfId="540" priority="338">
-      <formula>$C670=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I670">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K715:K718">
     <cfRule type="expression" dxfId="539" priority="337">
-      <formula>$C670=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K670">
+      <formula>$C715=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I717:I718">
     <cfRule type="expression" dxfId="538" priority="336">
-      <formula>$C670=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G678">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I717:I718">
     <cfRule type="expression" dxfId="537" priority="335">
-      <formula>$C678=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E678">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G717:G718">
     <cfRule type="expression" dxfId="536" priority="334">
-      <formula>$C678=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I678">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G717:G718">
     <cfRule type="expression" dxfId="535" priority="333">
-      <formula>$C678=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K678">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E717:E718">
     <cfRule type="expression" dxfId="534" priority="332">
-      <formula>$C678=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G686">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E717:E718">
     <cfRule type="expression" dxfId="533" priority="331">
-      <formula>$C686=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I686">
+      <formula>$C717=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G718">
     <cfRule type="expression" dxfId="532" priority="330">
-      <formula>$C686=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K686">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G718">
     <cfRule type="expression" dxfId="531" priority="329">
-      <formula>$C686=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G691">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G718">
     <cfRule type="expression" dxfId="530" priority="328">
-      <formula>$C691=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I691">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I718">
     <cfRule type="expression" dxfId="529" priority="327">
-      <formula>$C691=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K691">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I718">
     <cfRule type="expression" dxfId="528" priority="326">
-      <formula>$C691=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E693">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I718">
     <cfRule type="expression" dxfId="527" priority="325">
-      <formula>$C693=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G693">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K718">
     <cfRule type="expression" dxfId="526" priority="324">
-      <formula>$C693=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I693">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K718">
     <cfRule type="expression" dxfId="525" priority="323">
-      <formula>$C693=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K693">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K718">
     <cfRule type="expression" dxfId="524" priority="322">
-      <formula>$C693=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E694">
+      <formula>$C718=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E723">
     <cfRule type="expression" dxfId="523" priority="321">
-      <formula>$C694=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G694">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E723">
     <cfRule type="expression" dxfId="522" priority="320">
-      <formula>$C694=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I694">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
     <cfRule type="expression" dxfId="521" priority="319">
-      <formula>$C694=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K694">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
     <cfRule type="expression" dxfId="520" priority="318">
-      <formula>$C694=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G699">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G723">
     <cfRule type="expression" dxfId="519" priority="317">
-      <formula>$C699=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I699">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723:I724">
     <cfRule type="expression" dxfId="518" priority="316">
-      <formula>$C699=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K699">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723:I724">
     <cfRule type="expression" dxfId="517" priority="315">
-      <formula>$C699=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G701">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I723:I724">
     <cfRule type="expression" dxfId="516" priority="314">
-      <formula>$C701=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I701">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
     <cfRule type="expression" dxfId="515" priority="313">
-      <formula>$C701=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K701">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
     <cfRule type="expression" dxfId="514" priority="312">
-      <formula>$C701=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K702">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K723">
     <cfRule type="expression" dxfId="513" priority="311">
-      <formula>$C702=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I702">
+      <formula>$C723=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K725:K726">
     <cfRule type="expression" dxfId="512" priority="310">
-      <formula>$C702=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G702">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K725:K726">
     <cfRule type="expression" dxfId="511" priority="309">
-      <formula>$C702=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E702">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K725:K726">
     <cfRule type="expression" dxfId="510" priority="308">
-      <formula>$C702=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I707">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
     <cfRule type="expression" dxfId="509" priority="307">
-      <formula>$C707=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K707">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
     <cfRule type="expression" dxfId="508" priority="306">
-      <formula>$C707=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G707">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I725:I726">
     <cfRule type="expression" dxfId="507" priority="305">
-      <formula>$C707=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E707">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
     <cfRule type="expression" dxfId="506" priority="304">
-      <formula>$C707=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
     <cfRule type="expression" dxfId="505" priority="303">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G725:G726">
     <cfRule type="expression" dxfId="504" priority="302">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
     <cfRule type="expression" dxfId="503" priority="301">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
     <cfRule type="expression" dxfId="502" priority="300">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E725:E726">
     <cfRule type="expression" dxfId="501" priority="299">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K709">
+      <formula>$C725=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E726">
     <cfRule type="expression" dxfId="500" priority="298">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K709">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E726">
     <cfRule type="expression" dxfId="499" priority="297">
-      <formula>$C709=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E710">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
     <cfRule type="expression" dxfId="498" priority="296">
-      <formula>$C710=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G710">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
     <cfRule type="expression" dxfId="497" priority="295">
-      <formula>$C710=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I710">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G726">
     <cfRule type="expression" dxfId="496" priority="294">
-      <formula>$C710=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K710">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
     <cfRule type="expression" dxfId="495" priority="293">
-      <formula>$C710=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E715">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
     <cfRule type="expression" dxfId="494" priority="292">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G715">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I726">
     <cfRule type="expression" dxfId="493" priority="291">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G715">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
     <cfRule type="expression" dxfId="492" priority="290">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I715">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
     <cfRule type="expression" dxfId="491" priority="289">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I715">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K726">
     <cfRule type="expression" dxfId="490" priority="288">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K715:K718">
+      <formula>$C726=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731">
     <cfRule type="expression" dxfId="489" priority="287">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K715:K718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731">
     <cfRule type="expression" dxfId="488" priority="286">
-      <formula>$C715=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I717:I718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E731">
     <cfRule type="expression" dxfId="487" priority="285">
-      <formula>$C717=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I717:I718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
     <cfRule type="expression" dxfId="486" priority="284">
-      <formula>$C717=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G717:G718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
     <cfRule type="expression" dxfId="485" priority="283">
-      <formula>$C717=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G717:G718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
     <cfRule type="expression" dxfId="484" priority="282">
-      <formula>$C717=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E717:E718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G731">
     <cfRule type="expression" dxfId="483" priority="281">
-      <formula>$C717=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E717:E718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
     <cfRule type="expression" dxfId="482" priority="280">
-      <formula>$C717=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
     <cfRule type="expression" dxfId="481" priority="279">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
     <cfRule type="expression" dxfId="480" priority="278">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I731:I732">
     <cfRule type="expression" dxfId="479" priority="277">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="478" priority="276">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="477" priority="275">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="476" priority="274">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K731">
     <cfRule type="expression" dxfId="475" priority="273">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K718">
+      <formula>$C731=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
     <cfRule type="expression" dxfId="474" priority="272">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K718">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
     <cfRule type="expression" dxfId="473" priority="271">
-      <formula>$C718=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
     <cfRule type="expression" dxfId="472" priority="270">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K733">
     <cfRule type="expression" dxfId="471" priority="269">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
     <cfRule type="expression" dxfId="470" priority="268">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
     <cfRule type="expression" dxfId="469" priority="267">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
     <cfRule type="expression" dxfId="468" priority="266">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I723:I724">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I733">
     <cfRule type="expression" dxfId="467" priority="265">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I723:I724">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
     <cfRule type="expression" dxfId="466" priority="264">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I723:I724">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
     <cfRule type="expression" dxfId="465" priority="263">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
     <cfRule type="expression" dxfId="464" priority="262">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G733">
     <cfRule type="expression" dxfId="463" priority="261">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K723">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733">
     <cfRule type="expression" dxfId="462" priority="260">
-      <formula>$C723=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K725:K726">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733">
     <cfRule type="expression" dxfId="461" priority="259">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K725:K726">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733">
     <cfRule type="expression" dxfId="460" priority="258">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K725:K726">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733">
     <cfRule type="expression" dxfId="459" priority="257">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I725:I726">
+      <formula>$C733=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
     <cfRule type="expression" dxfId="458" priority="256">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I725:I726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
     <cfRule type="expression" dxfId="457" priority="255">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I725:I726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
     <cfRule type="expression" dxfId="456" priority="254">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G725:G726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
     <cfRule type="expression" dxfId="455" priority="253">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G725:G726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E734">
     <cfRule type="expression" dxfId="454" priority="252">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G725:G726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="453" priority="251">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="452" priority="250">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="451" priority="249">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="450" priority="248">
-      <formula>$C725=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="449" priority="247">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G734">
     <cfRule type="expression" dxfId="448" priority="246">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="447" priority="245">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="446" priority="244">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="445" priority="243">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="444" priority="242">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="443" priority="241">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I734">
     <cfRule type="expression" dxfId="442" priority="240">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="441" priority="239">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="440" priority="238">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K726">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="439" priority="237">
-      <formula>$C726=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E731">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="438" priority="236">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E731">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="437" priority="235">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E731">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K734">
     <cfRule type="expression" dxfId="436" priority="234">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+      <formula>$C734=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
     <cfRule type="expression" dxfId="435" priority="233">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
     <cfRule type="expression" dxfId="434" priority="232">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
     <cfRule type="expression" dxfId="433" priority="231">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G731">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
     <cfRule type="expression" dxfId="432" priority="230">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I736">
     <cfRule type="expression" dxfId="431" priority="229">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
     <cfRule type="expression" dxfId="430" priority="228">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
     <cfRule type="expression" dxfId="429" priority="227">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I731:I732">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
     <cfRule type="expression" dxfId="428" priority="226">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
     <cfRule type="expression" dxfId="427" priority="225">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K736">
     <cfRule type="expression" dxfId="426" priority="224">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
+      <formula>$C736=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
     <cfRule type="expression" dxfId="425" priority="223">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K731">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
     <cfRule type="expression" dxfId="424" priority="222">
-      <formula>$C731=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
     <cfRule type="expression" dxfId="423" priority="221">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E739">
     <cfRule type="expression" dxfId="422" priority="220">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
     <cfRule type="expression" dxfId="421" priority="219">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
     <cfRule type="expression" dxfId="420" priority="218">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
     <cfRule type="expression" dxfId="419" priority="217">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
     <cfRule type="expression" dxfId="418" priority="216">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G739">
     <cfRule type="expression" dxfId="417" priority="215">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="416" priority="214">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="415" priority="213">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="414" priority="212">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="413" priority="211">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I739">
     <cfRule type="expression" dxfId="412" priority="210">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="411" priority="209">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="410" priority="208">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="409" priority="207">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E733">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="408" priority="206">
-      <formula>$C733=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K739">
     <cfRule type="expression" dxfId="407" priority="205">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+      <formula>$C739=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E741">
     <cfRule type="expression" dxfId="406" priority="204">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E741">
     <cfRule type="expression" dxfId="405" priority="203">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E741">
     <cfRule type="expression" dxfId="404" priority="202">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E741">
     <cfRule type="expression" dxfId="403" priority="201">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
     <cfRule type="expression" dxfId="402" priority="200">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
     <cfRule type="expression" dxfId="401" priority="199">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
     <cfRule type="expression" dxfId="400" priority="198">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
     <cfRule type="expression" dxfId="399" priority="197">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G741">
     <cfRule type="expression" dxfId="398" priority="196">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
     <cfRule type="expression" dxfId="397" priority="195">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
     <cfRule type="expression" dxfId="396" priority="194">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
     <cfRule type="expression" dxfId="395" priority="193">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
     <cfRule type="expression" dxfId="394" priority="192">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I741">
     <cfRule type="expression" dxfId="393" priority="191">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
     <cfRule type="expression" dxfId="392" priority="190">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
     <cfRule type="expression" dxfId="391" priority="189">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
     <cfRule type="expression" dxfId="390" priority="188">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
     <cfRule type="expression" dxfId="389" priority="187">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K741">
     <cfRule type="expression" dxfId="388" priority="186">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
+      <formula>$C741=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
     <cfRule type="expression" dxfId="387" priority="185">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
     <cfRule type="expression" dxfId="386" priority="184">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K734">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
     <cfRule type="expression" dxfId="385" priority="183">
-      <formula>$C734=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I736">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
     <cfRule type="expression" dxfId="384" priority="182">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I736">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I740">
     <cfRule type="expression" dxfId="383" priority="181">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I736">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
     <cfRule type="expression" dxfId="382" priority="180">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I736">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
     <cfRule type="expression" dxfId="381" priority="179">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I736">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
     <cfRule type="expression" dxfId="380" priority="178">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K736">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
     <cfRule type="expression" dxfId="379" priority="177">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K736">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
     <cfRule type="expression" dxfId="378" priority="176">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K736">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E742">
     <cfRule type="expression" dxfId="377" priority="175">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K736">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
     <cfRule type="expression" dxfId="376" priority="174">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K736">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
     <cfRule type="expression" dxfId="375" priority="173">
-      <formula>$C736=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
     <cfRule type="expression" dxfId="374" priority="172">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
     <cfRule type="expression" dxfId="373" priority="171">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
     <cfRule type="expression" dxfId="372" priority="170">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G742">
     <cfRule type="expression" dxfId="371" priority="169">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
     <cfRule type="expression" dxfId="370" priority="168">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
     <cfRule type="expression" dxfId="369" priority="167">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
     <cfRule type="expression" dxfId="368" priority="166">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
     <cfRule type="expression" dxfId="367" priority="165">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
     <cfRule type="expression" dxfId="366" priority="164">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I742">
     <cfRule type="expression" dxfId="365" priority="163">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
     <cfRule type="expression" dxfId="364" priority="162">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
     <cfRule type="expression" dxfId="363" priority="161">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
     <cfRule type="expression" dxfId="362" priority="160">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
     <cfRule type="expression" dxfId="361" priority="159">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
     <cfRule type="expression" dxfId="360" priority="158">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K742">
     <cfRule type="expression" dxfId="359" priority="157">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
+      <formula>$C742=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
     <cfRule type="expression" dxfId="358" priority="156">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
     <cfRule type="expression" dxfId="357" priority="155">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K739">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
     <cfRule type="expression" dxfId="356" priority="154">
-      <formula>$C739=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E741">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
     <cfRule type="expression" dxfId="355" priority="153">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E741">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K740">
     <cfRule type="expression" dxfId="354" priority="152">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E741">
+      <formula>$C740=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
     <cfRule type="expression" dxfId="353" priority="151">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
     <cfRule type="expression" dxfId="352" priority="150">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
     <cfRule type="expression" dxfId="351" priority="149">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
     <cfRule type="expression" dxfId="350" priority="148">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I744">
     <cfRule type="expression" dxfId="349" priority="147">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
     <cfRule type="expression" dxfId="348" priority="146">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
     <cfRule type="expression" dxfId="347" priority="145">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I741">
+      <formula>$C744=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K744">
     <cfRule type="expression" dxfId="346" priority="144">
-      <formula>$C741=TODAY()</formula>
-    </cfRule>
-  </condi